--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12113D31-681E-43FC-B12F-8ED9262DE231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2159AC-62FF-40D6-AFAB-7CF6559C90B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Pobl. área de Influencia" sheetId="1" r:id="rId1"/>
+    <sheet name="Pobl. Ingresante Total" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="338">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -799,6 +801,296 @@
   </si>
   <si>
     <t>Proporción de población referencial del área de influencia (17 - 35 años)</t>
+  </si>
+  <si>
+    <t>PROCEDENCIA DE ALUMNOS</t>
+  </si>
+  <si>
+    <t>POBLACION 2017</t>
+  </si>
+  <si>
+    <t>pacobamba</t>
+  </si>
+  <si>
+    <t>ccallaspuquio</t>
+  </si>
+  <si>
+    <t>huascatay</t>
+  </si>
+  <si>
+    <t>pumararcco</t>
+  </si>
+  <si>
+    <t>matapuquio</t>
+  </si>
+  <si>
+    <t>colpa</t>
+  </si>
+  <si>
+    <t>DISTRITO DE KISHUARA</t>
+  </si>
+  <si>
+    <t>DISTRITO DE PACOBAMBA</t>
+  </si>
+  <si>
+    <t>malinas</t>
+  </si>
+  <si>
+    <t>huirunay</t>
+  </si>
+  <si>
+    <t>cruzpampa</t>
+  </si>
+  <si>
+    <t>ccerabamba</t>
+  </si>
+  <si>
+    <t>sonoca</t>
+  </si>
+  <si>
+    <t>andina</t>
+  </si>
+  <si>
+    <t>% de participacion por edades (17-35 años)</t>
+  </si>
+  <si>
+    <t>EDADES DE 17 - 35 años</t>
+  </si>
+  <si>
+    <t>Fuente:</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadística e Informática (INEI). Censos Nacionales 2017: XII de Población, VII de Vivienda y III de Comunidades Indígenas</t>
+  </si>
+  <si>
+    <t>Total Población</t>
+  </si>
+  <si>
+    <t>PER. 0</t>
+  </si>
+  <si>
+    <t>HORIZONTE (AÑOS)</t>
+  </si>
+  <si>
+    <t>RELACIÓN DE PRCEDENCIA DE ALUMONOS AL ISTP ALFRESO SARMIENTO PALOMINO</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>Matrícula por periodo según ciclo, 2005-2019</t>
+  </si>
+  <si>
+    <t>ALFREDO SARMIENTO PALOMINO</t>
+  </si>
+  <si>
+    <t>ódigo modular</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Avenida Bolivar S/N</t>
+  </si>
+  <si>
+    <t>Anexo</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Código de local</t>
+  </si>
+  <si>
+    <t>Centro Poblado</t>
+  </si>
+  <si>
+    <t>Nivel/Modalidad</t>
+  </si>
+  <si>
+    <t>Superior Tecnológica</t>
+  </si>
+  <si>
+    <t>Área Censal (500 Habitantes)</t>
+  </si>
+  <si>
+    <t>Urbana</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Escolarizado</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Huancarama</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Mixto</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Andahuaylas</t>
+  </si>
+  <si>
+    <t>Tipo de Gestión</t>
+  </si>
+  <si>
+    <t>Pública de gestión directa</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Apurímac</t>
+  </si>
+  <si>
+    <t>Gestión / Dependencia</t>
+  </si>
+  <si>
+    <t>Pública - Sector Educación</t>
+  </si>
+  <si>
+    <t>Código de DRE o UGEL que supervisa el S. E.</t>
+  </si>
+  <si>
+    <t>Director(a)</t>
+  </si>
+  <si>
+    <t>Sanchez Rojas Virgilio</t>
+  </si>
+  <si>
+    <t>Nombre de la DRE o UGEL que supervisa el S.E.</t>
+  </si>
+  <si>
+    <t>DRE Apurímac</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Característica (Censo Educativo 2019)</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Página web</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Continuo sólo en la mañana</t>
+  </si>
+  <si>
+    <t>Tipo de programa</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En el área de influencia solamente se tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Instituto Superior Tecnologico Público</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>, por tanto se considera la cantidad de postulantes a dicha ISTP</t>
+    </r>
+  </si>
+  <si>
+    <t>Postulantes al ISP</t>
+  </si>
+  <si>
+    <t>Ingresantes</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN CIVIL</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS ALIMENTARIAS</t>
   </si>
 </sst>
 </file>
@@ -809,7 +1101,7 @@
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,11 +1228,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -958,8 +1245,92 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF999999"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,8 +1373,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D2D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1039,6 +1452,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF98A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF98A0A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF98A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1046,7 +1649,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1102,9 +1705,6 @@
     <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,95 +1717,229 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1225,6 +1959,1406 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293770</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A038869-8B53-4635-A9AA-D563DBFEB2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9228220" y="14470380"/>
+          <a:ext cx="7623410" cy="5989320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260070</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371767</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>84400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE46882-BE54-4018-B4C2-52A8ECF0AA09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8352510" y="22928580"/>
+          <a:ext cx="7632637" cy="6271840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>746759</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Elipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC420E7-9A62-4FFF-98F1-52927DCB3C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12832080" y="25184100"/>
+          <a:ext cx="45719" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Elipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36C324C-76C9-48F1-98A5-F9F0736C20E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9151620" y="23385780"/>
+          <a:ext cx="624840" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Elipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2362E2-0FB5-458E-817F-05BF8E109A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="24734520"/>
+          <a:ext cx="624840" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Elipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7055A1-F8CE-48D7-943E-7AF8E1DF3E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="26502360"/>
+          <a:ext cx="624840" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Elipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB869D10-E94B-496A-92A8-102964D682F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11399520" y="26189940"/>
+          <a:ext cx="426720" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Elipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964F7856-23C7-4168-BD52-4AA1E03BB982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12793980" y="26563320"/>
+          <a:ext cx="327660" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Elipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69C6148-1C9B-42F1-89FE-2F5B97B0E3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11780520" y="25024080"/>
+          <a:ext cx="327660" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Elipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67882E86-3175-4128-A9FC-F35CBAEB4114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10111740" y="24894540"/>
+          <a:ext cx="327660" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Elipse 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72C833C-4B22-4ED7-A3D0-1ADFD3022426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12123420" y="26395680"/>
+          <a:ext cx="327660" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Elipse 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D26DDE8-439D-42AA-A6EA-735618232CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9966960" y="26167080"/>
+          <a:ext cx="327660" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1089660</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>242308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358206</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8B1C94-CC13-4A85-8C36-119A65EA6300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1089660" y="23750008"/>
+          <a:ext cx="8153466" cy="908312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647766</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>44188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C26F345-88F8-4F1F-88AF-FA7C0E8E0FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1127760" y="25031700"/>
+          <a:ext cx="10599486" cy="623308"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37353162-3BEA-4345-98C9-483D372C56F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5539740" y="24437340"/>
+          <a:ext cx="4735830" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>922020</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6359382-0C14-49B6-8B9A-F3719EE91AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1074420" y="24483060"/>
+          <a:ext cx="9890760" cy="2164080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>864870</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector recto de flecha 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9CC392-4DB6-4751-87C3-A48AE74E2950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1143000" y="25222200"/>
+          <a:ext cx="10801350" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto de flecha 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32406AE6-7C6C-4440-8D37-AD42E7F55142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1127760" y="24269700"/>
+          <a:ext cx="11045190" cy="2179320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector recto de flecha 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C15B9F-51EB-4FD8-9847-3523283EBD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1112520" y="25694640"/>
+          <a:ext cx="11681460" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector recto de flecha 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12875783-FDDF-4050-AAD8-9691141C1D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1066800" y="24947880"/>
+          <a:ext cx="10058400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1059180</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector recto de flecha 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4591F63E-9C3F-4CC9-A5E4-18BA12F77689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1059180" y="25351740"/>
+          <a:ext cx="10332720" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221046</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>120388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector recto de flecha 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B848577D-7F0C-4A39-91BD-35DFCE35741E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1066800" y="24833580"/>
+          <a:ext cx="10233726" cy="1949188"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>282006</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>173728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector recto de flecha 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1308E6FC-EC9F-423F-A245-ED3084D46FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1036320" y="25176480"/>
+          <a:ext cx="10325166" cy="608068"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1130025</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>68421</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Conector recto de flecha 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B5A191-C1CC-4FB8-9BCA-79E925261CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5570220" y="24300180"/>
+          <a:ext cx="4444725" cy="1904841"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1524,17 +3658,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B551877-24F7-41D0-8229-84CBFCFDD684}">
-  <dimension ref="A2:N120"/>
+  <dimension ref="A2:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView showGridLines="0" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5546875" style="6"/>
-    <col min="5" max="6" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="6"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
     <col min="7" max="9" width="11.5546875" style="6"/>
     <col min="10" max="10" width="11.5546875" style="1"/>
     <col min="11" max="11" width="16.88671875" style="1" customWidth="1"/>
@@ -1545,22 +3681,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K3" s="33"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="31" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1568,11 +3704,11 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="30" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1593,11 +3729,11 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="31" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1610,31 +3746,31 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="31" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="33">
         <v>7571</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="39" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -1643,16 +3779,16 @@
       <c r="I7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -1667,10 +3803,10 @@
       <c r="D8" s="8">
         <v>1.98</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="41">
         <v>61.20511776</v>
       </c>
       <c r="H8" s="17">
@@ -1679,13 +3815,13 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="24">
         <v>141</v>
       </c>
     </row>
@@ -1702,10 +3838,10 @@
       <c r="D9" s="8">
         <v>3.83</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="41">
         <v>71.223307731000006</v>
       </c>
       <c r="H9" s="17">
@@ -1714,11 +3850,11 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="27">
+      <c r="K9" s="51"/>
+      <c r="L9" s="25">
         <v>1</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="24">
         <v>144</v>
       </c>
     </row>
@@ -1735,10 +3871,10 @@
       <c r="D10" s="8">
         <v>6.32</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="41">
         <v>88.645163831999994</v>
       </c>
       <c r="H10" s="17">
@@ -1747,11 +3883,11 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="27">
+      <c r="K10" s="51"/>
+      <c r="L10" s="25">
         <v>2</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <v>146</v>
       </c>
     </row>
@@ -1768,10 +3904,10 @@
       <c r="D11" s="8">
         <v>8.75</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="41">
         <v>90.984633802000005</v>
       </c>
       <c r="H11" s="17">
@@ -1780,11 +3916,11 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="27">
+      <c r="K11" s="51"/>
+      <c r="L11" s="25">
         <v>3</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="24">
         <v>150</v>
       </c>
     </row>
@@ -1801,10 +3937,10 @@
       <c r="D12" s="8">
         <v>11.06</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="41">
         <v>83.320076107999995</v>
       </c>
       <c r="H12" s="17">
@@ -1813,11 +3949,11 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="27">
+      <c r="K12" s="51"/>
+      <c r="L12" s="25">
         <v>4</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="24">
         <v>151</v>
       </c>
     </row>
@@ -1834,10 +3970,10 @@
       <c r="D13" s="8">
         <v>13.22</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="41">
         <v>108.732145483</v>
       </c>
       <c r="H13" s="17">
@@ -1846,11 +3982,11 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27">
+      <c r="K13" s="51"/>
+      <c r="L13" s="25">
         <v>5</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="24">
         <v>157</v>
       </c>
     </row>
@@ -1867,10 +4003,10 @@
       <c r="D14" s="8">
         <v>15.4</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="41">
         <v>98.327682315999894</v>
       </c>
       <c r="H14" s="17">
@@ -1879,11 +4015,11 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="27">
+      <c r="K14" s="51"/>
+      <c r="L14" s="25">
         <v>6</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="24">
         <v>163</v>
       </c>
     </row>
@@ -1900,10 +4036,10 @@
       <c r="D15" s="8">
         <v>18.18</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="41">
         <v>123.766924914</v>
       </c>
       <c r="H15" s="17">
@@ -1912,11 +4048,11 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="27">
+      <c r="K15" s="51"/>
+      <c r="L15" s="25">
         <v>7</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="24">
         <v>166</v>
       </c>
     </row>
@@ -1933,10 +4069,10 @@
       <c r="D16" s="8">
         <v>20.99</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="41">
         <v>130.42843156699999</v>
       </c>
       <c r="H16" s="17">
@@ -1945,11 +4081,11 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="27">
+      <c r="K16" s="51"/>
+      <c r="L16" s="25">
         <v>8</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="24">
         <v>171</v>
       </c>
     </row>
@@ -1966,10 +4102,10 @@
       <c r="D17" s="8">
         <v>23.58</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="41">
         <v>113.43462688699999</v>
       </c>
       <c r="H17" s="17">
@@ -1978,11 +4114,11 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="27">
+      <c r="K17" s="51"/>
+      <c r="L17" s="25">
         <v>9</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="24">
         <v>175</v>
       </c>
     </row>
@@ -1999,10 +4135,10 @@
       <c r="D18" s="8">
         <v>26.76</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="41">
         <v>117.280682447</v>
       </c>
       <c r="H18" s="17">
@@ -2011,11 +4147,11 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="27">
+      <c r="K18" s="51"/>
+      <c r="L18" s="25">
         <v>10</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="24">
         <v>176</v>
       </c>
     </row>
@@ -2032,10 +4168,10 @@
       <c r="D19" s="8">
         <v>29.37</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="41">
         <v>127.39960676699999</v>
       </c>
       <c r="H19" s="17">
@@ -2044,11 +4180,11 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="27">
+      <c r="K19" s="51"/>
+      <c r="L19" s="25">
         <v>11</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="24">
         <v>179</v>
       </c>
     </row>
@@ -2065,10 +4201,10 @@
       <c r="D20" s="8">
         <v>32.76</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="41">
         <v>140.7865218</v>
       </c>
       <c r="H20" s="17">
@@ -2077,11 +4213,11 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="27">
+      <c r="K20" s="51"/>
+      <c r="L20" s="25">
         <v>12</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="24">
         <v>180</v>
       </c>
     </row>
@@ -2098,10 +4234,10 @@
       <c r="D21" s="8">
         <v>35.69</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="41">
         <v>132.411579488</v>
       </c>
       <c r="H21" s="17">
@@ -2110,11 +4246,11 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="27">
+      <c r="K21" s="51"/>
+      <c r="L21" s="25">
         <v>13</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="24">
         <v>171</v>
       </c>
     </row>
@@ -2131,10 +4267,10 @@
       <c r="D22" s="8">
         <v>38.54</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="41">
         <v>116.177599609</v>
       </c>
       <c r="H22" s="17">
@@ -2143,11 +4279,11 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="27">
+      <c r="K22" s="51"/>
+      <c r="L22" s="25">
         <v>14</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="24">
         <v>160</v>
       </c>
     </row>
@@ -2164,10 +4300,10 @@
       <c r="D23" s="8">
         <v>41.27</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="41">
         <v>113.42905879</v>
       </c>
       <c r="H23" s="17">
@@ -2176,11 +4312,11 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="27">
+      <c r="K23" s="51"/>
+      <c r="L23" s="25">
         <v>15</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="24">
         <v>148</v>
       </c>
     </row>
@@ -2197,10 +4333,10 @@
       <c r="D24" s="8">
         <v>43.67</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="41">
         <v>110.598495187</v>
       </c>
       <c r="H24" s="17">
@@ -2209,11 +4345,11 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="27">
+      <c r="K24" s="51"/>
+      <c r="L24" s="25">
         <v>16</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="24">
         <v>137</v>
       </c>
     </row>
@@ -2230,10 +4366,10 @@
       <c r="D25" s="8">
         <v>45.35</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="41">
         <v>97.899692595999994</v>
       </c>
       <c r="H25" s="17">
@@ -2242,11 +4378,11 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="27">
+      <c r="K25" s="51"/>
+      <c r="L25" s="25">
         <v>17</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="24">
         <v>127</v>
       </c>
     </row>
@@ -2263,10 +4399,10 @@
       <c r="D26" s="8">
         <v>47.15</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="41">
         <v>84.661018729999995</v>
       </c>
       <c r="H26" s="17">
@@ -2275,11 +4411,11 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="27">
+      <c r="K26" s="51"/>
+      <c r="L26" s="25">
         <v>18</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="24">
         <v>120</v>
       </c>
     </row>
@@ -2296,10 +4432,10 @@
       <c r="D27" s="8">
         <v>48.53</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="41">
         <v>67.847599031000001</v>
       </c>
       <c r="H27" s="17">
@@ -2308,11 +4444,11 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="27">
+      <c r="K27" s="51"/>
+      <c r="L27" s="25">
         <v>19</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="24">
         <v>113</v>
       </c>
     </row>
@@ -2329,10 +4465,10 @@
       <c r="D28" s="8">
         <v>50.01</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="41">
         <v>78.655387105000003</v>
       </c>
       <c r="H28" s="17">
@@ -2341,13 +4477,13 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="24">
         <v>494</v>
       </c>
     </row>
@@ -2364,10 +4500,10 @@
       <c r="D29" s="8">
         <v>50.97</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="41">
         <v>55.462349891000002</v>
       </c>
       <c r="H29" s="17">
@@ -2376,11 +4512,11 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29" t="s">
+      <c r="K29" s="52"/>
+      <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="24">
         <v>461</v>
       </c>
     </row>
@@ -2397,10 +4533,10 @@
       <c r="D30" s="8">
         <v>52.46</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="41">
         <v>72.367039203000104</v>
       </c>
       <c r="H30" s="17">
@@ -2409,11 +4545,11 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29" t="s">
+      <c r="K30" s="52"/>
+      <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="24">
         <v>715</v>
       </c>
     </row>
@@ -2430,10 +4566,10 @@
       <c r="D31" s="8">
         <v>53.77</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="41">
         <v>65.636881826000007</v>
       </c>
       <c r="H31" s="17">
@@ -2442,11 +4578,11 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29" t="s">
+      <c r="K31" s="52"/>
+      <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="24">
         <v>540</v>
       </c>
     </row>
@@ -2463,10 +4599,10 @@
       <c r="D32" s="8">
         <v>55.16</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="41">
         <v>65.353993833000004</v>
       </c>
       <c r="H32" s="17">
@@ -2475,11 +4611,11 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29" t="s">
+      <c r="K32" s="52"/>
+      <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="24">
         <v>480</v>
       </c>
     </row>
@@ -2496,10 +4632,10 @@
       <c r="D33" s="8">
         <v>56.26</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="41">
         <v>68.032841687000001</v>
       </c>
       <c r="H33" s="17">
@@ -2508,11 +4644,11 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29" t="s">
+      <c r="K33" s="52"/>
+      <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="24">
         <v>478</v>
       </c>
     </row>
@@ -2529,10 +4665,10 @@
       <c r="D34" s="8">
         <v>57.46</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="41">
         <v>42.337202611000002</v>
       </c>
       <c r="H34" s="17">
@@ -2541,11 +4677,11 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29" t="s">
+      <c r="K34" s="52"/>
+      <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="24">
         <v>352</v>
       </c>
     </row>
@@ -2562,10 +4698,10 @@
       <c r="D35" s="8">
         <v>58.79</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="41">
         <v>62.301469204</v>
       </c>
       <c r="H35" s="17">
@@ -2574,11 +4710,11 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29" t="s">
+      <c r="K35" s="52"/>
+      <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="24">
         <v>273</v>
       </c>
     </row>
@@ -2595,10 +4731,10 @@
       <c r="D36" s="8">
         <v>59.65</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="41">
         <v>51.110477089</v>
       </c>
       <c r="H36" s="17">
@@ -2607,11 +4743,11 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29" t="s">
+      <c r="K36" s="52"/>
+      <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="24">
         <v>227</v>
       </c>
     </row>
@@ -2628,10 +4764,10 @@
       <c r="D37" s="8">
         <v>60.58</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="41">
         <v>61.381029308000002</v>
       </c>
       <c r="H37" s="17">
@@ -2640,11 +4776,11 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29" t="s">
+      <c r="K37" s="52"/>
+      <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="24">
         <v>169</v>
       </c>
     </row>
@@ -2661,10 +4797,10 @@
       <c r="D38" s="8">
         <v>61.88</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="41">
         <v>58.153155386999998</v>
       </c>
       <c r="H38" s="17">
@@ -2673,11 +4809,11 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29" t="s">
+      <c r="K38" s="52"/>
+      <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="24">
         <v>134</v>
       </c>
     </row>
@@ -2694,10 +4830,10 @@
       <c r="D39" s="8">
         <v>62.94</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="41">
         <v>64.700426520999997</v>
       </c>
       <c r="H39" s="17">
@@ -2706,11 +4842,11 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29" t="s">
+      <c r="K39" s="52"/>
+      <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="24">
         <v>94</v>
       </c>
     </row>
@@ -2727,10 +4863,10 @@
       <c r="D40" s="8">
         <v>64.180000000000007</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="41">
         <v>65.420184789000004</v>
       </c>
       <c r="H40" s="17">
@@ -2739,11 +4875,11 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29" t="s">
+      <c r="K40" s="52"/>
+      <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="24">
         <v>79</v>
       </c>
     </row>
@@ -2760,10 +4896,10 @@
       <c r="D41" s="8">
         <v>65.569999999999993</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="41">
         <v>66.711077805000002</v>
       </c>
       <c r="H41" s="17">
@@ -2786,10 +4922,10 @@
       <c r="D42" s="8">
         <v>66.77</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="41">
         <v>64.077892242000004</v>
       </c>
       <c r="H42" s="17">
@@ -2798,7 +4934,7 @@
       <c r="I42" s="17">
         <v>0.55377014655256795</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="34" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2815,10 +4951,10 @@
       <c r="D43" s="8">
         <v>68.08</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="41">
         <v>50.995206236000001</v>
       </c>
       <c r="H43" s="17">
@@ -2827,7 +4963,7 @@
       <c r="I43" s="17">
         <v>0.56312020581565103</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="35" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2844,10 +4980,10 @@
       <c r="D44" s="8">
         <v>69.069999999999993</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="41">
         <v>71.045251907999997</v>
       </c>
       <c r="H44" s="17">
@@ -2856,7 +4992,7 @@
       <c r="I44" s="17">
         <v>0.57614647563062804</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="36" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2873,10 +5009,10 @@
       <c r="D45" s="8">
         <v>70.3</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="47">
+      <c r="G45" s="41">
         <v>75.004504385000004</v>
       </c>
       <c r="H45" s="17">
@@ -2885,7 +5021,7 @@
       <c r="I45" s="17">
         <v>0.58989868123506195</v>
       </c>
-      <c r="N45" s="30"/>
+      <c r="N45" s="27"/>
     </row>
     <row r="46" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -2900,10 +5036,10 @@
       <c r="D46" s="8">
         <v>71.81</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="41">
         <v>57.084682880999999</v>
       </c>
       <c r="H46" s="17">
@@ -2912,7 +5048,7 @@
       <c r="I46" s="17">
         <v>0.60036525657317497</v>
       </c>
-      <c r="N46" s="30"/>
+      <c r="N46" s="27"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
@@ -2927,10 +5063,10 @@
       <c r="D47" s="8">
         <v>72.86</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="41">
         <v>40.824525172999998</v>
       </c>
       <c r="H47" s="17">
@@ -2953,10 +5089,10 @@
       <c r="D48" s="8">
         <v>74.650000000000006</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="41">
         <v>75.238398793000002</v>
       </c>
       <c r="H48" s="17">
@@ -2979,10 +5115,10 @@
       <c r="D49" s="8">
         <v>75.8</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="47">
+      <c r="G49" s="41">
         <v>68.644337894000003</v>
       </c>
       <c r="H49" s="17">
@@ -3005,10 +5141,10 @@
       <c r="D50" s="8">
         <v>76.599999999999994</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="47">
+      <c r="G50" s="41">
         <v>72.489912509999996</v>
       </c>
       <c r="H50" s="17">
@@ -3031,10 +5167,10 @@
       <c r="D51" s="8">
         <v>77.61</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="47">
+      <c r="G51" s="41">
         <v>64.389838698000005</v>
       </c>
       <c r="H51" s="17">
@@ -3057,10 +5193,10 @@
       <c r="D52" s="8">
         <v>78.33</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G52" s="47">
+      <c r="G52" s="41">
         <v>70.213450374000004</v>
       </c>
       <c r="H52" s="17">
@@ -3083,10 +5219,10 @@
       <c r="D53" s="8">
         <v>79.430000000000007</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="47">
+      <c r="G53" s="41">
         <v>61.693932175999997</v>
       </c>
       <c r="H53" s="17">
@@ -3109,10 +5245,10 @@
       <c r="D54" s="8">
         <v>80.400000000000006</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="47">
+      <c r="G54" s="41">
         <v>77.238295077999993</v>
       </c>
       <c r="H54" s="17">
@@ -3135,10 +5271,10 @@
       <c r="D55" s="8">
         <v>81.55</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="G55" s="47">
+      <c r="G55" s="41">
         <v>66.804834307999997</v>
       </c>
       <c r="H55" s="17">
@@ -3161,10 +5297,10 @@
       <c r="D56" s="8">
         <v>82.57</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="47">
+      <c r="G56" s="41">
         <v>73.226724266000005</v>
       </c>
       <c r="H56" s="17">
@@ -3187,10 +5323,10 @@
       <c r="D57" s="8">
         <v>83.26</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G57" s="47">
+      <c r="G57" s="41">
         <v>63.156115411000002</v>
       </c>
       <c r="H57" s="17">
@@ -3213,10 +5349,10 @@
       <c r="D58" s="8">
         <v>84.13</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G58" s="47">
+      <c r="G58" s="41">
         <v>89.786930561000005</v>
       </c>
       <c r="H58" s="17">
@@ -3239,10 +5375,10 @@
       <c r="D59" s="8">
         <v>84.8</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G59" s="47">
+      <c r="G59" s="41">
         <v>66.261723996000001</v>
       </c>
       <c r="H59" s="17">
@@ -3265,10 +5401,10 @@
       <c r="D60" s="8">
         <v>85.62</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G60" s="47">
+      <c r="G60" s="41">
         <v>64.998440981000002</v>
       </c>
       <c r="H60" s="17">
@@ -3291,10 +5427,10 @@
       <c r="D61" s="8">
         <v>86.13</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="G61" s="47">
+      <c r="G61" s="41">
         <v>49.954236270000003</v>
       </c>
       <c r="H61" s="17">
@@ -3317,10 +5453,10 @@
       <c r="D62" s="8">
         <v>87.02</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="41">
         <v>59.199832974000003</v>
       </c>
       <c r="H62" s="17">
@@ -3343,10 +5479,10 @@
       <c r="D63" s="8">
         <v>87.71</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G63" s="47">
+      <c r="G63" s="41">
         <v>54.749290649000002</v>
       </c>
       <c r="H63" s="17">
@@ -3369,10 +5505,10 @@
       <c r="D64" s="8">
         <v>88.37</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="G64" s="47">
+      <c r="G64" s="41">
         <v>55.542326629999998</v>
       </c>
       <c r="H64" s="17">
@@ -3395,10 +5531,10 @@
       <c r="D65" s="8">
         <v>89.04</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G65" s="41">
         <v>80.317182303999999</v>
       </c>
       <c r="H65" s="17">
@@ -3421,10 +5557,10 @@
       <c r="D66" s="8">
         <v>89.49</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G66" s="41">
         <v>49.682671786</v>
       </c>
       <c r="H66" s="17">
@@ -3447,10 +5583,10 @@
       <c r="D67" s="8">
         <v>89.98</v>
       </c>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G67" s="47">
+      <c r="G67" s="41">
         <v>53.576062739999998</v>
       </c>
       <c r="H67" s="17">
@@ -3473,10 +5609,10 @@
       <c r="D68" s="8">
         <v>90.7</v>
       </c>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G68" s="47">
+      <c r="G68" s="41">
         <v>36.862991092999998</v>
       </c>
       <c r="H68" s="17">
@@ -3499,10 +5635,10 @@
       <c r="D69" s="8">
         <v>91.09</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="41">
         <v>37.049524667</v>
       </c>
       <c r="H69" s="17">
@@ -3525,10 +5661,10 @@
       <c r="D70" s="8">
         <v>91.69</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G70" s="41">
         <v>47.30851835</v>
       </c>
       <c r="H70" s="17">
@@ -3551,10 +5687,10 @@
       <c r="D71" s="8">
         <v>92.1</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G71" s="47">
+      <c r="G71" s="41">
         <v>39.722887993000001</v>
       </c>
       <c r="H71" s="17">
@@ -3577,10 +5713,10 @@
       <c r="D72" s="8">
         <v>92.68</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="G72" s="47">
+      <c r="G72" s="41">
         <v>53.674157977</v>
       </c>
       <c r="H72" s="17">
@@ -3603,10 +5739,10 @@
       <c r="D73" s="8">
         <v>93.23</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G73" s="47">
+      <c r="G73" s="41">
         <v>35.286110458000003</v>
       </c>
       <c r="H73" s="17">
@@ -3629,10 +5765,10 @@
       <c r="D74" s="8">
         <v>93.61</v>
       </c>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="G74" s="47">
+      <c r="G74" s="41">
         <v>44.036963579999998</v>
       </c>
       <c r="H74" s="17">
@@ -3655,10 +5791,10 @@
       <c r="D75" s="8">
         <v>94.04</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="41">
         <v>32.767173708999998</v>
       </c>
       <c r="H75" s="17">
@@ -3681,10 +5817,10 @@
       <c r="D76" s="8">
         <v>94.65</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="41">
         <v>29.803683635999999</v>
       </c>
       <c r="H76" s="17">
@@ -3707,10 +5843,10 @@
       <c r="D77" s="8">
         <v>94.91</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="G77" s="47">
+      <c r="G77" s="41">
         <v>31.347986816999999</v>
       </c>
       <c r="H77" s="17">
@@ -3733,10 +5869,10 @@
       <c r="D78" s="8">
         <v>95.45</v>
       </c>
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="41">
         <v>29.254463615999999</v>
       </c>
       <c r="H78" s="17">
@@ -3759,10 +5895,10 @@
       <c r="D79" s="8">
         <v>95.63</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="41">
         <v>31.164530277000001</v>
       </c>
       <c r="H79" s="17">
@@ -3785,10 +5921,10 @@
       <c r="D80" s="8">
         <v>96.03</v>
       </c>
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="G80" s="47">
+      <c r="G80" s="41">
         <v>35.473981860000002</v>
       </c>
       <c r="H80" s="17">
@@ -3811,10 +5947,10 @@
       <c r="D81" s="8">
         <v>96.31</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="G81" s="47">
+      <c r="G81" s="41">
         <v>30.079561291000001</v>
       </c>
       <c r="H81" s="17">
@@ -3837,10 +5973,10 @@
       <c r="D82" s="8">
         <v>96.64</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G82" s="47">
+      <c r="G82" s="41">
         <v>24.926673652000002</v>
       </c>
       <c r="H82" s="17">
@@ -3863,10 +5999,10 @@
       <c r="D83" s="8">
         <v>97.12</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="41">
         <v>26.550093771</v>
       </c>
       <c r="H83" s="17">
@@ -3889,10 +6025,10 @@
       <c r="D84" s="8">
         <v>97.29</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F84" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="41">
         <v>33.466431679000003</v>
       </c>
       <c r="H84" s="17">
@@ -3915,10 +6051,10 @@
       <c r="D85" s="8">
         <v>97.49</v>
       </c>
-      <c r="F85" s="46" t="s">
+      <c r="F85" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="G85" s="47">
+      <c r="G85" s="41">
         <v>27.163145362000002</v>
       </c>
       <c r="H85" s="17">
@@ -3941,10 +6077,10 @@
       <c r="D86" s="8">
         <v>97.78</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F86" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="G86" s="47">
+      <c r="G86" s="41">
         <v>23.103082419</v>
       </c>
       <c r="H86" s="17">
@@ -3967,10 +6103,10 @@
       <c r="D87" s="8">
         <v>98.09</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F87" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="G87" s="47">
+      <c r="G87" s="41">
         <v>19.754175066999998</v>
       </c>
       <c r="H87" s="17">
@@ -3993,10 +6129,10 @@
       <c r="D88" s="8">
         <v>98.46</v>
       </c>
-      <c r="F88" s="46" t="s">
+      <c r="F88" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G88" s="47">
+      <c r="G88" s="41">
         <v>14.525916518000001</v>
       </c>
       <c r="H88" s="17">
@@ -4019,10 +6155,10 @@
       <c r="D89" s="8">
         <v>98.57</v>
       </c>
-      <c r="F89" s="46" t="s">
+      <c r="F89" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G89" s="47">
+      <c r="G89" s="41">
         <v>17.619156598</v>
       </c>
       <c r="H89" s="17">
@@ -4045,10 +6181,10 @@
       <c r="D90" s="8">
         <v>98.78</v>
       </c>
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="41">
         <v>17.887870431</v>
       </c>
       <c r="H90" s="17">
@@ -4071,10 +6207,10 @@
       <c r="D91" s="8">
         <v>98.9</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="G91" s="47">
+      <c r="G91" s="41">
         <v>13.840387224000001</v>
       </c>
       <c r="H91" s="17">
@@ -4097,10 +6233,10 @@
       <c r="D92" s="8">
         <v>99.04</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F92" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="G92" s="47">
+      <c r="G92" s="41">
         <v>13.601059438</v>
       </c>
       <c r="H92" s="17">
@@ -4123,10 +6259,10 @@
       <c r="D93" s="8">
         <v>99.24</v>
       </c>
-      <c r="F93" s="46" t="s">
+      <c r="F93" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="G93" s="47">
+      <c r="G93" s="41">
         <v>15.704888999</v>
       </c>
       <c r="H93" s="17">
@@ -4149,10 +6285,10 @@
       <c r="D94" s="8">
         <v>99.35</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="G94" s="47">
+      <c r="G94" s="41">
         <v>12.525201204</v>
       </c>
       <c r="H94" s="17">
@@ -4175,10 +6311,10 @@
       <c r="D95" s="8">
         <v>99.48</v>
       </c>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="G95" s="47">
+      <c r="G95" s="41">
         <v>9.5262886289999997</v>
       </c>
       <c r="H95" s="17">
@@ -4201,10 +6337,10 @@
       <c r="D96" s="8">
         <v>99.53</v>
       </c>
-      <c r="F96" s="46" t="s">
+      <c r="F96" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="41">
         <v>7.3301942349999996</v>
       </c>
       <c r="H96" s="17">
@@ -4227,10 +6363,10 @@
       <c r="D97" s="8">
         <v>99.59</v>
       </c>
-      <c r="F97" s="46" t="s">
+      <c r="F97" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G97" s="47">
+      <c r="G97" s="41">
         <v>10.580254792</v>
       </c>
       <c r="H97" s="17">
@@ -4253,10 +6389,10 @@
       <c r="D98" s="8">
         <v>99.7</v>
       </c>
-      <c r="F98" s="46" t="s">
+      <c r="F98" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="41">
         <v>5.2046636929999996</v>
       </c>
       <c r="H98" s="17">
@@ -4279,10 +6415,10 @@
       <c r="D99" s="8">
         <v>99.72</v>
       </c>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="G99" s="47">
+      <c r="G99" s="41">
         <v>6.1369990699999999</v>
       </c>
       <c r="H99" s="17">
@@ -4305,10 +6441,10 @@
       <c r="D100" s="8">
         <v>99.73</v>
       </c>
-      <c r="F100" s="46" t="s">
+      <c r="F100" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="47">
+      <c r="G100" s="41">
         <v>2.0698643919999999</v>
       </c>
       <c r="H100" s="17">
@@ -4331,10 +6467,10 @@
       <c r="D101" s="8">
         <v>99.76</v>
       </c>
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="G101" s="47">
+      <c r="G101" s="41">
         <v>1.0536620619999999</v>
       </c>
       <c r="H101" s="17">
@@ -4357,10 +6493,10 @@
       <c r="D102" s="8">
         <v>99.77</v>
       </c>
-      <c r="F102" s="46" t="s">
+      <c r="F102" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="47">
+      <c r="G102" s="41">
         <v>1.053437948</v>
       </c>
       <c r="H102" s="17">
@@ -4383,10 +6519,10 @@
       <c r="D103" s="8">
         <v>99.79</v>
       </c>
-      <c r="F103" s="46" t="s">
+      <c r="F103" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="G103" s="47">
+      <c r="G103" s="41">
         <v>1.020726681</v>
       </c>
       <c r="H103" s="17">
@@ -4409,10 +6545,10 @@
       <c r="D104" s="8">
         <v>100</v>
       </c>
-      <c r="F104" s="46" t="s">
+      <c r="F104" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G104" s="47">
+      <c r="G104" s="41">
         <v>1.070536852</v>
       </c>
       <c r="H104" s="17">
@@ -4435,10 +6571,10 @@
       <c r="D105" s="8">
         <v>100</v>
       </c>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="G105" s="47">
+      <c r="G105" s="41">
         <v>0.98820978400000004</v>
       </c>
       <c r="H105" s="17">
@@ -4449,10 +6585,10 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="G106" s="47">
+      <c r="G106" s="41">
         <v>1.082645297</v>
       </c>
       <c r="H106" s="17">
@@ -4463,17 +6599,17 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="48" t="s">
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="G107" s="49">
+      <c r="G107" s="43">
         <v>5453.99818344902</v>
       </c>
       <c r="H107" s="18">
@@ -4484,195 +6620,476 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F109" s="41" t="s">
+      <c r="F109" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F110" s="41" t="s">
+      <c r="F110" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-    </row>
-    <row r="114" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="19" t="s">
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+    </row>
+    <row r="114" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="66" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="44">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="38">
         <f>+B105</f>
         <v>7078</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="19">
         <f>+G107</f>
         <v>5453.99818344902</v>
       </c>
-      <c r="C115" s="43">
+      <c r="C115" s="37">
         <f>+M6</f>
         <v>7571</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="20">
         <f>POWER((C115/A115),(1/12))-1</f>
         <v>5.6269200771583705E-3</v>
       </c>
-      <c r="E115" s="22">
+      <c r="E115" s="21">
         <f>D115</f>
         <v>5.6269200771583705E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="6">
+    <row r="117" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="60"/>
+      <c r="M117" s="60"/>
+      <c r="N117" s="60"/>
+    </row>
+    <row r="118" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="59"/>
+      <c r="B118" s="61">
         <v>2019</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="61">
         <f>+B118+1</f>
         <v>2020</v>
       </c>
-      <c r="D118" s="6">
-        <f t="shared" ref="D118:K118" si="0">+C118+1</f>
+      <c r="D118" s="61">
+        <f t="shared" ref="D118:L118" si="0">+C118+1</f>
         <v>2021</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="61">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="61">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="61">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="H118" s="6">
+      <c r="H118" s="61">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="I118" s="6">
+      <c r="I118" s="61">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="61">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="61">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A119" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="B119" s="50" t="s">
+      <c r="L118" s="61">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="M118" s="61">
+        <f t="shared" ref="M118" si="1">+L118+1</f>
+        <v>2030</v>
+      </c>
+      <c r="N118" s="61">
+        <f t="shared" ref="N118" si="2">+M118+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="59"/>
+      <c r="B119" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="62"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C119" s="50" t="s">
+      <c r="F119" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="G119" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="50" t="s">
+      <c r="H119" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="F119" s="50" t="s">
+      <c r="I119" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="G119" s="50" t="s">
+      <c r="J119" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="H119" s="50" t="s">
+      <c r="K119" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="I119" s="50" t="s">
+      <c r="L119" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="J119" s="50" t="s">
+      <c r="M119" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="K119" s="50" t="s">
+      <c r="N119" s="64" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="53">
-        <f>SUM(M25:M30)</f>
-        <v>2030</v>
-      </c>
-      <c r="B120" s="51">
+    <row r="120" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="67">
+        <f>SUM(G25:G43)+D136+I128</f>
+        <v>2193.2277422519683</v>
+      </c>
+      <c r="B120" s="44">
         <f>A120*5%</f>
-        <v>101.5</v>
-      </c>
-      <c r="C120" s="51">
-        <f>$B$120*(1+$D$115)^(C118-$B$118)</f>
-        <v>102.07113238783157</v>
-      </c>
-      <c r="D120" s="51">
-        <f>$B$120*(1+$D$115)^(D118-$B$118)</f>
-        <v>102.64547849196295</v>
-      </c>
-      <c r="E120" s="51">
-        <f>$B$120*(1+$D$115)^(E118-$B$118)</f>
-        <v>103.22305639571891</v>
-      </c>
-      <c r="F120" s="51">
-        <f>$B$120*(1+$D$115)^(F118-$B$118)</f>
-        <v>103.80388428417761</v>
-      </c>
-      <c r="G120" s="51">
-        <f>$B$120*(1+$D$115)^(G118-$B$118)</f>
-        <v>104.38798044474326</v>
-      </c>
-      <c r="H120" s="51">
-        <f>$B$120*(1+$D$115)^(H118-$B$118)</f>
-        <v>104.9753632677218</v>
-      </c>
-      <c r="I120" s="51">
-        <f>$B$120*(1+$D$115)^(I118-$B$118)</f>
-        <v>105.56605124689995</v>
-      </c>
-      <c r="J120" s="51">
-        <f>$B$120*(1+$D$115)^(J118-$B$118)</f>
-        <v>106.16006298012742</v>
-      </c>
-      <c r="K120" s="51">
-        <f>$B$120*(1+$D$115)^(K118-$B$118)</f>
-        <v>106.75741716990269</v>
+        <v>109.66138711259842</v>
+      </c>
+      <c r="C120" s="44">
+        <f t="shared" ref="C120:K120" si="3">$B$120*(1+$D$115)^(C118-$B$118)</f>
+        <v>110.27844297343134</v>
+      </c>
+      <c r="D120" s="44">
+        <f t="shared" si="3"/>
+        <v>110.89897095827629</v>
+      </c>
+      <c r="E120" s="44">
+        <f t="shared" si="3"/>
+        <v>111.52299060449762</v>
+      </c>
+      <c r="F120" s="44">
+        <f t="shared" si="3"/>
+        <v>112.15052155939479</v>
+      </c>
+      <c r="G120" s="44">
+        <f t="shared" si="3"/>
+        <v>112.78158358082113</v>
+      </c>
+      <c r="H120" s="44">
+        <f t="shared" si="3"/>
+        <v>113.41619653780576</v>
+      </c>
+      <c r="I120" s="44">
+        <f t="shared" si="3"/>
+        <v>114.0543804111793</v>
+      </c>
+      <c r="J120" s="44">
+        <f t="shared" si="3"/>
+        <v>114.69615529420278</v>
+      </c>
+      <c r="K120" s="44">
+        <f t="shared" si="3"/>
+        <v>115.3415413932006</v>
+      </c>
+      <c r="L120" s="44">
+        <f>$B$120*(1+$D$115)^(L118-$B$118)</f>
+        <v>115.99055902819639</v>
+      </c>
+      <c r="M120" s="44">
+        <f t="shared" ref="L120:N120" si="4">$B$120*(1+$D$115)^(M118-$B$118)</f>
+        <v>116.64322863355298</v>
+      </c>
+      <c r="N120" s="44">
+        <f t="shared" si="4"/>
+        <v>117.29957075861567</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="G125" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H125" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="I125" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="46">
+        <v>488</v>
+      </c>
+      <c r="C126" s="55">
+        <v>0.32675410103003655</v>
+      </c>
+      <c r="D126" s="54">
+        <f>B126*$C$126</f>
+        <v>159.45600130265782</v>
+      </c>
+      <c r="F126" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G126" s="46">
+        <v>640</v>
+      </c>
+      <c r="H126" s="55">
+        <v>0.32475247524752476</v>
+      </c>
+      <c r="I126" s="54">
+        <f>G126*$H$126</f>
+        <v>207.84158415841586</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="46">
+        <v>363</v>
+      </c>
+      <c r="C127" s="55"/>
+      <c r="D127" s="54">
+        <f t="shared" ref="D127:D135" si="5">B127*$C$126</f>
+        <v>118.61173867390326</v>
+      </c>
+      <c r="F127" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="G127" s="46">
+        <v>52</v>
+      </c>
+      <c r="H127" s="55"/>
+      <c r="I127" s="54">
+        <f>G127*$H$126</f>
+        <v>16.887128712871288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" s="46">
+        <v>282</v>
+      </c>
+      <c r="C128" s="55"/>
+      <c r="D128" s="54">
+        <f t="shared" si="5"/>
+        <v>92.144656490470311</v>
+      </c>
+      <c r="F128" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G128" s="57">
+        <f>SUM(G126:G127)</f>
+        <v>692</v>
+      </c>
+      <c r="I128" s="58">
+        <f>SUM(I126:I127)</f>
+        <v>224.72871287128714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="46">
+        <v>238</v>
+      </c>
+      <c r="C129" s="55"/>
+      <c r="D129" s="54">
+        <f t="shared" si="5"/>
+        <v>77.767476045148697</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" s="46">
+        <v>100</v>
+      </c>
+      <c r="C130" s="55"/>
+      <c r="D130" s="54">
+        <f t="shared" si="5"/>
+        <v>32.675410103003657</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="46">
+        <v>128</v>
+      </c>
+      <c r="C131" s="55"/>
+      <c r="D131" s="54">
+        <f t="shared" si="5"/>
+        <v>41.824524931844678</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="46">
+        <v>231</v>
+      </c>
+      <c r="C132" s="55"/>
+      <c r="D132" s="54">
+        <f t="shared" si="5"/>
+        <v>75.480197337938449</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="46">
+        <v>243</v>
+      </c>
+      <c r="C133" s="55"/>
+      <c r="D133" s="54">
+        <f t="shared" si="5"/>
+        <v>79.401246550298879</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="46">
+        <v>21</v>
+      </c>
+      <c r="C134" s="55"/>
+      <c r="D134" s="54">
+        <f t="shared" si="5"/>
+        <v>6.8618361216307679</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="46">
+        <v>126</v>
+      </c>
+      <c r="C135" s="55"/>
+      <c r="D135" s="54">
+        <f t="shared" si="5"/>
+        <v>41.171016729784604</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="57">
+        <f>SUM(B126:B135)</f>
+        <v>2220</v>
+      </c>
+      <c r="D136" s="58">
+        <f>SUM(D126:D135)</f>
+        <v>725.39410428668111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="56" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -4684,5 +7101,829 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409B263-2852-4563-BF9F-9A2CBCD2EA0A}">
+  <dimension ref="B2:Q32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="93" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="94">
+        <v>1327253</v>
+      </c>
+      <c r="C6" s="94">
+        <v>0</v>
+      </c>
+      <c r="D6" s="94">
+        <v>526093</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>314</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94" t="s">
+        <v>328</v>
+      </c>
+      <c r="O6" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="P6" s="94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+    </row>
+    <row r="8" spans="2:17" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="93" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="94">
+        <v>30000</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="K9" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="L9" s="94">
+        <v>-13.64822</v>
+      </c>
+      <c r="M9" s="94">
+        <v>-73.085620000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+    </row>
+    <row r="13" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="70">
+        <v>2005</v>
+      </c>
+      <c r="D13" s="70">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="70">
+        <v>2007</v>
+      </c>
+      <c r="F13" s="70">
+        <v>2008</v>
+      </c>
+      <c r="G13" s="70">
+        <v>2009</v>
+      </c>
+      <c r="H13" s="70">
+        <v>2010</v>
+      </c>
+      <c r="I13" s="70">
+        <v>2011</v>
+      </c>
+      <c r="J13" s="70">
+        <v>2012</v>
+      </c>
+      <c r="K13" s="70">
+        <v>2013</v>
+      </c>
+      <c r="L13" s="74">
+        <v>2014</v>
+      </c>
+      <c r="M13" s="77">
+        <v>2015</v>
+      </c>
+      <c r="N13" s="78">
+        <v>2016</v>
+      </c>
+      <c r="O13" s="78">
+        <v>2017</v>
+      </c>
+      <c r="P13" s="78">
+        <v>2018</v>
+      </c>
+      <c r="Q13" s="79">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="73"/>
+      <c r="C14" s="71">
+        <f>SUM(C15:C22)</f>
+        <v>57</v>
+      </c>
+      <c r="D14" s="71">
+        <f t="shared" ref="D14:Q14" si="0">SUM(D15:D22)</f>
+        <v>47</v>
+      </c>
+      <c r="E14" s="71">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F14" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="71">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H14" s="71">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I14" s="71">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K14" s="71">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="L14" s="75">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="M14" s="80">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="N14" s="71">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="O14" s="71">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P14" s="71">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q14" s="81">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="69">
+        <v>25</v>
+      </c>
+      <c r="D15" s="69">
+        <v>22</v>
+      </c>
+      <c r="E15" s="69">
+        <v>17</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69">
+        <v>25</v>
+      </c>
+      <c r="H15" s="69">
+        <v>21</v>
+      </c>
+      <c r="I15" s="69">
+        <v>25</v>
+      </c>
+      <c r="J15" s="69">
+        <v>17</v>
+      </c>
+      <c r="K15" s="69">
+        <v>15</v>
+      </c>
+      <c r="L15" s="76">
+        <v>15</v>
+      </c>
+      <c r="M15" s="82">
+        <v>14</v>
+      </c>
+      <c r="N15" s="69">
+        <v>24</v>
+      </c>
+      <c r="O15" s="69">
+        <v>26</v>
+      </c>
+      <c r="P15" s="69">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="69">
+        <v>0</v>
+      </c>
+      <c r="D16" s="69">
+        <v>0</v>
+      </c>
+      <c r="E16" s="69">
+        <v>0</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69">
+        <v>0</v>
+      </c>
+      <c r="H16" s="69">
+        <v>0</v>
+      </c>
+      <c r="I16" s="69">
+        <v>0</v>
+      </c>
+      <c r="J16" s="69">
+        <v>0</v>
+      </c>
+      <c r="K16" s="69">
+        <v>0</v>
+      </c>
+      <c r="L16" s="76">
+        <v>0</v>
+      </c>
+      <c r="M16" s="82">
+        <v>0</v>
+      </c>
+      <c r="N16" s="69">
+        <v>0</v>
+      </c>
+      <c r="O16" s="69">
+        <v>0</v>
+      </c>
+      <c r="P16" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="69">
+        <v>24</v>
+      </c>
+      <c r="D17" s="69">
+        <v>12</v>
+      </c>
+      <c r="E17" s="69">
+        <v>11</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69">
+        <v>10</v>
+      </c>
+      <c r="H17" s="69">
+        <v>13</v>
+      </c>
+      <c r="I17" s="69">
+        <v>12</v>
+      </c>
+      <c r="J17" s="69">
+        <v>13</v>
+      </c>
+      <c r="K17" s="69">
+        <v>10</v>
+      </c>
+      <c r="L17" s="76">
+        <v>14</v>
+      </c>
+      <c r="M17" s="82">
+        <v>10</v>
+      </c>
+      <c r="N17" s="69">
+        <v>8</v>
+      </c>
+      <c r="O17" s="69">
+        <v>20</v>
+      </c>
+      <c r="P17" s="69">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="69">
+        <v>0</v>
+      </c>
+      <c r="D18" s="69">
+        <v>0</v>
+      </c>
+      <c r="E18" s="69">
+        <v>0</v>
+      </c>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69">
+        <v>0</v>
+      </c>
+      <c r="H18" s="69">
+        <v>0</v>
+      </c>
+      <c r="I18" s="69">
+        <v>0</v>
+      </c>
+      <c r="J18" s="69">
+        <v>0</v>
+      </c>
+      <c r="K18" s="69">
+        <v>0</v>
+      </c>
+      <c r="L18" s="76">
+        <v>0</v>
+      </c>
+      <c r="M18" s="82">
+        <v>0</v>
+      </c>
+      <c r="N18" s="69">
+        <v>0</v>
+      </c>
+      <c r="O18" s="69">
+        <v>0</v>
+      </c>
+      <c r="P18" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="69">
+        <v>8</v>
+      </c>
+      <c r="D19" s="69">
+        <v>13</v>
+      </c>
+      <c r="E19" s="69">
+        <v>6</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69">
+        <v>7</v>
+      </c>
+      <c r="H19" s="69">
+        <v>7</v>
+      </c>
+      <c r="I19" s="69">
+        <v>9</v>
+      </c>
+      <c r="J19" s="69">
+        <v>10</v>
+      </c>
+      <c r="K19" s="69">
+        <v>10</v>
+      </c>
+      <c r="L19" s="76">
+        <v>8</v>
+      </c>
+      <c r="M19" s="82">
+        <v>9</v>
+      </c>
+      <c r="N19" s="69">
+        <v>7</v>
+      </c>
+      <c r="O19" s="69">
+        <v>4</v>
+      </c>
+      <c r="P19" s="69">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="69">
+        <v>0</v>
+      </c>
+      <c r="D20" s="69">
+        <v>0</v>
+      </c>
+      <c r="E20" s="69">
+        <v>0</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69">
+        <v>0</v>
+      </c>
+      <c r="H20" s="69">
+        <v>0</v>
+      </c>
+      <c r="I20" s="69">
+        <v>0</v>
+      </c>
+      <c r="J20" s="69">
+        <v>0</v>
+      </c>
+      <c r="K20" s="69">
+        <v>0</v>
+      </c>
+      <c r="L20" s="76">
+        <v>0</v>
+      </c>
+      <c r="M20" s="82">
+        <v>0</v>
+      </c>
+      <c r="N20" s="69">
+        <v>0</v>
+      </c>
+      <c r="O20" s="69">
+        <v>0</v>
+      </c>
+      <c r="P20" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="69">
+        <v>0</v>
+      </c>
+      <c r="D21" s="69">
+        <v>0</v>
+      </c>
+      <c r="E21" s="69">
+        <v>0</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69">
+        <v>0</v>
+      </c>
+      <c r="H21" s="69">
+        <v>0</v>
+      </c>
+      <c r="I21" s="69">
+        <v>0</v>
+      </c>
+      <c r="J21" s="69">
+        <v>0</v>
+      </c>
+      <c r="K21" s="69">
+        <v>0</v>
+      </c>
+      <c r="L21" s="76">
+        <v>0</v>
+      </c>
+      <c r="M21" s="82">
+        <v>0</v>
+      </c>
+      <c r="N21" s="69">
+        <v>0</v>
+      </c>
+      <c r="O21" s="69">
+        <v>0</v>
+      </c>
+      <c r="P21" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="69">
+        <v>0</v>
+      </c>
+      <c r="D22" s="69">
+        <v>0</v>
+      </c>
+      <c r="E22" s="69">
+        <v>0</v>
+      </c>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69">
+        <v>0</v>
+      </c>
+      <c r="H22" s="69">
+        <v>0</v>
+      </c>
+      <c r="I22" s="69">
+        <v>0</v>
+      </c>
+      <c r="J22" s="69">
+        <v>0</v>
+      </c>
+      <c r="K22" s="69">
+        <v>0</v>
+      </c>
+      <c r="L22" s="76">
+        <v>0</v>
+      </c>
+      <c r="M22" s="84">
+        <v>0</v>
+      </c>
+      <c r="N22" s="85">
+        <v>0</v>
+      </c>
+      <c r="O22" s="85">
+        <v>0</v>
+      </c>
+      <c r="P22" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D28" s="98">
+        <v>2015</v>
+      </c>
+      <c r="E28" s="98">
+        <f>+D28+1</f>
+        <v>2016</v>
+      </c>
+      <c r="F28" s="98">
+        <f t="shared" ref="F28:H28" si="1">+E28+1</f>
+        <v>2017</v>
+      </c>
+      <c r="G28" s="98">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="H28" s="98">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="97"/>
+      <c r="C30" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="97"/>
+      <c r="C32" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2159AC-62FF-40D6-AFAB-7CF6559C90B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44F7E4-938B-4238-BAE2-C2D84B78ADE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Pobl. área de Influencia" sheetId="1" r:id="rId1"/>
     <sheet name="Pobl. Ingresante Total" sheetId="2" r:id="rId2"/>
+    <sheet name="matriculados Ind. Aprob." sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="361">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -1092,16 +1092,90 @@
   <si>
     <t>INDUSTRIAS ALIMENTARIAS</t>
   </si>
+  <si>
+    <t>Situación Sin Proyecto</t>
+  </si>
+  <si>
+    <t>SEMESTRE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Situación Con proyecto</t>
+  </si>
+  <si>
+    <t>Ratio de Alumnos Respecto al Primer Ciclo</t>
+  </si>
+  <si>
+    <t>Promoción</t>
+  </si>
+  <si>
+    <t>2015-2017</t>
+  </si>
+  <si>
+    <t>2017-2019</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Construcción Civil</t>
+  </si>
+  <si>
+    <t>Industrias Alimentarias</t>
+  </si>
+  <si>
+    <t>Promedio del ultimo año de ingreso</t>
+  </si>
+  <si>
+    <t>2016-2018</t>
+  </si>
+  <si>
+    <t>2018-2020</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>Promedio de  las ultimos  4 ingresos</t>
+  </si>
+  <si>
+    <t>T.C.I 2015</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>T.C.I
+ 2019-2020</t>
+  </si>
+  <si>
+    <t>T.C.I
+2018-2019</t>
+  </si>
+  <si>
+    <t>T.C.I
+2017-2018</t>
+  </si>
+  <si>
+    <t>T.C.I
+2016-2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,8 +1403,14 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1415,8 +1495,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1642,6 +1734,410 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1649,7 +2145,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1792,30 +2288,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1825,19 +2303,7 @@
     <xf numFmtId="3" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,9 +2318,6 @@
     <xf numFmtId="3" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,12 +2326,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1929,17 +2386,413 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3660,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B551877-24F7-41D0-8229-84CBFCFDD684}">
   <dimension ref="A2:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView showGridLines="0" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3681,7 +4534,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="87" t="s">
         <v>209</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -3692,7 +4545,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K3" s="48"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
@@ -3704,7 +4557,7 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="48"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
@@ -3712,7 +4565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +4582,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="48"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
@@ -3746,7 +4599,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
@@ -3815,7 +4668,7 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="90" t="s">
         <v>218</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -3850,7 +4703,7 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="25">
         <v>1</v>
       </c>
@@ -3883,7 +4736,7 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="25">
         <v>2</v>
       </c>
@@ -3916,7 +4769,7 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="25">
         <v>3</v>
       </c>
@@ -3949,7 +4802,7 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="25">
         <v>4</v>
       </c>
@@ -3982,7 +4835,7 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="25">
         <v>5</v>
       </c>
@@ -4015,7 +4868,7 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="25">
         <v>6</v>
       </c>
@@ -4048,7 +4901,7 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="25">
         <v>7</v>
       </c>
@@ -4081,7 +4934,7 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="51"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="25">
         <v>8</v>
       </c>
@@ -4114,7 +4967,7 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="25">
         <v>9</v>
       </c>
@@ -4147,7 +5000,7 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="51"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="25">
         <v>10</v>
       </c>
@@ -4180,7 +5033,7 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="51"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="25">
         <v>11</v>
       </c>
@@ -4213,7 +5066,7 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="51"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="25">
         <v>12</v>
       </c>
@@ -4246,7 +5099,7 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="51"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="25">
         <v>13</v>
       </c>
@@ -4279,7 +5132,7 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="51"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="25">
         <v>14</v>
       </c>
@@ -4312,7 +5165,7 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="25">
         <v>15</v>
       </c>
@@ -4345,7 +5198,7 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="51"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="25">
         <v>16</v>
       </c>
@@ -4378,7 +5231,7 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="90"/>
       <c r="L25" s="25">
         <v>17</v>
       </c>
@@ -4411,7 +5264,7 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="51"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="25">
         <v>18</v>
       </c>
@@ -4444,7 +5297,7 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="51"/>
+      <c r="K27" s="90"/>
       <c r="L27" s="25">
         <v>19</v>
       </c>
@@ -4477,7 +5330,7 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="91" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="26" t="s">
@@ -4512,7 +5365,7 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="52"/>
+      <c r="K29" s="91"/>
       <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
@@ -4545,7 +5398,7 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="52"/>
+      <c r="K30" s="91"/>
       <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
@@ -4578,7 +5431,7 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="52"/>
+      <c r="K31" s="91"/>
       <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
@@ -4611,7 +5464,7 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="52"/>
+      <c r="K32" s="91"/>
       <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
@@ -4644,7 +5497,7 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="52"/>
+      <c r="K33" s="91"/>
       <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
@@ -4677,7 +5530,7 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="52"/>
+      <c r="K34" s="91"/>
       <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
@@ -4710,7 +5563,7 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="52"/>
+      <c r="K35" s="91"/>
       <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
@@ -4743,7 +5596,7 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="52"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
@@ -4776,7 +5629,7 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="52"/>
+      <c r="K37" s="91"/>
       <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
@@ -4809,7 +5662,7 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="52"/>
+      <c r="K38" s="91"/>
       <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
@@ -4842,7 +5695,7 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="52"/>
+      <c r="K39" s="91"/>
       <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
@@ -4875,7 +5728,7 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="52"/>
+      <c r="K40" s="91"/>
       <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
@@ -6599,13 +7452,13 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="50"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="50"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
       <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
@@ -6620,46 +7473,46 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F109" s="49" t="s">
+      <c r="F109" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
+      <c r="G109" s="89"/>
+      <c r="H109" s="89"/>
+      <c r="I109" s="89"/>
+      <c r="J109" s="89"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F110" s="49" t="s">
+      <c r="F110" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-    </row>
-    <row r="114" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="66" t="s">
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89"/>
+    </row>
+    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B114" s="66" t="s">
+      <c r="B114" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="C114" s="66" t="s">
+      <c r="C114" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="66" t="s">
+      <c r="D114" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E114" s="66" t="s">
+      <c r="E114" s="56" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6686,119 +7539,119 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="59" t="s">
+      <c r="A117" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="60" t="s">
+      <c r="B117" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
-      <c r="M117" s="60"/>
-      <c r="N117" s="60"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="100"/>
+      <c r="E117" s="100"/>
+      <c r="F117" s="100"/>
+      <c r="G117" s="100"/>
+      <c r="H117" s="100"/>
+      <c r="I117" s="100"/>
+      <c r="J117" s="100"/>
+      <c r="K117" s="100"/>
+      <c r="L117" s="100"/>
+      <c r="M117" s="100"/>
+      <c r="N117" s="101"/>
     </row>
     <row r="118" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="59"/>
-      <c r="B118" s="61">
+      <c r="A118" s="83"/>
+      <c r="B118" s="53">
         <v>2019</v>
       </c>
-      <c r="C118" s="61">
+      <c r="C118" s="53">
         <f>+B118+1</f>
         <v>2020</v>
       </c>
-      <c r="D118" s="61">
-        <f t="shared" ref="D118:L118" si="0">+C118+1</f>
+      <c r="D118" s="53">
+        <f>+C118+1</f>
         <v>2021</v>
       </c>
-      <c r="E118" s="61">
-        <f t="shared" si="0"/>
+      <c r="E118" s="53">
+        <f>+D118+1</f>
         <v>2022</v>
       </c>
-      <c r="F118" s="61">
-        <f t="shared" si="0"/>
+      <c r="F118" s="53">
+        <f>+E118+1</f>
         <v>2023</v>
       </c>
-      <c r="G118" s="61">
-        <f t="shared" si="0"/>
+      <c r="G118" s="53">
+        <f>+F118+1</f>
         <v>2024</v>
       </c>
-      <c r="H118" s="61">
-        <f t="shared" si="0"/>
+      <c r="H118" s="53">
+        <f>+G118+1</f>
         <v>2025</v>
       </c>
-      <c r="I118" s="61">
-        <f t="shared" si="0"/>
+      <c r="I118" s="53">
+        <f>+H118+1</f>
         <v>2026</v>
       </c>
-      <c r="J118" s="61">
-        <f t="shared" si="0"/>
+      <c r="J118" s="53">
+        <f>+I118+1</f>
         <v>2027</v>
       </c>
-      <c r="K118" s="61">
-        <f t="shared" si="0"/>
+      <c r="K118" s="53">
+        <f>+J118+1</f>
         <v>2028</v>
       </c>
-      <c r="L118" s="61">
-        <f t="shared" si="0"/>
+      <c r="L118" s="53">
+        <f>+K118+1</f>
         <v>2029</v>
       </c>
-      <c r="M118" s="61">
-        <f t="shared" ref="M118" si="1">+L118+1</f>
+      <c r="M118" s="53">
+        <f>+L118+1</f>
         <v>2030</v>
       </c>
-      <c r="N118" s="61">
-        <f t="shared" ref="N118" si="2">+M118+1</f>
+      <c r="N118" s="53">
+        <f>+M118+1</f>
         <v>2031</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="59"/>
-      <c r="B119" s="62" t="s">
+      <c r="A119" s="83"/>
+      <c r="B119" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="62"/>
-      <c r="D119" s="63"/>
-      <c r="E119" s="64" t="s">
+      <c r="C119" s="85"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F119" s="64" t="s">
+      <c r="F119" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G119" s="64" t="s">
+      <c r="G119" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="H119" s="64" t="s">
+      <c r="H119" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="I119" s="64" t="s">
+      <c r="I119" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="J119" s="64" t="s">
+      <c r="J119" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="K119" s="64" t="s">
+      <c r="K119" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="L119" s="64" t="s">
+      <c r="L119" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="M119" s="64" t="s">
+      <c r="M119" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="N119" s="64" t="s">
+      <c r="N119" s="54" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="67">
+      <c r="A120" s="57">
         <f>SUM(G25:G43)+D136+I128</f>
         <v>2193.2277422519683</v>
       </c>
@@ -6807,39 +7660,39 @@
         <v>109.66138711259842</v>
       </c>
       <c r="C120" s="44">
-        <f t="shared" ref="C120:K120" si="3">$B$120*(1+$D$115)^(C118-$B$118)</f>
+        <f>$B$120*(1+$D$115)^(C118-$B$118)</f>
         <v>110.27844297343134</v>
       </c>
       <c r="D120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(D118-$B$118)</f>
         <v>110.89897095827629</v>
       </c>
       <c r="E120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(E118-$B$118)</f>
         <v>111.52299060449762</v>
       </c>
       <c r="F120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(F118-$B$118)</f>
         <v>112.15052155939479</v>
       </c>
       <c r="G120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(G118-$B$118)</f>
         <v>112.78158358082113</v>
       </c>
       <c r="H120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(H118-$B$118)</f>
         <v>113.41619653780576</v>
       </c>
       <c r="I120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(I118-$B$118)</f>
         <v>114.0543804111793</v>
       </c>
       <c r="J120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(J118-$B$118)</f>
         <v>114.69615529420278</v>
       </c>
       <c r="K120" s="44">
-        <f t="shared" si="3"/>
+        <f>$B$120*(1+$D$115)^(K118-$B$118)</f>
         <v>115.3415413932006</v>
       </c>
       <c r="L120" s="44">
@@ -6847,11 +7700,11 @@
         <v>115.99055902819639</v>
       </c>
       <c r="M120" s="44">
-        <f t="shared" ref="L120:N120" si="4">$B$120*(1+$D$115)^(M118-$B$118)</f>
+        <f>$B$120*(1+$D$115)^(M118-$B$118)</f>
         <v>116.64322863355298</v>
       </c>
       <c r="N120" s="44">
-        <f t="shared" si="4"/>
+        <f>$B$120*(1+$D$115)^(N118-$B$118)</f>
         <v>117.29957075861567</v>
       </c>
     </row>
@@ -6861,28 +7714,28 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="65" t="s">
+      <c r="A125" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="B125" s="65" t="s">
+      <c r="B125" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="C125" s="65" t="s">
+      <c r="C125" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="D125" s="65" t="s">
+      <c r="D125" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="F125" s="65" t="s">
+      <c r="F125" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="G125" s="65" t="s">
+      <c r="G125" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="H125" s="65" t="s">
+      <c r="H125" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="I125" s="65" t="s">
+      <c r="I125" s="55" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6893,23 +7746,23 @@
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="55">
+      <c r="C126" s="84">
         <v>0.32675410103003655</v>
       </c>
-      <c r="D126" s="54">
+      <c r="D126" s="49">
         <f>B126*$C$126</f>
         <v>159.45600130265782</v>
       </c>
-      <c r="F126" s="53" t="s">
+      <c r="F126" s="48" t="s">
         <v>262</v>
       </c>
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="55">
+      <c r="H126" s="84">
         <v>0.32475247524752476</v>
       </c>
-      <c r="I126" s="54">
+      <c r="I126" s="49">
         <f>G126*$H$126</f>
         <v>207.84158415841586</v>
       </c>
@@ -6921,19 +7774,19 @@
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="55"/>
-      <c r="D127" s="54">
-        <f t="shared" ref="D127:D135" si="5">B127*$C$126</f>
+      <c r="C127" s="84"/>
+      <c r="D127" s="49">
+        <f t="shared" ref="D127:D135" si="0">B127*$C$126</f>
         <v>118.61173867390326</v>
       </c>
-      <c r="F127" s="53" t="s">
+      <c r="F127" s="48" t="s">
         <v>263</v>
       </c>
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="55"/>
-      <c r="I127" s="54">
+      <c r="H127" s="84"/>
+      <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
       </c>
@@ -6945,19 +7798,19 @@
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="54">
-        <f t="shared" si="5"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="49">
+        <f t="shared" si="0"/>
         <v>92.144656490470311</v>
       </c>
       <c r="F128" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G128" s="57">
+      <c r="G128" s="51">
         <f>SUM(G126:G127)</f>
         <v>692</v>
       </c>
-      <c r="I128" s="58">
+      <c r="I128" s="52">
         <f>SUM(I126:I127)</f>
         <v>224.72871287128714</v>
       </c>
@@ -6969,9 +7822,9 @@
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="55"/>
-      <c r="D129" s="54">
-        <f t="shared" si="5"/>
+      <c r="C129" s="84"/>
+      <c r="D129" s="49">
+        <f t="shared" si="0"/>
         <v>77.767476045148697</v>
       </c>
     </row>
@@ -6982,9 +7835,9 @@
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="54">
-        <f t="shared" si="5"/>
+      <c r="C130" s="84"/>
+      <c r="D130" s="49">
+        <f t="shared" si="0"/>
         <v>32.675410103003657</v>
       </c>
     </row>
@@ -6995,9 +7848,9 @@
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="54">
-        <f t="shared" si="5"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="49">
+        <f t="shared" si="0"/>
         <v>41.824524931844678</v>
       </c>
     </row>
@@ -7008,9 +7861,9 @@
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="55"/>
-      <c r="D132" s="54">
-        <f t="shared" si="5"/>
+      <c r="C132" s="84"/>
+      <c r="D132" s="49">
+        <f t="shared" si="0"/>
         <v>75.480197337938449</v>
       </c>
     </row>
@@ -7021,9 +7874,9 @@
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="54">
-        <f t="shared" si="5"/>
+      <c r="C133" s="84"/>
+      <c r="D133" s="49">
+        <f t="shared" si="0"/>
         <v>79.401246550298879</v>
       </c>
     </row>
@@ -7034,9 +7887,9 @@
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="54">
-        <f t="shared" si="5"/>
+      <c r="C134" s="84"/>
+      <c r="D134" s="49">
+        <f t="shared" si="0"/>
         <v>6.8618361216307679</v>
       </c>
     </row>
@@ -7047,9 +7900,9 @@
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="55"/>
-      <c r="D135" s="54">
-        <f t="shared" si="5"/>
+      <c r="C135" s="84"/>
+      <c r="D135" s="49">
+        <f t="shared" si="0"/>
         <v>41.171016729784604</v>
       </c>
     </row>
@@ -7057,39 +7910,34 @@
       <c r="A136" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="57">
+      <c r="B136" s="51">
         <f>SUM(B126:B135)</f>
         <v>2220</v>
       </c>
-      <c r="D136" s="58">
+      <c r="D136" s="52">
         <f>SUM(D126:D135)</f>
         <v>725.39410428668111</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="56" t="s">
+      <c r="A137" s="50" t="s">
         <v>274</v>
       </c>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="56" t="s">
+      <c r="A138" s="50" t="s">
         <v>275</v>
       </c>
       <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="56" t="s">
+      <c r="A139" s="50" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -7097,6 +7945,11 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7109,8 +7962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409B263-2852-4563-BF9F-9A2CBCD2EA0A}">
   <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7122,758 +7975,762 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="78" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="L5" s="93" t="s">
+      <c r="L5" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="O5" s="93" t="s">
+      <c r="O5" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="P5" s="93" t="s">
+      <c r="P5" s="80" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="94">
+      <c r="B6" s="81">
         <v>1327253</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="81">
         <v>0</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="81">
         <v>526093</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94" t="s">
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="O6" s="94" t="s">
+      <c r="O6" s="81" t="s">
         <v>330</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="81" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
     </row>
     <row r="8" spans="2:17" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="M8" s="93" t="s">
+      <c r="M8" s="80" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="81" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="81">
         <v>30000</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="K9" s="94" t="s">
+      <c r="K9" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="81">
         <v>-13.64822</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="81">
         <v>-73.085620000000006</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
     </row>
     <row r="13" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="59">
         <v>2005</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="59">
         <v>2006</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="59">
         <v>2007</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="59">
         <v>2008</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="59">
         <v>2009</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="59">
         <v>2010</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="59">
         <v>2011</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="59">
         <v>2012</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="59">
         <v>2013</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="61">
         <v>2014</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="64">
         <v>2015</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="65">
         <v>2016</v>
       </c>
-      <c r="O13" s="78">
+      <c r="O13" s="65">
         <v>2017</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="65">
         <v>2018</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="Q13" s="66">
         <v>2019</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="71">
+      <c r="B14" s="94"/>
+      <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="60">
         <f t="shared" ref="D14:Q14" si="0">SUM(D15:D22)</f>
         <v>47</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="60">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="60">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="60">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="60">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="60">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="60">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="62">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="67">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="60">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="O14" s="71">
+      <c r="O14" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P14" s="71">
+      <c r="P14" s="60">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="Q14" s="81">
+      <c r="Q14" s="68">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="58">
         <v>25</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="58">
         <v>22</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="58">
         <v>17</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58">
         <v>25</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="58">
         <v>21</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="58">
         <v>25</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="58">
         <v>17</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="58">
         <v>15</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="63">
         <v>15</v>
       </c>
-      <c r="M15" s="82">
+      <c r="M15" s="69">
         <v>14</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="58">
         <v>24</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="58">
         <v>26</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="58">
         <v>21</v>
       </c>
-      <c r="Q15" s="83">
+      <c r="Q15" s="70">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="58">
         <v>0</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="58">
         <v>0</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="58">
         <v>0</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69">
+      <c r="F16" s="58"/>
+      <c r="G16" s="58">
         <v>0</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="58">
         <v>0</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="58">
         <v>0</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="58">
         <v>0</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="58">
         <v>0</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="63">
         <v>0</v>
       </c>
-      <c r="M16" s="82">
+      <c r="M16" s="69">
         <v>0</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="58">
         <v>0</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="58">
         <v>0</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="58">
         <v>0</v>
       </c>
-      <c r="Q16" s="83">
+      <c r="Q16" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="58">
         <v>24</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="58">
         <v>12</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="58">
         <v>11</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69">
+      <c r="F17" s="58"/>
+      <c r="G17" s="58">
         <v>10</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="58">
         <v>13</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="58">
         <v>12</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="58">
         <v>13</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="58">
         <v>10</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="63">
         <v>14</v>
       </c>
-      <c r="M17" s="82">
+      <c r="M17" s="69">
         <v>10</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="58">
         <v>8</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="58">
         <v>20</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="58">
         <v>22</v>
       </c>
-      <c r="Q17" s="83">
+      <c r="Q17" s="70">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="58">
         <v>0</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="58">
         <v>0</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="58">
         <v>0</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69">
+      <c r="F18" s="58"/>
+      <c r="G18" s="58">
         <v>0</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="58">
         <v>0</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="58">
         <v>0</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="58">
         <v>0</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="58">
         <v>0</v>
       </c>
-      <c r="L18" s="76">
+      <c r="L18" s="63">
         <v>0</v>
       </c>
-      <c r="M18" s="82">
+      <c r="M18" s="69">
         <v>0</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="58">
         <v>0</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="58">
         <v>0</v>
       </c>
-      <c r="P18" s="69">
+      <c r="P18" s="58">
         <v>0</v>
       </c>
-      <c r="Q18" s="83">
+      <c r="Q18" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="58">
         <v>8</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="58">
         <v>13</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="58">
         <v>6</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69">
+      <c r="F19" s="58"/>
+      <c r="G19" s="58">
         <v>7</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="58">
         <v>7</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="58">
         <v>9</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="58">
         <v>10</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="58">
         <v>10</v>
       </c>
-      <c r="L19" s="76">
+      <c r="L19" s="63">
         <v>8</v>
       </c>
-      <c r="M19" s="82">
+      <c r="M19" s="69">
         <v>9</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="58">
         <v>7</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O19" s="58">
         <v>4</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="58">
         <v>18</v>
       </c>
-      <c r="Q19" s="83">
+      <c r="Q19" s="70">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="58">
         <v>0</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="58">
         <v>0</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="58">
         <v>0</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58">
         <v>0</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="58">
         <v>0</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="58">
         <v>0</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="58">
         <v>0</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="58">
         <v>0</v>
       </c>
-      <c r="L20" s="76">
+      <c r="L20" s="63">
         <v>0</v>
       </c>
-      <c r="M20" s="82">
+      <c r="M20" s="69">
         <v>0</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="58">
         <v>0</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="58">
         <v>0</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="58">
         <v>0</v>
       </c>
-      <c r="Q20" s="83">
+      <c r="Q20" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="58">
         <v>0</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="58">
         <v>0</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="58">
         <v>0</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58">
         <v>0</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="58">
         <v>0</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="58">
         <v>0</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="58">
         <v>0</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="58">
         <v>0</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="63">
         <v>0</v>
       </c>
-      <c r="M21" s="82">
+      <c r="M21" s="69">
         <v>0</v>
       </c>
-      <c r="N21" s="69">
+      <c r="N21" s="58">
         <v>0</v>
       </c>
-      <c r="O21" s="69">
+      <c r="O21" s="58">
         <v>0</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="58">
         <v>0</v>
       </c>
-      <c r="Q21" s="83">
+      <c r="Q21" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="58">
         <v>0</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="58">
         <v>0</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="58">
         <v>0</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58">
         <v>0</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="58">
         <v>0</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="58">
         <v>0</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="58">
         <v>0</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="58">
         <v>0</v>
       </c>
-      <c r="L22" s="76">
+      <c r="L22" s="63">
         <v>0</v>
       </c>
-      <c r="M22" s="84">
+      <c r="M22" s="71">
         <v>0</v>
       </c>
-      <c r="N22" s="85">
+      <c r="N22" s="72">
         <v>0</v>
       </c>
-      <c r="O22" s="85">
+      <c r="O22" s="72">
         <v>0</v>
       </c>
-      <c r="P22" s="85">
+      <c r="P22" s="72">
         <v>0</v>
       </c>
-      <c r="Q22" s="86">
+      <c r="Q22" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D28" s="98">
+      <c r="D28" s="97">
         <v>2015</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="97">
         <f>+D28+1</f>
         <v>2016</v>
       </c>
-      <c r="F28" s="98">
-        <f t="shared" ref="F28:H28" si="1">+E28+1</f>
+      <c r="F28" s="97">
+        <f t="shared" ref="F28:I28" si="1">+E28+1</f>
         <v>2017</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="97">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="97">
         <f t="shared" si="1"/>
         <v>2019</v>
+      </c>
+      <c r="I28" s="97">
+        <f t="shared" si="1"/>
+        <v>2020</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="82" t="s">
         <v>334</v>
       </c>
       <c r="D29" s="45"/>
@@ -7881,10 +8738,11 @@
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="97"/>
-      <c r="C30" s="96" t="s">
+      <c r="B30" s="96"/>
+      <c r="C30" s="82" t="s">
         <v>335</v>
       </c>
       <c r="D30" s="45"/>
@@ -7892,12 +8750,13 @@
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="82" t="s">
         <v>334</v>
       </c>
       <c r="D31" s="45"/>
@@ -7905,10 +8764,13 @@
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
+      <c r="I31" s="45">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="96" t="s">
+      <c r="B32" s="96"/>
+      <c r="C32" s="82" t="s">
         <v>335</v>
       </c>
       <c r="D32" s="45"/>
@@ -7916,6 +8778,9 @@
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
+      <c r="I32" s="45">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7926,4 +8791,3188 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE765B5-C02C-4406-9DFD-504504C6F65F}">
+  <dimension ref="A1:AY43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="9" width="6.109375" style="1"/>
+    <col min="10" max="10" width="7.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="6.109375" style="1"/>
+    <col min="16" max="16" width="8.6640625" style="199" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" style="199" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" style="199" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" style="1" customWidth="1"/>
+    <col min="22" max="47" width="4" style="1" customWidth="1"/>
+    <col min="48" max="48" width="6.109375" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="6.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V2" s="155" t="s">
+        <v>338</v>
+      </c>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="156"/>
+      <c r="AL2" s="156"/>
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="156"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="156"/>
+      <c r="AQ2" s="156"/>
+      <c r="AR2" s="156"/>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" s="206" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="206"/>
+      <c r="C3" s="104">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104">
+        <f>+C3+1</f>
+        <v>2016</v>
+      </c>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104">
+        <f t="shared" ref="G3" si="0">+E3+1</f>
+        <v>2017</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104">
+        <f t="shared" ref="I3" si="1">+G3+1</f>
+        <v>2018</v>
+      </c>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104">
+        <f t="shared" ref="K3" si="2">+I3+1</f>
+        <v>2019</v>
+      </c>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104">
+        <f t="shared" ref="M3" si="3">+K3+1</f>
+        <v>2020</v>
+      </c>
+      <c r="N3" s="104"/>
+      <c r="P3" s="200" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="V3" s="113">
+        <v>2020</v>
+      </c>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114">
+        <f>+V3+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114">
+        <f t="shared" ref="Z3" si="4">+X3+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114">
+        <f t="shared" ref="AB3" si="5">+Z3+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114">
+        <f t="shared" ref="AD3" si="6">+AB3+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114">
+        <f t="shared" ref="AF3" si="7">+AD3+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114">
+        <f t="shared" ref="AH3" si="8">+AF3+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114">
+        <f t="shared" ref="AJ3" si="9">+AH3+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114">
+        <f t="shared" ref="AL3" si="10">+AJ3+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114">
+        <f t="shared" ref="AN3" si="11">+AL3+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114">
+        <f t="shared" ref="AP3" si="12">+AN3+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114">
+        <f t="shared" ref="AR3" si="13">+AP3+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AS3" s="154"/>
+      <c r="AT3" s="149">
+        <f t="shared" ref="AT3" si="14">+AR3+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AU3" s="105"/>
+    </row>
+    <row r="4" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="N4" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="202">
+        <f>+((C5/C5)^(1/1))-1</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="106">
+        <f>+P4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="W4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="X4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ4" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR4" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS4" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT4" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU4" s="165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="46">
+        <v>15</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="U5" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="V5" s="208">
+        <f>+C5+(C5*T4)</f>
+        <v>15</v>
+      </c>
+      <c r="W5" s="209"/>
+      <c r="X5" s="209"/>
+      <c r="Y5" s="209"/>
+      <c r="Z5" s="209"/>
+      <c r="AA5" s="210"/>
+      <c r="AB5" s="208">
+        <f>+V5+(V5*T4)</f>
+        <v>15</v>
+      </c>
+      <c r="AC5" s="209"/>
+      <c r="AD5" s="209"/>
+      <c r="AE5" s="209"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="210"/>
+      <c r="AH5" s="208">
+        <f>+AB5+(AB5*T4)</f>
+        <v>15</v>
+      </c>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="209"/>
+      <c r="AK5" s="209"/>
+      <c r="AL5" s="209"/>
+      <c r="AM5" s="210"/>
+      <c r="AN5" s="208">
+        <f>+AH5+(AH5*T4)</f>
+        <v>15</v>
+      </c>
+      <c r="AO5" s="209"/>
+      <c r="AP5" s="209"/>
+      <c r="AQ5" s="209"/>
+      <c r="AR5" s="209"/>
+      <c r="AS5" s="210"/>
+      <c r="AT5" s="211">
+        <f>+AN5+(AN5*T4)</f>
+        <v>15</v>
+      </c>
+      <c r="AU5" s="212"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A6" s="109"/>
+      <c r="B6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46">
+        <v>11</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="U6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="V6" s="213"/>
+      <c r="W6" s="214">
+        <f>+V5*$K$17</f>
+        <v>11</v>
+      </c>
+      <c r="X6" s="214"/>
+      <c r="Y6" s="214"/>
+      <c r="Z6" s="214"/>
+      <c r="AA6" s="212"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="214">
+        <f>+AB5*$K$17</f>
+        <v>11</v>
+      </c>
+      <c r="AD6" s="214"/>
+      <c r="AE6" s="214"/>
+      <c r="AF6" s="214"/>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="213"/>
+      <c r="AI6" s="214">
+        <f>+AH5*$K$17</f>
+        <v>11</v>
+      </c>
+      <c r="AJ6" s="214"/>
+      <c r="AK6" s="214"/>
+      <c r="AL6" s="214"/>
+      <c r="AM6" s="212"/>
+      <c r="AN6" s="213"/>
+      <c r="AO6" s="214">
+        <f>+AN5*$K$17</f>
+        <v>11</v>
+      </c>
+      <c r="AP6" s="214"/>
+      <c r="AQ6" s="214"/>
+      <c r="AR6" s="214"/>
+      <c r="AS6" s="212"/>
+      <c r="AT6" s="211"/>
+      <c r="AU6" s="211">
+        <f>+AT5*$K$17</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" s="109"/>
+      <c r="B7" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="46">
+        <v>10</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46">
+        <v>8</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="U7" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="V7" s="213"/>
+      <c r="W7" s="214"/>
+      <c r="X7" s="214">
+        <f>+W6*$K$18</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="214"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="213"/>
+      <c r="AC7" s="214"/>
+      <c r="AD7" s="214">
+        <f>+AC6*$K$18</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="AE7" s="214"/>
+      <c r="AF7" s="214"/>
+      <c r="AG7" s="212"/>
+      <c r="AH7" s="213"/>
+      <c r="AI7" s="214"/>
+      <c r="AJ7" s="214">
+        <f>+AI6*$K$18</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="AK7" s="214"/>
+      <c r="AL7" s="214"/>
+      <c r="AM7" s="212"/>
+      <c r="AN7" s="213"/>
+      <c r="AO7" s="214"/>
+      <c r="AP7" s="214">
+        <f>+AO6*$K$18</f>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="AQ7" s="214"/>
+      <c r="AR7" s="214"/>
+      <c r="AS7" s="212"/>
+      <c r="AT7" s="211"/>
+      <c r="AU7" s="212"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" s="109"/>
+      <c r="B8" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46">
+        <v>8</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46">
+        <v>8</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="U8" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" s="213"/>
+      <c r="W8" s="214"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="214">
+        <f>+X7*$K$19</f>
+        <v>3.1288888888888886</v>
+      </c>
+      <c r="Z8" s="214"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="213"/>
+      <c r="AC8" s="214"/>
+      <c r="AD8" s="214"/>
+      <c r="AE8" s="214">
+        <f>+AD7*$K$19</f>
+        <v>3.1288888888888886</v>
+      </c>
+      <c r="AF8" s="214"/>
+      <c r="AG8" s="212"/>
+      <c r="AH8" s="213"/>
+      <c r="AI8" s="214"/>
+      <c r="AJ8" s="214"/>
+      <c r="AK8" s="214">
+        <f>+AJ7*$K$19</f>
+        <v>3.1288888888888886</v>
+      </c>
+      <c r="AL8" s="214"/>
+      <c r="AM8" s="212"/>
+      <c r="AN8" s="213"/>
+      <c r="AO8" s="214"/>
+      <c r="AP8" s="214"/>
+      <c r="AQ8" s="214">
+        <f>+AP7*$K$19</f>
+        <v>3.1288888888888886</v>
+      </c>
+      <c r="AR8" s="214"/>
+      <c r="AS8" s="212"/>
+      <c r="AT8" s="211"/>
+      <c r="AU8" s="212"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
+      <c r="B9" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="46">
+        <v>9</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46">
+        <v>7</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46">
+        <v>4</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="U9" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="V9" s="213"/>
+      <c r="W9" s="214"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="214"/>
+      <c r="Z9" s="214">
+        <f>+Y8*$K$20</f>
+        <v>0.83437037037037032</v>
+      </c>
+      <c r="AA9" s="212"/>
+      <c r="AB9" s="213"/>
+      <c r="AC9" s="214"/>
+      <c r="AD9" s="214"/>
+      <c r="AE9" s="214"/>
+      <c r="AF9" s="214">
+        <f>+AE8*$K$20</f>
+        <v>0.83437037037037032</v>
+      </c>
+      <c r="AG9" s="212"/>
+      <c r="AH9" s="213"/>
+      <c r="AI9" s="214"/>
+      <c r="AJ9" s="214"/>
+      <c r="AK9" s="214"/>
+      <c r="AL9" s="214">
+        <f>+AK8*$K$20</f>
+        <v>0.83437037037037032</v>
+      </c>
+      <c r="AM9" s="212"/>
+      <c r="AN9" s="213"/>
+      <c r="AO9" s="214"/>
+      <c r="AP9" s="214"/>
+      <c r="AQ9" s="214"/>
+      <c r="AR9" s="214">
+        <f>+AQ8*$K$20</f>
+        <v>0.83437037037037032</v>
+      </c>
+      <c r="AS9" s="212"/>
+      <c r="AT9" s="211"/>
+      <c r="AU9" s="212"/>
+    </row>
+    <row r="10" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="109"/>
+      <c r="B10" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46">
+        <v>6</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46">
+        <v>4</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="U10" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="V10" s="215"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="216"/>
+      <c r="Y10" s="216"/>
+      <c r="Z10" s="216"/>
+      <c r="AA10" s="217">
+        <f>+Z9*$K$21</f>
+        <v>0.22249876543209876</v>
+      </c>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="216"/>
+      <c r="AD10" s="216"/>
+      <c r="AE10" s="216"/>
+      <c r="AF10" s="216"/>
+      <c r="AG10" s="217">
+        <f>+AF9*$K$21</f>
+        <v>0.22249876543209876</v>
+      </c>
+      <c r="AH10" s="215"/>
+      <c r="AI10" s="216"/>
+      <c r="AJ10" s="216"/>
+      <c r="AK10" s="216"/>
+      <c r="AL10" s="216"/>
+      <c r="AM10" s="217">
+        <f>+AL9*$K$21</f>
+        <v>0.22249876543209876</v>
+      </c>
+      <c r="AN10" s="215"/>
+      <c r="AO10" s="216"/>
+      <c r="AP10" s="216"/>
+      <c r="AQ10" s="216"/>
+      <c r="AR10" s="216"/>
+      <c r="AS10" s="217">
+        <f>+AR9*$K$21</f>
+        <v>0.22249876543209876</v>
+      </c>
+      <c r="AT10" s="211"/>
+      <c r="AU10" s="212"/>
+    </row>
+    <row r="11" spans="1:51" s="112" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="109"/>
+      <c r="B11" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="111">
+        <f>SUM(C5:C10)</f>
+        <v>34</v>
+      </c>
+      <c r="D11" s="111">
+        <f t="shared" ref="D11:L11" si="15">SUM(D5:D10)</f>
+        <v>25</v>
+      </c>
+      <c r="E11" s="111">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="111">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="G11" s="111">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="111">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="111">
+        <f t="shared" ref="M11:N11" si="16">SUM(M5:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="111">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+    </row>
+    <row r="12" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V13" s="179" t="s">
+        <v>341</v>
+      </c>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="180"/>
+      <c r="Z13" s="180"/>
+      <c r="AA13" s="180"/>
+      <c r="AB13" s="180"/>
+      <c r="AC13" s="180"/>
+      <c r="AD13" s="180"/>
+      <c r="AE13" s="180"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="180"/>
+      <c r="AH13" s="180"/>
+      <c r="AI13" s="180"/>
+      <c r="AJ13" s="180"/>
+      <c r="AK13" s="180"/>
+      <c r="AL13" s="180"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="180"/>
+      <c r="AP13" s="180"/>
+      <c r="AQ13" s="180"/>
+      <c r="AR13" s="180"/>
+      <c r="AS13" s="180"/>
+      <c r="AT13" s="180"/>
+      <c r="AU13" s="181"/>
+    </row>
+    <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="207" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="135" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="K14" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V14" s="182">
+        <f>+V3</f>
+        <v>2020</v>
+      </c>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183">
+        <f>+V14+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y14" s="183"/>
+      <c r="Z14" s="183">
+        <f t="shared" ref="Z14" si="17">+X14+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="183">
+        <f t="shared" ref="AB14" si="18">+Z14+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183">
+        <f t="shared" ref="AD14" si="19">+AB14+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AE14" s="183"/>
+      <c r="AF14" s="183">
+        <f t="shared" ref="AF14" si="20">+AD14+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AG14" s="183"/>
+      <c r="AH14" s="183">
+        <f t="shared" ref="AH14" si="21">+AF14+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AI14" s="183"/>
+      <c r="AJ14" s="183">
+        <f t="shared" ref="AJ14" si="22">+AH14+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AK14" s="183"/>
+      <c r="AL14" s="183">
+        <f t="shared" ref="AL14" si="23">+AJ14+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AM14" s="183"/>
+      <c r="AN14" s="183">
+        <f t="shared" ref="AN14" si="24">+AL14+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AO14" s="183"/>
+      <c r="AP14" s="183">
+        <f t="shared" ref="AP14" si="25">+AN14+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AQ14" s="183"/>
+      <c r="AR14" s="183">
+        <f t="shared" ref="AR14" si="26">+AP14+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AS14" s="183"/>
+      <c r="AT14" s="183">
+        <f t="shared" ref="AT14" si="27">+AR14+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AU14" s="184"/>
+    </row>
+    <row r="15" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="207"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="142" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="142"/>
+      <c r="V15" s="185" t="s">
+        <v>280</v>
+      </c>
+      <c r="W15" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="X15" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y15" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z15" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA15" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS15" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT15" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU15" s="142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="207"/>
+      <c r="B16" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="119"/>
+      <c r="U16" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="V16" s="208">
+        <f>+V5</f>
+        <v>15</v>
+      </c>
+      <c r="W16" s="209"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="209"/>
+      <c r="Z16" s="209"/>
+      <c r="AA16" s="210"/>
+      <c r="AB16" s="214">
+        <f>+AB5</f>
+        <v>15</v>
+      </c>
+      <c r="AC16" s="214"/>
+      <c r="AD16" s="214"/>
+      <c r="AE16" s="214"/>
+      <c r="AF16" s="214"/>
+      <c r="AG16" s="214"/>
+      <c r="AH16" s="214">
+        <f>+AH5</f>
+        <v>15</v>
+      </c>
+      <c r="AI16" s="214"/>
+      <c r="AJ16" s="214"/>
+      <c r="AK16" s="214"/>
+      <c r="AL16" s="214"/>
+      <c r="AM16" s="214"/>
+      <c r="AN16" s="214">
+        <f>+AN5</f>
+        <v>15</v>
+      </c>
+      <c r="AO16" s="214"/>
+      <c r="AP16" s="214"/>
+      <c r="AQ16" s="214"/>
+      <c r="AR16" s="214"/>
+      <c r="AS16" s="214"/>
+      <c r="AT16" s="214">
+        <f>+AT5</f>
+        <v>15</v>
+      </c>
+      <c r="AU16" s="212"/>
+    </row>
+    <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="207"/>
+      <c r="B17" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="166">
+        <f>+D6/C5</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="E17" s="167"/>
+      <c r="F17" s="166">
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="166">
+        <v>0</v>
+      </c>
+      <c r="I17" s="119"/>
+      <c r="K17" s="173">
+        <f>+AVERAGE(D17:E17)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="L17" s="176">
+        <v>0.99</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="V17" s="213"/>
+      <c r="W17" s="214">
+        <f>+V16*$L$17</f>
+        <v>14.85</v>
+      </c>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
+      <c r="AA17" s="212"/>
+      <c r="AB17" s="214"/>
+      <c r="AC17" s="214">
+        <f>+AB16*$L$17</f>
+        <v>14.85</v>
+      </c>
+      <c r="AD17" s="214"/>
+      <c r="AE17" s="214"/>
+      <c r="AF17" s="214"/>
+      <c r="AG17" s="214"/>
+      <c r="AH17" s="214"/>
+      <c r="AI17" s="214">
+        <f>+AH16*$L$17</f>
+        <v>14.85</v>
+      </c>
+      <c r="AJ17" s="214"/>
+      <c r="AK17" s="214"/>
+      <c r="AL17" s="214"/>
+      <c r="AM17" s="214"/>
+      <c r="AN17" s="214"/>
+      <c r="AO17" s="214">
+        <f>+AN16*$L$17</f>
+        <v>14.85</v>
+      </c>
+      <c r="AP17" s="214"/>
+      <c r="AQ17" s="214"/>
+      <c r="AR17" s="214"/>
+      <c r="AS17" s="214"/>
+      <c r="AT17" s="214"/>
+      <c r="AU17" s="212">
+        <f>+AT16*$L$17</f>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="207"/>
+      <c r="B18" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="166">
+        <f>+E7/C5</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E18" s="120"/>
+      <c r="F18" s="166">
+        <v>0</v>
+      </c>
+      <c r="G18" s="120"/>
+      <c r="H18" s="166">
+        <v>0</v>
+      </c>
+      <c r="I18" s="119"/>
+      <c r="K18" s="174">
+        <f t="shared" ref="K18:K21" si="28">+AVERAGE(D18:E18)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="L18" s="177">
+        <v>0.99</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="V18" s="213"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214">
+        <f>+W17*$L$18</f>
+        <v>14.701499999999999</v>
+      </c>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="212"/>
+      <c r="AB18" s="214"/>
+      <c r="AC18" s="214"/>
+      <c r="AD18" s="214">
+        <f>+AC17*$L$18</f>
+        <v>14.701499999999999</v>
+      </c>
+      <c r="AE18" s="214"/>
+      <c r="AF18" s="214"/>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="214"/>
+      <c r="AI18" s="214"/>
+      <c r="AJ18" s="214">
+        <f>+AI17*$L$18</f>
+        <v>14.701499999999999</v>
+      </c>
+      <c r="AK18" s="214"/>
+      <c r="AL18" s="214"/>
+      <c r="AM18" s="214"/>
+      <c r="AN18" s="214"/>
+      <c r="AO18" s="214"/>
+      <c r="AP18" s="214">
+        <f>+AO17*$L$18</f>
+        <v>14.701499999999999</v>
+      </c>
+      <c r="AQ18" s="214"/>
+      <c r="AR18" s="214"/>
+      <c r="AS18" s="214"/>
+      <c r="AT18" s="214"/>
+      <c r="AU18" s="212"/>
+    </row>
+    <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="207"/>
+      <c r="B19" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="117"/>
+      <c r="D19" s="168">
+        <f>+F8/C5</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="166">
+        <v>0</v>
+      </c>
+      <c r="G19" s="120"/>
+      <c r="H19" s="166">
+        <v>0</v>
+      </c>
+      <c r="I19" s="119"/>
+      <c r="K19" s="174">
+        <f t="shared" si="28"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="L19" s="177">
+        <v>0.99</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="V19" s="213"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214">
+        <f>+X18*$L$19</f>
+        <v>14.554485</v>
+      </c>
+      <c r="Z19" s="214"/>
+      <c r="AA19" s="212"/>
+      <c r="AB19" s="214"/>
+      <c r="AC19" s="214"/>
+      <c r="AD19" s="214"/>
+      <c r="AE19" s="214">
+        <f>+AD18*$L$19</f>
+        <v>14.554485</v>
+      </c>
+      <c r="AF19" s="214"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="214"/>
+      <c r="AI19" s="214"/>
+      <c r="AJ19" s="214"/>
+      <c r="AK19" s="214">
+        <f>+AJ18*$L$19</f>
+        <v>14.554485</v>
+      </c>
+      <c r="AL19" s="214"/>
+      <c r="AM19" s="214"/>
+      <c r="AN19" s="214"/>
+      <c r="AO19" s="214"/>
+      <c r="AP19" s="214"/>
+      <c r="AQ19" s="214">
+        <f>+AP18*$L$19</f>
+        <v>14.554485</v>
+      </c>
+      <c r="AR19" s="214"/>
+      <c r="AS19" s="214"/>
+      <c r="AT19" s="214"/>
+      <c r="AU19" s="212"/>
+    </row>
+    <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="207"/>
+      <c r="B20" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="168">
+        <f>+G9/C5</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="166">
+        <v>0</v>
+      </c>
+      <c r="G20" s="120"/>
+      <c r="H20" s="166">
+        <v>0</v>
+      </c>
+      <c r="I20" s="119"/>
+      <c r="K20" s="174">
+        <f t="shared" si="28"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="L20" s="177">
+        <v>0.99</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="V20" s="213"/>
+      <c r="W20" s="214"/>
+      <c r="X20" s="214"/>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="214">
+        <f>+Y19*$L$20</f>
+        <v>14.408940149999999</v>
+      </c>
+      <c r="AA20" s="212"/>
+      <c r="AB20" s="214"/>
+      <c r="AC20" s="214"/>
+      <c r="AD20" s="214"/>
+      <c r="AE20" s="214"/>
+      <c r="AF20" s="214">
+        <f>+AE19*$L$20</f>
+        <v>14.408940149999999</v>
+      </c>
+      <c r="AG20" s="214"/>
+      <c r="AH20" s="214"/>
+      <c r="AI20" s="214"/>
+      <c r="AJ20" s="214"/>
+      <c r="AK20" s="214"/>
+      <c r="AL20" s="214">
+        <f>+AK19*$L$20</f>
+        <v>14.408940149999999</v>
+      </c>
+      <c r="AM20" s="214"/>
+      <c r="AN20" s="214"/>
+      <c r="AO20" s="214"/>
+      <c r="AP20" s="214"/>
+      <c r="AQ20" s="214"/>
+      <c r="AR20" s="214">
+        <f>+AQ19*$L$20</f>
+        <v>14.408940149999999</v>
+      </c>
+      <c r="AS20" s="214"/>
+      <c r="AT20" s="214"/>
+      <c r="AU20" s="212"/>
+    </row>
+    <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="207"/>
+      <c r="B21" s="116" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="169">
+        <f>+H10/C5</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E21" s="170"/>
+      <c r="F21" s="166">
+        <v>0</v>
+      </c>
+      <c r="G21" s="170"/>
+      <c r="H21" s="166">
+        <v>0</v>
+      </c>
+      <c r="I21" s="121"/>
+      <c r="K21" s="175">
+        <f t="shared" si="28"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="L21" s="178">
+        <v>0.99</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="V21" s="215"/>
+      <c r="W21" s="216"/>
+      <c r="X21" s="216"/>
+      <c r="Y21" s="216"/>
+      <c r="Z21" s="216"/>
+      <c r="AA21" s="217">
+        <f>+Z20*$L$21</f>
+        <v>14.264850748499999</v>
+      </c>
+      <c r="AB21" s="216"/>
+      <c r="AC21" s="216"/>
+      <c r="AD21" s="216"/>
+      <c r="AE21" s="216"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="216">
+        <f>+AF20*$L$21</f>
+        <v>14.264850748499999</v>
+      </c>
+      <c r="AH21" s="216"/>
+      <c r="AI21" s="216"/>
+      <c r="AJ21" s="216"/>
+      <c r="AK21" s="216"/>
+      <c r="AL21" s="216"/>
+      <c r="AM21" s="216">
+        <f>+AL20*$L$21</f>
+        <v>14.264850748499999</v>
+      </c>
+      <c r="AN21" s="216"/>
+      <c r="AO21" s="216"/>
+      <c r="AP21" s="216"/>
+      <c r="AQ21" s="216"/>
+      <c r="AR21" s="216"/>
+      <c r="AS21" s="216">
+        <f>+AR20*$L$21</f>
+        <v>14.264850748499999</v>
+      </c>
+      <c r="AT21" s="216"/>
+      <c r="AU21" s="217"/>
+    </row>
+    <row r="24" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A25" s="132" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="132"/>
+      <c r="C25" s="122">
+        <f>+C3</f>
+        <v>2015</v>
+      </c>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122">
+        <f>+C25+1</f>
+        <v>2016</v>
+      </c>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122">
+        <f t="shared" ref="G25" si="29">+E25+1</f>
+        <v>2017</v>
+      </c>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122">
+        <f t="shared" ref="I25" si="30">+G25+1</f>
+        <v>2018</v>
+      </c>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122">
+        <f t="shared" ref="K25" si="31">+I25+1</f>
+        <v>2019</v>
+      </c>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122">
+        <f t="shared" ref="M25" si="32">+K25+1</f>
+        <v>2020</v>
+      </c>
+      <c r="N25" s="122"/>
+      <c r="V25" s="192" t="s">
+        <v>338</v>
+      </c>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="193"/>
+      <c r="AC25" s="193"/>
+      <c r="AD25" s="193"/>
+      <c r="AE25" s="193"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="193"/>
+      <c r="AH25" s="193"/>
+      <c r="AI25" s="193"/>
+      <c r="AJ25" s="193"/>
+      <c r="AK25" s="193"/>
+      <c r="AL25" s="193"/>
+      <c r="AM25" s="193"/>
+      <c r="AN25" s="193"/>
+      <c r="AO25" s="193"/>
+      <c r="AP25" s="193"/>
+      <c r="AQ25" s="193"/>
+      <c r="AR25" s="193"/>
+      <c r="AS25" s="193"/>
+      <c r="AT25" s="193"/>
+      <c r="AU25" s="194"/>
+    </row>
+    <row r="26" spans="1:47" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="I26" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="J26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="L26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="M26" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="N26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="203" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q26" s="203" t="s">
+        <v>359</v>
+      </c>
+      <c r="R26" s="203" t="s">
+        <v>358</v>
+      </c>
+      <c r="S26" s="203" t="s">
+        <v>357</v>
+      </c>
+      <c r="T26" s="123" t="s">
+        <v>356</v>
+      </c>
+      <c r="V26" s="195">
+        <f>+V3</f>
+        <v>2020</v>
+      </c>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122">
+        <f>+V26+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122">
+        <f t="shared" ref="Z26" si="33">+X26+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="122">
+        <f t="shared" ref="AB26" si="34">+Z26+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="122">
+        <f t="shared" ref="AD26" si="35">+AB26+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="122">
+        <f t="shared" ref="AF26" si="36">+AD26+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="122">
+        <f t="shared" ref="AH26" si="37">+AF26+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="122">
+        <f t="shared" ref="AJ26" si="38">+AH26+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AK26" s="122"/>
+      <c r="AL26" s="122">
+        <f t="shared" ref="AL26" si="39">+AJ26+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AM26" s="122"/>
+      <c r="AN26" s="122">
+        <f t="shared" ref="AN26" si="40">+AL26+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AO26" s="122"/>
+      <c r="AP26" s="122">
+        <f t="shared" ref="AP26" si="41">+AN26+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AQ26" s="122"/>
+      <c r="AR26" s="122">
+        <f t="shared" ref="AR26" si="42">+AP26+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AS26" s="122"/>
+      <c r="AT26" s="122">
+        <f t="shared" ref="AT26" si="43">+AR26+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AU26" s="196"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46">
+        <v>24</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46">
+        <v>26</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46">
+        <v>20</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46">
+        <v>20</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46">
+        <v>16</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="P27" s="204">
+        <f>+((G27/E27)^(1/1))-1</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="Q27" s="204">
+        <f>+((I27/G27)^(1/1))-1</f>
+        <v>-0.23076923076923073</v>
+      </c>
+      <c r="R27" s="204">
+        <f>+((K27/I27)^(1/1))-1</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="204">
+        <f>+((M27/K27)^(1/1))-1</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="T27" s="205">
+        <f>+AVERAGE(P27:S27)</f>
+        <v>-8.6858974358974356E-2</v>
+      </c>
+      <c r="V27" s="197" t="s">
+        <v>280</v>
+      </c>
+      <c r="W27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="X27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS27" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT27" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU27" s="198" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A28" s="122"/>
+      <c r="B28" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46">
+        <v>20</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46">
+        <v>26</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46">
+        <v>20</v>
+      </c>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46">
+        <v>15</v>
+      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="U28" s="158" t="s">
+        <v>280</v>
+      </c>
+      <c r="V28" s="46">
+        <f>+M27</f>
+        <v>16</v>
+      </c>
+      <c r="W28" s="160"/>
+      <c r="X28" s="150">
+        <f>M27+(M27*T27)</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150">
+        <f>X28+(X28*T27)</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="150">
+        <f>Z28+(Z28*T27)</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150">
+        <f>+AB28+(AB28*T27)</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="150">
+        <f>AD28+(AD28*T27)</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150">
+        <f>AF28+(AF28*T27)</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="150">
+        <f>+AH28+(AH28*T27)</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="150">
+        <f>AJ28+(AJ28*T27)</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="150">
+        <f>AL28+(AL28*T27)</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AO28" s="150"/>
+      <c r="AP28" s="150">
+        <f>+AN28+(AJ28*T27)</f>
+        <v>6.3268379289646584</v>
+      </c>
+      <c r="AQ28" s="150"/>
+      <c r="AR28" s="150">
+        <f>AP28+(AP28*T27)</f>
+        <v>5.7772952755193305</v>
+      </c>
+      <c r="AS28" s="150"/>
+      <c r="AT28" s="150">
+        <f>AR28+(AR28*T27)</f>
+        <v>5.2754853333187732</v>
+      </c>
+      <c r="AU28" s="148"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A29" s="122"/>
+      <c r="B29" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46">
+        <v>20</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46">
+        <v>20</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46">
+        <v>14</v>
+      </c>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46">
+        <v>21</v>
+      </c>
+      <c r="N29" s="46"/>
+      <c r="U29" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="V29" s="159"/>
+      <c r="W29" s="150">
+        <f>V28*L39</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="150">
+        <f>+X28*$L$39</f>
+        <v>13.088354700854701</v>
+      </c>
+      <c r="Z29" s="150"/>
+      <c r="AA29" s="150">
+        <f>Z28*L39</f>
+        <v>11.951513635492001</v>
+      </c>
+      <c r="AB29" s="150"/>
+      <c r="AC29" s="150">
+        <f>AB28*L39</f>
+        <v>10.913417419075868</v>
+      </c>
+      <c r="AD29" s="150"/>
+      <c r="AE29" s="150">
+        <f>+AD28*$L$39</f>
+        <v>9.9654891753035741</v>
+      </c>
+      <c r="AF29" s="150"/>
+      <c r="AG29" s="150">
+        <f>AF28*L39</f>
+        <v>9.0998970065512452</v>
+      </c>
+      <c r="AH29" s="150"/>
+      <c r="AI29" s="150">
+        <f>AH28*L39</f>
+        <v>8.309489285789903</v>
+      </c>
+      <c r="AJ29" s="150"/>
+      <c r="AK29" s="150">
+        <f>+AJ28*$L$39</f>
+        <v>7.5877355689793058</v>
+      </c>
+      <c r="AL29" s="150"/>
+      <c r="AM29" s="150">
+        <f>AL28*L39</f>
+        <v>6.9286726397506539</v>
+      </c>
+      <c r="AN29" s="150"/>
+      <c r="AO29" s="150">
+        <f>AN28*L39</f>
+        <v>6.3268552405928249</v>
+      </c>
+      <c r="AP29" s="150"/>
+      <c r="AQ29" s="150">
+        <f>+AP28*$L$39</f>
+        <v>5.6677923113641731</v>
+      </c>
+      <c r="AR29" s="150"/>
+      <c r="AS29" s="150">
+        <f>AR28*L39</f>
+        <v>5.1754936843194006</v>
+      </c>
+      <c r="AT29" s="150"/>
+      <c r="AU29" s="150">
+        <f>AT28*L39</f>
+        <v>4.7259556110980681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A30" s="122"/>
+      <c r="B30" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46">
+        <v>20</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46">
+        <v>20</v>
+      </c>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46">
+        <v>12</v>
+      </c>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="U30" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="V30" s="159"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="150">
+        <f>W29*L40</f>
+        <v>12.0133547008547</v>
+      </c>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150">
+        <f>+Y29*$L$40</f>
+        <v>10.969887032927897</v>
+      </c>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150">
+        <f>AA29*L40</f>
+        <v>10.017053896413968</v>
+      </c>
+      <c r="AC30" s="150"/>
+      <c r="AD30" s="150">
+        <f>AC29*L40</f>
+        <v>9.1469828688728825</v>
+      </c>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="150">
+        <f>+AE29*$L$40</f>
+        <v>8.3524853184034757</v>
+      </c>
+      <c r="AG30" s="150"/>
+      <c r="AH30" s="150">
+        <f>AG29*L40</f>
+        <v>7.6269970102985587</v>
+      </c>
+      <c r="AI30" s="150"/>
+      <c r="AJ30" s="150">
+        <f>AI29*L40</f>
+        <v>6.9645238725450618</v>
+      </c>
+      <c r="AK30" s="150"/>
+      <c r="AL30" s="150">
+        <f>+AK29*$L$40</f>
+        <v>6.3595924720772059</v>
+      </c>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="150">
+        <f>AM29*L40</f>
+        <v>5.8072047926115253</v>
+      </c>
+      <c r="AO30" s="150"/>
+      <c r="AP30" s="150">
+        <f>AO29*L40</f>
+        <v>5.3027969404327679</v>
+      </c>
+      <c r="AQ30" s="150"/>
+      <c r="AR30" s="150">
+        <f>+AQ29*$L$40</f>
+        <v>4.7504092609670865</v>
+      </c>
+      <c r="AS30" s="150"/>
+      <c r="AT30" s="150">
+        <f>AS29*L40</f>
+        <v>4.3377935847741123</v>
+      </c>
+      <c r="AU30" s="148"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A31" s="122"/>
+      <c r="B31" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46">
+        <v>18</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46">
+        <v>16</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46">
+        <v>18</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="U31" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150">
+        <f>X30*L41</f>
+        <v>8.8200612718240929</v>
+      </c>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150">
+        <f>+Z30*$L$41</f>
+        <v>8.0539597959701403</v>
+      </c>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150">
+        <f>AB30*L41</f>
+        <v>7.3544011085637599</v>
+      </c>
+      <c r="AD31" s="150"/>
+      <c r="AE31" s="150">
+        <f>AD30*L41</f>
+        <v>6.7156053712494073</v>
+      </c>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="150">
+        <f>+AF30*$L$41</f>
+        <v>6.1322947765030653</v>
+      </c>
+      <c r="AH31" s="150"/>
+      <c r="AI31" s="150">
+        <f>AH30*L41</f>
+        <v>5.5996499417491128</v>
+      </c>
+      <c r="AJ31" s="150"/>
+      <c r="AK31" s="150">
+        <f>AJ30*L41</f>
+        <v>5.1132700910394941</v>
+      </c>
+      <c r="AL31" s="150"/>
+      <c r="AM31" s="150">
+        <f>+AL30*$L$41</f>
+        <v>4.6691366953113844</v>
+      </c>
+      <c r="AN31" s="150"/>
+      <c r="AO31" s="150">
+        <f>AN30*L41</f>
+        <v>4.2635802708147867</v>
+      </c>
+      <c r="AP31" s="150"/>
+      <c r="AQ31" s="150">
+        <f>AP30*L41</f>
+        <v>3.8932500613946566</v>
+      </c>
+      <c r="AR31" s="150"/>
+      <c r="AS31" s="150">
+        <f>+AR30*$L$41</f>
+        <v>3.487693636898058</v>
+      </c>
+      <c r="AT31" s="150"/>
+      <c r="AU31" s="148">
+        <f>AT30*L41</f>
+        <v>3.1847561447187713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A32" s="122"/>
+      <c r="B32" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46">
+        <v>18</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46">
+        <v>17</v>
+      </c>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="U32" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="V32" s="159"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150">
+        <f>Y31*L42</f>
+        <v>6.6602770373133211</v>
+      </c>
+      <c r="AA32" s="150"/>
+      <c r="AB32" s="150">
+        <f>+AA31*$L$42</f>
+        <v>6.0817722049056568</v>
+      </c>
+      <c r="AC32" s="150"/>
+      <c r="AD32" s="150">
+        <f>AC31*L42</f>
+        <v>5.5535157089026344</v>
+      </c>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="150">
+        <f>AE31*L42</f>
+        <v>5.0711430303408989</v>
+      </c>
+      <c r="AG32" s="150"/>
+      <c r="AH32" s="150">
+        <f>+AG31*$L$42</f>
+        <v>4.6306687478978272</v>
+      </c>
+      <c r="AI32" s="150"/>
+      <c r="AJ32" s="150">
+        <f>AI31*L42</f>
+        <v>4.2284536098592662</v>
+      </c>
+      <c r="AK32" s="150"/>
+      <c r="AL32" s="150">
+        <f>AK31*L42</f>
+        <v>3.861174466182387</v>
+      </c>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="150">
+        <f>+AM31*$L$42</f>
+        <v>3.5257968122287249</v>
+      </c>
+      <c r="AO32" s="150"/>
+      <c r="AP32" s="150">
+        <f>AO31*L42</f>
+        <v>3.2195497173203966</v>
+      </c>
+      <c r="AQ32" s="150"/>
+      <c r="AR32" s="150">
+        <f>AQ31*L42</f>
+        <v>2.9399029309762215</v>
+      </c>
+      <c r="AS32" s="150"/>
+      <c r="AT32" s="150">
+        <f>+AS31*$L$42</f>
+        <v>2.6336558360678923</v>
+      </c>
+      <c r="AU32" s="148"/>
+    </row>
+    <row r="33" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="122"/>
+      <c r="B33" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="111">
+        <f t="shared" ref="C33:L33" si="44">SUM(C27:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="111">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="111">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="F33" s="111">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="111">
+        <f t="shared" si="44"/>
+        <v>46</v>
+      </c>
+      <c r="H33" s="111">
+        <f t="shared" si="44"/>
+        <v>46</v>
+      </c>
+      <c r="I33" s="111">
+        <f t="shared" si="44"/>
+        <v>58</v>
+      </c>
+      <c r="J33" s="111">
+        <f t="shared" si="44"/>
+        <v>58</v>
+      </c>
+      <c r="K33" s="111">
+        <f t="shared" si="44"/>
+        <v>50</v>
+      </c>
+      <c r="L33" s="111">
+        <f t="shared" si="44"/>
+        <v>44</v>
+      </c>
+      <c r="M33" s="111">
+        <f t="shared" ref="M33:N33" si="45">SUM(M27:M32)</f>
+        <v>55</v>
+      </c>
+      <c r="N33" s="111">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="V33" s="161"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152">
+        <f>Z32*L43</f>
+        <v>3.1166681007940538</v>
+      </c>
+      <c r="AB33" s="152"/>
+      <c r="AC33" s="152">
+        <f>+AB32*$L$43</f>
+        <v>2.8459575061417492</v>
+      </c>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="152">
+        <f>AD32*L43</f>
+        <v>2.598760556089053</v>
+      </c>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="152">
+        <f>AF32*L43</f>
+        <v>2.3730348795825997</v>
+      </c>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="152">
+        <f>+AH32*$L$43</f>
+        <v>2.1669155038239829</v>
+      </c>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152">
+        <f>AJ32*L43</f>
+        <v>1.9786994456392717</v>
+      </c>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="152">
+        <f>AL32*L43</f>
+        <v>1.8068316412263732</v>
+      </c>
+      <c r="AN33" s="152"/>
+      <c r="AO33" s="152">
+        <f>+AN32*$L$43</f>
+        <v>1.6498920980301082</v>
+      </c>
+      <c r="AP33" s="152"/>
+      <c r="AQ33" s="152">
+        <f>AP32*L43</f>
+        <v>1.5065841625922367</v>
+      </c>
+      <c r="AR33" s="152"/>
+      <c r="AS33" s="152">
+        <f>AR32*L43</f>
+        <v>1.375723807444001</v>
+      </c>
+      <c r="AT33" s="152"/>
+      <c r="AU33" s="153">
+        <f>+AT32*$L$43</f>
+        <v>1.2324158720061289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V35" s="187" t="s">
+        <v>341</v>
+      </c>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="188"/>
+      <c r="AA35" s="188"/>
+      <c r="AB35" s="188"/>
+      <c r="AC35" s="188"/>
+      <c r="AD35" s="188"/>
+      <c r="AE35" s="188"/>
+      <c r="AF35" s="188"/>
+      <c r="AG35" s="188"/>
+      <c r="AH35" s="188"/>
+      <c r="AI35" s="188"/>
+      <c r="AJ35" s="188"/>
+      <c r="AK35" s="188"/>
+      <c r="AL35" s="188"/>
+      <c r="AM35" s="188"/>
+      <c r="AN35" s="188"/>
+      <c r="AO35" s="188"/>
+      <c r="AP35" s="188"/>
+      <c r="AQ35" s="188"/>
+      <c r="AR35" s="188"/>
+      <c r="AS35" s="188"/>
+      <c r="AT35" s="188"/>
+      <c r="AU35" s="189"/>
+    </row>
+    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="126" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="127" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="128"/>
+      <c r="D36" s="143" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="144"/>
+      <c r="F36" s="143" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="144"/>
+      <c r="H36" s="143" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="144"/>
+      <c r="J36" s="143" t="s">
+        <v>353</v>
+      </c>
+      <c r="K36" s="144"/>
+      <c r="V36" s="190">
+        <f>+V26</f>
+        <v>2020</v>
+      </c>
+      <c r="W36" s="133"/>
+      <c r="X36" s="133">
+        <f>+V36+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y36" s="133"/>
+      <c r="Z36" s="133">
+        <f t="shared" ref="Z36" si="46">+X36+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AA36" s="133"/>
+      <c r="AB36" s="133">
+        <f t="shared" ref="AB36" si="47">+Z36+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AC36" s="133"/>
+      <c r="AD36" s="133">
+        <f t="shared" ref="AD36" si="48">+AB36+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AE36" s="133"/>
+      <c r="AF36" s="133">
+        <f t="shared" ref="AF36" si="49">+AD36+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AG36" s="133"/>
+      <c r="AH36" s="133">
+        <f t="shared" ref="AH36" si="50">+AF36+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AI36" s="133"/>
+      <c r="AJ36" s="133">
+        <f t="shared" ref="AJ36" si="51">+AH36+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AK36" s="133"/>
+      <c r="AL36" s="133">
+        <f t="shared" ref="AL36" si="52">+AJ36+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AM36" s="133"/>
+      <c r="AN36" s="133">
+        <f t="shared" ref="AN36" si="53">+AL36+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AO36" s="133"/>
+      <c r="AP36" s="133">
+        <f t="shared" ref="AP36" si="54">+AN36+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AQ36" s="133"/>
+      <c r="AR36" s="133">
+        <f t="shared" ref="AR36" si="55">+AP36+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AS36" s="133"/>
+      <c r="AT36" s="133">
+        <f t="shared" ref="AT36" si="56">+AR36+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AU36" s="191"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A37" s="126"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="146"/>
+      <c r="V37" s="141" t="s">
+        <v>280</v>
+      </c>
+      <c r="W37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="X37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS37" s="186" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT37" s="186" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU37" s="142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="126"/>
+      <c r="B38" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="117"/>
+      <c r="D38" s="166">
+        <f>+E27/$E$27</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="120"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M38" s="131"/>
+      <c r="U38" s="158" t="s">
+        <v>280</v>
+      </c>
+      <c r="V38" s="147">
+        <f>+V28</f>
+        <v>16</v>
+      </c>
+      <c r="W38" s="150"/>
+      <c r="X38" s="150">
+        <f>+X28</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150">
+        <f>+Z28</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AA38" s="150"/>
+      <c r="AB38" s="150">
+        <f>+AB28</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AC38" s="150"/>
+      <c r="AD38" s="150">
+        <f>+AD28</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AE38" s="150"/>
+      <c r="AF38" s="150">
+        <f>+AF28</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AG38" s="150"/>
+      <c r="AH38" s="150">
+        <f>+AH28</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AI38" s="150"/>
+      <c r="AJ38" s="150">
+        <f>+AJ28</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AK38" s="150"/>
+      <c r="AL38" s="150">
+        <f>+AL28</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AM38" s="150"/>
+      <c r="AN38" s="150">
+        <f>+AN28</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AO38" s="150"/>
+      <c r="AP38" s="150">
+        <f>+AP28</f>
+        <v>6.3268379289646584</v>
+      </c>
+      <c r="AQ38" s="150"/>
+      <c r="AR38" s="150">
+        <f>+AR28</f>
+        <v>5.7772952755193305</v>
+      </c>
+      <c r="AS38" s="150"/>
+      <c r="AT38" s="150">
+        <f>+AT28</f>
+        <v>5.2754853333187732</v>
+      </c>
+      <c r="AU38" s="148"/>
+    </row>
+    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="126"/>
+      <c r="B39" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="117"/>
+      <c r="D39" s="166">
+        <f>+F28/$E$27</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E39" s="120"/>
+      <c r="F39" s="166">
+        <f>+H28/$G$27</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="120"/>
+      <c r="H39" s="166">
+        <f>+J28/$I$27</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="120"/>
+      <c r="J39" s="166">
+        <f>+L28/$K$27</f>
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="120"/>
+      <c r="L39" s="173">
+        <f>+AVERAGE(D39:J39)</f>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M39" s="176">
+        <v>1</v>
+      </c>
+      <c r="U39" s="158" t="s">
+        <v>281</v>
+      </c>
+      <c r="V39" s="147"/>
+      <c r="W39" s="150">
+        <f>+V38*$M$39</f>
+        <v>16</v>
+      </c>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="150">
+        <f>+X38*$M$39</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150">
+        <f>+Z38*$M$39</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="150">
+        <f>+AB38*$M$39</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="150">
+        <f>+AD38*$M$39</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AF39" s="150"/>
+      <c r="AG39" s="150">
+        <f>+AF38*$M$39</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AH39" s="150"/>
+      <c r="AI39" s="150">
+        <f>+AH38*$M$39</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AJ39" s="150"/>
+      <c r="AK39" s="150">
+        <f>+AJ38*$M$39</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AL39" s="150"/>
+      <c r="AM39" s="150">
+        <f>+AL38*$M$39</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AN39" s="150"/>
+      <c r="AO39" s="150">
+        <f>+AN38*$M$39</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AP39" s="150"/>
+      <c r="AQ39" s="150">
+        <f>+AP38*$M$39</f>
+        <v>6.3268379289646584</v>
+      </c>
+      <c r="AR39" s="150"/>
+      <c r="AS39" s="150">
+        <f>+AR38*$M$39</f>
+        <v>5.7772952755193305</v>
+      </c>
+      <c r="AT39" s="150"/>
+      <c r="AU39" s="150">
+        <f>+AT38*$M$39</f>
+        <v>5.2754853333187732</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="126"/>
+      <c r="B40" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="117"/>
+      <c r="D40" s="166">
+        <f>+G29/$E$27</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E40" s="120"/>
+      <c r="F40" s="166">
+        <f>+I29/$G$27</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G40" s="120"/>
+      <c r="H40" s="166">
+        <f>+K29/$I$27</f>
+        <v>0.7</v>
+      </c>
+      <c r="I40" s="120"/>
+      <c r="J40" s="166">
+        <f>+M29/$K$27</f>
+        <v>1.05</v>
+      </c>
+      <c r="K40" s="120"/>
+      <c r="L40" s="174">
+        <f t="shared" ref="L40:L41" si="57">+AVERAGE(D40:J40)</f>
+        <v>0.83814102564102555</v>
+      </c>
+      <c r="M40" s="177">
+        <v>1</v>
+      </c>
+      <c r="U40" s="158" t="s">
+        <v>282</v>
+      </c>
+      <c r="V40" s="147"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150">
+        <f>+W39*$M$40</f>
+        <v>16</v>
+      </c>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150">
+        <f>+Y39*$M$40</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150">
+        <f>+AA39*$M$40</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AC40" s="150"/>
+      <c r="AD40" s="150">
+        <f>+AC39*$M$40</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AE40" s="150"/>
+      <c r="AF40" s="150">
+        <f>+AE39*$M$40</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AG40" s="150"/>
+      <c r="AH40" s="150">
+        <f>+AG39*$M$40</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AI40" s="150"/>
+      <c r="AJ40" s="150">
+        <f>+AI39*$M$40</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AK40" s="150"/>
+      <c r="AL40" s="150">
+        <f>+AK39*$M$40</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AM40" s="150"/>
+      <c r="AN40" s="150">
+        <f>+AM39*$M$40</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AO40" s="150"/>
+      <c r="AP40" s="150">
+        <f>+AO39*$M$40</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AQ40" s="150"/>
+      <c r="AR40" s="150">
+        <f>+AQ39*$M$40</f>
+        <v>6.3268379289646584</v>
+      </c>
+      <c r="AS40" s="150"/>
+      <c r="AT40" s="150">
+        <f>+AS39*$M$40</f>
+        <v>5.7772952755193305</v>
+      </c>
+      <c r="AU40" s="148"/>
+    </row>
+    <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="126"/>
+      <c r="B41" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="117"/>
+      <c r="D41" s="166">
+        <f>+H30/$E$27</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E41" s="120"/>
+      <c r="F41" s="166">
+        <f>+J30/$G$27</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G41" s="120"/>
+      <c r="H41" s="166">
+        <f>+L30/$I$27</f>
+        <v>0.6</v>
+      </c>
+      <c r="I41" s="120"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="174">
+        <f>+AVERAGE(D41:I41)</f>
+        <v>0.73418803418803424</v>
+      </c>
+      <c r="M41" s="177">
+        <v>1</v>
+      </c>
+      <c r="U41" s="158" t="s">
+        <v>283</v>
+      </c>
+      <c r="V41" s="147"/>
+      <c r="W41" s="150"/>
+      <c r="X41" s="150"/>
+      <c r="Y41" s="150">
+        <f>+X40*$M$41</f>
+        <v>16</v>
+      </c>
+      <c r="Z41" s="150"/>
+      <c r="AA41" s="150">
+        <f>+Z40*$M$41</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="AB41" s="150"/>
+      <c r="AC41" s="150">
+        <f>+AB40*$M$41</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AD41" s="150"/>
+      <c r="AE41" s="150">
+        <f>+AD40*$M$41</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AF41" s="150"/>
+      <c r="AG41" s="150">
+        <f>+AF40*$M$41</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AH41" s="150"/>
+      <c r="AI41" s="150">
+        <f>+AH40*$M$41</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AJ41" s="150"/>
+      <c r="AK41" s="150">
+        <f>+AJ40*$M$41</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AL41" s="150"/>
+      <c r="AM41" s="150">
+        <f>+AL40*$M$41</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AN41" s="150"/>
+      <c r="AO41" s="150">
+        <f>+AN40*$M$41</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AP41" s="150"/>
+      <c r="AQ41" s="150">
+        <f>+AP40*$M$41</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AR41" s="150"/>
+      <c r="AS41" s="150">
+        <f>+AR40*$M$41</f>
+        <v>6.3268379289646584</v>
+      </c>
+      <c r="AT41" s="150"/>
+      <c r="AU41" s="150">
+        <f>+AT40*$M$41</f>
+        <v>5.7772952755193305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="126"/>
+      <c r="B42" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="117"/>
+      <c r="D42" s="166">
+        <f>+I31/$E$27</f>
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="120"/>
+      <c r="F42" s="166">
+        <f>+K31/$G$27</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G42" s="120"/>
+      <c r="H42" s="166">
+        <f>+M31/$I$27</f>
+        <v>0.9</v>
+      </c>
+      <c r="I42" s="120"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="174">
+        <f>+AVERAGE(D42:I42)</f>
+        <v>0.75512820512820511</v>
+      </c>
+      <c r="M42" s="177">
+        <v>1</v>
+      </c>
+      <c r="U42" s="158" t="s">
+        <v>284</v>
+      </c>
+      <c r="V42" s="147"/>
+      <c r="W42" s="150"/>
+      <c r="X42" s="150"/>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="150">
+        <f>+Y41*$M$42</f>
+        <v>16</v>
+      </c>
+      <c r="AA42" s="150"/>
+      <c r="AB42" s="150">
+        <f>+AA41*$M$42</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="AC42" s="150"/>
+      <c r="AD42" s="150">
+        <f>+AC41*$M$42</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AE42" s="150"/>
+      <c r="AF42" s="150">
+        <f>+AE41*$M$42</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AG42" s="150"/>
+      <c r="AH42" s="150">
+        <f>+AG41*$M$42</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AI42" s="150"/>
+      <c r="AJ42" s="150">
+        <f>+AI41*$M$42</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AK42" s="150"/>
+      <c r="AL42" s="150">
+        <f>+AK41*$M$42</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AM42" s="150"/>
+      <c r="AN42" s="150">
+        <f>+AM41*$M$42</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AO42" s="150"/>
+      <c r="AP42" s="150">
+        <f>+AO41*$M$42</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AQ42" s="150"/>
+      <c r="AR42" s="150">
+        <f>+AQ41*$M$42</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AS42" s="150"/>
+      <c r="AT42" s="150">
+        <f>+AS41*$M$42</f>
+        <v>6.3268379289646584</v>
+      </c>
+      <c r="AU42" s="148"/>
+    </row>
+    <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="126"/>
+      <c r="B43" s="116" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="117"/>
+      <c r="D43" s="172">
+        <f>+J32/$E$27</f>
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="170"/>
+      <c r="F43" s="172">
+        <f>+L32/$G$27</f>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="G43" s="170"/>
+      <c r="H43" s="172">
+        <f>+N32/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="170"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="175">
+        <f>+AVERAGE(D43:I43)</f>
+        <v>0.4679487179487179</v>
+      </c>
+      <c r="M43" s="178">
+        <v>1</v>
+      </c>
+      <c r="U43" s="158" t="s">
+        <v>285</v>
+      </c>
+      <c r="V43" s="151"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152">
+        <f>+Z42*$M$43</f>
+        <v>16</v>
+      </c>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152">
+        <f>+AB42*$M$43</f>
+        <v>14.61025641025641</v>
+      </c>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152">
+        <f>+AD42*$M$43</f>
+        <v>13.341224523339907</v>
+      </c>
+      <c r="AF43" s="152"/>
+      <c r="AG43" s="152">
+        <f>+AF42*$M$43</f>
+        <v>12.182419444549806</v>
+      </c>
+      <c r="AH43" s="152"/>
+      <c r="AI43" s="152">
+        <f>+AH42*$M$43</f>
+        <v>11.124266986385384</v>
+      </c>
+      <c r="AJ43" s="152"/>
+      <c r="AK43" s="152">
+        <f>+AJ42*$M$43</f>
+        <v>10.158024565452552</v>
+      </c>
+      <c r="AL43" s="152"/>
+      <c r="AM43" s="152">
+        <f>+AL42*$M$43</f>
+        <v>9.2757089701840769</v>
+      </c>
+      <c r="AN43" s="152"/>
+      <c r="AO43" s="152">
+        <f>+AN42*$M$43</f>
+        <v>8.4700304025815498</v>
+      </c>
+      <c r="AP43" s="152"/>
+      <c r="AQ43" s="152">
+        <f>+AP42*$M$43</f>
+        <v>7.7343322490239856</v>
+      </c>
+      <c r="AR43" s="152"/>
+      <c r="AS43" s="152">
+        <f>+AR42*$M$43</f>
+        <v>7.0625360825222225</v>
+      </c>
+      <c r="AT43" s="152"/>
+      <c r="AU43" s="152">
+        <f>+AT42*$M$43</f>
+        <v>6.3268379289646584</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="V2:AS2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44F7E4-938B-4238-BAE2-C2D84B78ADE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6EDEF-6B2C-450B-9D2D-2174E1797700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Pobl. área de Influencia" sheetId="1" r:id="rId1"/>
     <sheet name="Pobl. Ingresante Total" sheetId="2" r:id="rId2"/>
-    <sheet name="matriculados Ind. Aprob." sheetId="3" r:id="rId3"/>
+    <sheet name="Pobl. Referencia" sheetId="4" r:id="rId3"/>
+    <sheet name="matriculados Ind. Aprob." sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="364">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -1165,6 +1166,15 @@
     <t>T.C.I
 2016-2017</t>
   </si>
+  <si>
+    <t>TOTAL Postulantes</t>
+  </si>
+  <si>
+    <t>TOTAL Ingresantes</t>
+  </si>
+  <si>
+    <t>Tasa prom. Participación matriculas</t>
+  </si>
 </sst>
 </file>
 
@@ -1175,7 +1185,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,8 +1419,25 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,8 +1534,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2138,6 +2177,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2145,7 +2199,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2386,8 +2440,230 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2395,26 +2671,23 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2425,67 +2698,22 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2494,28 +2722,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,17 +2752,35 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2551,58 +2788,43 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2612,188 +2834,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="17" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="15" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4513,28 +4622,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B551877-24F7-41D0-8229-84CBFCFDD684}">
   <dimension ref="A2:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="6"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5546875" style="6"/>
-    <col min="10" max="10" width="11.5546875" style="1"/>
-    <col min="11" max="11" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="6"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="6"/>
+    <col min="10" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K2" s="87" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="152" t="s">
         <v>209</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -4544,8 +4653,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K3" s="87"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" s="152"/>
       <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
@@ -4553,11 +4662,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="87"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
@@ -4565,7 +4674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4691,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="152"/>
       <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
@@ -4590,7 +4699,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4599,7 +4708,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="87"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
@@ -4607,7 +4716,7 @@
         <v>7571</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>2</v>
       </c>
@@ -4643,7 +4752,7 @@
       </c>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -4668,7 +4777,7 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="155" t="s">
         <v>218</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -4678,7 +4787,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -4703,7 +4812,7 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="90"/>
+      <c r="K9" s="155"/>
       <c r="L9" s="25">
         <v>1</v>
       </c>
@@ -4711,7 +4820,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -4736,7 +4845,7 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="90"/>
+      <c r="K10" s="155"/>
       <c r="L10" s="25">
         <v>2</v>
       </c>
@@ -4744,7 +4853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4878,7 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="90"/>
+      <c r="K11" s="155"/>
       <c r="L11" s="25">
         <v>3</v>
       </c>
@@ -4777,7 +4886,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -4802,7 +4911,7 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="90"/>
+      <c r="K12" s="155"/>
       <c r="L12" s="25">
         <v>4</v>
       </c>
@@ -4810,7 +4919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -4835,7 +4944,7 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="90"/>
+      <c r="K13" s="155"/>
       <c r="L13" s="25">
         <v>5</v>
       </c>
@@ -4843,7 +4952,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -4868,7 +4977,7 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="90"/>
+      <c r="K14" s="155"/>
       <c r="L14" s="25">
         <v>6</v>
       </c>
@@ -4876,7 +4985,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -4901,7 +5010,7 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="90"/>
+      <c r="K15" s="155"/>
       <c r="L15" s="25">
         <v>7</v>
       </c>
@@ -4909,7 +5018,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
@@ -4934,7 +5043,7 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="90"/>
+      <c r="K16" s="155"/>
       <c r="L16" s="25">
         <v>8</v>
       </c>
@@ -4942,7 +5051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -4967,7 +5076,7 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="90"/>
+      <c r="K17" s="155"/>
       <c r="L17" s="25">
         <v>9</v>
       </c>
@@ -4975,7 +5084,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -5000,7 +5109,7 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="90"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="25">
         <v>10</v>
       </c>
@@ -5008,7 +5117,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -5033,7 +5142,7 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="90"/>
+      <c r="K19" s="155"/>
       <c r="L19" s="25">
         <v>11</v>
       </c>
@@ -5041,7 +5150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
@@ -5066,7 +5175,7 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="90"/>
+      <c r="K20" s="155"/>
       <c r="L20" s="25">
         <v>12</v>
       </c>
@@ -5074,7 +5183,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -5099,7 +5208,7 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="90"/>
+      <c r="K21" s="155"/>
       <c r="L21" s="25">
         <v>13</v>
       </c>
@@ -5107,7 +5216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
@@ -5132,7 +5241,7 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="90"/>
+      <c r="K22" s="155"/>
       <c r="L22" s="25">
         <v>14</v>
       </c>
@@ -5140,7 +5249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
@@ -5165,7 +5274,7 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="90"/>
+      <c r="K23" s="155"/>
       <c r="L23" s="25">
         <v>15</v>
       </c>
@@ -5173,7 +5282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
@@ -5198,7 +5307,7 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="90"/>
+      <c r="K24" s="155"/>
       <c r="L24" s="25">
         <v>16</v>
       </c>
@@ -5206,7 +5315,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
@@ -5231,7 +5340,7 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="90"/>
+      <c r="K25" s="155"/>
       <c r="L25" s="25">
         <v>17</v>
       </c>
@@ -5239,7 +5348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -5264,7 +5373,7 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="90"/>
+      <c r="K26" s="155"/>
       <c r="L26" s="25">
         <v>18</v>
       </c>
@@ -5272,7 +5381,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -5297,7 +5406,7 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="90"/>
+      <c r="K27" s="155"/>
       <c r="L27" s="25">
         <v>19</v>
       </c>
@@ -5305,7 +5414,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
@@ -5330,7 +5439,7 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="91" t="s">
+      <c r="K28" s="156" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="26" t="s">
@@ -5340,7 +5449,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
@@ -5365,7 +5474,7 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="91"/>
+      <c r="K29" s="156"/>
       <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
@@ -5373,7 +5482,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
@@ -5398,7 +5507,7 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="91"/>
+      <c r="K30" s="156"/>
       <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
@@ -5406,7 +5515,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
@@ -5431,7 +5540,7 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="91"/>
+      <c r="K31" s="156"/>
       <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
@@ -5439,7 +5548,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
@@ -5464,7 +5573,7 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="91"/>
+      <c r="K32" s="156"/>
       <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
@@ -5472,7 +5581,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
@@ -5497,7 +5606,7 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="91"/>
+      <c r="K33" s="156"/>
       <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
@@ -5505,7 +5614,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
@@ -5530,7 +5639,7 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="91"/>
+      <c r="K34" s="156"/>
       <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
@@ -5538,7 +5647,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -5563,7 +5672,7 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="91"/>
+      <c r="K35" s="156"/>
       <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
@@ -5571,7 +5680,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
@@ -5596,7 +5705,7 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="91"/>
+      <c r="K36" s="156"/>
       <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
@@ -5604,7 +5713,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
@@ -5629,7 +5738,7 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="91"/>
+      <c r="K37" s="156"/>
       <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
@@ -5637,7 +5746,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
@@ -5662,7 +5771,7 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="91"/>
+      <c r="K38" s="156"/>
       <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
@@ -5670,7 +5779,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
@@ -5695,7 +5804,7 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="91"/>
+      <c r="K39" s="156"/>
       <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
@@ -5703,7 +5812,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
@@ -5728,7 +5837,7 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="91"/>
+      <c r="K40" s="156"/>
       <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
@@ -5736,7 +5845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
@@ -5762,7 +5871,7 @@
         <v>0.542021354182879</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
@@ -5791,7 +5900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
@@ -5820,7 +5929,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
@@ -5849,7 +5958,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
@@ -5876,7 +5985,7 @@
       </c>
       <c r="N45" s="27"/>
     </row>
-    <row r="46" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
@@ -5903,7 +6012,7 @@
       </c>
       <c r="N46" s="27"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
@@ -5929,7 +6038,7 @@
         <v>0.60785050387246597</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
@@ -5955,7 +6064,7 @@
         <v>0.62164559442114298</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
@@ -5981,7 +6090,7 @@
         <v>0.63423165249910696</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
@@ -6007,7 +6116,7 @@
         <v>0.64752280333410095</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
@@ -6033,7 +6142,7 @@
         <v>0.65932879162602898</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
@@ -6059,7 +6168,7 @@
         <v>0.67220254919108902</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>51</v>
       </c>
@@ -6085,7 +6194,7 @@
         <v>0.68351423835945402</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
@@ -6111,7 +6220,7 @@
         <v>0.69767601335094398</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
@@ -6137,7 +6246,7 @@
         <v>0.70992479526486696</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
@@ -6163,7 +6272,7 @@
         <v>0.72335104180968901</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -6189,7 +6298,7 @@
         <v>0.73493082480313798</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
@@ -6215,7 +6324,7 @@
         <v>0.75139341381416302</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
@@ -6241,7 +6350,7 @@
         <v>0.76354261551303404</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>58</v>
       </c>
@@ -6267,7 +6376,7 @@
         <v>0.77546019208617101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
@@ -6293,7 +6402,7 @@
         <v>0.78461938770555895</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
@@ -6319,7 +6428,7 @@
         <v>0.79547377947152098</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>61</v>
       </c>
@@ -6345,7 +6454,7 @@
         <v>0.80551215660467501</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
@@ -6371,7 +6480,7 @@
         <v>0.81569593825655595</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -6397,7 +6506,7 @@
         <v>0.83042223254608105</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>64</v>
       </c>
@@ -6423,7 +6532,7 @@
         <v>0.83953163634763806</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>65</v>
       </c>
@@ -6449,7 +6558,7 @@
         <v>0.84935490011449899</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
@@ -6475,7 +6584,7 @@
         <v>0.85611379328847703</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -6501,7 +6610,7 @@
         <v>0.86290688771586999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
@@ -6527,7 +6636,7 @@
         <v>0.87158098637867598</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>69</v>
       </c>
@@ -6553,7 +6662,7 @@
         <v>0.87886424659565698</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>70</v>
       </c>
@@ -6579,7 +6688,7 @@
         <v>0.88870549629388396</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>71</v>
       </c>
@@ -6605,7 +6714,7 @@
         <v>0.89517526567611105</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>72</v>
       </c>
@@ -6631,7 +6740,7 @@
         <v>0.90324951911345797</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>73</v>
       </c>
@@ -6657,7 +6766,7 @@
         <v>0.90925743708608198</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>74</v>
       </c>
@@ -6683,7 +6792,7 @@
         <v>0.91472199402826204</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>75</v>
       </c>
@@ -6709,7 +6818,7 @@
         <v>0.92046970162965602</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>76</v>
       </c>
@@ -6735,7 +6844,7 @@
         <v>0.92583355813125401</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>77</v>
       </c>
@@ -6761,7 +6870,7 @@
         <v>0.93154762865873897</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>78</v>
       </c>
@@ -6787,7 +6896,7 @@
         <v>0.93805184458745905</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>79</v>
       </c>
@@ -6813,7 +6922,7 @@
         <v>0.94356698417483198</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>80</v>
       </c>
@@ -6839,7 +6948,7 @@
         <v>0.94813733290132096</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>81</v>
       </c>
@@ -6865,7 +6974,7 @@
         <v>0.95300533851444502</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>82</v>
       </c>
@@ -6891,7 +7000,7 @@
         <v>0.95914146664528299</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>83</v>
       </c>
@@ -6917,7 +7026,7 @@
         <v>0.964121876327932</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>84</v>
       </c>
@@ -6943,7 +7052,7 @@
         <v>0.96835786644782496</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>85</v>
       </c>
@@ -6969,7 +7078,7 @@
         <v>0.97197982861256205</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>86</v>
       </c>
@@ -6995,7 +7104,7 @@
         <v>0.974643180529708</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>87</v>
       </c>
@@ -7021,7 +7130,7 @@
         <v>0.97787368336549396</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>88</v>
       </c>
@@ -7047,7 +7156,7 @@
         <v>0.98115345534731901</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>89</v>
       </c>
@@ -7073,7 +7182,7 @@
         <v>0.98369111428274003</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>90</v>
       </c>
@@ -7099,7 +7208,7 @@
         <v>0.98618489205466398</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>91</v>
       </c>
@@ -7125,7 +7234,7 @@
         <v>0.98906441061531503</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>92</v>
       </c>
@@ -7151,7 +7260,7 @@
         <v>0.991360927919265</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>93</v>
       </c>
@@ -7177,7 +7286,7 @@
         <v>0.99310758941576305</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>94</v>
       </c>
@@ -7203,7 +7312,7 @@
         <v>0.99445159320682397</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>95</v>
       </c>
@@ -7229,7 +7338,7 @@
         <v>0.99639150122221498</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>96</v>
       </c>
@@ -7255,7 +7364,7 @@
         <v>0.99734578531215001</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>97</v>
       </c>
@@ -7281,7 +7390,7 @@
         <v>0.99847101470599597</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>98</v>
       </c>
@@ -7307,7 +7416,7 @@
         <v>0.99885052792224205</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>99</v>
       </c>
@@ -7333,7 +7442,7 @@
         <v>0.99904371868369102</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>100</v>
       </c>
@@ -7359,7 +7468,7 @@
         <v>0.99923686835345005</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>101</v>
       </c>
@@ -7385,7 +7494,7 @@
         <v>0.999424020355828</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>102</v>
       </c>
@@ -7411,7 +7520,7 @@
         <v>0.99962030513920996</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>103</v>
       </c>
@@ -7437,7 +7546,7 @@
         <v>0.999801495112283</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F106" s="40" t="s">
         <v>205</v>
       </c>
@@ -7451,14 +7560,14 @@
         <v>0.999999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="88" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="153" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="89"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
+      <c r="B107" s="154"/>
+      <c r="C107" s="154"/>
+      <c r="D107" s="154"/>
+      <c r="E107" s="154"/>
       <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
@@ -7472,34 +7581,34 @@
         <v>0.999999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="88" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F109" s="88" t="s">
+      <c r="B108" s="154"/>
+      <c r="C108" s="154"/>
+      <c r="D108" s="154"/>
+      <c r="E108" s="154"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F109" s="153" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F110" s="88" t="s">
+      <c r="G109" s="154"/>
+      <c r="H109" s="154"/>
+      <c r="I109" s="154"/>
+      <c r="J109" s="154"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F110" s="153" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="89"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-    </row>
-    <row r="114" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="G110" s="154"/>
+      <c r="H110" s="154"/>
+      <c r="I110" s="154"/>
+      <c r="J110" s="154"/>
+    </row>
+    <row r="114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
         <v>243</v>
       </c>
@@ -7516,7 +7625,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <f>+B105</f>
         <v>7078</v>
@@ -7538,87 +7647,87 @@
         <v>5.6269200771583705E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="83" t="s">
+    <row r="117" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="99" t="s">
+      <c r="B117" s="162" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="100"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="100"/>
-      <c r="F117" s="100"/>
-      <c r="G117" s="100"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="100"/>
-      <c r="K117" s="100"/>
-      <c r="L117" s="100"/>
-      <c r="M117" s="100"/>
-      <c r="N117" s="101"/>
-    </row>
-    <row r="118" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="83"/>
+      <c r="C117" s="163"/>
+      <c r="D117" s="163"/>
+      <c r="E117" s="163"/>
+      <c r="F117" s="163"/>
+      <c r="G117" s="163"/>
+      <c r="H117" s="163"/>
+      <c r="I117" s="163"/>
+      <c r="J117" s="163"/>
+      <c r="K117" s="163"/>
+      <c r="L117" s="163"/>
+      <c r="M117" s="163"/>
+      <c r="N117" s="164"/>
+    </row>
+    <row r="118" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="157"/>
       <c r="B118" s="53">
         <v>2019</v>
       </c>
       <c r="C118" s="53">
-        <f>+B118+1</f>
+        <f t="shared" ref="C118:N118" si="0">+B118+1</f>
         <v>2020</v>
       </c>
       <c r="D118" s="53">
-        <f>+C118+1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="E118" s="53">
-        <f>+D118+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="F118" s="53">
-        <f>+E118+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="G118" s="53">
-        <f>+F118+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="H118" s="53">
-        <f>+G118+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="I118" s="53">
-        <f>+H118+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="J118" s="53">
-        <f>+I118+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="K118" s="53">
-        <f>+J118+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="L118" s="53">
-        <f>+K118+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="M118" s="53">
-        <f>+L118+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="N118" s="53">
-        <f>+M118+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="83"/>
-      <c r="B119" s="98" t="s">
+    <row r="119" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="157"/>
+      <c r="B119" s="159" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="85"/>
-      <c r="D119" s="86"/>
+      <c r="C119" s="160"/>
+      <c r="D119" s="161"/>
       <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
@@ -7650,7 +7759,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="57">
         <f>SUM(G25:G43)+D136+I128</f>
         <v>2193.2277422519683</v>
@@ -7660,60 +7769,60 @@
         <v>109.66138711259842</v>
       </c>
       <c r="C120" s="44">
-        <f>$B$120*(1+$D$115)^(C118-$B$118)</f>
+        <f t="shared" ref="C120:N120" si="1">$B$120*(1+$D$115)^(C118-$B$118)</f>
         <v>110.27844297343134</v>
       </c>
       <c r="D120" s="44">
-        <f>$B$120*(1+$D$115)^(D118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>110.89897095827629</v>
       </c>
       <c r="E120" s="44">
-        <f>$B$120*(1+$D$115)^(E118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>111.52299060449762</v>
       </c>
       <c r="F120" s="44">
-        <f>$B$120*(1+$D$115)^(F118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>112.15052155939479</v>
       </c>
       <c r="G120" s="44">
-        <f>$B$120*(1+$D$115)^(G118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>112.78158358082113</v>
       </c>
       <c r="H120" s="44">
-        <f>$B$120*(1+$D$115)^(H118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>113.41619653780576</v>
       </c>
       <c r="I120" s="44">
-        <f>$B$120*(1+$D$115)^(I118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>114.0543804111793</v>
       </c>
       <c r="J120" s="44">
-        <f>$B$120*(1+$D$115)^(J118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>114.69615529420278</v>
       </c>
       <c r="K120" s="44">
-        <f>$B$120*(1+$D$115)^(K118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>115.3415413932006</v>
       </c>
       <c r="L120" s="44">
-        <f>$B$120*(1+$D$115)^(L118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>115.99055902819639</v>
       </c>
       <c r="M120" s="44">
-        <f>$B$120*(1+$D$115)^(M118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>116.64322863355298</v>
       </c>
       <c r="N120" s="44">
-        <f>$B$120*(1+$D$115)^(N118-$B$118)</f>
+        <f t="shared" si="1"/>
         <v>117.29957075861567</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
         <v>265</v>
       </c>
@@ -7739,14 +7848,14 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>258</v>
       </c>
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="84">
+      <c r="C126" s="158">
         <v>0.32675410103003655</v>
       </c>
       <c r="D126" s="49">
@@ -7759,7 +7868,7 @@
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="84">
+      <c r="H126" s="158">
         <v>0.32475247524752476</v>
       </c>
       <c r="I126" s="49">
@@ -7767,16 +7876,16 @@
         <v>207.84158415841586</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>259</v>
       </c>
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="84"/>
+      <c r="C127" s="158"/>
       <c r="D127" s="49">
-        <f t="shared" ref="D127:D135" si="0">B127*$C$126</f>
+        <f t="shared" ref="D127:D135" si="2">B127*$C$126</f>
         <v>118.61173867390326</v>
       </c>
       <c r="F127" s="48" t="s">
@@ -7785,22 +7894,22 @@
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="84"/>
+      <c r="H127" s="158"/>
       <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>260</v>
       </c>
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="84"/>
+      <c r="C128" s="158"/>
       <c r="D128" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.144656490470311</v>
       </c>
       <c r="F128" s="32" t="s">
@@ -7815,98 +7924,98 @@
         <v>224.72871287128714</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>261</v>
       </c>
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="84"/>
+      <c r="C129" s="158"/>
       <c r="D129" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77.767476045148697</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
         <v>266</v>
       </c>
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="84"/>
+      <c r="C130" s="158"/>
       <c r="D130" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.675410103003657</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="45" t="s">
         <v>267</v>
       </c>
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="84"/>
+      <c r="C131" s="158"/>
       <c r="D131" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.824524931844678</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="45" t="s">
         <v>268</v>
       </c>
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="84"/>
+      <c r="C132" s="158"/>
       <c r="D132" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75.480197337938449</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="84"/>
+      <c r="C133" s="158"/>
       <c r="D133" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79.401246550298879</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="45" t="s">
         <v>270</v>
       </c>
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="84"/>
+      <c r="C134" s="158"/>
       <c r="D134" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8618361216307679</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
         <v>271</v>
       </c>
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="84"/>
+      <c r="C135" s="158"/>
       <c r="D135" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.171016729784604</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>276</v>
       </c>
@@ -7919,25 +8028,30 @@
         <v>725.39410428668111</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="50" t="s">
         <v>274</v>
       </c>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="50" t="s">
         <v>275</v>
       </c>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="50" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -7945,11 +8059,6 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7960,21 +8069,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409B263-2852-4563-BF9F-9A2CBCD2EA0A}">
-  <dimension ref="B2:Q32"/>
+  <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
         <v>333</v>
       </c>
@@ -7994,12 +8103,12 @@
       <c r="P2" s="74"/>
       <c r="Q2" s="74"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B4" s="78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="80" t="s">
         <v>290</v>
       </c>
@@ -8046,7 +8155,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="81">
         <v>1327253</v>
       </c>
@@ -8087,7 +8196,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
@@ -8104,7 +8213,7 @@
       <c r="O7" s="79"/>
       <c r="P7" s="79"/>
     </row>
-    <row r="8" spans="2:17" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="51" x14ac:dyDescent="0.25">
       <c r="B8" s="80" t="s">
         <v>291</v>
       </c>
@@ -8142,7 +8251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="81" t="s">
         <v>292</v>
       </c>
@@ -8178,28 +8287,28 @@
         <v>-73.085620000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="92" t="s">
+    <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="165" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-    </row>
-    <row r="13" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="93" t="s">
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+    </row>
+    <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="166" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="59">
@@ -8248,8 +8357,8 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="94"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="167"/>
       <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
@@ -8311,7 +8420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="58" t="s">
         <v>280</v>
       </c>
@@ -8359,7 +8468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="58" t="s">
         <v>281</v>
       </c>
@@ -8407,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="58" t="s">
         <v>282</v>
       </c>
@@ -8455,7 +8564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="58" t="s">
         <v>283</v>
       </c>
@@ -8503,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
         <v>284</v>
       </c>
@@ -8551,7 +8660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="58" t="s">
         <v>285</v>
       </c>
@@ -8599,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
         <v>286</v>
       </c>
@@ -8647,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="58" t="s">
         <v>287</v>
       </c>
@@ -8695,399 +8804,565 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
       <c r="D25" s="75"/>
       <c r="E25" s="75"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D28" s="97">
+    <row r="27" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="82">
         <v>2015</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="82">
         <f>+D28+1</f>
         <v>2016</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="82">
         <f t="shared" ref="F28:I28" si="1">+E28+1</f>
         <v>2017</v>
       </c>
-      <c r="G28" s="97">
+      <c r="G28" s="82">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="H28" s="97">
+      <c r="H28" s="82">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="I28" s="97">
+      <c r="I28" s="82">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="95" t="s">
+      <c r="K28" s="225" t="s">
+        <v>363</v>
+      </c>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="227"/>
+      <c r="P28" s="217"/>
+      <c r="Q28" s="217"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+    </row>
+    <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="232" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="96"/>
-      <c r="C30" s="82" t="s">
+      <c r="D29" s="92">
+        <v>20</v>
+      </c>
+      <c r="E29" s="92">
+        <v>0</v>
+      </c>
+      <c r="F29" s="92">
+        <v>0</v>
+      </c>
+      <c r="G29" s="92">
+        <v>0</v>
+      </c>
+      <c r="H29" s="92">
+        <v>0</v>
+      </c>
+      <c r="I29" s="92">
+        <v>0</v>
+      </c>
+      <c r="K29" s="219">
+        <f>D30/D29</f>
+        <v>0.75</v>
+      </c>
+      <c r="L29" s="220"/>
+      <c r="M29" s="220"/>
+      <c r="N29" s="220"/>
+      <c r="O29" s="224">
+        <f>AVERAGE(K29:N29)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="233"/>
+      <c r="C30" s="232" t="s">
         <v>335</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="95" t="s">
+      <c r="D30" s="92">
+        <v>15</v>
+      </c>
+      <c r="E30" s="92">
+        <v>0</v>
+      </c>
+      <c r="F30" s="92">
+        <v>0</v>
+      </c>
+      <c r="G30" s="92">
+        <v>0</v>
+      </c>
+      <c r="H30" s="92">
+        <v>0</v>
+      </c>
+      <c r="I30" s="92">
+        <v>0</v>
+      </c>
+      <c r="K30" s="219"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="220"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="221"/>
+    </row>
+    <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45">
+      <c r="D31" s="92">
+        <v>0</v>
+      </c>
+      <c r="E31" s="92">
+        <v>30</v>
+      </c>
+      <c r="F31" s="92">
+        <v>30</v>
+      </c>
+      <c r="G31" s="92">
+        <v>30</v>
+      </c>
+      <c r="H31" s="92">
+        <v>30</v>
+      </c>
+      <c r="I31" s="92">
+        <v>30</v>
+      </c>
+      <c r="K31" s="222"/>
+      <c r="L31" s="223">
+        <f t="shared" ref="L31" si="2">E32/E31</f>
+        <v>0.8</v>
+      </c>
+      <c r="M31" s="223">
+        <f t="shared" ref="M31" si="3">F32/F31</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="N31" s="223">
+        <f t="shared" ref="N31" si="4">G32/G31</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O31" s="218">
+        <f>AVERAGE(K31:N31)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="230"/>
+      <c r="C32" s="229" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="92">
+        <v>0</v>
+      </c>
+      <c r="E32" s="92">
+        <v>24</v>
+      </c>
+      <c r="F32" s="92">
+        <v>26</v>
+      </c>
+      <c r="G32" s="92">
+        <v>20</v>
+      </c>
+      <c r="H32" s="92">
+        <v>20</v>
+      </c>
+      <c r="I32" s="92">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="96"/>
-      <c r="C32" s="82" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="216" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="234">
+        <f>+D29+D31</f>
+        <v>20</v>
+      </c>
+      <c r="E33" s="234">
+        <f t="shared" ref="E33:I33" si="5">+E29+E31</f>
+        <v>30</v>
+      </c>
+      <c r="F33" s="234">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="G33" s="234">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H33" s="234">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="I33" s="234">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="216" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="235">
+        <f>+D30+D32</f>
+        <v>15</v>
+      </c>
+      <c r="E34" s="235">
+        <f t="shared" ref="E34:I34" si="6">+E30+E32</f>
+        <v>24</v>
+      </c>
+      <c r="F34" s="235">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="G34" s="235">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="H34" s="235">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I34" s="235">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B12:Q12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
+    <mergeCell ref="K28:O28"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7CF57-8EE0-43FD-AF13-2469FC1B265B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="236"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE765B5-C02C-4406-9DFD-504504C6F65F}">
   <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
-    <col min="2" max="9" width="6.109375" style="1"/>
-    <col min="10" max="10" width="7.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="1" customWidth="1"/>
-    <col min="12" max="15" width="6.109375" style="1"/>
-    <col min="16" max="16" width="8.6640625" style="199" customWidth="1"/>
-    <col min="17" max="18" width="8.88671875" style="199" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" style="199" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="9" width="6.140625" style="1"/>
+    <col min="10" max="10" width="7.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="6.140625" style="1"/>
+    <col min="16" max="16" width="8.7109375" style="135" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="135" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="135" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="1" customWidth="1"/>
     <col min="22" max="47" width="4" style="1" customWidth="1"/>
-    <col min="48" max="48" width="6.109375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="6.109375" style="1"/>
+    <col min="48" max="48" width="6.140625" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="6.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V2" s="155" t="s">
+    <row r="1" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="211" t="s">
         <v>338</v>
       </c>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="156"/>
-      <c r="AK2" s="156"/>
-      <c r="AL2" s="156"/>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="156"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="156"/>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="156"/>
-      <c r="AS2" s="157"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="206" t="s">
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="212"/>
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="212"/>
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="212"/>
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="212"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="212"/>
+      <c r="AJ2" s="212"/>
+      <c r="AK2" s="212"/>
+      <c r="AL2" s="212"/>
+      <c r="AM2" s="212"/>
+      <c r="AN2" s="212"/>
+      <c r="AO2" s="212"/>
+      <c r="AP2" s="212"/>
+      <c r="AQ2" s="212"/>
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="213"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="214" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="104">
+      <c r="B3" s="214"/>
+      <c r="C3" s="168">
         <v>2015</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104">
+      <c r="D3" s="168"/>
+      <c r="E3" s="168">
         <f>+C3+1</f>
         <v>2016</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168">
         <f t="shared" ref="G3" si="0">+E3+1</f>
         <v>2017</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168">
         <f t="shared" ref="I3" si="1">+G3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104">
+      <c r="J3" s="168"/>
+      <c r="K3" s="168">
         <f t="shared" ref="K3" si="2">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104">
+      <c r="L3" s="168"/>
+      <c r="M3" s="168">
         <f t="shared" ref="M3" si="3">+K3+1</f>
         <v>2020</v>
       </c>
-      <c r="N3" s="104"/>
-      <c r="P3" s="200" t="s">
+      <c r="N3" s="168"/>
+      <c r="P3" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="103" t="s">
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="V3" s="113">
+      <c r="V3" s="215">
         <v>2020</v>
       </c>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114">
+      <c r="W3" s="203"/>
+      <c r="X3" s="203">
         <f>+V3+1</f>
         <v>2021</v>
       </c>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114">
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203">
         <f t="shared" ref="Z3" si="4">+X3+1</f>
         <v>2022</v>
       </c>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114">
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203">
         <f t="shared" ref="AB3" si="5">+Z3+1</f>
         <v>2023</v>
       </c>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114">
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203">
         <f t="shared" ref="AD3" si="6">+AB3+1</f>
         <v>2024</v>
       </c>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114">
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203">
         <f t="shared" ref="AF3" si="7">+AD3+1</f>
         <v>2025</v>
       </c>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114">
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203">
         <f t="shared" ref="AH3" si="8">+AF3+1</f>
         <v>2026</v>
       </c>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114">
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="203">
         <f t="shared" ref="AJ3" si="9">+AH3+1</f>
         <v>2027</v>
       </c>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114">
+      <c r="AK3" s="203"/>
+      <c r="AL3" s="203">
         <f t="shared" ref="AL3" si="10">+AJ3+1</f>
         <v>2028</v>
       </c>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114">
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203">
         <f t="shared" ref="AN3" si="11">+AL3+1</f>
         <v>2029</v>
       </c>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114">
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203">
         <f t="shared" ref="AP3" si="12">+AN3+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114">
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203">
         <f t="shared" ref="AR3" si="13">+AP3+1</f>
         <v>2031</v>
       </c>
-      <c r="AS3" s="154"/>
-      <c r="AT3" s="149">
+      <c r="AS3" s="204"/>
+      <c r="AT3" s="205">
         <f t="shared" ref="AT3" si="14">+AR3+1</f>
         <v>2032</v>
       </c>
-      <c r="AU3" s="105"/>
-    </row>
-    <row r="4" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="206"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="163" t="s">
+      <c r="AU3" s="206"/>
+    </row>
+    <row r="4" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="163" t="s">
+      <c r="D4" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="163" t="s">
+      <c r="G4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="L4" s="163" t="s">
+      <c r="L4" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="M4" s="163" t="s">
+      <c r="M4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="N4" s="163" t="s">
+      <c r="N4" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="P4" s="202">
+      <c r="P4" s="138">
         <f>+((C5/C5)^(1/1))-1</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="106">
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="85">
         <f>+P4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="107" t="s">
+      <c r="V4" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="W4" s="108" t="s">
+      <c r="W4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="X4" s="108" t="s">
+      <c r="X4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="Y4" s="108" t="s">
+      <c r="Y4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="Z4" s="108" t="s">
+      <c r="Z4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AA4" s="108" t="s">
+      <c r="AA4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AB4" s="108" t="s">
+      <c r="AB4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AC4" s="108" t="s">
+      <c r="AC4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AD4" s="108" t="s">
+      <c r="AD4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AE4" s="108" t="s">
+      <c r="AE4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AF4" s="108" t="s">
+      <c r="AF4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AG4" s="108" t="s">
+      <c r="AG4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AH4" s="108" t="s">
+      <c r="AH4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AI4" s="108" t="s">
+      <c r="AI4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AJ4" s="108" t="s">
+      <c r="AJ4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AK4" s="108" t="s">
+      <c r="AK4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AL4" s="108" t="s">
+      <c r="AL4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AM4" s="108" t="s">
+      <c r="AM4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AN4" s="108" t="s">
+      <c r="AN4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AO4" s="108" t="s">
+      <c r="AO4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AP4" s="108" t="s">
+      <c r="AP4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AQ4" s="108" t="s">
+      <c r="AQ4" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AR4" s="108" t="s">
+      <c r="AR4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AS4" s="115" t="s">
+      <c r="AS4" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="AT4" s="164" t="s">
+      <c r="AT4" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="AU4" s="165" t="s">
+      <c r="AU4" s="117" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="207" t="s">
         <v>339</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -9110,50 +9385,50 @@
       <c r="U5" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="V5" s="208">
+      <c r="V5" s="142">
         <f>+C5+(C5*T4)</f>
         <v>15</v>
       </c>
-      <c r="W5" s="209"/>
-      <c r="X5" s="209"/>
-      <c r="Y5" s="209"/>
-      <c r="Z5" s="209"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="208">
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="142">
         <f>+V5+(V5*T4)</f>
         <v>15</v>
       </c>
-      <c r="AC5" s="209"/>
-      <c r="AD5" s="209"/>
-      <c r="AE5" s="209"/>
-      <c r="AF5" s="209"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="208">
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="142">
         <f>+AB5+(AB5*T4)</f>
         <v>15</v>
       </c>
-      <c r="AI5" s="209"/>
-      <c r="AJ5" s="209"/>
-      <c r="AK5" s="209"/>
-      <c r="AL5" s="209"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="208">
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="143"/>
+      <c r="AL5" s="143"/>
+      <c r="AM5" s="144"/>
+      <c r="AN5" s="142">
         <f>+AH5+(AH5*T4)</f>
         <v>15</v>
       </c>
-      <c r="AO5" s="209"/>
-      <c r="AP5" s="209"/>
-      <c r="AQ5" s="209"/>
-      <c r="AR5" s="209"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="211">
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="144"/>
+      <c r="AT5" s="145">
         <f>+AN5+(AN5*T4)</f>
         <v>15</v>
       </c>
-      <c r="AU5" s="212"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
+      <c r="AU5" s="146"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="207"/>
       <c r="B6" s="32" t="s">
         <v>281</v>
       </c>
@@ -9174,50 +9449,50 @@
       <c r="U6" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="V6" s="213"/>
-      <c r="W6" s="214">
+      <c r="V6" s="147"/>
+      <c r="W6" s="148">
         <f>+V5*$K$17</f>
         <v>11</v>
       </c>
-      <c r="X6" s="214"/>
-      <c r="Y6" s="214"/>
-      <c r="Z6" s="214"/>
-      <c r="AA6" s="212"/>
-      <c r="AB6" s="213"/>
-      <c r="AC6" s="214">
+      <c r="X6" s="148"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="148">
         <f>+AB5*$K$17</f>
         <v>11</v>
       </c>
-      <c r="AD6" s="214"/>
-      <c r="AE6" s="214"/>
-      <c r="AF6" s="214"/>
-      <c r="AG6" s="212"/>
-      <c r="AH6" s="213"/>
-      <c r="AI6" s="214">
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="148"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148">
         <f>+AH5*$K$17</f>
         <v>11</v>
       </c>
-      <c r="AJ6" s="214"/>
-      <c r="AK6" s="214"/>
-      <c r="AL6" s="214"/>
-      <c r="AM6" s="212"/>
-      <c r="AN6" s="213"/>
-      <c r="AO6" s="214">
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="148"/>
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148">
         <f>+AN5*$K$17</f>
         <v>11</v>
       </c>
-      <c r="AP6" s="214"/>
-      <c r="AQ6" s="214"/>
-      <c r="AR6" s="214"/>
-      <c r="AS6" s="212"/>
-      <c r="AT6" s="211"/>
-      <c r="AU6" s="211">
+      <c r="AP6" s="148"/>
+      <c r="AQ6" s="148"/>
+      <c r="AR6" s="148"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="145"/>
+      <c r="AU6" s="145">
         <f>+AT5*$K$17</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="207"/>
       <c r="B7" s="32" t="s">
         <v>282</v>
       </c>
@@ -9231,7 +9506,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="110"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
@@ -9240,47 +9515,47 @@
       <c r="U7" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="V7" s="213"/>
-      <c r="W7" s="214"/>
-      <c r="X7" s="214">
+      <c r="V7" s="147"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148">
         <f>+W6*$K$18</f>
         <v>5.8666666666666663</v>
       </c>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="214"/>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="213"/>
-      <c r="AC7" s="214"/>
-      <c r="AD7" s="214">
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148">
         <f>+AC6*$K$18</f>
         <v>5.8666666666666663</v>
       </c>
-      <c r="AE7" s="214"/>
-      <c r="AF7" s="214"/>
-      <c r="AG7" s="212"/>
-      <c r="AH7" s="213"/>
-      <c r="AI7" s="214"/>
-      <c r="AJ7" s="214">
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="147"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148">
         <f>+AI6*$K$18</f>
         <v>5.8666666666666663</v>
       </c>
-      <c r="AK7" s="214"/>
-      <c r="AL7" s="214"/>
-      <c r="AM7" s="212"/>
-      <c r="AN7" s="213"/>
-      <c r="AO7" s="214"/>
-      <c r="AP7" s="214">
+      <c r="AK7" s="148"/>
+      <c r="AL7" s="148"/>
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="148"/>
+      <c r="AP7" s="148">
         <f>+AO6*$K$18</f>
         <v>5.8666666666666663</v>
       </c>
-      <c r="AQ7" s="214"/>
-      <c r="AR7" s="214"/>
-      <c r="AS7" s="212"/>
-      <c r="AT7" s="211"/>
-      <c r="AU7" s="212"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
+      <c r="AQ7" s="148"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="146"/>
+      <c r="AT7" s="145"/>
+      <c r="AU7" s="146"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="207"/>
       <c r="B8" s="32" t="s">
         <v>283</v>
       </c>
@@ -9303,47 +9578,47 @@
       <c r="U8" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="V8" s="213"/>
-      <c r="W8" s="214"/>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="214">
+      <c r="V8" s="147"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148">
         <f>+X7*$K$19</f>
         <v>3.1288888888888886</v>
       </c>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="212"/>
-      <c r="AB8" s="213"/>
-      <c r="AC8" s="214"/>
-      <c r="AD8" s="214"/>
-      <c r="AE8" s="214">
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148">
         <f>+AD7*$K$19</f>
         <v>3.1288888888888886</v>
       </c>
-      <c r="AF8" s="214"/>
-      <c r="AG8" s="212"/>
-      <c r="AH8" s="213"/>
-      <c r="AI8" s="214"/>
-      <c r="AJ8" s="214"/>
-      <c r="AK8" s="214">
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="148">
         <f>+AJ7*$K$19</f>
         <v>3.1288888888888886</v>
       </c>
-      <c r="AL8" s="214"/>
-      <c r="AM8" s="212"/>
-      <c r="AN8" s="213"/>
-      <c r="AO8" s="214"/>
-      <c r="AP8" s="214"/>
-      <c r="AQ8" s="214">
+      <c r="AL8" s="148"/>
+      <c r="AM8" s="146"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="148"/>
+      <c r="AQ8" s="148">
         <f>+AP7*$K$19</f>
         <v>3.1288888888888886</v>
       </c>
-      <c r="AR8" s="214"/>
-      <c r="AS8" s="212"/>
-      <c r="AT8" s="211"/>
-      <c r="AU8" s="212"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+      <c r="AR8" s="148"/>
+      <c r="AS8" s="146"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="146"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="207"/>
       <c r="B9" s="32" t="s">
         <v>284</v>
       </c>
@@ -9368,47 +9643,47 @@
       <c r="U9" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="V9" s="213"/>
-      <c r="W9" s="214"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="214"/>
-      <c r="Z9" s="214">
+      <c r="V9" s="147"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148">
         <f>+Y8*$K$20</f>
         <v>0.83437037037037032</v>
       </c>
-      <c r="AA9" s="212"/>
-      <c r="AB9" s="213"/>
-      <c r="AC9" s="214"/>
-      <c r="AD9" s="214"/>
-      <c r="AE9" s="214"/>
-      <c r="AF9" s="214">
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148">
         <f>+AE8*$K$20</f>
         <v>0.83437037037037032</v>
       </c>
-      <c r="AG9" s="212"/>
-      <c r="AH9" s="213"/>
-      <c r="AI9" s="214"/>
-      <c r="AJ9" s="214"/>
-      <c r="AK9" s="214"/>
-      <c r="AL9" s="214">
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="147"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="148"/>
+      <c r="AL9" s="148">
         <f>+AK8*$K$20</f>
         <v>0.83437037037037032</v>
       </c>
-      <c r="AM9" s="212"/>
-      <c r="AN9" s="213"/>
-      <c r="AO9" s="214"/>
-      <c r="AP9" s="214"/>
-      <c r="AQ9" s="214"/>
-      <c r="AR9" s="214">
+      <c r="AM9" s="146"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="148"/>
+      <c r="AP9" s="148"/>
+      <c r="AQ9" s="148"/>
+      <c r="AR9" s="148">
         <f>+AQ8*$K$20</f>
         <v>0.83437037037037032</v>
       </c>
-      <c r="AS9" s="212"/>
-      <c r="AT9" s="211"/>
-      <c r="AU9" s="212"/>
-    </row>
-    <row r="10" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109"/>
+      <c r="AS9" s="146"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="146"/>
+    </row>
+    <row r="10" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="207"/>
       <c r="B10" s="32" t="s">
         <v>285</v>
       </c>
@@ -9433,103 +9708,103 @@
       <c r="U10" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="V10" s="215"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="216"/>
-      <c r="Z10" s="216"/>
-      <c r="AA10" s="217">
+      <c r="V10" s="149"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="151">
         <f>+Z9*$K$21</f>
         <v>0.22249876543209876</v>
       </c>
-      <c r="AB10" s="215"/>
-      <c r="AC10" s="216"/>
-      <c r="AD10" s="216"/>
-      <c r="AE10" s="216"/>
-      <c r="AF10" s="216"/>
-      <c r="AG10" s="217">
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151">
         <f>+AF9*$K$21</f>
         <v>0.22249876543209876</v>
       </c>
-      <c r="AH10" s="215"/>
-      <c r="AI10" s="216"/>
-      <c r="AJ10" s="216"/>
-      <c r="AK10" s="216"/>
-      <c r="AL10" s="216"/>
-      <c r="AM10" s="217">
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="150"/>
+      <c r="AK10" s="150"/>
+      <c r="AL10" s="150"/>
+      <c r="AM10" s="151">
         <f>+AL9*$K$21</f>
         <v>0.22249876543209876</v>
       </c>
-      <c r="AN10" s="215"/>
-      <c r="AO10" s="216"/>
-      <c r="AP10" s="216"/>
-      <c r="AQ10" s="216"/>
-      <c r="AR10" s="216"/>
-      <c r="AS10" s="217">
+      <c r="AN10" s="149"/>
+      <c r="AO10" s="150"/>
+      <c r="AP10" s="150"/>
+      <c r="AQ10" s="150"/>
+      <c r="AR10" s="150"/>
+      <c r="AS10" s="151">
         <f>+AR9*$K$21</f>
         <v>0.22249876543209876</v>
       </c>
-      <c r="AT10" s="211"/>
-      <c r="AU10" s="212"/>
-    </row>
-    <row r="11" spans="1:51" s="112" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="AT10" s="145"/>
+      <c r="AU10" s="146"/>
+    </row>
+    <row r="11" spans="1:51" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="207"/>
       <c r="B11" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="89">
         <f>SUM(C5:C10)</f>
         <v>34</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="89">
         <f t="shared" ref="D11:L11" si="15">SUM(D5:D10)</f>
         <v>25</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="89">
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="89">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="89">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="89">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="89">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="89">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="89">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L11" s="111">
+      <c r="L11" s="89">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="89">
         <f t="shared" ref="M11:N11" si="16">SUM(M5:M10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="111">
+      <c r="N11" s="89">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="199"/>
-      <c r="R11" s="199"/>
-      <c r="S11" s="199"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -9563,616 +9838,616 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
     </row>
-    <row r="12" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V13" s="179" t="s">
+    <row r="12" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="208" t="s">
         <v>341</v>
       </c>
-      <c r="W13" s="180"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="180"/>
-      <c r="Z13" s="180"/>
-      <c r="AA13" s="180"/>
-      <c r="AB13" s="180"/>
-      <c r="AC13" s="180"/>
-      <c r="AD13" s="180"/>
-      <c r="AE13" s="180"/>
-      <c r="AF13" s="180"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="180"/>
-      <c r="AJ13" s="180"/>
-      <c r="AK13" s="180"/>
-      <c r="AL13" s="180"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="180"/>
-      <c r="AP13" s="180"/>
-      <c r="AQ13" s="180"/>
-      <c r="AR13" s="180"/>
-      <c r="AS13" s="180"/>
-      <c r="AT13" s="180"/>
-      <c r="AU13" s="181"/>
-    </row>
-    <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="207" t="s">
+      <c r="W13" s="209"/>
+      <c r="X13" s="209"/>
+      <c r="Y13" s="209"/>
+      <c r="Z13" s="209"/>
+      <c r="AA13" s="209"/>
+      <c r="AB13" s="209"/>
+      <c r="AC13" s="209"/>
+      <c r="AD13" s="209"/>
+      <c r="AE13" s="209"/>
+      <c r="AF13" s="209"/>
+      <c r="AG13" s="209"/>
+      <c r="AH13" s="209"/>
+      <c r="AI13" s="209"/>
+      <c r="AJ13" s="209"/>
+      <c r="AK13" s="209"/>
+      <c r="AL13" s="209"/>
+      <c r="AM13" s="209"/>
+      <c r="AN13" s="209"/>
+      <c r="AO13" s="209"/>
+      <c r="AP13" s="209"/>
+      <c r="AQ13" s="209"/>
+      <c r="AR13" s="209"/>
+      <c r="AS13" s="209"/>
+      <c r="AT13" s="209"/>
+      <c r="AU13" s="210"/>
+    </row>
+    <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="195" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="196" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="137" t="s">
+      <c r="C14" s="197"/>
+      <c r="D14" s="200" t="s">
         <v>344</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
       <c r="K14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V14" s="182">
+      <c r="V14" s="202">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183">
+      <c r="W14" s="193"/>
+      <c r="X14" s="193">
         <f>+V14+1</f>
         <v>2021</v>
       </c>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183">
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193">
         <f t="shared" ref="Z14" si="17">+X14+1</f>
         <v>2022</v>
       </c>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183">
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193">
         <f t="shared" ref="AB14" si="18">+Z14+1</f>
         <v>2023</v>
       </c>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183">
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193">
         <f t="shared" ref="AD14" si="19">+AB14+1</f>
         <v>2024</v>
       </c>
-      <c r="AE14" s="183"/>
-      <c r="AF14" s="183">
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="193">
         <f t="shared" ref="AF14" si="20">+AD14+1</f>
         <v>2025</v>
       </c>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="183">
+      <c r="AG14" s="193"/>
+      <c r="AH14" s="193">
         <f t="shared" ref="AH14" si="21">+AF14+1</f>
         <v>2026</v>
       </c>
-      <c r="AI14" s="183"/>
-      <c r="AJ14" s="183">
+      <c r="AI14" s="193"/>
+      <c r="AJ14" s="193">
         <f t="shared" ref="AJ14" si="22">+AH14+1</f>
         <v>2027</v>
       </c>
-      <c r="AK14" s="183"/>
-      <c r="AL14" s="183">
+      <c r="AK14" s="193"/>
+      <c r="AL14" s="193">
         <f t="shared" ref="AL14" si="23">+AJ14+1</f>
         <v>2028</v>
       </c>
-      <c r="AM14" s="183"/>
-      <c r="AN14" s="183">
+      <c r="AM14" s="193"/>
+      <c r="AN14" s="193">
         <f t="shared" ref="AN14" si="24">+AL14+1</f>
         <v>2029</v>
       </c>
-      <c r="AO14" s="183"/>
-      <c r="AP14" s="183">
+      <c r="AO14" s="193"/>
+      <c r="AP14" s="193">
         <f t="shared" ref="AP14" si="25">+AN14+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ14" s="183"/>
-      <c r="AR14" s="183">
+      <c r="AQ14" s="193"/>
+      <c r="AR14" s="193">
         <f t="shared" ref="AR14" si="26">+AP14+1</f>
         <v>2031</v>
       </c>
-      <c r="AS14" s="183"/>
-      <c r="AT14" s="183">
+      <c r="AS14" s="193"/>
+      <c r="AT14" s="193">
         <f t="shared" ref="AT14" si="27">+AR14+1</f>
         <v>2032</v>
       </c>
-      <c r="AU14" s="184"/>
-    </row>
-    <row r="15" spans="1:51" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="207"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141" t="s">
+      <c r="AU14" s="194"/>
+    </row>
+    <row r="15" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="195"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="102" t="s">
         <v>346</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="142"/>
-      <c r="V15" s="185" t="s">
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="V15" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="W15" s="134" t="s">
+      <c r="W15" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="X15" s="134" t="s">
+      <c r="X15" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="Y15" s="134" t="s">
+      <c r="Y15" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="Z15" s="134" t="s">
+      <c r="Z15" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="AA15" s="134" t="s">
+      <c r="AA15" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="AB15" s="186" t="s">
+      <c r="AB15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AC15" s="186" t="s">
+      <c r="AC15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AD15" s="186" t="s">
+      <c r="AD15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AE15" s="186" t="s">
+      <c r="AE15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AF15" s="186" t="s">
+      <c r="AF15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AG15" s="186" t="s">
+      <c r="AG15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AH15" s="186" t="s">
+      <c r="AH15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AI15" s="186" t="s">
+      <c r="AI15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AJ15" s="186" t="s">
+      <c r="AJ15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AK15" s="186" t="s">
+      <c r="AK15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AL15" s="186" t="s">
+      <c r="AL15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AM15" s="186" t="s">
+      <c r="AM15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AN15" s="186" t="s">
+      <c r="AN15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AO15" s="186" t="s">
+      <c r="AO15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AP15" s="186" t="s">
+      <c r="AP15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AQ15" s="186" t="s">
+      <c r="AQ15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AR15" s="186" t="s">
+      <c r="AR15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AS15" s="186" t="s">
+      <c r="AS15" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AT15" s="186" t="s">
+      <c r="AT15" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AU15" s="142" t="s">
+      <c r="AU15" s="103" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="207"/>
-      <c r="B16" s="116" t="s">
+    <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="195"/>
+      <c r="B16" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
       <c r="U16" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="V16" s="208">
+      <c r="V16" s="142">
         <f>+V5</f>
         <v>15</v>
       </c>
-      <c r="W16" s="209"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="209"/>
-      <c r="Z16" s="209"/>
-      <c r="AA16" s="210"/>
-      <c r="AB16" s="214">
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="144"/>
+      <c r="AB16" s="148">
         <f>+AB5</f>
         <v>15</v>
       </c>
-      <c r="AC16" s="214"/>
-      <c r="AD16" s="214"/>
-      <c r="AE16" s="214"/>
-      <c r="AF16" s="214"/>
-      <c r="AG16" s="214"/>
-      <c r="AH16" s="214">
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="148"/>
+      <c r="AG16" s="148"/>
+      <c r="AH16" s="148">
         <f>+AH5</f>
         <v>15</v>
       </c>
-      <c r="AI16" s="214"/>
-      <c r="AJ16" s="214"/>
-      <c r="AK16" s="214"/>
-      <c r="AL16" s="214"/>
-      <c r="AM16" s="214"/>
-      <c r="AN16" s="214">
+      <c r="AI16" s="148"/>
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="148"/>
+      <c r="AL16" s="148"/>
+      <c r="AM16" s="148"/>
+      <c r="AN16" s="148">
         <f>+AN5</f>
         <v>15</v>
       </c>
-      <c r="AO16" s="214"/>
-      <c r="AP16" s="214"/>
-      <c r="AQ16" s="214"/>
-      <c r="AR16" s="214"/>
-      <c r="AS16" s="214"/>
-      <c r="AT16" s="214">
+      <c r="AO16" s="148"/>
+      <c r="AP16" s="148"/>
+      <c r="AQ16" s="148"/>
+      <c r="AR16" s="148"/>
+      <c r="AS16" s="148"/>
+      <c r="AT16" s="148">
         <f>+AT5</f>
         <v>15</v>
       </c>
-      <c r="AU16" s="212"/>
-    </row>
-    <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="207"/>
-      <c r="B17" s="116" t="s">
+      <c r="AU16" s="146"/>
+    </row>
+    <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="195"/>
+      <c r="B17" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="166">
+      <c r="C17" s="175"/>
+      <c r="D17" s="118">
         <f>+D6/C5</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="166">
+      <c r="E17" s="119"/>
+      <c r="F17" s="118">
         <v>0</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="166">
+      <c r="G17" s="95"/>
+      <c r="H17" s="118">
         <v>0</v>
       </c>
-      <c r="I17" s="119"/>
-      <c r="K17" s="173">
+      <c r="I17" s="94"/>
+      <c r="K17" s="125">
         <f>+AVERAGE(D17:E17)</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="L17" s="176">
+      <c r="L17" s="128">
         <v>0.99</v>
       </c>
       <c r="U17" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="V17" s="213"/>
-      <c r="W17" s="214">
+      <c r="V17" s="147"/>
+      <c r="W17" s="148">
         <f>+V16*$L$17</f>
         <v>14.85</v>
       </c>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="212"/>
-      <c r="AB17" s="214"/>
-      <c r="AC17" s="214">
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="146"/>
+      <c r="AB17" s="148"/>
+      <c r="AC17" s="148">
         <f>+AB16*$L$17</f>
         <v>14.85</v>
       </c>
-      <c r="AD17" s="214"/>
-      <c r="AE17" s="214"/>
-      <c r="AF17" s="214"/>
-      <c r="AG17" s="214"/>
-      <c r="AH17" s="214"/>
-      <c r="AI17" s="214">
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="148"/>
+      <c r="AG17" s="148"/>
+      <c r="AH17" s="148"/>
+      <c r="AI17" s="148">
         <f>+AH16*$L$17</f>
         <v>14.85</v>
       </c>
-      <c r="AJ17" s="214"/>
-      <c r="AK17" s="214"/>
-      <c r="AL17" s="214"/>
-      <c r="AM17" s="214"/>
-      <c r="AN17" s="214"/>
-      <c r="AO17" s="214">
+      <c r="AJ17" s="148"/>
+      <c r="AK17" s="148"/>
+      <c r="AL17" s="148"/>
+      <c r="AM17" s="148"/>
+      <c r="AN17" s="148"/>
+      <c r="AO17" s="148">
         <f>+AN16*$L$17</f>
         <v>14.85</v>
       </c>
-      <c r="AP17" s="214"/>
-      <c r="AQ17" s="214"/>
-      <c r="AR17" s="214"/>
-      <c r="AS17" s="214"/>
-      <c r="AT17" s="214"/>
-      <c r="AU17" s="212">
+      <c r="AP17" s="148"/>
+      <c r="AQ17" s="148"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="148"/>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="146">
         <f>+AT16*$L$17</f>
         <v>14.85</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="207"/>
-      <c r="B18" s="116" t="s">
+    <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="195"/>
+      <c r="B18" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="166">
+      <c r="C18" s="175"/>
+      <c r="D18" s="118">
         <f>+E7/C5</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="166">
+      <c r="E18" s="95"/>
+      <c r="F18" s="118">
         <v>0</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="166">
+      <c r="G18" s="95"/>
+      <c r="H18" s="118">
         <v>0</v>
       </c>
-      <c r="I18" s="119"/>
-      <c r="K18" s="174">
+      <c r="I18" s="94"/>
+      <c r="K18" s="126">
         <f t="shared" ref="K18:K21" si="28">+AVERAGE(D18:E18)</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="L18" s="177">
+      <c r="L18" s="129">
         <v>0.99</v>
       </c>
       <c r="U18" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="V18" s="213"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214">
+      <c r="V18" s="147"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148">
         <f>+W17*$L$18</f>
         <v>14.701499999999999</v>
       </c>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="214"/>
-      <c r="AD18" s="214">
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148">
         <f>+AC17*$L$18</f>
         <v>14.701499999999999</v>
       </c>
-      <c r="AE18" s="214"/>
-      <c r="AF18" s="214"/>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="214"/>
-      <c r="AI18" s="214"/>
-      <c r="AJ18" s="214">
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="148"/>
+      <c r="AH18" s="148"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="148">
         <f>+AI17*$L$18</f>
         <v>14.701499999999999</v>
       </c>
-      <c r="AK18" s="214"/>
-      <c r="AL18" s="214"/>
-      <c r="AM18" s="214"/>
-      <c r="AN18" s="214"/>
-      <c r="AO18" s="214"/>
-      <c r="AP18" s="214">
+      <c r="AK18" s="148"/>
+      <c r="AL18" s="148"/>
+      <c r="AM18" s="148"/>
+      <c r="AN18" s="148"/>
+      <c r="AO18" s="148"/>
+      <c r="AP18" s="148">
         <f>+AO17*$L$18</f>
         <v>14.701499999999999</v>
       </c>
-      <c r="AQ18" s="214"/>
-      <c r="AR18" s="214"/>
-      <c r="AS18" s="214"/>
-      <c r="AT18" s="214"/>
-      <c r="AU18" s="212"/>
-    </row>
-    <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="207"/>
-      <c r="B19" s="116" t="s">
+      <c r="AQ18" s="148"/>
+      <c r="AR18" s="148"/>
+      <c r="AS18" s="148"/>
+      <c r="AT18" s="148"/>
+      <c r="AU18" s="146"/>
+    </row>
+    <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="195"/>
+      <c r="B19" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="168">
+      <c r="C19" s="175"/>
+      <c r="D19" s="120">
         <f>+F8/C5</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="166">
+      <c r="E19" s="95"/>
+      <c r="F19" s="118">
         <v>0</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="166">
+      <c r="G19" s="95"/>
+      <c r="H19" s="118">
         <v>0</v>
       </c>
-      <c r="I19" s="119"/>
-      <c r="K19" s="174">
+      <c r="I19" s="94"/>
+      <c r="K19" s="126">
         <f t="shared" si="28"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="L19" s="177">
+      <c r="L19" s="129">
         <v>0.99</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="V19" s="213"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214">
+      <c r="V19" s="147"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148">
         <f>+X18*$L$19</f>
         <v>14.554485</v>
       </c>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="214">
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="146"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="148">
         <f>+AD18*$L$19</f>
         <v>14.554485</v>
       </c>
-      <c r="AF19" s="214"/>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="214"/>
-      <c r="AJ19" s="214"/>
-      <c r="AK19" s="214">
+      <c r="AF19" s="148"/>
+      <c r="AG19" s="148"/>
+      <c r="AH19" s="148"/>
+      <c r="AI19" s="148"/>
+      <c r="AJ19" s="148"/>
+      <c r="AK19" s="148">
         <f>+AJ18*$L$19</f>
         <v>14.554485</v>
       </c>
-      <c r="AL19" s="214"/>
-      <c r="AM19" s="214"/>
-      <c r="AN19" s="214"/>
-      <c r="AO19" s="214"/>
-      <c r="AP19" s="214"/>
-      <c r="AQ19" s="214">
+      <c r="AL19" s="148"/>
+      <c r="AM19" s="148"/>
+      <c r="AN19" s="148"/>
+      <c r="AO19" s="148"/>
+      <c r="AP19" s="148"/>
+      <c r="AQ19" s="148">
         <f>+AP18*$L$19</f>
         <v>14.554485</v>
       </c>
-      <c r="AR19" s="214"/>
-      <c r="AS19" s="214"/>
-      <c r="AT19" s="214"/>
-      <c r="AU19" s="212"/>
-    </row>
-    <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="207"/>
-      <c r="B20" s="116" t="s">
+      <c r="AR19" s="148"/>
+      <c r="AS19" s="148"/>
+      <c r="AT19" s="148"/>
+      <c r="AU19" s="146"/>
+    </row>
+    <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="195"/>
+      <c r="B20" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="168">
+      <c r="C20" s="175"/>
+      <c r="D20" s="120">
         <f>+G9/C5</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="166">
+      <c r="E20" s="95"/>
+      <c r="F20" s="118">
         <v>0</v>
       </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="166">
+      <c r="G20" s="95"/>
+      <c r="H20" s="118">
         <v>0</v>
       </c>
-      <c r="I20" s="119"/>
-      <c r="K20" s="174">
+      <c r="I20" s="94"/>
+      <c r="K20" s="126">
         <f t="shared" si="28"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="L20" s="177">
+      <c r="L20" s="129">
         <v>0.99</v>
       </c>
       <c r="U20" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="V20" s="213"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214">
+      <c r="V20" s="147"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148">
         <f>+Y19*$L$20</f>
         <v>14.408940149999999</v>
       </c>
-      <c r="AA20" s="212"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="214"/>
-      <c r="AE20" s="214"/>
-      <c r="AF20" s="214">
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="148">
         <f>+AE19*$L$20</f>
         <v>14.408940149999999</v>
       </c>
-      <c r="AG20" s="214"/>
-      <c r="AH20" s="214"/>
-      <c r="AI20" s="214"/>
-      <c r="AJ20" s="214"/>
-      <c r="AK20" s="214"/>
-      <c r="AL20" s="214">
+      <c r="AG20" s="148"/>
+      <c r="AH20" s="148"/>
+      <c r="AI20" s="148"/>
+      <c r="AJ20" s="148"/>
+      <c r="AK20" s="148"/>
+      <c r="AL20" s="148">
         <f>+AK19*$L$20</f>
         <v>14.408940149999999</v>
       </c>
-      <c r="AM20" s="214"/>
-      <c r="AN20" s="214"/>
-      <c r="AO20" s="214"/>
-      <c r="AP20" s="214"/>
-      <c r="AQ20" s="214"/>
-      <c r="AR20" s="214">
+      <c r="AM20" s="148"/>
+      <c r="AN20" s="148"/>
+      <c r="AO20" s="148"/>
+      <c r="AP20" s="148"/>
+      <c r="AQ20" s="148"/>
+      <c r="AR20" s="148">
         <f>+AQ19*$L$20</f>
         <v>14.408940149999999</v>
       </c>
-      <c r="AS20" s="214"/>
-      <c r="AT20" s="214"/>
-      <c r="AU20" s="212"/>
-    </row>
-    <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="207"/>
-      <c r="B21" s="116" t="s">
+      <c r="AS20" s="148"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="146"/>
+    </row>
+    <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="195"/>
+      <c r="B21" s="174" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="169">
+      <c r="C21" s="175"/>
+      <c r="D21" s="121">
         <f>+H10/C5</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="E21" s="170"/>
-      <c r="F21" s="166">
+      <c r="E21" s="122"/>
+      <c r="F21" s="118">
         <v>0</v>
       </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="166">
+      <c r="G21" s="122"/>
+      <c r="H21" s="118">
         <v>0</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="K21" s="175">
+      <c r="I21" s="96"/>
+      <c r="K21" s="127">
         <f t="shared" si="28"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="L21" s="178">
+      <c r="L21" s="130">
         <v>0.99</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="V21" s="215"/>
-      <c r="W21" s="216"/>
-      <c r="X21" s="216"/>
-      <c r="Y21" s="216"/>
-      <c r="Z21" s="216"/>
-      <c r="AA21" s="217">
+      <c r="V21" s="149"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="151">
         <f>+Z20*$L$21</f>
         <v>14.264850748499999</v>
       </c>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="216"/>
-      <c r="AD21" s="216"/>
-      <c r="AE21" s="216"/>
-      <c r="AF21" s="216"/>
-      <c r="AG21" s="216">
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="150">
         <f>+AF20*$L$21</f>
         <v>14.264850748499999</v>
       </c>
-      <c r="AH21" s="216"/>
-      <c r="AI21" s="216"/>
-      <c r="AJ21" s="216"/>
-      <c r="AK21" s="216"/>
-      <c r="AL21" s="216"/>
-      <c r="AM21" s="216">
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="150"/>
+      <c r="AJ21" s="150"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="150"/>
+      <c r="AM21" s="150">
         <f>+AL20*$L$21</f>
         <v>14.264850748499999</v>
       </c>
-      <c r="AN21" s="216"/>
-      <c r="AO21" s="216"/>
-      <c r="AP21" s="216"/>
-      <c r="AQ21" s="216"/>
-      <c r="AR21" s="216"/>
-      <c r="AS21" s="216">
+      <c r="AN21" s="150"/>
+      <c r="AO21" s="150"/>
+      <c r="AP21" s="150"/>
+      <c r="AQ21" s="150"/>
+      <c r="AR21" s="150"/>
+      <c r="AS21" s="150">
         <f>+AR20*$L$21</f>
         <v>14.264850748499999</v>
       </c>
-      <c r="AT21" s="216"/>
-      <c r="AU21" s="217"/>
-    </row>
-    <row r="24" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT21" s="150"/>
+      <c r="AU21" s="151"/>
+    </row>
+    <row r="24" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V24" s="1">
         <v>0</v>
       </c>
@@ -10210,195 +10485,195 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A25" s="191" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="122">
+      <c r="B25" s="191"/>
+      <c r="C25" s="169">
         <f>+C3</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122">
+      <c r="D25" s="169"/>
+      <c r="E25" s="169">
         <f>+C25+1</f>
         <v>2016</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122">
+      <c r="F25" s="169"/>
+      <c r="G25" s="169">
         <f t="shared" ref="G25" si="29">+E25+1</f>
         <v>2017</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122">
+      <c r="H25" s="169"/>
+      <c r="I25" s="169">
         <f t="shared" ref="I25" si="30">+G25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122">
+      <c r="J25" s="169"/>
+      <c r="K25" s="169">
         <f t="shared" ref="K25" si="31">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122">
+      <c r="L25" s="169"/>
+      <c r="M25" s="169">
         <f t="shared" ref="M25" si="32">+K25+1</f>
         <v>2020</v>
       </c>
-      <c r="N25" s="122"/>
-      <c r="V25" s="192" t="s">
+      <c r="N25" s="169"/>
+      <c r="V25" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="W25" s="193"/>
-      <c r="X25" s="193"/>
-      <c r="Y25" s="193"/>
-      <c r="Z25" s="193"/>
-      <c r="AA25" s="193"/>
-      <c r="AB25" s="193"/>
-      <c r="AC25" s="193"/>
-      <c r="AD25" s="193"/>
-      <c r="AE25" s="193"/>
-      <c r="AF25" s="193"/>
-      <c r="AG25" s="193"/>
-      <c r="AH25" s="193"/>
-      <c r="AI25" s="193"/>
-      <c r="AJ25" s="193"/>
-      <c r="AK25" s="193"/>
-      <c r="AL25" s="193"/>
-      <c r="AM25" s="193"/>
-      <c r="AN25" s="193"/>
-      <c r="AO25" s="193"/>
-      <c r="AP25" s="193"/>
-      <c r="AQ25" s="193"/>
-      <c r="AR25" s="193"/>
-      <c r="AS25" s="193"/>
-      <c r="AT25" s="193"/>
-      <c r="AU25" s="194"/>
-    </row>
-    <row r="26" spans="1:47" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="124" t="s">
+      <c r="W25" s="189"/>
+      <c r="X25" s="189"/>
+      <c r="Y25" s="189"/>
+      <c r="Z25" s="189"/>
+      <c r="AA25" s="189"/>
+      <c r="AB25" s="189"/>
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189"/>
+      <c r="AE25" s="189"/>
+      <c r="AF25" s="189"/>
+      <c r="AG25" s="189"/>
+      <c r="AH25" s="189"/>
+      <c r="AI25" s="189"/>
+      <c r="AJ25" s="189"/>
+      <c r="AK25" s="189"/>
+      <c r="AL25" s="189"/>
+      <c r="AM25" s="189"/>
+      <c r="AN25" s="189"/>
+      <c r="AO25" s="189"/>
+      <c r="AP25" s="189"/>
+      <c r="AQ25" s="189"/>
+      <c r="AR25" s="189"/>
+      <c r="AS25" s="189"/>
+      <c r="AT25" s="189"/>
+      <c r="AU25" s="190"/>
+    </row>
+    <row r="26" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="191"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="F26" s="124" t="s">
+      <c r="F26" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="G26" s="124" t="s">
+      <c r="G26" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="H26" s="124" t="s">
+      <c r="H26" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="I26" s="124" t="s">
+      <c r="I26" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="124" t="s">
+      <c r="J26" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="124" t="s">
+      <c r="K26" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="L26" s="124" t="s">
+      <c r="L26" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="M26" s="124" t="s">
+      <c r="M26" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="N26" s="124" t="s">
+      <c r="N26" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="P26" s="203" t="s">
+      <c r="P26" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="Q26" s="203" t="s">
+      <c r="Q26" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="R26" s="203" t="s">
+      <c r="R26" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="S26" s="203" t="s">
+      <c r="S26" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="T26" s="123" t="s">
+      <c r="T26" s="97" t="s">
         <v>356</v>
       </c>
-      <c r="V26" s="195">
+      <c r="V26" s="192">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122">
+      <c r="W26" s="169"/>
+      <c r="X26" s="169">
         <f>+V26+1</f>
         <v>2021</v>
       </c>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122">
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169">
         <f t="shared" ref="Z26" si="33">+X26+1</f>
         <v>2022</v>
       </c>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="122">
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="169">
         <f t="shared" ref="AB26" si="34">+Z26+1</f>
         <v>2023</v>
       </c>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="122">
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="169">
         <f t="shared" ref="AD26" si="35">+AB26+1</f>
         <v>2024</v>
       </c>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122">
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="169">
         <f t="shared" ref="AF26" si="36">+AD26+1</f>
         <v>2025</v>
       </c>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="122">
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169">
         <f t="shared" ref="AH26" si="37">+AF26+1</f>
         <v>2026</v>
       </c>
-      <c r="AI26" s="122"/>
-      <c r="AJ26" s="122">
+      <c r="AI26" s="169"/>
+      <c r="AJ26" s="169">
         <f t="shared" ref="AJ26" si="38">+AH26+1</f>
         <v>2027</v>
       </c>
-      <c r="AK26" s="122"/>
-      <c r="AL26" s="122">
+      <c r="AK26" s="169"/>
+      <c r="AL26" s="169">
         <f t="shared" ref="AL26" si="39">+AJ26+1</f>
         <v>2028</v>
       </c>
-      <c r="AM26" s="122"/>
-      <c r="AN26" s="122">
+      <c r="AM26" s="169"/>
+      <c r="AN26" s="169">
         <f t="shared" ref="AN26" si="40">+AL26+1</f>
         <v>2029</v>
       </c>
-      <c r="AO26" s="122"/>
-      <c r="AP26" s="122">
+      <c r="AO26" s="169"/>
+      <c r="AP26" s="169">
         <f t="shared" ref="AP26" si="41">+AN26+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ26" s="122"/>
-      <c r="AR26" s="122">
+      <c r="AQ26" s="169"/>
+      <c r="AR26" s="169">
         <f t="shared" ref="AR26" si="42">+AP26+1</f>
         <v>2031</v>
       </c>
-      <c r="AS26" s="122"/>
-      <c r="AT26" s="122">
+      <c r="AS26" s="169"/>
+      <c r="AT26" s="169">
         <f t="shared" ref="AT26" si="43">+AR26+1</f>
         <v>2032</v>
       </c>
-      <c r="AU26" s="196"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A27" s="122" t="s">
+      <c r="AU26" s="187"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A27" s="169" t="s">
         <v>339</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="99" t="s">
         <v>280</v>
       </c>
       <c r="C27" s="45"/>
@@ -10423,108 +10698,108 @@
         <v>16</v>
       </c>
       <c r="N27" s="46"/>
-      <c r="P27" s="204">
+      <c r="P27" s="140">
         <f>+((G27/E27)^(1/1))-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="Q27" s="204">
+      <c r="Q27" s="140">
         <f>+((I27/G27)^(1/1))-1</f>
         <v>-0.23076923076923073</v>
       </c>
-      <c r="R27" s="204">
+      <c r="R27" s="140">
         <f>+((K27/I27)^(1/1))-1</f>
         <v>0</v>
       </c>
-      <c r="S27" s="204">
+      <c r="S27" s="140">
         <f>+((M27/K27)^(1/1))-1</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="T27" s="205">
+      <c r="T27" s="141">
         <f>+AVERAGE(P27:S27)</f>
         <v>-8.6858974358974356E-2</v>
       </c>
-      <c r="V27" s="197" t="s">
+      <c r="V27" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="W27" s="124" t="s">
+      <c r="W27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="X27" s="124" t="s">
+      <c r="X27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="Y27" s="124" t="s">
+      <c r="Y27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="Z27" s="124" t="s">
+      <c r="Z27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AA27" s="124" t="s">
+      <c r="AA27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AB27" s="124" t="s">
+      <c r="AB27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AC27" s="124" t="s">
+      <c r="AC27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AD27" s="124" t="s">
+      <c r="AD27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AE27" s="124" t="s">
+      <c r="AE27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AF27" s="124" t="s">
+      <c r="AF27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AG27" s="124" t="s">
+      <c r="AG27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AH27" s="124" t="s">
+      <c r="AH27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AI27" s="124" t="s">
+      <c r="AI27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AJ27" s="124" t="s">
+      <c r="AJ27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AK27" s="124" t="s">
+      <c r="AK27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AL27" s="124" t="s">
+      <c r="AL27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AM27" s="124" t="s">
+      <c r="AM27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AN27" s="124" t="s">
+      <c r="AN27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AO27" s="124" t="s">
+      <c r="AO27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AP27" s="124" t="s">
+      <c r="AP27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AQ27" s="124" t="s">
+      <c r="AQ27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AR27" s="124" t="s">
+      <c r="AR27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AS27" s="124" t="s">
+      <c r="AS27" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="AT27" s="124" t="s">
+      <c r="AT27" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="AU27" s="198" t="s">
+      <c r="AU27" s="134" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A28" s="122"/>
-      <c r="B28" s="125" t="s">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A28" s="169"/>
+      <c r="B28" s="99" t="s">
         <v>281</v>
       </c>
       <c r="C28" s="45"/>
@@ -10547,78 +10822,78 @@
       </c>
       <c r="M28" s="46"/>
       <c r="N28" s="46"/>
-      <c r="U28" s="158" t="s">
+      <c r="U28" s="110" t="s">
         <v>280</v>
       </c>
       <c r="V28" s="46">
         <f>+M27</f>
         <v>16</v>
       </c>
-      <c r="W28" s="160"/>
-      <c r="X28" s="150">
+      <c r="W28" s="112"/>
+      <c r="X28" s="106">
         <f>M27+(M27*T27)</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="Y28" s="150"/>
-      <c r="Z28" s="150">
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106">
         <f>X28+(X28*T27)</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AA28" s="150"/>
-      <c r="AB28" s="150">
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106">
         <f>Z28+(Z28*T27)</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AC28" s="150"/>
-      <c r="AD28" s="150">
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="106">
         <f>+AB28+(AB28*T27)</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AE28" s="150"/>
-      <c r="AF28" s="150">
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106">
         <f>AD28+(AD28*T27)</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AG28" s="150"/>
-      <c r="AH28" s="150">
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106">
         <f>AF28+(AF28*T27)</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AI28" s="150"/>
-      <c r="AJ28" s="150">
+      <c r="AI28" s="106"/>
+      <c r="AJ28" s="106">
         <f>+AH28+(AH28*T27)</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AK28" s="150"/>
-      <c r="AL28" s="150">
+      <c r="AK28" s="106"/>
+      <c r="AL28" s="106">
         <f>AJ28+(AJ28*T27)</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="150">
+      <c r="AM28" s="106"/>
+      <c r="AN28" s="106">
         <f>AL28+(AL28*T27)</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AO28" s="150"/>
-      <c r="AP28" s="150">
+      <c r="AO28" s="106"/>
+      <c r="AP28" s="106">
         <f>+AN28+(AJ28*T27)</f>
         <v>6.3268379289646584</v>
       </c>
-      <c r="AQ28" s="150"/>
-      <c r="AR28" s="150">
+      <c r="AQ28" s="106"/>
+      <c r="AR28" s="106">
         <f>AP28+(AP28*T27)</f>
         <v>5.7772952755193305</v>
       </c>
-      <c r="AS28" s="150"/>
-      <c r="AT28" s="150">
+      <c r="AS28" s="106"/>
+      <c r="AT28" s="106">
         <f>AR28+(AR28*T27)</f>
         <v>5.2754853333187732</v>
       </c>
-      <c r="AU28" s="148"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A29" s="122"/>
-      <c r="B29" s="125" t="s">
+      <c r="AU28" s="105"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A29" s="169"/>
+      <c r="B29" s="99" t="s">
         <v>282</v>
       </c>
       <c r="C29" s="45"/>
@@ -10644,75 +10919,75 @@
       <c r="U29" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="V29" s="159"/>
-      <c r="W29" s="150">
+      <c r="V29" s="111"/>
+      <c r="W29" s="106">
         <f>V28*L39</f>
         <v>14.333333333333334</v>
       </c>
-      <c r="X29" s="150"/>
-      <c r="Y29" s="150">
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106">
         <f>+X28*$L$39</f>
         <v>13.088354700854701</v>
       </c>
-      <c r="Z29" s="150"/>
-      <c r="AA29" s="150">
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106">
         <f>Z28*L39</f>
         <v>11.951513635492001</v>
       </c>
-      <c r="AB29" s="150"/>
-      <c r="AC29" s="150">
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106">
         <f>AB28*L39</f>
         <v>10.913417419075868</v>
       </c>
-      <c r="AD29" s="150"/>
-      <c r="AE29" s="150">
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106">
         <f>+AD28*$L$39</f>
         <v>9.9654891753035741</v>
       </c>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="150">
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106">
         <f>AF28*L39</f>
         <v>9.0998970065512452</v>
       </c>
-      <c r="AH29" s="150"/>
-      <c r="AI29" s="150">
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="106">
         <f>AH28*L39</f>
         <v>8.309489285789903</v>
       </c>
-      <c r="AJ29" s="150"/>
-      <c r="AK29" s="150">
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="106">
         <f>+AJ28*$L$39</f>
         <v>7.5877355689793058</v>
       </c>
-      <c r="AL29" s="150"/>
-      <c r="AM29" s="150">
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="106">
         <f>AL28*L39</f>
         <v>6.9286726397506539</v>
       </c>
-      <c r="AN29" s="150"/>
-      <c r="AO29" s="150">
+      <c r="AN29" s="106"/>
+      <c r="AO29" s="106">
         <f>AN28*L39</f>
         <v>6.3268552405928249</v>
       </c>
-      <c r="AP29" s="150"/>
-      <c r="AQ29" s="150">
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="106">
         <f>+AP28*$L$39</f>
         <v>5.6677923113641731</v>
       </c>
-      <c r="AR29" s="150"/>
-      <c r="AS29" s="150">
+      <c r="AR29" s="106"/>
+      <c r="AS29" s="106">
         <f>AR28*L39</f>
         <v>5.1754936843194006</v>
       </c>
-      <c r="AT29" s="150"/>
-      <c r="AU29" s="150">
+      <c r="AT29" s="106"/>
+      <c r="AU29" s="106">
         <f>AT28*L39</f>
         <v>4.7259556110980681</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A30" s="122"/>
-      <c r="B30" s="125" t="s">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A30" s="169"/>
+      <c r="B30" s="99" t="s">
         <v>283</v>
       </c>
       <c r="C30" s="45"/>
@@ -10736,72 +11011,72 @@
       <c r="U30" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="159"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="150">
+      <c r="V30" s="111"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="106">
         <f>W29*L40</f>
         <v>12.0133547008547</v>
       </c>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="150">
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106">
         <f>+Y29*$L$40</f>
         <v>10.969887032927897</v>
       </c>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="150">
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106">
         <f>AA29*L40</f>
         <v>10.017053896413968</v>
       </c>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150">
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106">
         <f>AC29*L40</f>
         <v>9.1469828688728825</v>
       </c>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="150">
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106">
         <f>+AE29*$L$40</f>
         <v>8.3524853184034757</v>
       </c>
-      <c r="AG30" s="150"/>
-      <c r="AH30" s="150">
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106">
         <f>AG29*L40</f>
         <v>7.6269970102985587</v>
       </c>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="150">
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="106">
         <f>AI29*L40</f>
         <v>6.9645238725450618</v>
       </c>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="150">
+      <c r="AK30" s="106"/>
+      <c r="AL30" s="106">
         <f>+AK29*$L$40</f>
         <v>6.3595924720772059</v>
       </c>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="150">
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="106">
         <f>AM29*L40</f>
         <v>5.8072047926115253</v>
       </c>
-      <c r="AO30" s="150"/>
-      <c r="AP30" s="150">
+      <c r="AO30" s="106"/>
+      <c r="AP30" s="106">
         <f>AO29*L40</f>
         <v>5.3027969404327679</v>
       </c>
-      <c r="AQ30" s="150"/>
-      <c r="AR30" s="150">
+      <c r="AQ30" s="106"/>
+      <c r="AR30" s="106">
         <f>+AQ29*$L$40</f>
         <v>4.7504092609670865</v>
       </c>
-      <c r="AS30" s="150"/>
-      <c r="AT30" s="150">
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="106">
         <f>AS29*L40</f>
         <v>4.3377935847741123</v>
       </c>
-      <c r="AU30" s="148"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A31" s="122"/>
-      <c r="B31" s="125" t="s">
+      <c r="AU30" s="105"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A31" s="169"/>
+      <c r="B31" s="99" t="s">
         <v>284</v>
       </c>
       <c r="C31" s="45"/>
@@ -10825,72 +11100,72 @@
       <c r="U31" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="150"/>
-      <c r="Y31" s="150">
+      <c r="V31" s="111"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106">
         <f>X30*L41</f>
         <v>8.8200612718240929</v>
       </c>
-      <c r="Z31" s="150"/>
-      <c r="AA31" s="150">
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106">
         <f>+Z30*$L$41</f>
         <v>8.0539597959701403</v>
       </c>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="150">
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106">
         <f>AB30*L41</f>
         <v>7.3544011085637599</v>
       </c>
-      <c r="AD31" s="150"/>
-      <c r="AE31" s="150">
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106">
         <f>AD30*L41</f>
         <v>6.7156053712494073</v>
       </c>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="150">
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106">
         <f>+AF30*$L$41</f>
         <v>6.1322947765030653</v>
       </c>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="150">
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="106">
         <f>AH30*L41</f>
         <v>5.5996499417491128</v>
       </c>
-      <c r="AJ31" s="150"/>
-      <c r="AK31" s="150">
+      <c r="AJ31" s="106"/>
+      <c r="AK31" s="106">
         <f>AJ30*L41</f>
         <v>5.1132700910394941</v>
       </c>
-      <c r="AL31" s="150"/>
-      <c r="AM31" s="150">
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="106">
         <f>+AL30*$L$41</f>
         <v>4.6691366953113844</v>
       </c>
-      <c r="AN31" s="150"/>
-      <c r="AO31" s="150">
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106">
         <f>AN30*L41</f>
         <v>4.2635802708147867</v>
       </c>
-      <c r="AP31" s="150"/>
-      <c r="AQ31" s="150">
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106">
         <f>AP30*L41</f>
         <v>3.8932500613946566</v>
       </c>
-      <c r="AR31" s="150"/>
-      <c r="AS31" s="150">
+      <c r="AR31" s="106"/>
+      <c r="AS31" s="106">
         <f>+AR30*$L$41</f>
         <v>3.487693636898058</v>
       </c>
-      <c r="AT31" s="150"/>
-      <c r="AU31" s="148">
+      <c r="AT31" s="106"/>
+      <c r="AU31" s="105">
         <f>AT30*L41</f>
         <v>3.1847561447187713</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="125" t="s">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A32" s="169"/>
+      <c r="B32" s="99" t="s">
         <v>285</v>
       </c>
       <c r="C32" s="45"/>
@@ -10912,980 +11187,1042 @@
       <c r="U32" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="V32" s="159"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="150"/>
-      <c r="Y32" s="150"/>
-      <c r="Z32" s="150">
+      <c r="V32" s="111"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106">
         <f>Y31*L42</f>
         <v>6.6602770373133211</v>
       </c>
-      <c r="AA32" s="150"/>
-      <c r="AB32" s="150">
+      <c r="AA32" s="106"/>
+      <c r="AB32" s="106">
         <f>+AA31*$L$42</f>
         <v>6.0817722049056568</v>
       </c>
-      <c r="AC32" s="150"/>
-      <c r="AD32" s="150">
+      <c r="AC32" s="106"/>
+      <c r="AD32" s="106">
         <f>AC31*L42</f>
         <v>5.5535157089026344</v>
       </c>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="150">
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="106">
         <f>AE31*L42</f>
         <v>5.0711430303408989</v>
       </c>
-      <c r="AG32" s="150"/>
-      <c r="AH32" s="150">
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106">
         <f>+AG31*$L$42</f>
         <v>4.6306687478978272</v>
       </c>
-      <c r="AI32" s="150"/>
-      <c r="AJ32" s="150">
+      <c r="AI32" s="106"/>
+      <c r="AJ32" s="106">
         <f>AI31*L42</f>
         <v>4.2284536098592662</v>
       </c>
-      <c r="AK32" s="150"/>
-      <c r="AL32" s="150">
+      <c r="AK32" s="106"/>
+      <c r="AL32" s="106">
         <f>AK31*L42</f>
         <v>3.861174466182387</v>
       </c>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="150">
+      <c r="AM32" s="106"/>
+      <c r="AN32" s="106">
         <f>+AM31*$L$42</f>
         <v>3.5257968122287249</v>
       </c>
-      <c r="AO32" s="150"/>
-      <c r="AP32" s="150">
+      <c r="AO32" s="106"/>
+      <c r="AP32" s="106">
         <f>AO31*L42</f>
         <v>3.2195497173203966</v>
       </c>
-      <c r="AQ32" s="150"/>
-      <c r="AR32" s="150">
+      <c r="AQ32" s="106"/>
+      <c r="AR32" s="106">
         <f>AQ31*L42</f>
         <v>2.9399029309762215</v>
       </c>
-      <c r="AS32" s="150"/>
-      <c r="AT32" s="150">
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="106">
         <f>+AS31*$L$42</f>
         <v>2.6336558360678923</v>
       </c>
-      <c r="AU32" s="148"/>
-    </row>
-    <row r="33" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="122"/>
-      <c r="B33" s="125" t="s">
+      <c r="AU32" s="105"/>
+    </row>
+    <row r="33" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="169"/>
+      <c r="B33" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="89">
         <f t="shared" ref="C33:L33" si="44">SUM(C27:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="111">
+      <c r="D33" s="89">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="E33" s="111">
+      <c r="E33" s="89">
         <f t="shared" si="44"/>
         <v>24</v>
       </c>
-      <c r="F33" s="111">
+      <c r="F33" s="89">
         <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="G33" s="111">
+      <c r="G33" s="89">
         <f t="shared" si="44"/>
         <v>46</v>
       </c>
-      <c r="H33" s="111">
+      <c r="H33" s="89">
         <f t="shared" si="44"/>
         <v>46</v>
       </c>
-      <c r="I33" s="111">
+      <c r="I33" s="89">
         <f t="shared" si="44"/>
         <v>58</v>
       </c>
-      <c r="J33" s="111">
+      <c r="J33" s="89">
         <f t="shared" si="44"/>
         <v>58</v>
       </c>
-      <c r="K33" s="111">
+      <c r="K33" s="89">
         <f t="shared" si="44"/>
         <v>50</v>
       </c>
-      <c r="L33" s="111">
+      <c r="L33" s="89">
         <f t="shared" si="44"/>
         <v>44</v>
       </c>
-      <c r="M33" s="111">
+      <c r="M33" s="89">
         <f t="shared" ref="M33:N33" si="45">SUM(M27:M32)</f>
         <v>55</v>
       </c>
-      <c r="N33" s="111">
+      <c r="N33" s="89">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U33" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="V33" s="161"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="152"/>
-      <c r="Y33" s="152"/>
-      <c r="Z33" s="152"/>
-      <c r="AA33" s="152">
+      <c r="V33" s="113"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108">
         <f>Z32*L43</f>
         <v>3.1166681007940538</v>
       </c>
-      <c r="AB33" s="152"/>
-      <c r="AC33" s="152">
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108">
         <f>+AB32*$L$43</f>
         <v>2.8459575061417492</v>
       </c>
-      <c r="AD33" s="152"/>
-      <c r="AE33" s="152">
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108">
         <f>AD32*L43</f>
         <v>2.598760556089053</v>
       </c>
-      <c r="AF33" s="152"/>
-      <c r="AG33" s="152">
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108">
         <f>AF32*L43</f>
         <v>2.3730348795825997</v>
       </c>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="152">
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="108">
         <f>+AH32*$L$43</f>
         <v>2.1669155038239829</v>
       </c>
-      <c r="AJ33" s="152"/>
-      <c r="AK33" s="152">
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="108">
         <f>AJ32*L43</f>
         <v>1.9786994456392717</v>
       </c>
-      <c r="AL33" s="152"/>
-      <c r="AM33" s="152">
+      <c r="AL33" s="108"/>
+      <c r="AM33" s="108">
         <f>AL32*L43</f>
         <v>1.8068316412263732</v>
       </c>
-      <c r="AN33" s="152"/>
-      <c r="AO33" s="152">
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="108">
         <f>+AN32*$L$43</f>
         <v>1.6498920980301082</v>
       </c>
-      <c r="AP33" s="152"/>
-      <c r="AQ33" s="152">
+      <c r="AP33" s="108"/>
+      <c r="AQ33" s="108">
         <f>AP32*L43</f>
         <v>1.5065841625922367</v>
       </c>
-      <c r="AR33" s="152"/>
-      <c r="AS33" s="152">
+      <c r="AR33" s="108"/>
+      <c r="AS33" s="108">
         <f>AR32*L43</f>
         <v>1.375723807444001</v>
       </c>
-      <c r="AT33" s="152"/>
-      <c r="AU33" s="153">
+      <c r="AT33" s="108"/>
+      <c r="AU33" s="109">
         <f>+AT32*$L$43</f>
         <v>1.2324158720061289</v>
       </c>
     </row>
-    <row r="34" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V35" s="187" t="s">
+    <row r="34" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V35" s="178" t="s">
         <v>341</v>
       </c>
-      <c r="W35" s="188"/>
-      <c r="X35" s="188"/>
-      <c r="Y35" s="188"/>
-      <c r="Z35" s="188"/>
-      <c r="AA35" s="188"/>
-      <c r="AB35" s="188"/>
-      <c r="AC35" s="188"/>
-      <c r="AD35" s="188"/>
-      <c r="AE35" s="188"/>
-      <c r="AF35" s="188"/>
-      <c r="AG35" s="188"/>
-      <c r="AH35" s="188"/>
-      <c r="AI35" s="188"/>
-      <c r="AJ35" s="188"/>
-      <c r="AK35" s="188"/>
-      <c r="AL35" s="188"/>
-      <c r="AM35" s="188"/>
-      <c r="AN35" s="188"/>
-      <c r="AO35" s="188"/>
-      <c r="AP35" s="188"/>
-      <c r="AQ35" s="188"/>
-      <c r="AR35" s="188"/>
-      <c r="AS35" s="188"/>
-      <c r="AT35" s="188"/>
-      <c r="AU35" s="189"/>
-    </row>
-    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126" t="s">
+      <c r="W35" s="179"/>
+      <c r="X35" s="179"/>
+      <c r="Y35" s="179"/>
+      <c r="Z35" s="179"/>
+      <c r="AA35" s="179"/>
+      <c r="AB35" s="179"/>
+      <c r="AC35" s="179"/>
+      <c r="AD35" s="179"/>
+      <c r="AE35" s="179"/>
+      <c r="AF35" s="179"/>
+      <c r="AG35" s="179"/>
+      <c r="AH35" s="179"/>
+      <c r="AI35" s="179"/>
+      <c r="AJ35" s="179"/>
+      <c r="AK35" s="179"/>
+      <c r="AL35" s="179"/>
+      <c r="AM35" s="179"/>
+      <c r="AN35" s="179"/>
+      <c r="AO35" s="179"/>
+      <c r="AP35" s="179"/>
+      <c r="AQ35" s="179"/>
+      <c r="AR35" s="179"/>
+      <c r="AS35" s="179"/>
+      <c r="AT35" s="179"/>
+      <c r="AU35" s="180"/>
+    </row>
+    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="181" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="182" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="143" t="s">
+      <c r="C36" s="183"/>
+      <c r="D36" s="170" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="143" t="s">
+      <c r="E36" s="171"/>
+      <c r="F36" s="170" t="s">
         <v>345</v>
       </c>
-      <c r="G36" s="144"/>
-      <c r="H36" s="143" t="s">
+      <c r="G36" s="171"/>
+      <c r="H36" s="170" t="s">
         <v>352</v>
       </c>
-      <c r="I36" s="144"/>
-      <c r="J36" s="143" t="s">
+      <c r="I36" s="171"/>
+      <c r="J36" s="170" t="s">
         <v>353</v>
       </c>
-      <c r="K36" s="144"/>
-      <c r="V36" s="190">
+      <c r="K36" s="171"/>
+      <c r="V36" s="186">
         <f>+V26</f>
         <v>2020</v>
       </c>
-      <c r="W36" s="133"/>
-      <c r="X36" s="133">
+      <c r="W36" s="176"/>
+      <c r="X36" s="176">
         <f>+V36+1</f>
         <v>2021</v>
       </c>
-      <c r="Y36" s="133"/>
-      <c r="Z36" s="133">
+      <c r="Y36" s="176"/>
+      <c r="Z36" s="176">
         <f t="shared" ref="Z36" si="46">+X36+1</f>
         <v>2022</v>
       </c>
-      <c r="AA36" s="133"/>
-      <c r="AB36" s="133">
+      <c r="AA36" s="176"/>
+      <c r="AB36" s="176">
         <f t="shared" ref="AB36" si="47">+Z36+1</f>
         <v>2023</v>
       </c>
-      <c r="AC36" s="133"/>
-      <c r="AD36" s="133">
+      <c r="AC36" s="176"/>
+      <c r="AD36" s="176">
         <f t="shared" ref="AD36" si="48">+AB36+1</f>
         <v>2024</v>
       </c>
-      <c r="AE36" s="133"/>
-      <c r="AF36" s="133">
+      <c r="AE36" s="176"/>
+      <c r="AF36" s="176">
         <f t="shared" ref="AF36" si="49">+AD36+1</f>
         <v>2025</v>
       </c>
-      <c r="AG36" s="133"/>
-      <c r="AH36" s="133">
+      <c r="AG36" s="176"/>
+      <c r="AH36" s="176">
         <f t="shared" ref="AH36" si="50">+AF36+1</f>
         <v>2026</v>
       </c>
-      <c r="AI36" s="133"/>
-      <c r="AJ36" s="133">
+      <c r="AI36" s="176"/>
+      <c r="AJ36" s="176">
         <f t="shared" ref="AJ36" si="51">+AH36+1</f>
         <v>2027</v>
       </c>
-      <c r="AK36" s="133"/>
-      <c r="AL36" s="133">
+      <c r="AK36" s="176"/>
+      <c r="AL36" s="176">
         <f t="shared" ref="AL36" si="52">+AJ36+1</f>
         <v>2028</v>
       </c>
-      <c r="AM36" s="133"/>
-      <c r="AN36" s="133">
+      <c r="AM36" s="176"/>
+      <c r="AN36" s="176">
         <f t="shared" ref="AN36" si="53">+AL36+1</f>
         <v>2029</v>
       </c>
-      <c r="AO36" s="133"/>
-      <c r="AP36" s="133">
+      <c r="AO36" s="176"/>
+      <c r="AP36" s="176">
         <f t="shared" ref="AP36" si="54">+AN36+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ36" s="133"/>
-      <c r="AR36" s="133">
+      <c r="AQ36" s="176"/>
+      <c r="AR36" s="176">
         <f t="shared" ref="AR36" si="55">+AP36+1</f>
         <v>2031</v>
       </c>
-      <c r="AS36" s="133"/>
-      <c r="AT36" s="133">
+      <c r="AS36" s="176"/>
+      <c r="AT36" s="176">
         <f t="shared" ref="AT36" si="56">+AR36+1</f>
         <v>2032</v>
       </c>
-      <c r="AU36" s="191"/>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A37" s="126"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="146"/>
-      <c r="V37" s="141" t="s">
+      <c r="AU36" s="177"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" s="181"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="173"/>
+      <c r="V37" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="W37" s="186" t="s">
+      <c r="W37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="X37" s="186" t="s">
+      <c r="X37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="Y37" s="186" t="s">
+      <c r="Y37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="Z37" s="186" t="s">
+      <c r="Z37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AA37" s="186" t="s">
+      <c r="AA37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AB37" s="186" t="s">
+      <c r="AB37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AC37" s="186" t="s">
+      <c r="AC37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AD37" s="186" t="s">
+      <c r="AD37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AE37" s="186" t="s">
+      <c r="AE37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AF37" s="186" t="s">
+      <c r="AF37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AG37" s="186" t="s">
+      <c r="AG37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AH37" s="186" t="s">
+      <c r="AH37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AI37" s="186" t="s">
+      <c r="AI37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AJ37" s="186" t="s">
+      <c r="AJ37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AK37" s="186" t="s">
+      <c r="AK37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AL37" s="186" t="s">
+      <c r="AL37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AM37" s="186" t="s">
+      <c r="AM37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AN37" s="186" t="s">
+      <c r="AN37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AO37" s="186" t="s">
+      <c r="AO37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AP37" s="186" t="s">
+      <c r="AP37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AQ37" s="186" t="s">
+      <c r="AQ37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AR37" s="186" t="s">
+      <c r="AR37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AS37" s="186" t="s">
+      <c r="AS37" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="AT37" s="186" t="s">
+      <c r="AT37" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="AU37" s="142" t="s">
+      <c r="AU37" s="103" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="126"/>
-      <c r="B38" s="116" t="s">
+    <row r="38" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="181"/>
+      <c r="B38" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="117"/>
-      <c r="D38" s="166">
+      <c r="C38" s="175"/>
+      <c r="D38" s="118">
         <f>+E27/$E$27</f>
         <v>1</v>
       </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="120"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="95"/>
       <c r="L38" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M38" s="131"/>
-      <c r="U38" s="158" t="s">
+      <c r="M38" s="100"/>
+      <c r="U38" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="V38" s="147">
+      <c r="V38" s="104">
         <f>+V28</f>
         <v>16</v>
       </c>
-      <c r="W38" s="150"/>
-      <c r="X38" s="150">
+      <c r="W38" s="106"/>
+      <c r="X38" s="106">
         <f>+X28</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="150">
+      <c r="Y38" s="106"/>
+      <c r="Z38" s="106">
         <f>+Z28</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AA38" s="150"/>
-      <c r="AB38" s="150">
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="106">
         <f>+AB28</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AC38" s="150"/>
-      <c r="AD38" s="150">
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106">
         <f>+AD28</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AE38" s="150"/>
-      <c r="AF38" s="150">
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="106">
         <f>+AF28</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AG38" s="150"/>
-      <c r="AH38" s="150">
+      <c r="AG38" s="106"/>
+      <c r="AH38" s="106">
         <f>+AH28</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AI38" s="150"/>
-      <c r="AJ38" s="150">
+      <c r="AI38" s="106"/>
+      <c r="AJ38" s="106">
         <f>+AJ28</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AK38" s="150"/>
-      <c r="AL38" s="150">
+      <c r="AK38" s="106"/>
+      <c r="AL38" s="106">
         <f>+AL28</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AM38" s="150"/>
-      <c r="AN38" s="150">
+      <c r="AM38" s="106"/>
+      <c r="AN38" s="106">
         <f>+AN28</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AO38" s="150"/>
-      <c r="AP38" s="150">
+      <c r="AO38" s="106"/>
+      <c r="AP38" s="106">
         <f>+AP28</f>
         <v>6.3268379289646584</v>
       </c>
-      <c r="AQ38" s="150"/>
-      <c r="AR38" s="150">
+      <c r="AQ38" s="106"/>
+      <c r="AR38" s="106">
         <f>+AR28</f>
         <v>5.7772952755193305</v>
       </c>
-      <c r="AS38" s="150"/>
-      <c r="AT38" s="150">
+      <c r="AS38" s="106"/>
+      <c r="AT38" s="106">
         <f>+AT28</f>
         <v>5.2754853333187732</v>
       </c>
-      <c r="AU38" s="148"/>
-    </row>
-    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="126"/>
-      <c r="B39" s="116" t="s">
+      <c r="AU38" s="105"/>
+    </row>
+    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="181"/>
+      <c r="B39" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="166">
+      <c r="C39" s="175"/>
+      <c r="D39" s="118">
         <f>+F28/$E$27</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E39" s="120"/>
-      <c r="F39" s="166">
+      <c r="E39" s="95"/>
+      <c r="F39" s="118">
         <f>+H28/$G$27</f>
         <v>1</v>
       </c>
-      <c r="G39" s="120"/>
-      <c r="H39" s="166">
+      <c r="G39" s="95"/>
+      <c r="H39" s="118">
         <f>+J28/$I$27</f>
         <v>1</v>
       </c>
-      <c r="I39" s="120"/>
-      <c r="J39" s="166">
+      <c r="I39" s="95"/>
+      <c r="J39" s="118">
         <f>+L28/$K$27</f>
         <v>0.75</v>
       </c>
-      <c r="K39" s="120"/>
-      <c r="L39" s="173">
+      <c r="K39" s="95"/>
+      <c r="L39" s="125">
         <f>+AVERAGE(D39:J39)</f>
         <v>0.89583333333333337</v>
       </c>
-      <c r="M39" s="176">
+      <c r="M39" s="128">
         <v>1</v>
       </c>
-      <c r="U39" s="158" t="s">
+      <c r="U39" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="V39" s="147"/>
-      <c r="W39" s="150">
+      <c r="V39" s="104"/>
+      <c r="W39" s="106">
         <f>+V38*$M$39</f>
         <v>16</v>
       </c>
-      <c r="X39" s="150"/>
-      <c r="Y39" s="150">
+      <c r="X39" s="106"/>
+      <c r="Y39" s="106">
         <f>+X38*$M$39</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="Z39" s="150"/>
-      <c r="AA39" s="150">
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106">
         <f>+Z38*$M$39</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="150">
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="106">
         <f>+AB38*$M$39</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="150">
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="106">
         <f>+AD38*$M$39</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AF39" s="150"/>
-      <c r="AG39" s="150">
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="106">
         <f>+AF38*$M$39</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AH39" s="150"/>
-      <c r="AI39" s="150">
+      <c r="AH39" s="106"/>
+      <c r="AI39" s="106">
         <f>+AH38*$M$39</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AJ39" s="150"/>
-      <c r="AK39" s="150">
+      <c r="AJ39" s="106"/>
+      <c r="AK39" s="106">
         <f>+AJ38*$M$39</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AL39" s="150"/>
-      <c r="AM39" s="150">
+      <c r="AL39" s="106"/>
+      <c r="AM39" s="106">
         <f>+AL38*$M$39</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AN39" s="150"/>
-      <c r="AO39" s="150">
+      <c r="AN39" s="106"/>
+      <c r="AO39" s="106">
         <f>+AN38*$M$39</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AP39" s="150"/>
-      <c r="AQ39" s="150">
+      <c r="AP39" s="106"/>
+      <c r="AQ39" s="106">
         <f>+AP38*$M$39</f>
         <v>6.3268379289646584</v>
       </c>
-      <c r="AR39" s="150"/>
-      <c r="AS39" s="150">
+      <c r="AR39" s="106"/>
+      <c r="AS39" s="106">
         <f>+AR38*$M$39</f>
         <v>5.7772952755193305</v>
       </c>
-      <c r="AT39" s="150"/>
-      <c r="AU39" s="150">
+      <c r="AT39" s="106"/>
+      <c r="AU39" s="106">
         <f>+AT38*$M$39</f>
         <v>5.2754853333187732</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="126"/>
-      <c r="B40" s="116" t="s">
+    <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="181"/>
+      <c r="B40" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="166">
+      <c r="C40" s="175"/>
+      <c r="D40" s="118">
         <f>+G29/$E$27</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E40" s="120"/>
-      <c r="F40" s="166">
+      <c r="E40" s="95"/>
+      <c r="F40" s="118">
         <f>+I29/$G$27</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="166">
+      <c r="G40" s="95"/>
+      <c r="H40" s="118">
         <f>+K29/$I$27</f>
         <v>0.7</v>
       </c>
-      <c r="I40" s="120"/>
-      <c r="J40" s="166">
+      <c r="I40" s="95"/>
+      <c r="J40" s="118">
         <f>+M29/$K$27</f>
         <v>1.05</v>
       </c>
-      <c r="K40" s="120"/>
-      <c r="L40" s="174">
-        <f t="shared" ref="L40:L41" si="57">+AVERAGE(D40:J40)</f>
+      <c r="K40" s="95"/>
+      <c r="L40" s="126">
+        <f t="shared" ref="L40" si="57">+AVERAGE(D40:J40)</f>
         <v>0.83814102564102555</v>
       </c>
-      <c r="M40" s="177">
+      <c r="M40" s="129">
         <v>1</v>
       </c>
-      <c r="U40" s="158" t="s">
+      <c r="U40" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="V40" s="147"/>
-      <c r="W40" s="150"/>
-      <c r="X40" s="150">
+      <c r="V40" s="104"/>
+      <c r="W40" s="106"/>
+      <c r="X40" s="106">
         <f>+W39*$M$40</f>
         <v>16</v>
       </c>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="150">
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="106">
         <f>+Y39*$M$40</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="AA40" s="150"/>
-      <c r="AB40" s="150">
+      <c r="AA40" s="106"/>
+      <c r="AB40" s="106">
         <f>+AA39*$M$40</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AC40" s="150"/>
-      <c r="AD40" s="150">
+      <c r="AC40" s="106"/>
+      <c r="AD40" s="106">
         <f>+AC39*$M$40</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AE40" s="150"/>
-      <c r="AF40" s="150">
+      <c r="AE40" s="106"/>
+      <c r="AF40" s="106">
         <f>+AE39*$M$40</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AG40" s="150"/>
-      <c r="AH40" s="150">
+      <c r="AG40" s="106"/>
+      <c r="AH40" s="106">
         <f>+AG39*$M$40</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AI40" s="150"/>
-      <c r="AJ40" s="150">
+      <c r="AI40" s="106"/>
+      <c r="AJ40" s="106">
         <f>+AI39*$M$40</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AK40" s="150"/>
-      <c r="AL40" s="150">
+      <c r="AK40" s="106"/>
+      <c r="AL40" s="106">
         <f>+AK39*$M$40</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AM40" s="150"/>
-      <c r="AN40" s="150">
+      <c r="AM40" s="106"/>
+      <c r="AN40" s="106">
         <f>+AM39*$M$40</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AO40" s="150"/>
-      <c r="AP40" s="150">
+      <c r="AO40" s="106"/>
+      <c r="AP40" s="106">
         <f>+AO39*$M$40</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AQ40" s="150"/>
-      <c r="AR40" s="150">
+      <c r="AQ40" s="106"/>
+      <c r="AR40" s="106">
         <f>+AQ39*$M$40</f>
         <v>6.3268379289646584</v>
       </c>
-      <c r="AS40" s="150"/>
-      <c r="AT40" s="150">
+      <c r="AS40" s="106"/>
+      <c r="AT40" s="106">
         <f>+AS39*$M$40</f>
         <v>5.7772952755193305</v>
       </c>
-      <c r="AU40" s="148"/>
-    </row>
-    <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="126"/>
-      <c r="B41" s="116" t="s">
+      <c r="AU40" s="105"/>
+    </row>
+    <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="181"/>
+      <c r="B41" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="166">
+      <c r="C41" s="175"/>
+      <c r="D41" s="118">
         <f>+H30/$E$27</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E41" s="120"/>
-      <c r="F41" s="166">
+      <c r="E41" s="95"/>
+      <c r="F41" s="118">
         <f>+J30/$G$27</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="G41" s="120"/>
-      <c r="H41" s="166">
+      <c r="G41" s="95"/>
+      <c r="H41" s="118">
         <f>+L30/$I$27</f>
         <v>0.6</v>
       </c>
-      <c r="I41" s="120"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="174">
+      <c r="I41" s="95"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="126">
         <f>+AVERAGE(D41:I41)</f>
         <v>0.73418803418803424</v>
       </c>
-      <c r="M41" s="177">
+      <c r="M41" s="129">
         <v>1</v>
       </c>
-      <c r="U41" s="158" t="s">
+      <c r="U41" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="V41" s="147"/>
-      <c r="W41" s="150"/>
-      <c r="X41" s="150"/>
-      <c r="Y41" s="150">
+      <c r="V41" s="104"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="106">
         <f>+X40*$M$41</f>
         <v>16</v>
       </c>
-      <c r="Z41" s="150"/>
-      <c r="AA41" s="150">
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="106">
         <f>+Z40*$M$41</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="AB41" s="150"/>
-      <c r="AC41" s="150">
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106">
         <f>+AB40*$M$41</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AD41" s="150"/>
-      <c r="AE41" s="150">
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="106">
         <f>+AD40*$M$41</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AF41" s="150"/>
-      <c r="AG41" s="150">
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="106">
         <f>+AF40*$M$41</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AH41" s="150"/>
-      <c r="AI41" s="150">
+      <c r="AH41" s="106"/>
+      <c r="AI41" s="106">
         <f>+AH40*$M$41</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AJ41" s="150"/>
-      <c r="AK41" s="150">
+      <c r="AJ41" s="106"/>
+      <c r="AK41" s="106">
         <f>+AJ40*$M$41</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AL41" s="150"/>
-      <c r="AM41" s="150">
+      <c r="AL41" s="106"/>
+      <c r="AM41" s="106">
         <f>+AL40*$M$41</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AN41" s="150"/>
-      <c r="AO41" s="150">
+      <c r="AN41" s="106"/>
+      <c r="AO41" s="106">
         <f>+AN40*$M$41</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AP41" s="150"/>
-      <c r="AQ41" s="150">
+      <c r="AP41" s="106"/>
+      <c r="AQ41" s="106">
         <f>+AP40*$M$41</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AR41" s="150"/>
-      <c r="AS41" s="150">
+      <c r="AR41" s="106"/>
+      <c r="AS41" s="106">
         <f>+AR40*$M$41</f>
         <v>6.3268379289646584</v>
       </c>
-      <c r="AT41" s="150"/>
-      <c r="AU41" s="150">
+      <c r="AT41" s="106"/>
+      <c r="AU41" s="106">
         <f>+AT40*$M$41</f>
         <v>5.7772952755193305</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="126"/>
-      <c r="B42" s="116" t="s">
+    <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="181"/>
+      <c r="B42" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="166">
+      <c r="C42" s="175"/>
+      <c r="D42" s="118">
         <f>+I31/$E$27</f>
         <v>0.75</v>
       </c>
-      <c r="E42" s="120"/>
-      <c r="F42" s="166">
+      <c r="E42" s="95"/>
+      <c r="F42" s="118">
         <f>+K31/$G$27</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="G42" s="120"/>
-      <c r="H42" s="166">
+      <c r="G42" s="95"/>
+      <c r="H42" s="118">
         <f>+M31/$I$27</f>
         <v>0.9</v>
       </c>
-      <c r="I42" s="120"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="174">
+      <c r="I42" s="95"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="126">
         <f>+AVERAGE(D42:I42)</f>
         <v>0.75512820512820511</v>
       </c>
-      <c r="M42" s="177">
+      <c r="M42" s="129">
         <v>1</v>
       </c>
-      <c r="U42" s="158" t="s">
+      <c r="U42" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="V42" s="147"/>
-      <c r="W42" s="150"/>
-      <c r="X42" s="150"/>
-      <c r="Y42" s="150"/>
-      <c r="Z42" s="150">
+      <c r="V42" s="104"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="106">
         <f>+Y41*$M$42</f>
         <v>16</v>
       </c>
-      <c r="AA42" s="150"/>
-      <c r="AB42" s="150">
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="106">
         <f>+AA41*$M$42</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150">
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="106">
         <f>+AC41*$M$42</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150">
+      <c r="AE42" s="106"/>
+      <c r="AF42" s="106">
         <f>+AE41*$M$42</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150">
+      <c r="AG42" s="106"/>
+      <c r="AH42" s="106">
         <f>+AG41*$M$42</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150">
+      <c r="AI42" s="106"/>
+      <c r="AJ42" s="106">
         <f>+AI41*$M$42</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="150">
+      <c r="AK42" s="106"/>
+      <c r="AL42" s="106">
         <f>+AK41*$M$42</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AM42" s="150"/>
-      <c r="AN42" s="150">
+      <c r="AM42" s="106"/>
+      <c r="AN42" s="106">
         <f>+AM41*$M$42</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AO42" s="150"/>
-      <c r="AP42" s="150">
+      <c r="AO42" s="106"/>
+      <c r="AP42" s="106">
         <f>+AO41*$M$42</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AQ42" s="150"/>
-      <c r="AR42" s="150">
+      <c r="AQ42" s="106"/>
+      <c r="AR42" s="106">
         <f>+AQ41*$M$42</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AS42" s="150"/>
-      <c r="AT42" s="150">
+      <c r="AS42" s="106"/>
+      <c r="AT42" s="106">
         <f>+AS41*$M$42</f>
         <v>6.3268379289646584</v>
       </c>
-      <c r="AU42" s="148"/>
-    </row>
-    <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="126"/>
-      <c r="B43" s="116" t="s">
+      <c r="AU42" s="105"/>
+    </row>
+    <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="181"/>
+      <c r="B43" s="174" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="172">
+      <c r="C43" s="175"/>
+      <c r="D43" s="124">
         <f>+J32/$E$27</f>
         <v>0.75</v>
       </c>
-      <c r="E43" s="170"/>
-      <c r="F43" s="172">
+      <c r="E43" s="122"/>
+      <c r="F43" s="124">
         <f>+L32/$G$27</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="G43" s="170"/>
-      <c r="H43" s="172">
+      <c r="G43" s="122"/>
+      <c r="H43" s="124">
         <f>+N32/$I$27</f>
         <v>0</v>
       </c>
-      <c r="I43" s="170"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="175">
+      <c r="I43" s="122"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="127">
         <f>+AVERAGE(D43:I43)</f>
         <v>0.4679487179487179</v>
       </c>
-      <c r="M43" s="178">
+      <c r="M43" s="130">
         <v>1</v>
       </c>
-      <c r="U43" s="158" t="s">
+      <c r="U43" s="110" t="s">
         <v>285</v>
       </c>
-      <c r="V43" s="151"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="152"/>
-      <c r="AA43" s="152">
+      <c r="V43" s="107"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108">
         <f>+Z42*$M$43</f>
         <v>16</v>
       </c>
-      <c r="AB43" s="152"/>
-      <c r="AC43" s="152">
+      <c r="AB43" s="108"/>
+      <c r="AC43" s="108">
         <f>+AB42*$M$43</f>
         <v>14.61025641025641</v>
       </c>
-      <c r="AD43" s="152"/>
-      <c r="AE43" s="152">
+      <c r="AD43" s="108"/>
+      <c r="AE43" s="108">
         <f>+AD42*$M$43</f>
         <v>13.341224523339907</v>
       </c>
-      <c r="AF43" s="152"/>
-      <c r="AG43" s="152">
+      <c r="AF43" s="108"/>
+      <c r="AG43" s="108">
         <f>+AF42*$M$43</f>
         <v>12.182419444549806</v>
       </c>
-      <c r="AH43" s="152"/>
-      <c r="AI43" s="152">
+      <c r="AH43" s="108"/>
+      <c r="AI43" s="108">
         <f>+AH42*$M$43</f>
         <v>11.124266986385384</v>
       </c>
-      <c r="AJ43" s="152"/>
-      <c r="AK43" s="152">
+      <c r="AJ43" s="108"/>
+      <c r="AK43" s="108">
         <f>+AJ42*$M$43</f>
         <v>10.158024565452552</v>
       </c>
-      <c r="AL43" s="152"/>
-      <c r="AM43" s="152">
+      <c r="AL43" s="108"/>
+      <c r="AM43" s="108">
         <f>+AL42*$M$43</f>
         <v>9.2757089701840769</v>
       </c>
-      <c r="AN43" s="152"/>
-      <c r="AO43" s="152">
+      <c r="AN43" s="108"/>
+      <c r="AO43" s="108">
         <f>+AN42*$M$43</f>
         <v>8.4700304025815498</v>
       </c>
-      <c r="AP43" s="152"/>
-      <c r="AQ43" s="152">
+      <c r="AP43" s="108"/>
+      <c r="AQ43" s="108">
         <f>+AP42*$M$43</f>
         <v>7.7343322490239856</v>
       </c>
-      <c r="AR43" s="152"/>
-      <c r="AS43" s="152">
+      <c r="AR43" s="108"/>
+      <c r="AS43" s="108">
         <f>+AR42*$M$43</f>
         <v>7.0625360825222225</v>
       </c>
-      <c r="AT43" s="152"/>
-      <c r="AU43" s="152">
+      <c r="AT43" s="108"/>
+      <c r="AU43" s="108">
         <f>+AT42*$M$43</f>
         <v>6.3268379289646584</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="V2:AS2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
     <mergeCell ref="AP36:AQ36"/>
     <mergeCell ref="AR36:AS36"/>
     <mergeCell ref="AT36:AU36"/>
@@ -11897,79 +12234,17 @@
     <mergeCell ref="AH36:AI36"/>
     <mergeCell ref="AJ36:AK36"/>
     <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="V35:AU35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="V25:AU25"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="V13:AU13"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="V2:AS2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:K37"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6EDEF-6B2C-450B-9D2D-2174E1797700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F4A089-3372-481B-9B01-28C4EE386A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="384">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -1175,6 +1175,66 @@
   <si>
     <t>Tasa prom. Participación matriculas</t>
   </si>
+  <si>
+    <t>POSTULANTES AL INSTITUTO SUPERIOR TECNOLOGICA PUBLICA ALFREDO SARMIENTO PALOMINO</t>
+  </si>
+  <si>
+    <t>Total Postulantes (*)</t>
+  </si>
+  <si>
+    <t>Tasa geométrica</t>
+  </si>
+  <si>
+    <t>años</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento histórico Const. Civil</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento histórico Industria Alimentarias</t>
+  </si>
+  <si>
+    <t>POBLACIÓN DE REFERENCIA PROYECTADA</t>
+  </si>
+  <si>
+    <t>CARRERA DE INDUSTRIAS ALIMENTARIAS</t>
+  </si>
+  <si>
+    <t>Población de Referencia</t>
+  </si>
+  <si>
+    <t>periodo o</t>
+  </si>
+  <si>
+    <t>Per. 1</t>
+  </si>
+  <si>
+    <t>Per. 2</t>
+  </si>
+  <si>
+    <t>Per. 3</t>
+  </si>
+  <si>
+    <t>Per. 4</t>
+  </si>
+  <si>
+    <t>Per. 5</t>
+  </si>
+  <si>
+    <t>Per. 6</t>
+  </si>
+  <si>
+    <t>Per. 7</t>
+  </si>
+  <si>
+    <t>Per. 8</t>
+  </si>
+  <si>
+    <t>Per. 9</t>
+  </si>
+  <si>
+    <t>Per. 10</t>
+  </si>
 </sst>
 </file>
 
@@ -1185,7 +1245,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,8 +1496,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1543,6 +1608,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2199,7 +2276,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2650,6 +2727,78 @@
     <xf numFmtId="1" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="17" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="15" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,67 +2814,133 @@
     <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,154 +2970,66 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="17" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="15" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4623,7 +4750,7 @@
   <dimension ref="A2:N139"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4643,7 +4770,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="176" t="s">
         <v>209</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -4654,7 +4781,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K3" s="152"/>
+      <c r="K3" s="176"/>
       <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
@@ -4666,7 +4793,7 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="152"/>
+      <c r="K4" s="176"/>
       <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
@@ -4691,7 +4818,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="152"/>
+      <c r="K5" s="176"/>
       <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
@@ -4708,7 +4835,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="152"/>
+      <c r="K6" s="176"/>
       <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
@@ -4777,7 +4904,7 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="179" t="s">
         <v>218</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -4812,7 +4939,7 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="155"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="25">
         <v>1</v>
       </c>
@@ -4845,7 +4972,7 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="155"/>
+      <c r="K10" s="179"/>
       <c r="L10" s="25">
         <v>2</v>
       </c>
@@ -4878,7 +5005,7 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="155"/>
+      <c r="K11" s="179"/>
       <c r="L11" s="25">
         <v>3</v>
       </c>
@@ -4911,7 +5038,7 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="155"/>
+      <c r="K12" s="179"/>
       <c r="L12" s="25">
         <v>4</v>
       </c>
@@ -4944,7 +5071,7 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="155"/>
+      <c r="K13" s="179"/>
       <c r="L13" s="25">
         <v>5</v>
       </c>
@@ -4977,7 +5104,7 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="155"/>
+      <c r="K14" s="179"/>
       <c r="L14" s="25">
         <v>6</v>
       </c>
@@ -5010,7 +5137,7 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="155"/>
+      <c r="K15" s="179"/>
       <c r="L15" s="25">
         <v>7</v>
       </c>
@@ -5043,7 +5170,7 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="155"/>
+      <c r="K16" s="179"/>
       <c r="L16" s="25">
         <v>8</v>
       </c>
@@ -5076,7 +5203,7 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="155"/>
+      <c r="K17" s="179"/>
       <c r="L17" s="25">
         <v>9</v>
       </c>
@@ -5109,7 +5236,7 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="155"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="25">
         <v>10</v>
       </c>
@@ -5142,7 +5269,7 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="155"/>
+      <c r="K19" s="179"/>
       <c r="L19" s="25">
         <v>11</v>
       </c>
@@ -5175,7 +5302,7 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="155"/>
+      <c r="K20" s="179"/>
       <c r="L20" s="25">
         <v>12</v>
       </c>
@@ -5208,7 +5335,7 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="155"/>
+      <c r="K21" s="179"/>
       <c r="L21" s="25">
         <v>13</v>
       </c>
@@ -5241,7 +5368,7 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="155"/>
+      <c r="K22" s="179"/>
       <c r="L22" s="25">
         <v>14</v>
       </c>
@@ -5274,7 +5401,7 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="155"/>
+      <c r="K23" s="179"/>
       <c r="L23" s="25">
         <v>15</v>
       </c>
@@ -5307,7 +5434,7 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="155"/>
+      <c r="K24" s="179"/>
       <c r="L24" s="25">
         <v>16</v>
       </c>
@@ -5340,7 +5467,7 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="155"/>
+      <c r="K25" s="179"/>
       <c r="L25" s="25">
         <v>17</v>
       </c>
@@ -5373,7 +5500,7 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="155"/>
+      <c r="K26" s="179"/>
       <c r="L26" s="25">
         <v>18</v>
       </c>
@@ -5406,7 +5533,7 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="155"/>
+      <c r="K27" s="179"/>
       <c r="L27" s="25">
         <v>19</v>
       </c>
@@ -5439,7 +5566,7 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="156" t="s">
+      <c r="K28" s="180" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="26" t="s">
@@ -5474,7 +5601,7 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="156"/>
+      <c r="K29" s="180"/>
       <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
@@ -5507,7 +5634,7 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="156"/>
+      <c r="K30" s="180"/>
       <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
@@ -5540,7 +5667,7 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="156"/>
+      <c r="K31" s="180"/>
       <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
@@ -5573,7 +5700,7 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="156"/>
+      <c r="K32" s="180"/>
       <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
@@ -5606,7 +5733,7 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="156"/>
+      <c r="K33" s="180"/>
       <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
@@ -5639,7 +5766,7 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="156"/>
+      <c r="K34" s="180"/>
       <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
@@ -5672,7 +5799,7 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="156"/>
+      <c r="K35" s="180"/>
       <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
@@ -5705,7 +5832,7 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="156"/>
+      <c r="K36" s="180"/>
       <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
@@ -5738,7 +5865,7 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="156"/>
+      <c r="K37" s="180"/>
       <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
@@ -5771,7 +5898,7 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="156"/>
+      <c r="K38" s="180"/>
       <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
@@ -5804,7 +5931,7 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="156"/>
+      <c r="K39" s="180"/>
       <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
@@ -5837,7 +5964,7 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="156"/>
+      <c r="K40" s="180"/>
       <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
@@ -7561,13 +7688,13 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="153" t="s">
+      <c r="A107" s="177" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="154"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
+      <c r="B107" s="178"/>
+      <c r="C107" s="178"/>
+      <c r="D107" s="178"/>
+      <c r="E107" s="178"/>
       <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
@@ -7582,31 +7709,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="153" t="s">
+      <c r="A108" s="177" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="154"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
+      <c r="B108" s="178"/>
+      <c r="C108" s="178"/>
+      <c r="D108" s="178"/>
+      <c r="E108" s="178"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F109" s="153" t="s">
+      <c r="F109" s="177" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="154"/>
-      <c r="H109" s="154"/>
-      <c r="I109" s="154"/>
-      <c r="J109" s="154"/>
+      <c r="G109" s="178"/>
+      <c r="H109" s="178"/>
+      <c r="I109" s="178"/>
+      <c r="J109" s="178"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F110" s="153" t="s">
+      <c r="F110" s="177" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="154"/>
-      <c r="H110" s="154"/>
-      <c r="I110" s="154"/>
-      <c r="J110" s="154"/>
+      <c r="G110" s="178"/>
+      <c r="H110" s="178"/>
+      <c r="I110" s="178"/>
+      <c r="J110" s="178"/>
     </row>
     <row r="114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
@@ -7648,27 +7775,27 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="157" t="s">
+      <c r="A117" s="168" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="162" t="s">
+      <c r="B117" s="173" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="163"/>
-      <c r="D117" s="163"/>
-      <c r="E117" s="163"/>
-      <c r="F117" s="163"/>
-      <c r="G117" s="163"/>
-      <c r="H117" s="163"/>
-      <c r="I117" s="163"/>
-      <c r="J117" s="163"/>
-      <c r="K117" s="163"/>
-      <c r="L117" s="163"/>
-      <c r="M117" s="163"/>
-      <c r="N117" s="164"/>
+      <c r="C117" s="174"/>
+      <c r="D117" s="174"/>
+      <c r="E117" s="174"/>
+      <c r="F117" s="174"/>
+      <c r="G117" s="174"/>
+      <c r="H117" s="174"/>
+      <c r="I117" s="174"/>
+      <c r="J117" s="174"/>
+      <c r="K117" s="174"/>
+      <c r="L117" s="174"/>
+      <c r="M117" s="174"/>
+      <c r="N117" s="175"/>
     </row>
     <row r="118" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="157"/>
+      <c r="A118" s="168"/>
       <c r="B118" s="53">
         <v>2019</v>
       </c>
@@ -7722,12 +7849,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="157"/>
-      <c r="B119" s="159" t="s">
+      <c r="A119" s="168"/>
+      <c r="B119" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="160"/>
-      <c r="D119" s="161"/>
+      <c r="C119" s="171"/>
+      <c r="D119" s="172"/>
       <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
@@ -7855,7 +7982,7 @@
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="158">
+      <c r="C126" s="169">
         <v>0.32675410103003655</v>
       </c>
       <c r="D126" s="49">
@@ -7868,7 +7995,7 @@
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="158">
+      <c r="H126" s="169">
         <v>0.32475247524752476</v>
       </c>
       <c r="I126" s="49">
@@ -7883,7 +8010,7 @@
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="158"/>
+      <c r="C127" s="169"/>
       <c r="D127" s="49">
         <f t="shared" ref="D127:D135" si="2">B127*$C$126</f>
         <v>118.61173867390326</v>
@@ -7894,7 +8021,7 @@
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="158"/>
+      <c r="H127" s="169"/>
       <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
@@ -7907,7 +8034,7 @@
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="158"/>
+      <c r="C128" s="169"/>
       <c r="D128" s="49">
         <f t="shared" si="2"/>
         <v>92.144656490470311</v>
@@ -7931,7 +8058,7 @@
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="158"/>
+      <c r="C129" s="169"/>
       <c r="D129" s="49">
         <f t="shared" si="2"/>
         <v>77.767476045148697</v>
@@ -7944,7 +8071,7 @@
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="158"/>
+      <c r="C130" s="169"/>
       <c r="D130" s="49">
         <f t="shared" si="2"/>
         <v>32.675410103003657</v>
@@ -7957,7 +8084,7 @@
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="158"/>
+      <c r="C131" s="169"/>
       <c r="D131" s="49">
         <f t="shared" si="2"/>
         <v>41.824524931844678</v>
@@ -7970,7 +8097,7 @@
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="158"/>
+      <c r="C132" s="169"/>
       <c r="D132" s="49">
         <f t="shared" si="2"/>
         <v>75.480197337938449</v>
@@ -7983,7 +8110,7 @@
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="158"/>
+      <c r="C133" s="169"/>
       <c r="D133" s="49">
         <f t="shared" si="2"/>
         <v>79.401246550298879</v>
@@ -7996,7 +8123,7 @@
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="158"/>
+      <c r="C134" s="169"/>
       <c r="D134" s="49">
         <f t="shared" si="2"/>
         <v>6.8618361216307679</v>
@@ -8009,7 +8136,7 @@
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="158"/>
+      <c r="C135" s="169"/>
       <c r="D135" s="49">
         <f t="shared" si="2"/>
         <v>41.171016729784604</v>
@@ -8047,11 +8174,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -8059,6 +8181,11 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8071,8 +8198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409B263-2852-4563-BF9F-9A2CBCD2EA0A}">
   <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8288,27 +8415,27 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
     </row>
     <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="182" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="59">
@@ -8358,7 +8485,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="167"/>
+      <c r="B14" s="183"/>
       <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
@@ -8835,23 +8962,23 @@
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="K28" s="225" t="s">
+      <c r="K28" s="188" t="s">
         <v>363</v>
       </c>
-      <c r="L28" s="226"/>
-      <c r="M28" s="226"/>
-      <c r="N28" s="226"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="217"/>
-      <c r="Q28" s="217"/>
-      <c r="R28" s="217"/>
-      <c r="S28" s="217"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
     </row>
     <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="231" t="s">
+      <c r="B29" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="C29" s="232" t="s">
+      <c r="C29" s="165" t="s">
         <v>334</v>
       </c>
       <c r="D29" s="92">
@@ -8872,21 +8999,21 @@
       <c r="I29" s="92">
         <v>0</v>
       </c>
-      <c r="K29" s="219">
+      <c r="K29" s="158">
         <f>D30/D29</f>
         <v>0.75</v>
       </c>
-      <c r="L29" s="220"/>
-      <c r="M29" s="220"/>
-      <c r="N29" s="220"/>
-      <c r="O29" s="224">
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="163">
         <f>AVERAGE(K29:N29)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="233"/>
-      <c r="C30" s="232" t="s">
+      <c r="B30" s="185"/>
+      <c r="C30" s="165" t="s">
         <v>335</v>
       </c>
       <c r="D30" s="92">
@@ -8907,17 +9034,17 @@
       <c r="I30" s="92">
         <v>0</v>
       </c>
-      <c r="K30" s="219"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="220"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="221"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="160"/>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="228" t="s">
+      <c r="B31" s="186" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="229" t="s">
+      <c r="C31" s="164" t="s">
         <v>334</v>
       </c>
       <c r="D31" s="92">
@@ -8938,27 +9065,27 @@
       <c r="I31" s="92">
         <v>30</v>
       </c>
-      <c r="K31" s="222"/>
-      <c r="L31" s="223">
+      <c r="K31" s="161"/>
+      <c r="L31" s="162">
         <f t="shared" ref="L31" si="2">E32/E31</f>
         <v>0.8</v>
       </c>
-      <c r="M31" s="223">
+      <c r="M31" s="162">
         <f t="shared" ref="M31" si="3">F32/F31</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="N31" s="223">
+      <c r="N31" s="162">
         <f t="shared" ref="N31" si="4">G32/G31</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O31" s="218">
+      <c r="O31" s="157">
         <f>AVERAGE(K31:N31)</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="230"/>
-      <c r="C32" s="229" t="s">
+      <c r="B32" s="187"/>
+      <c r="C32" s="164" t="s">
         <v>335</v>
       </c>
       <c r="D32" s="92">
@@ -8981,59 +9108,59 @@
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="216" t="s">
+      <c r="C33" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="D33" s="234">
+      <c r="D33" s="166">
         <f>+D29+D31</f>
         <v>20</v>
       </c>
-      <c r="E33" s="234">
+      <c r="E33" s="166">
         <f t="shared" ref="E33:I33" si="5">+E29+E31</f>
         <v>30</v>
       </c>
-      <c r="F33" s="234">
+      <c r="F33" s="166">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="G33" s="234">
+      <c r="G33" s="166">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="H33" s="234">
+      <c r="H33" s="166">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="I33" s="234">
+      <c r="I33" s="166">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="216" t="s">
+      <c r="C34" s="155" t="s">
         <v>362</v>
       </c>
-      <c r="D34" s="235">
+      <c r="D34" s="167">
         <f>+D30+D32</f>
         <v>15</v>
       </c>
-      <c r="E34" s="235">
+      <c r="E34" s="167">
         <f t="shared" ref="E34:I34" si="6">+E30+E32</f>
         <v>24</v>
       </c>
-      <c r="F34" s="235">
+      <c r="F34" s="167">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="G34" s="235">
+      <c r="G34" s="167">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="H34" s="235">
+      <c r="H34" s="167">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="I34" s="235">
+      <c r="I34" s="167">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
@@ -9053,18 +9180,415 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7CF57-8EE0-43FD-AF13-2469FC1B265B}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="236"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="239" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="154" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="154">
+        <v>2005</v>
+      </c>
+      <c r="D4" s="154">
+        <f>+C4+1</f>
+        <v>2006</v>
+      </c>
+      <c r="E4" s="154">
+        <f t="shared" ref="E4:M4" si="0">+D4+1</f>
+        <v>2007</v>
+      </c>
+      <c r="F4" s="154">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="G4" s="154">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H4" s="154">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="I4" s="154">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="J4" s="154">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="K4" s="154">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="L4" s="154">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="M4" s="154">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="241" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="153">
+        <f>+'Pobl. Ingresante Total'!C14</f>
+        <v>57</v>
+      </c>
+      <c r="D5" s="153">
+        <f>+'Pobl. Ingresante Total'!D14</f>
+        <v>47</v>
+      </c>
+      <c r="E5" s="153">
+        <f>+'Pobl. Ingresante Total'!E14</f>
+        <v>34</v>
+      </c>
+      <c r="F5" s="153">
+        <f>+'Pobl. Ingresante Total'!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="153">
+        <f>+'Pobl. Ingresante Total'!G14</f>
+        <v>42</v>
+      </c>
+      <c r="H5" s="153">
+        <f>+'Pobl. Ingresante Total'!H14</f>
+        <v>41</v>
+      </c>
+      <c r="I5" s="153">
+        <f>+'Pobl. Ingresante Total'!I14</f>
+        <v>46</v>
+      </c>
+      <c r="J5" s="153">
+        <f>+'Pobl. Ingresante Total'!J14</f>
+        <v>40</v>
+      </c>
+      <c r="K5" s="153">
+        <f>+'Pobl. Ingresante Total'!K14</f>
+        <v>35</v>
+      </c>
+      <c r="L5" s="153">
+        <f>+'Pobl. Ingresante Total'!L14</f>
+        <v>37</v>
+      </c>
+      <c r="M5" s="153">
+        <f>+'matriculados Ind. Aprob.'!C11</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="240" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="152">
+        <f>(D5/C5)^(1/1)-1</f>
+        <v>-0.17543859649122806</v>
+      </c>
+      <c r="E6" s="152">
+        <f t="shared" ref="E6:M6" si="1">(E5/D5)^(1/1)-1</f>
+        <v>-0.27659574468085102</v>
+      </c>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152">
+        <f>(G5/E5)^(1/2)-1</f>
+        <v>0.11143786045242265</v>
+      </c>
+      <c r="H6" s="152">
+        <f t="shared" si="1"/>
+        <v>-2.3809523809523836E-2</v>
+      </c>
+      <c r="I6" s="152">
+        <f t="shared" si="1"/>
+        <v>0.12195121951219523</v>
+      </c>
+      <c r="J6" s="152">
+        <f t="shared" si="1"/>
+        <v>-0.13043478260869568</v>
+      </c>
+      <c r="K6" s="152">
+        <f t="shared" si="1"/>
+        <v>-0.125</v>
+      </c>
+      <c r="L6" s="152">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857162E-2</v>
+      </c>
+      <c r="M6" s="152">
+        <f t="shared" si="1"/>
+        <v>-8.108108108108103E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="242" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="246">
+        <f>(((D6+1)*(E6+1)*(F6+1)*(G6+1)*(H6+1)*(I6+1)*(J6+1)*(K6+1)*(L6+1)*(M6+1))^(1/9))-1</f>
+        <v>-6.6812820061970757E-2</v>
+      </c>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="154" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="154">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="154">
+        <f>+C10+1</f>
+        <v>2016</v>
+      </c>
+      <c r="E10" s="154">
+        <f t="shared" ref="E10:J10" si="2">+D10+1</f>
+        <v>2017</v>
+      </c>
+      <c r="F10" s="154">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G10" s="154">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="H10" s="154">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="243" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="153">
+        <f>+'Pobl. Ingresante Total'!M14</f>
+        <v>33</v>
+      </c>
+      <c r="D11" s="153">
+        <f>+'Pobl. Ingresante Total'!N14</f>
+        <v>39</v>
+      </c>
+      <c r="E11" s="153">
+        <f>+'Pobl. Ingresante Total'!O14</f>
+        <v>50</v>
+      </c>
+      <c r="F11" s="153">
+        <f>+'Pobl. Ingresante Total'!P14</f>
+        <v>61</v>
+      </c>
+      <c r="G11" s="153">
+        <f>+'Pobl. Ingresante Total'!Q14</f>
+        <v>50</v>
+      </c>
+      <c r="H11" s="153">
+        <f>+'matriculados Ind. Aprob.'!M33</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="244" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="152">
+        <f>(D11/C11)^(1/1)-1</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="E12" s="152">
+        <f t="shared" ref="E12:H12" si="3">(E11/D11)^(1/1)-1</f>
+        <v>0.28205128205128216</v>
+      </c>
+      <c r="F12" s="152">
+        <f t="shared" si="3"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G12" s="152">
+        <f t="shared" si="3"/>
+        <v>-0.18032786885245899</v>
+      </c>
+      <c r="H12" s="152">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="245" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="169">
+        <f>(((D12+1)*(E12+1)*(F12+1)*(G12+1)*(H12+1))^(1/4))-1</f>
+        <v>0.13621936646749933</v>
+      </c>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="252" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="250" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="249"/>
+      <c r="E18" s="154" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="154" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="154" t="s">
+        <v>377</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" s="154" t="s">
+        <v>379</v>
+      </c>
+      <c r="K18" s="154" t="s">
+        <v>380</v>
+      </c>
+      <c r="L18" s="154" t="s">
+        <v>381</v>
+      </c>
+      <c r="M18" s="154" t="s">
+        <v>382</v>
+      </c>
+      <c r="N18" s="154" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="252"/>
+      <c r="C19" s="251">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="154">
+        <f>+C19+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E19" s="154">
+        <f t="shared" ref="E19:N19" si="4">+D19+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F19" s="154">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="G19" s="154">
+        <f t="shared" si="4"/>
+        <v>2024</v>
+      </c>
+      <c r="H19" s="154">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+      <c r="I19" s="154">
+        <f t="shared" si="4"/>
+        <v>2026</v>
+      </c>
+      <c r="J19" s="154">
+        <f t="shared" si="4"/>
+        <v>2027</v>
+      </c>
+      <c r="K19" s="154">
+        <f t="shared" si="4"/>
+        <v>2028</v>
+      </c>
+      <c r="L19" s="154">
+        <f t="shared" si="4"/>
+        <v>2029</v>
+      </c>
+      <c r="M19" s="154">
+        <f t="shared" si="4"/>
+        <v>2030</v>
+      </c>
+      <c r="N19" s="154">
+        <f t="shared" si="4"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="89" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C13:H13"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9095,69 +9619,69 @@
   <sheetData>
     <row r="1" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="211" t="s">
+      <c r="V2" s="191" t="s">
         <v>338</v>
       </c>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="212"/>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="212"/>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="212"/>
-      <c r="AJ2" s="212"/>
-      <c r="AK2" s="212"/>
-      <c r="AL2" s="212"/>
-      <c r="AM2" s="212"/>
-      <c r="AN2" s="212"/>
-      <c r="AO2" s="212"/>
-      <c r="AP2" s="212"/>
-      <c r="AQ2" s="212"/>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="213"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="192"/>
+      <c r="AD2" s="192"/>
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="192"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="192"/>
+      <c r="AJ2" s="192"/>
+      <c r="AK2" s="192"/>
+      <c r="AL2" s="192"/>
+      <c r="AM2" s="192"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="192"/>
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="193"/>
       <c r="AT2" s="83"/>
       <c r="AU2" s="83"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="194" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="168">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195">
         <v>2015</v>
       </c>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168">
+      <c r="D3" s="195"/>
+      <c r="E3" s="195">
         <f>+C3+1</f>
         <v>2016</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168">
+      <c r="F3" s="195"/>
+      <c r="G3" s="195">
         <f t="shared" ref="G3" si="0">+E3+1</f>
         <v>2017</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168">
+      <c r="H3" s="195"/>
+      <c r="I3" s="195">
         <f t="shared" ref="I3" si="1">+G3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168">
+      <c r="J3" s="195"/>
+      <c r="K3" s="195">
         <f t="shared" ref="K3" si="2">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168">
+      <c r="L3" s="195"/>
+      <c r="M3" s="195">
         <f t="shared" ref="M3" si="3">+K3+1</f>
         <v>2020</v>
       </c>
-      <c r="N3" s="168"/>
+      <c r="N3" s="195"/>
       <c r="P3" s="136" t="s">
         <v>355</v>
       </c>
@@ -9167,74 +9691,74 @@
       <c r="T3" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="V3" s="215">
+      <c r="V3" s="196">
         <v>2020</v>
       </c>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203">
+      <c r="W3" s="197"/>
+      <c r="X3" s="197">
         <f>+V3+1</f>
         <v>2021</v>
       </c>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203">
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197">
         <f t="shared" ref="Z3" si="4">+X3+1</f>
         <v>2022</v>
       </c>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203">
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197">
         <f t="shared" ref="AB3" si="5">+Z3+1</f>
         <v>2023</v>
       </c>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203">
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197">
         <f t="shared" ref="AD3" si="6">+AB3+1</f>
         <v>2024</v>
       </c>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203">
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197">
         <f t="shared" ref="AF3" si="7">+AD3+1</f>
         <v>2025</v>
       </c>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203">
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197">
         <f t="shared" ref="AH3" si="8">+AF3+1</f>
         <v>2026</v>
       </c>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="203">
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197">
         <f t="shared" ref="AJ3" si="9">+AH3+1</f>
         <v>2027</v>
       </c>
-      <c r="AK3" s="203"/>
-      <c r="AL3" s="203">
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="197">
         <f t="shared" ref="AL3" si="10">+AJ3+1</f>
         <v>2028</v>
       </c>
-      <c r="AM3" s="203"/>
-      <c r="AN3" s="203">
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="197">
         <f t="shared" ref="AN3" si="11">+AL3+1</f>
         <v>2029</v>
       </c>
-      <c r="AO3" s="203"/>
-      <c r="AP3" s="203">
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197">
         <f t="shared" ref="AP3" si="12">+AN3+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ3" s="203"/>
-      <c r="AR3" s="203">
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197">
         <f t="shared" ref="AR3" si="13">+AP3+1</f>
         <v>2031</v>
       </c>
-      <c r="AS3" s="204"/>
-      <c r="AT3" s="205">
+      <c r="AS3" s="198"/>
+      <c r="AT3" s="199">
         <f t="shared" ref="AT3" si="14">+AR3+1</f>
         <v>2032</v>
       </c>
-      <c r="AU3" s="206"/>
+      <c r="AU3" s="200"/>
     </row>
     <row r="4" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="214"/>
-      <c r="B4" s="214"/>
+      <c r="A4" s="194"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="115" t="s">
         <v>280</v>
       </c>
@@ -9362,7 +9886,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="201" t="s">
         <v>339</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -9428,7 +9952,7 @@
       <c r="AU5" s="146"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="207"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="32" t="s">
         <v>281</v>
       </c>
@@ -9492,7 +10016,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="207"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="32" t="s">
         <v>282</v>
       </c>
@@ -9555,7 +10079,7 @@
       <c r="AU7" s="146"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="207"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="32" t="s">
         <v>283</v>
       </c>
@@ -9618,7 +10142,7 @@
       <c r="AU8" s="146"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="207"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="32" t="s">
         <v>284</v>
       </c>
@@ -9683,7 +10207,7 @@
       <c r="AU9" s="146"/>
     </row>
     <row r="10" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="207"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="32" t="s">
         <v>285</v>
       </c>
@@ -9748,7 +10272,7 @@
       <c r="AU10" s="146"/>
     </row>
     <row r="11" spans="1:51" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="207"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="32" t="s">
         <v>340</v>
       </c>
@@ -9840,124 +10364,124 @@
     </row>
     <row r="12" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V13" s="208" t="s">
+      <c r="V13" s="202" t="s">
         <v>341</v>
       </c>
-      <c r="W13" s="209"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="209"/>
-      <c r="Z13" s="209"/>
-      <c r="AA13" s="209"/>
-      <c r="AB13" s="209"/>
-      <c r="AC13" s="209"/>
-      <c r="AD13" s="209"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="209"/>
-      <c r="AG13" s="209"/>
-      <c r="AH13" s="209"/>
-      <c r="AI13" s="209"/>
-      <c r="AJ13" s="209"/>
-      <c r="AK13" s="209"/>
-      <c r="AL13" s="209"/>
-      <c r="AM13" s="209"/>
-      <c r="AN13" s="209"/>
-      <c r="AO13" s="209"/>
-      <c r="AP13" s="209"/>
-      <c r="AQ13" s="209"/>
-      <c r="AR13" s="209"/>
-      <c r="AS13" s="209"/>
-      <c r="AT13" s="209"/>
-      <c r="AU13" s="210"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="203"/>
+      <c r="AK13" s="203"/>
+      <c r="AL13" s="203"/>
+      <c r="AM13" s="203"/>
+      <c r="AN13" s="203"/>
+      <c r="AO13" s="203"/>
+      <c r="AP13" s="203"/>
+      <c r="AQ13" s="203"/>
+      <c r="AR13" s="203"/>
+      <c r="AS13" s="203"/>
+      <c r="AT13" s="203"/>
+      <c r="AU13" s="204"/>
     </row>
     <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="215" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="216" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="D14" s="200" t="s">
+      <c r="C14" s="217"/>
+      <c r="D14" s="220" t="s">
         <v>344</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="201"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="221"/>
       <c r="K14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="V14" s="202">
+      <c r="V14" s="222">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W14" s="193"/>
-      <c r="X14" s="193">
+      <c r="W14" s="207"/>
+      <c r="X14" s="207">
         <f>+V14+1</f>
         <v>2021</v>
       </c>
-      <c r="Y14" s="193"/>
-      <c r="Z14" s="193">
+      <c r="Y14" s="207"/>
+      <c r="Z14" s="207">
         <f t="shared" ref="Z14" si="17">+X14+1</f>
         <v>2022</v>
       </c>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="193">
+      <c r="AA14" s="207"/>
+      <c r="AB14" s="207">
         <f t="shared" ref="AB14" si="18">+Z14+1</f>
         <v>2023</v>
       </c>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="193">
+      <c r="AC14" s="207"/>
+      <c r="AD14" s="207">
         <f t="shared" ref="AD14" si="19">+AB14+1</f>
         <v>2024</v>
       </c>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="193">
+      <c r="AE14" s="207"/>
+      <c r="AF14" s="207">
         <f t="shared" ref="AF14" si="20">+AD14+1</f>
         <v>2025</v>
       </c>
-      <c r="AG14" s="193"/>
-      <c r="AH14" s="193">
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207">
         <f t="shared" ref="AH14" si="21">+AF14+1</f>
         <v>2026</v>
       </c>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="193">
+      <c r="AI14" s="207"/>
+      <c r="AJ14" s="207">
         <f t="shared" ref="AJ14" si="22">+AH14+1</f>
         <v>2027</v>
       </c>
-      <c r="AK14" s="193"/>
-      <c r="AL14" s="193">
+      <c r="AK14" s="207"/>
+      <c r="AL14" s="207">
         <f t="shared" ref="AL14" si="23">+AJ14+1</f>
         <v>2028</v>
       </c>
-      <c r="AM14" s="193"/>
-      <c r="AN14" s="193">
+      <c r="AM14" s="207"/>
+      <c r="AN14" s="207">
         <f t="shared" ref="AN14" si="24">+AL14+1</f>
         <v>2029</v>
       </c>
-      <c r="AO14" s="193"/>
-      <c r="AP14" s="193">
+      <c r="AO14" s="207"/>
+      <c r="AP14" s="207">
         <f t="shared" ref="AP14" si="25">+AN14+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ14" s="193"/>
-      <c r="AR14" s="193">
+      <c r="AQ14" s="207"/>
+      <c r="AR14" s="207">
         <f t="shared" ref="AR14" si="26">+AP14+1</f>
         <v>2031</v>
       </c>
-      <c r="AS14" s="193"/>
-      <c r="AT14" s="193">
+      <c r="AS14" s="207"/>
+      <c r="AT14" s="207">
         <f t="shared" ref="AT14" si="27">+AR14+1</f>
         <v>2032</v>
       </c>
-      <c r="AU14" s="194"/>
+      <c r="AU14" s="208"/>
     </row>
     <row r="15" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="195"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
+      <c r="A15" s="215"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="219"/>
       <c r="D15" s="102" t="s">
         <v>346</v>
       </c>
@@ -10048,11 +10572,11 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="195"/>
-      <c r="B16" s="174" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="205" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="175"/>
+      <c r="C16" s="206"/>
       <c r="D16" s="93"/>
       <c r="E16" s="94"/>
       <c r="F16" s="93"/>
@@ -10105,11 +10629,11 @@
       <c r="AU16" s="146"/>
     </row>
     <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="195"/>
-      <c r="B17" s="174" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="205" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="118">
         <f>+D6/C5</f>
         <v>0.73333333333333328</v>
@@ -10176,11 +10700,11 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="195"/>
-      <c r="B18" s="174" t="s">
+      <c r="A18" s="215"/>
+      <c r="B18" s="205" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="175"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="118">
         <f>+E7/C5</f>
         <v>0.53333333333333333</v>
@@ -10244,11 +10768,11 @@
       <c r="AU18" s="146"/>
     </row>
     <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
-      <c r="B19" s="174" t="s">
+      <c r="A19" s="215"/>
+      <c r="B19" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="175"/>
+      <c r="C19" s="206"/>
       <c r="D19" s="120">
         <f>+F8/C5</f>
         <v>0.53333333333333333</v>
@@ -10312,11 +10836,11 @@
       <c r="AU19" s="146"/>
     </row>
     <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
-      <c r="B20" s="174" t="s">
+      <c r="A20" s="215"/>
+      <c r="B20" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="175"/>
+      <c r="C20" s="206"/>
       <c r="D20" s="120">
         <f>+G9/C5</f>
         <v>0.26666666666666666</v>
@@ -10380,11 +10904,11 @@
       <c r="AU20" s="146"/>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="195"/>
-      <c r="B21" s="174" t="s">
+      <c r="A21" s="215"/>
+      <c r="B21" s="205" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="206"/>
       <c r="D21" s="121">
         <f>+H10/C5</f>
         <v>0.26666666666666666</v>
@@ -10486,72 +11010,72 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="191" t="s">
+      <c r="A25" s="212" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="169">
+      <c r="B25" s="212"/>
+      <c r="C25" s="213">
         <f>+C3</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169">
+      <c r="D25" s="213"/>
+      <c r="E25" s="213">
         <f>+C25+1</f>
         <v>2016</v>
       </c>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169">
+      <c r="F25" s="213"/>
+      <c r="G25" s="213">
         <f t="shared" ref="G25" si="29">+E25+1</f>
         <v>2017</v>
       </c>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169">
+      <c r="H25" s="213"/>
+      <c r="I25" s="213">
         <f t="shared" ref="I25" si="30">+G25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169">
+      <c r="J25" s="213"/>
+      <c r="K25" s="213">
         <f t="shared" ref="K25" si="31">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169">
+      <c r="L25" s="213"/>
+      <c r="M25" s="213">
         <f t="shared" ref="M25" si="32">+K25+1</f>
         <v>2020</v>
       </c>
-      <c r="N25" s="169"/>
-      <c r="V25" s="188" t="s">
+      <c r="N25" s="213"/>
+      <c r="V25" s="209" t="s">
         <v>338</v>
       </c>
-      <c r="W25" s="189"/>
-      <c r="X25" s="189"/>
-      <c r="Y25" s="189"/>
-      <c r="Z25" s="189"/>
-      <c r="AA25" s="189"/>
-      <c r="AB25" s="189"/>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="189"/>
-      <c r="AG25" s="189"/>
-      <c r="AH25" s="189"/>
-      <c r="AI25" s="189"/>
-      <c r="AJ25" s="189"/>
-      <c r="AK25" s="189"/>
-      <c r="AL25" s="189"/>
-      <c r="AM25" s="189"/>
-      <c r="AN25" s="189"/>
-      <c r="AO25" s="189"/>
-      <c r="AP25" s="189"/>
-      <c r="AQ25" s="189"/>
-      <c r="AR25" s="189"/>
-      <c r="AS25" s="189"/>
-      <c r="AT25" s="189"/>
-      <c r="AU25" s="190"/>
+      <c r="W25" s="210"/>
+      <c r="X25" s="210"/>
+      <c r="Y25" s="210"/>
+      <c r="Z25" s="210"/>
+      <c r="AA25" s="210"/>
+      <c r="AB25" s="210"/>
+      <c r="AC25" s="210"/>
+      <c r="AD25" s="210"/>
+      <c r="AE25" s="210"/>
+      <c r="AF25" s="210"/>
+      <c r="AG25" s="210"/>
+      <c r="AH25" s="210"/>
+      <c r="AI25" s="210"/>
+      <c r="AJ25" s="210"/>
+      <c r="AK25" s="210"/>
+      <c r="AL25" s="210"/>
+      <c r="AM25" s="210"/>
+      <c r="AN25" s="210"/>
+      <c r="AO25" s="210"/>
+      <c r="AP25" s="210"/>
+      <c r="AQ25" s="210"/>
+      <c r="AR25" s="210"/>
+      <c r="AS25" s="210"/>
+      <c r="AT25" s="210"/>
+      <c r="AU25" s="211"/>
     </row>
     <row r="26" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
-      <c r="B26" s="191"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="98" t="s">
         <v>280</v>
       </c>
@@ -10603,74 +11127,74 @@
       <c r="T26" s="97" t="s">
         <v>356</v>
       </c>
-      <c r="V26" s="192">
+      <c r="V26" s="214">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169">
+      <c r="W26" s="213"/>
+      <c r="X26" s="213">
         <f>+V26+1</f>
         <v>2021</v>
       </c>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169">
+      <c r="Y26" s="213"/>
+      <c r="Z26" s="213">
         <f t="shared" ref="Z26" si="33">+X26+1</f>
         <v>2022</v>
       </c>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169">
+      <c r="AA26" s="213"/>
+      <c r="AB26" s="213">
         <f t="shared" ref="AB26" si="34">+Z26+1</f>
         <v>2023</v>
       </c>
-      <c r="AC26" s="169"/>
-      <c r="AD26" s="169">
+      <c r="AC26" s="213"/>
+      <c r="AD26" s="213">
         <f t="shared" ref="AD26" si="35">+AB26+1</f>
         <v>2024</v>
       </c>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="169">
+      <c r="AE26" s="213"/>
+      <c r="AF26" s="213">
         <f t="shared" ref="AF26" si="36">+AD26+1</f>
         <v>2025</v>
       </c>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169">
+      <c r="AG26" s="213"/>
+      <c r="AH26" s="213">
         <f t="shared" ref="AH26" si="37">+AF26+1</f>
         <v>2026</v>
       </c>
-      <c r="AI26" s="169"/>
-      <c r="AJ26" s="169">
+      <c r="AI26" s="213"/>
+      <c r="AJ26" s="213">
         <f t="shared" ref="AJ26" si="38">+AH26+1</f>
         <v>2027</v>
       </c>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="169">
+      <c r="AK26" s="213"/>
+      <c r="AL26" s="213">
         <f t="shared" ref="AL26" si="39">+AJ26+1</f>
         <v>2028</v>
       </c>
-      <c r="AM26" s="169"/>
-      <c r="AN26" s="169">
+      <c r="AM26" s="213"/>
+      <c r="AN26" s="213">
         <f t="shared" ref="AN26" si="40">+AL26+1</f>
         <v>2029</v>
       </c>
-      <c r="AO26" s="169"/>
-      <c r="AP26" s="169">
+      <c r="AO26" s="213"/>
+      <c r="AP26" s="213">
         <f t="shared" ref="AP26" si="41">+AN26+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ26" s="169"/>
-      <c r="AR26" s="169">
+      <c r="AQ26" s="213"/>
+      <c r="AR26" s="213">
         <f t="shared" ref="AR26" si="42">+AP26+1</f>
         <v>2031</v>
       </c>
-      <c r="AS26" s="169"/>
-      <c r="AT26" s="169">
+      <c r="AS26" s="213"/>
+      <c r="AT26" s="213">
         <f t="shared" ref="AT26" si="43">+AR26+1</f>
         <v>2032</v>
       </c>
-      <c r="AU26" s="187"/>
+      <c r="AU26" s="223"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="213" t="s">
         <v>339</v>
       </c>
       <c r="B27" s="99" t="s">
@@ -10798,7 +11322,7 @@
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="169"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="99" t="s">
         <v>281</v>
       </c>
@@ -10892,7 +11416,7 @@
       <c r="AU28" s="105"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="169"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="99" t="s">
         <v>282</v>
       </c>
@@ -10986,7 +11510,7 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="169"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="99" t="s">
         <v>283</v>
       </c>
@@ -11075,7 +11599,7 @@
       <c r="AU30" s="105"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="169"/>
+      <c r="A31" s="213"/>
       <c r="B31" s="99" t="s">
         <v>284</v>
       </c>
@@ -11164,7 +11688,7 @@
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="169"/>
+      <c r="A32" s="213"/>
       <c r="B32" s="99" t="s">
         <v>285</v>
       </c>
@@ -11248,7 +11772,7 @@
       <c r="AU32" s="105"/>
     </row>
     <row r="33" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="169"/>
+      <c r="A33" s="213"/>
       <c r="B33" s="99" t="s">
         <v>340</v>
       </c>
@@ -11365,137 +11889,137 @@
     </row>
     <row r="34" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V35" s="178" t="s">
+      <c r="V35" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="W35" s="179"/>
-      <c r="X35" s="179"/>
-      <c r="Y35" s="179"/>
-      <c r="Z35" s="179"/>
-      <c r="AA35" s="179"/>
-      <c r="AB35" s="179"/>
-      <c r="AC35" s="179"/>
-      <c r="AD35" s="179"/>
-      <c r="AE35" s="179"/>
-      <c r="AF35" s="179"/>
-      <c r="AG35" s="179"/>
-      <c r="AH35" s="179"/>
-      <c r="AI35" s="179"/>
-      <c r="AJ35" s="179"/>
-      <c r="AK35" s="179"/>
-      <c r="AL35" s="179"/>
-      <c r="AM35" s="179"/>
-      <c r="AN35" s="179"/>
-      <c r="AO35" s="179"/>
-      <c r="AP35" s="179"/>
-      <c r="AQ35" s="179"/>
-      <c r="AR35" s="179"/>
-      <c r="AS35" s="179"/>
-      <c r="AT35" s="179"/>
-      <c r="AU35" s="180"/>
+      <c r="W35" s="225"/>
+      <c r="X35" s="225"/>
+      <c r="Y35" s="225"/>
+      <c r="Z35" s="225"/>
+      <c r="AA35" s="225"/>
+      <c r="AB35" s="225"/>
+      <c r="AC35" s="225"/>
+      <c r="AD35" s="225"/>
+      <c r="AE35" s="225"/>
+      <c r="AF35" s="225"/>
+      <c r="AG35" s="225"/>
+      <c r="AH35" s="225"/>
+      <c r="AI35" s="225"/>
+      <c r="AJ35" s="225"/>
+      <c r="AK35" s="225"/>
+      <c r="AL35" s="225"/>
+      <c r="AM35" s="225"/>
+      <c r="AN35" s="225"/>
+      <c r="AO35" s="225"/>
+      <c r="AP35" s="225"/>
+      <c r="AQ35" s="225"/>
+      <c r="AR35" s="225"/>
+      <c r="AS35" s="225"/>
+      <c r="AT35" s="225"/>
+      <c r="AU35" s="226"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181" t="s">
+      <c r="A36" s="227" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="228" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="170" t="s">
+      <c r="C36" s="229"/>
+      <c r="D36" s="235" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="170" t="s">
+      <c r="E36" s="236"/>
+      <c r="F36" s="235" t="s">
         <v>345</v>
       </c>
-      <c r="G36" s="171"/>
-      <c r="H36" s="170" t="s">
+      <c r="G36" s="236"/>
+      <c r="H36" s="235" t="s">
         <v>352</v>
       </c>
-      <c r="I36" s="171"/>
-      <c r="J36" s="170" t="s">
+      <c r="I36" s="236"/>
+      <c r="J36" s="235" t="s">
         <v>353</v>
       </c>
-      <c r="K36" s="171"/>
-      <c r="V36" s="186">
+      <c r="K36" s="236"/>
+      <c r="V36" s="232">
         <f>+V26</f>
         <v>2020</v>
       </c>
-      <c r="W36" s="176"/>
-      <c r="X36" s="176">
+      <c r="W36" s="233"/>
+      <c r="X36" s="233">
         <f>+V36+1</f>
         <v>2021</v>
       </c>
-      <c r="Y36" s="176"/>
-      <c r="Z36" s="176">
+      <c r="Y36" s="233"/>
+      <c r="Z36" s="233">
         <f t="shared" ref="Z36" si="46">+X36+1</f>
         <v>2022</v>
       </c>
-      <c r="AA36" s="176"/>
-      <c r="AB36" s="176">
+      <c r="AA36" s="233"/>
+      <c r="AB36" s="233">
         <f t="shared" ref="AB36" si="47">+Z36+1</f>
         <v>2023</v>
       </c>
-      <c r="AC36" s="176"/>
-      <c r="AD36" s="176">
+      <c r="AC36" s="233"/>
+      <c r="AD36" s="233">
         <f t="shared" ref="AD36" si="48">+AB36+1</f>
         <v>2024</v>
       </c>
-      <c r="AE36" s="176"/>
-      <c r="AF36" s="176">
+      <c r="AE36" s="233"/>
+      <c r="AF36" s="233">
         <f t="shared" ref="AF36" si="49">+AD36+1</f>
         <v>2025</v>
       </c>
-      <c r="AG36" s="176"/>
-      <c r="AH36" s="176">
+      <c r="AG36" s="233"/>
+      <c r="AH36" s="233">
         <f t="shared" ref="AH36" si="50">+AF36+1</f>
         <v>2026</v>
       </c>
-      <c r="AI36" s="176"/>
-      <c r="AJ36" s="176">
+      <c r="AI36" s="233"/>
+      <c r="AJ36" s="233">
         <f t="shared" ref="AJ36" si="51">+AH36+1</f>
         <v>2027</v>
       </c>
-      <c r="AK36" s="176"/>
-      <c r="AL36" s="176">
+      <c r="AK36" s="233"/>
+      <c r="AL36" s="233">
         <f t="shared" ref="AL36" si="52">+AJ36+1</f>
         <v>2028</v>
       </c>
-      <c r="AM36" s="176"/>
-      <c r="AN36" s="176">
+      <c r="AM36" s="233"/>
+      <c r="AN36" s="233">
         <f t="shared" ref="AN36" si="53">+AL36+1</f>
         <v>2029</v>
       </c>
-      <c r="AO36" s="176"/>
-      <c r="AP36" s="176">
+      <c r="AO36" s="233"/>
+      <c r="AP36" s="233">
         <f t="shared" ref="AP36" si="54">+AN36+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ36" s="176"/>
-      <c r="AR36" s="176">
+      <c r="AQ36" s="233"/>
+      <c r="AR36" s="233">
         <f t="shared" ref="AR36" si="55">+AP36+1</f>
         <v>2031</v>
       </c>
-      <c r="AS36" s="176"/>
-      <c r="AT36" s="176">
+      <c r="AS36" s="233"/>
+      <c r="AT36" s="233">
         <f t="shared" ref="AT36" si="56">+AR36+1</f>
         <v>2032</v>
       </c>
-      <c r="AU36" s="177"/>
+      <c r="AU36" s="234"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="173"/>
+      <c r="A37" s="227"/>
+      <c r="B37" s="230"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="238"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="237"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="237"/>
+      <c r="K37" s="238"/>
       <c r="V37" s="102" t="s">
         <v>280</v>
       </c>
@@ -11576,11 +12100,11 @@
       </c>
     </row>
     <row r="38" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="181"/>
-      <c r="B38" s="174" t="s">
+      <c r="A38" s="227"/>
+      <c r="B38" s="205" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="175"/>
+      <c r="C38" s="206"/>
       <c r="D38" s="118">
         <f>+E27/$E$27</f>
         <v>1</v>
@@ -11666,11 +12190,11 @@
       <c r="AU38" s="105"/>
     </row>
     <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
-      <c r="B39" s="174" t="s">
+      <c r="A39" s="227"/>
+      <c r="B39" s="205" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="175"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="118">
         <f>+F28/$E$27</f>
         <v>0.83333333333333337</v>
@@ -11768,11 +12292,11 @@
       </c>
     </row>
     <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
-      <c r="B40" s="174" t="s">
+      <c r="A40" s="227"/>
+      <c r="B40" s="205" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="175"/>
+      <c r="C40" s="206"/>
       <c r="D40" s="118">
         <f>+G29/$E$27</f>
         <v>0.83333333333333337</v>
@@ -11867,11 +12391,11 @@
       <c r="AU40" s="105"/>
     </row>
     <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
-      <c r="B41" s="174" t="s">
+      <c r="A41" s="227"/>
+      <c r="B41" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="175"/>
+      <c r="C41" s="206"/>
       <c r="D41" s="118">
         <f>+H30/$E$27</f>
         <v>0.83333333333333337</v>
@@ -11963,11 +12487,11 @@
       </c>
     </row>
     <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
-      <c r="B42" s="174" t="s">
+      <c r="A42" s="227"/>
+      <c r="B42" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="175"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="118">
         <f>+I31/$E$27</f>
         <v>0.75</v>
@@ -12056,11 +12580,11 @@
       <c r="AU42" s="105"/>
     </row>
     <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="181"/>
-      <c r="B43" s="174" t="s">
+      <c r="A43" s="227"/>
+      <c r="B43" s="205" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="175"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="124">
         <f>+J32/$E$27</f>
         <v>0.75</v>
@@ -12150,44 +12674,47 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="V2:AS2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="V13:AU13"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AS26"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="V25:AU25"/>
@@ -12204,47 +12731,44 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="V14:W14"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="V35:AU35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="V2:AS2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A84B0-817C-4781-92A3-67893CA3A081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70588CE0-0BC6-40A3-A91A-7E7AFE19247B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
   <sheets>
     <sheet name="matriculados Ind. Aprob." sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="396">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -1083,9 +1083,6 @@
     </r>
   </si>
   <si>
-    <t>Postulantes al ISP</t>
-  </si>
-  <si>
     <t>Ingresantes</t>
   </si>
   <si>
@@ -1177,9 +1174,6 @@
     <t>Tasa prom. Participación matriculas</t>
   </si>
   <si>
-    <t>Total Postulantes (*)</t>
-  </si>
-  <si>
     <t>Tasa geométrica</t>
   </si>
   <si>
@@ -1249,28 +1243,34 @@
     <t>EVOLUCIÓN HISTORICA DEL NUMERO DE POSTULANTES</t>
   </si>
   <si>
-    <t xml:space="preserve">  nmsxzaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hjb mo,ljk4.</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>.362+9**9*87</t>
-  </si>
-  <si>
-    <t>,        0000002077///8856+1546663.00…...2313223188+8++74967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m    </t>
-  </si>
-  <si>
-    <t>126556500296..006.63</t>
-  </si>
-  <si>
     <t>Fuente: ESCALE - Unidad de Estadística Educativa - Ministerio de Educación</t>
+  </si>
+  <si>
+    <t>Proporción de postulante a una Especialidad</t>
+  </si>
+  <si>
+    <t>CONSTRUCIÓN CIVIL</t>
+  </si>
+  <si>
+    <t>Población postulante total</t>
+  </si>
+  <si>
+    <t>Fuente: Nominas de Matricula del ISTP Alfredo Sarmiento Palomino</t>
+  </si>
+  <si>
+    <t>Población Potencial de la Carrera de Industrias Alimentarias</t>
+  </si>
+  <si>
+    <t>Población Potencial de la Carrera de Construcción Civil</t>
+  </si>
+  <si>
+    <t>Postulantes al ISTP</t>
+  </si>
+  <si>
+    <t>SE TIENE REFERENCIA QUE HASTA EL AÑO 2015 EL NUMERO DE POSTULANTES ERA PARA LA CARRERA DE INDUSTRIAS ALIMENTARIAS POR SER LA UNICA CARRERA QUE BRINDABA LA IESTP ALFREDO SARMIENTO PALOMINO, A PARTIR DEL AÑO 2016 LA CARRERA QUE BRINDO EL SERVICIO EDUCATIVO FUE LA CARRERA DE CONSTRUCCIÓN CIVIL, POR LO QUE SE DETERMINARA LAS TASAS DE CRECIMIENTO POR SEPARADO PARA AMBAS CARRERAS TÉCNICAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proyección </t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1540,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,8 +1667,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2266,6 +2272,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2273,7 +2301,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2685,13 +2713,7 @@
     <xf numFmtId="1" fontId="34" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,20 +2767,236 @@
     <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2775,30 +3013,6 @@
     <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2829,254 +3043,183 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="20" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="20" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="19" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="19" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5015,13 +5158,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>617</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>624</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5038,7 +5181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="762000" y="117538500"/>
-          <a:ext cx="9144000" cy="1466850"/>
+          <a:ext cx="9163050" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5580,7 +5723,7 @@
   <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L43" sqref="L43:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5602,146 +5745,146 @@
   <sheetData>
     <row r="1" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="229" t="s">
-        <v>338</v>
-      </c>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="230"/>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="230"/>
-      <c r="AD2" s="230"/>
-      <c r="AE2" s="230"/>
-      <c r="AF2" s="230"/>
-      <c r="AG2" s="230"/>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="230"/>
-      <c r="AJ2" s="230"/>
-      <c r="AK2" s="230"/>
-      <c r="AL2" s="230"/>
-      <c r="AM2" s="230"/>
-      <c r="AN2" s="230"/>
-      <c r="AO2" s="230"/>
-      <c r="AP2" s="230"/>
-      <c r="AQ2" s="230"/>
-      <c r="AR2" s="230"/>
-      <c r="AS2" s="231"/>
+      <c r="V2" s="178" t="s">
+        <v>337</v>
+      </c>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="179"/>
+      <c r="AM2" s="179"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="179"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="180"/>
       <c r="AT2" s="70"/>
       <c r="AU2" s="70"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="232" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="190">
+      <c r="A3" s="181" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="181"/>
+      <c r="C3" s="182">
         <v>2015</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190">
+      <c r="D3" s="182"/>
+      <c r="E3" s="182">
         <f>+C3+1</f>
         <v>2016</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190">
+      <c r="F3" s="182"/>
+      <c r="G3" s="182">
         <f t="shared" ref="G3" si="0">+E3+1</f>
         <v>2017</v>
       </c>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182">
         <f t="shared" ref="I3" si="1">+G3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190">
+      <c r="J3" s="182"/>
+      <c r="K3" s="182">
         <f t="shared" ref="K3" si="2">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190">
+      <c r="L3" s="182"/>
+      <c r="M3" s="182">
         <f t="shared" ref="M3" si="3">+K3+1</f>
         <v>2020</v>
       </c>
-      <c r="N3" s="190"/>
+      <c r="N3" s="182"/>
       <c r="P3" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q3" s="124"/>
       <c r="R3" s="124"/>
       <c r="S3" s="124"/>
       <c r="T3" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="V3" s="233">
+        <v>355</v>
+      </c>
+      <c r="V3" s="183">
         <v>2020</v>
       </c>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222">
+      <c r="W3" s="184"/>
+      <c r="X3" s="184">
         <f>+V3+1</f>
         <v>2021</v>
       </c>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="222">
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184">
         <f t="shared" ref="Z3" si="4">+X3+1</f>
         <v>2022</v>
       </c>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="222">
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184">
         <f t="shared" ref="AB3" si="5">+Z3+1</f>
         <v>2023</v>
       </c>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="222">
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="184">
         <f t="shared" ref="AD3" si="6">+AB3+1</f>
         <v>2024</v>
       </c>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="222">
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="184">
         <f t="shared" ref="AF3" si="7">+AD3+1</f>
         <v>2025</v>
       </c>
-      <c r="AG3" s="222"/>
-      <c r="AH3" s="222">
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="184">
         <f t="shared" ref="AH3" si="8">+AF3+1</f>
         <v>2026</v>
       </c>
-      <c r="AI3" s="222"/>
-      <c r="AJ3" s="222">
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184">
         <f t="shared" ref="AJ3" si="9">+AH3+1</f>
         <v>2027</v>
       </c>
-      <c r="AK3" s="222"/>
-      <c r="AL3" s="222">
+      <c r="AK3" s="184"/>
+      <c r="AL3" s="184">
         <f t="shared" ref="AL3" si="10">+AJ3+1</f>
         <v>2028</v>
       </c>
-      <c r="AM3" s="222"/>
-      <c r="AN3" s="222">
+      <c r="AM3" s="184"/>
+      <c r="AN3" s="184">
         <f t="shared" ref="AN3" si="11">+AL3+1</f>
         <v>2029</v>
       </c>
-      <c r="AO3" s="222"/>
-      <c r="AP3" s="222">
+      <c r="AO3" s="184"/>
+      <c r="AP3" s="184">
         <f t="shared" ref="AP3" si="12">+AN3+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ3" s="222"/>
-      <c r="AR3" s="222">
+      <c r="AQ3" s="184"/>
+      <c r="AR3" s="184">
         <f t="shared" ref="AR3" si="13">+AP3+1</f>
         <v>2031</v>
       </c>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="223">
+      <c r="AS3" s="185"/>
+      <c r="AT3" s="186">
         <f t="shared" ref="AT3" si="14">+AR3+1</f>
         <v>2032</v>
       </c>
-      <c r="AU3" s="224"/>
+      <c r="AU3" s="187"/>
     </row>
     <row r="4" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="232"/>
-      <c r="B4" s="232"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="102" t="s">
         <v>280</v>
       </c>
@@ -5869,8 +6012,8 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="225" t="s">
-        <v>339</v>
+      <c r="A5" s="188" t="s">
+        <v>338</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>280</v>
@@ -5935,7 +6078,7 @@
       <c r="AU5" s="133"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="225"/>
+      <c r="A6" s="188"/>
       <c r="B6" s="32" t="s">
         <v>281</v>
       </c>
@@ -5999,7 +6142,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="225"/>
+      <c r="A7" s="188"/>
       <c r="B7" s="32" t="s">
         <v>282</v>
       </c>
@@ -6062,7 +6205,7 @@
       <c r="AU7" s="133"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="225"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="32" t="s">
         <v>283</v>
       </c>
@@ -6125,7 +6268,7 @@
       <c r="AU8" s="133"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="225"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="32" t="s">
         <v>284</v>
       </c>
@@ -6190,7 +6333,7 @@
       <c r="AU9" s="133"/>
     </row>
     <row r="10" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="225"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="32" t="s">
         <v>285</v>
       </c>
@@ -6255,9 +6398,9 @@
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:51" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="225"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="76">
         <f>SUM(C5:C10)</f>
@@ -6347,129 +6490,129 @@
     </row>
     <row r="12" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V13" s="226" t="s">
+      <c r="V13" s="189" t="s">
+        <v>340</v>
+      </c>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="190"/>
+      <c r="AJ13" s="190"/>
+      <c r="AK13" s="190"/>
+      <c r="AL13" s="190"/>
+      <c r="AM13" s="190"/>
+      <c r="AN13" s="190"/>
+      <c r="AO13" s="190"/>
+      <c r="AP13" s="190"/>
+      <c r="AQ13" s="190"/>
+      <c r="AR13" s="190"/>
+      <c r="AS13" s="190"/>
+      <c r="AT13" s="190"/>
+      <c r="AU13" s="191"/>
+    </row>
+    <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="196" t="s">
         <v>341</v>
       </c>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
-      <c r="Y13" s="227"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="227"/>
-      <c r="AC13" s="227"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="227"/>
-      <c r="AF13" s="227"/>
-      <c r="AG13" s="227"/>
-      <c r="AH13" s="227"/>
-      <c r="AI13" s="227"/>
-      <c r="AJ13" s="227"/>
-      <c r="AK13" s="227"/>
-      <c r="AL13" s="227"/>
-      <c r="AM13" s="227"/>
-      <c r="AN13" s="227"/>
-      <c r="AO13" s="227"/>
-      <c r="AP13" s="227"/>
-      <c r="AQ13" s="227"/>
-      <c r="AR13" s="227"/>
-      <c r="AS13" s="227"/>
-      <c r="AT13" s="227"/>
-      <c r="AU13" s="228"/>
-    </row>
-    <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="212" t="s">
+      <c r="B14" s="197" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="213" t="s">
+      <c r="C14" s="198"/>
+      <c r="D14" s="201" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="217" t="s">
-        <v>344</v>
-      </c>
-      <c r="E14" s="218"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="218"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
       <c r="K14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="V14" s="219">
+        <v>349</v>
+      </c>
+      <c r="V14" s="203">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W14" s="220"/>
-      <c r="X14" s="220">
+      <c r="W14" s="192"/>
+      <c r="X14" s="192">
         <f>+V14+1</f>
         <v>2021</v>
       </c>
-      <c r="Y14" s="220"/>
-      <c r="Z14" s="220">
+      <c r="Y14" s="192"/>
+      <c r="Z14" s="192">
         <f t="shared" ref="Z14" si="17">+X14+1</f>
         <v>2022</v>
       </c>
-      <c r="AA14" s="220"/>
-      <c r="AB14" s="220">
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="192">
         <f t="shared" ref="AB14" si="18">+Z14+1</f>
         <v>2023</v>
       </c>
-      <c r="AC14" s="220"/>
-      <c r="AD14" s="220">
+      <c r="AC14" s="192"/>
+      <c r="AD14" s="192">
         <f t="shared" ref="AD14" si="19">+AB14+1</f>
         <v>2024</v>
       </c>
-      <c r="AE14" s="220"/>
-      <c r="AF14" s="220">
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="192">
         <f t="shared" ref="AF14" si="20">+AD14+1</f>
         <v>2025</v>
       </c>
-      <c r="AG14" s="220"/>
-      <c r="AH14" s="220">
+      <c r="AG14" s="192"/>
+      <c r="AH14" s="192">
         <f t="shared" ref="AH14" si="21">+AF14+1</f>
         <v>2026</v>
       </c>
-      <c r="AI14" s="220"/>
-      <c r="AJ14" s="220">
+      <c r="AI14" s="192"/>
+      <c r="AJ14" s="192">
         <f t="shared" ref="AJ14" si="22">+AH14+1</f>
         <v>2027</v>
       </c>
-      <c r="AK14" s="220"/>
-      <c r="AL14" s="220">
+      <c r="AK14" s="192"/>
+      <c r="AL14" s="192">
         <f t="shared" ref="AL14" si="23">+AJ14+1</f>
         <v>2028</v>
       </c>
-      <c r="AM14" s="220"/>
-      <c r="AN14" s="220">
+      <c r="AM14" s="192"/>
+      <c r="AN14" s="192">
         <f t="shared" ref="AN14" si="24">+AL14+1</f>
         <v>2029</v>
       </c>
-      <c r="AO14" s="220"/>
-      <c r="AP14" s="220">
+      <c r="AO14" s="192"/>
+      <c r="AP14" s="192">
         <f t="shared" ref="AP14" si="25">+AN14+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ14" s="220"/>
-      <c r="AR14" s="220">
+      <c r="AQ14" s="192"/>
+      <c r="AR14" s="192">
         <f t="shared" ref="AR14" si="26">+AP14+1</f>
         <v>2031</v>
       </c>
-      <c r="AS14" s="220"/>
-      <c r="AT14" s="220">
+      <c r="AS14" s="192"/>
+      <c r="AT14" s="192">
         <f t="shared" ref="AT14" si="27">+AR14+1</f>
         <v>2032</v>
       </c>
-      <c r="AU14" s="221"/>
+      <c r="AU14" s="193"/>
     </row>
     <row r="15" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="212"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="216"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="200"/>
       <c r="D15" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="90" t="s">
         <v>346</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>347</v>
       </c>
       <c r="F15" s="89"/>
       <c r="G15" s="90"/>
@@ -6555,11 +6698,11 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="187" t="s">
+      <c r="A16" s="196"/>
+      <c r="B16" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="188"/>
+      <c r="C16" s="205"/>
       <c r="D16" s="80"/>
       <c r="E16" s="81"/>
       <c r="F16" s="80"/>
@@ -6612,11 +6755,11 @@
       <c r="AU16" s="133"/>
     </row>
     <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="212"/>
-      <c r="B17" s="187" t="s">
+      <c r="A17" s="196"/>
+      <c r="B17" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="188"/>
+      <c r="C17" s="205"/>
       <c r="D17" s="105">
         <f>+D6/C5</f>
         <v>0.73333333333333328</v>
@@ -6683,11 +6826,11 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="212"/>
-      <c r="B18" s="187" t="s">
+      <c r="A18" s="196"/>
+      <c r="B18" s="204" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="205"/>
       <c r="D18" s="105">
         <f>+E7/C5</f>
         <v>0.53333333333333333</v>
@@ -6751,11 +6894,11 @@
       <c r="AU18" s="133"/>
     </row>
     <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="212"/>
-      <c r="B19" s="187" t="s">
+      <c r="A19" s="196"/>
+      <c r="B19" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="205"/>
       <c r="D19" s="107">
         <f>+F8/C5</f>
         <v>0.53333333333333333</v>
@@ -6819,11 +6962,11 @@
       <c r="AU19" s="133"/>
     </row>
     <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="212"/>
-      <c r="B20" s="187" t="s">
+      <c r="A20" s="196"/>
+      <c r="B20" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="205"/>
       <c r="D20" s="107">
         <f>+G9/C5</f>
         <v>0.26666666666666666</v>
@@ -6887,11 +7030,11 @@
       <c r="AU20" s="133"/>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="212"/>
-      <c r="B21" s="187" t="s">
+      <c r="A21" s="196"/>
+      <c r="B21" s="204" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="188"/>
+      <c r="C21" s="205"/>
       <c r="D21" s="108">
         <f>+H10/C5</f>
         <v>0.26666666666666666</v>
@@ -6993,72 +7136,72 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="210" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="210"/>
-      <c r="C25" s="191">
+      <c r="A25" s="206" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="206"/>
+      <c r="C25" s="194">
         <f>+C3</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191">
+      <c r="D25" s="194"/>
+      <c r="E25" s="194">
         <f>+C25+1</f>
         <v>2016</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191">
+      <c r="F25" s="194"/>
+      <c r="G25" s="194">
         <f t="shared" ref="G25" si="29">+E25+1</f>
         <v>2017</v>
       </c>
-      <c r="H25" s="191"/>
-      <c r="I25" s="191">
+      <c r="H25" s="194"/>
+      <c r="I25" s="194">
         <f t="shared" ref="I25" si="30">+G25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="191"/>
-      <c r="K25" s="191">
+      <c r="J25" s="194"/>
+      <c r="K25" s="194">
         <f t="shared" ref="K25" si="31">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191">
+      <c r="L25" s="194"/>
+      <c r="M25" s="194">
         <f t="shared" ref="M25" si="32">+K25+1</f>
         <v>2020</v>
       </c>
-      <c r="N25" s="191"/>
-      <c r="V25" s="207" t="s">
-        <v>338</v>
-      </c>
-      <c r="W25" s="208"/>
-      <c r="X25" s="208"/>
-      <c r="Y25" s="208"/>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="208"/>
-      <c r="AB25" s="208"/>
-      <c r="AC25" s="208"/>
-      <c r="AD25" s="208"/>
-      <c r="AE25" s="208"/>
-      <c r="AF25" s="208"/>
-      <c r="AG25" s="208"/>
-      <c r="AH25" s="208"/>
-      <c r="AI25" s="208"/>
-      <c r="AJ25" s="208"/>
-      <c r="AK25" s="208"/>
-      <c r="AL25" s="208"/>
-      <c r="AM25" s="208"/>
-      <c r="AN25" s="208"/>
-      <c r="AO25" s="208"/>
-      <c r="AP25" s="208"/>
-      <c r="AQ25" s="208"/>
-      <c r="AR25" s="208"/>
-      <c r="AS25" s="208"/>
-      <c r="AT25" s="208"/>
-      <c r="AU25" s="209"/>
+      <c r="N25" s="194"/>
+      <c r="V25" s="223" t="s">
+        <v>337</v>
+      </c>
+      <c r="W25" s="224"/>
+      <c r="X25" s="224"/>
+      <c r="Y25" s="224"/>
+      <c r="Z25" s="224"/>
+      <c r="AA25" s="224"/>
+      <c r="AB25" s="224"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="224"/>
+      <c r="AE25" s="224"/>
+      <c r="AF25" s="224"/>
+      <c r="AG25" s="224"/>
+      <c r="AH25" s="224"/>
+      <c r="AI25" s="224"/>
+      <c r="AJ25" s="224"/>
+      <c r="AK25" s="224"/>
+      <c r="AL25" s="224"/>
+      <c r="AM25" s="224"/>
+      <c r="AN25" s="224"/>
+      <c r="AO25" s="224"/>
+      <c r="AP25" s="224"/>
+      <c r="AQ25" s="224"/>
+      <c r="AR25" s="224"/>
+      <c r="AS25" s="224"/>
+      <c r="AT25" s="224"/>
+      <c r="AU25" s="225"/>
     </row>
     <row r="26" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="210"/>
-      <c r="B26" s="210"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="206"/>
       <c r="C26" s="85" t="s">
         <v>280</v>
       </c>
@@ -7096,89 +7239,89 @@
         <v>281</v>
       </c>
       <c r="P26" s="126" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R26" s="126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S26" s="126" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T26" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="V26" s="211">
+        <v>355</v>
+      </c>
+      <c r="V26" s="195">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W26" s="191"/>
-      <c r="X26" s="191">
+      <c r="W26" s="194"/>
+      <c r="X26" s="194">
         <f>+V26+1</f>
         <v>2021</v>
       </c>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191">
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194">
         <f t="shared" ref="Z26" si="33">+X26+1</f>
         <v>2022</v>
       </c>
-      <c r="AA26" s="191"/>
-      <c r="AB26" s="191">
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194">
         <f t="shared" ref="AB26" si="34">+Z26+1</f>
         <v>2023</v>
       </c>
-      <c r="AC26" s="191"/>
-      <c r="AD26" s="191">
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194">
         <f t="shared" ref="AD26" si="35">+AB26+1</f>
         <v>2024</v>
       </c>
-      <c r="AE26" s="191"/>
-      <c r="AF26" s="191">
+      <c r="AE26" s="194"/>
+      <c r="AF26" s="194">
         <f t="shared" ref="AF26" si="36">+AD26+1</f>
         <v>2025</v>
       </c>
-      <c r="AG26" s="191"/>
-      <c r="AH26" s="191">
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="194">
         <f t="shared" ref="AH26" si="37">+AF26+1</f>
         <v>2026</v>
       </c>
-      <c r="AI26" s="191"/>
-      <c r="AJ26" s="191">
+      <c r="AI26" s="194"/>
+      <c r="AJ26" s="194">
         <f t="shared" ref="AJ26" si="38">+AH26+1</f>
         <v>2027</v>
       </c>
-      <c r="AK26" s="191"/>
-      <c r="AL26" s="191">
+      <c r="AK26" s="194"/>
+      <c r="AL26" s="194">
         <f t="shared" ref="AL26" si="39">+AJ26+1</f>
         <v>2028</v>
       </c>
-      <c r="AM26" s="191"/>
-      <c r="AN26" s="191">
+      <c r="AM26" s="194"/>
+      <c r="AN26" s="194">
         <f t="shared" ref="AN26" si="40">+AL26+1</f>
         <v>2029</v>
       </c>
-      <c r="AO26" s="191"/>
-      <c r="AP26" s="191">
+      <c r="AO26" s="194"/>
+      <c r="AP26" s="194">
         <f t="shared" ref="AP26" si="41">+AN26+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ26" s="191"/>
-      <c r="AR26" s="191">
+      <c r="AQ26" s="194"/>
+      <c r="AR26" s="194">
         <f t="shared" ref="AR26" si="42">+AP26+1</f>
         <v>2031</v>
       </c>
-      <c r="AS26" s="191"/>
-      <c r="AT26" s="191">
+      <c r="AS26" s="194"/>
+      <c r="AT26" s="194">
         <f t="shared" ref="AT26" si="43">+AR26+1</f>
         <v>2032</v>
       </c>
-      <c r="AU26" s="206"/>
+      <c r="AU26" s="207"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="191" t="s">
-        <v>339</v>
+      <c r="A27" s="194" t="s">
+        <v>338</v>
       </c>
       <c r="B27" s="86" t="s">
         <v>280</v>
@@ -7305,7 +7448,7 @@
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="191"/>
+      <c r="A28" s="194"/>
       <c r="B28" s="86" t="s">
         <v>281</v>
       </c>
@@ -7399,7 +7542,7 @@
       <c r="AU28" s="92"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="191"/>
+      <c r="A29" s="194"/>
       <c r="B29" s="86" t="s">
         <v>282</v>
       </c>
@@ -7493,7 +7636,7 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="191"/>
+      <c r="A30" s="194"/>
       <c r="B30" s="86" t="s">
         <v>283</v>
       </c>
@@ -7582,7 +7725,7 @@
       <c r="AU30" s="92"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="191"/>
+      <c r="A31" s="194"/>
       <c r="B31" s="86" t="s">
         <v>284</v>
       </c>
@@ -7671,7 +7814,7 @@
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="191"/>
+      <c r="A32" s="194"/>
       <c r="B32" s="86" t="s">
         <v>285</v>
       </c>
@@ -7755,9 +7898,9 @@
       <c r="AU32" s="92"/>
     </row>
     <row r="33" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
+      <c r="A33" s="194"/>
       <c r="B33" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="76">
         <f t="shared" ref="C33:L33" si="44">SUM(C27:C32)</f>
@@ -7872,137 +8015,137 @@
     </row>
     <row r="34" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V35" s="196" t="s">
+      <c r="V35" s="208" t="s">
+        <v>340</v>
+      </c>
+      <c r="W35" s="209"/>
+      <c r="X35" s="209"/>
+      <c r="Y35" s="209"/>
+      <c r="Z35" s="209"/>
+      <c r="AA35" s="209"/>
+      <c r="AB35" s="209"/>
+      <c r="AC35" s="209"/>
+      <c r="AD35" s="209"/>
+      <c r="AE35" s="209"/>
+      <c r="AF35" s="209"/>
+      <c r="AG35" s="209"/>
+      <c r="AH35" s="209"/>
+      <c r="AI35" s="209"/>
+      <c r="AJ35" s="209"/>
+      <c r="AK35" s="209"/>
+      <c r="AL35" s="209"/>
+      <c r="AM35" s="209"/>
+      <c r="AN35" s="209"/>
+      <c r="AO35" s="209"/>
+      <c r="AP35" s="209"/>
+      <c r="AQ35" s="209"/>
+      <c r="AR35" s="209"/>
+      <c r="AS35" s="209"/>
+      <c r="AT35" s="209"/>
+      <c r="AU35" s="210"/>
+    </row>
+    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="211" t="s">
         <v>341</v>
       </c>
-      <c r="W35" s="197"/>
-      <c r="X35" s="197"/>
-      <c r="Y35" s="197"/>
-      <c r="Z35" s="197"/>
-      <c r="AA35" s="197"/>
-      <c r="AB35" s="197"/>
-      <c r="AC35" s="197"/>
-      <c r="AD35" s="197"/>
-      <c r="AE35" s="197"/>
-      <c r="AF35" s="197"/>
-      <c r="AG35" s="197"/>
-      <c r="AH35" s="197"/>
-      <c r="AI35" s="197"/>
-      <c r="AJ35" s="197"/>
-      <c r="AK35" s="197"/>
-      <c r="AL35" s="197"/>
-      <c r="AM35" s="197"/>
-      <c r="AN35" s="197"/>
-      <c r="AO35" s="197"/>
-      <c r="AP35" s="197"/>
-      <c r="AQ35" s="197"/>
-      <c r="AR35" s="197"/>
-      <c r="AS35" s="197"/>
-      <c r="AT35" s="197"/>
-      <c r="AU35" s="198"/>
-    </row>
-    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="199" t="s">
+      <c r="B36" s="212" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="200" t="s">
-        <v>343</v>
-      </c>
-      <c r="C36" s="201"/>
-      <c r="D36" s="192" t="s">
+      <c r="C36" s="213"/>
+      <c r="D36" s="219" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="220"/>
+      <c r="F36" s="219" t="s">
+        <v>344</v>
+      </c>
+      <c r="G36" s="220"/>
+      <c r="H36" s="219" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="193"/>
-      <c r="F36" s="192" t="s">
-        <v>345</v>
-      </c>
-      <c r="G36" s="193"/>
-      <c r="H36" s="192" t="s">
+      <c r="I36" s="220"/>
+      <c r="J36" s="219" t="s">
         <v>352</v>
       </c>
-      <c r="I36" s="193"/>
-      <c r="J36" s="192" t="s">
-        <v>353</v>
-      </c>
-      <c r="K36" s="193"/>
-      <c r="V36" s="204">
+      <c r="K36" s="220"/>
+      <c r="V36" s="216">
         <f>+V26</f>
         <v>2020</v>
       </c>
-      <c r="W36" s="189"/>
-      <c r="X36" s="189">
+      <c r="W36" s="217"/>
+      <c r="X36" s="217">
         <f>+V36+1</f>
         <v>2021</v>
       </c>
-      <c r="Y36" s="189"/>
-      <c r="Z36" s="189">
+      <c r="Y36" s="217"/>
+      <c r="Z36" s="217">
         <f t="shared" ref="Z36" si="46">+X36+1</f>
         <v>2022</v>
       </c>
-      <c r="AA36" s="189"/>
-      <c r="AB36" s="189">
+      <c r="AA36" s="217"/>
+      <c r="AB36" s="217">
         <f t="shared" ref="AB36" si="47">+Z36+1</f>
         <v>2023</v>
       </c>
-      <c r="AC36" s="189"/>
-      <c r="AD36" s="189">
+      <c r="AC36" s="217"/>
+      <c r="AD36" s="217">
         <f t="shared" ref="AD36" si="48">+AB36+1</f>
         <v>2024</v>
       </c>
-      <c r="AE36" s="189"/>
-      <c r="AF36" s="189">
+      <c r="AE36" s="217"/>
+      <c r="AF36" s="217">
         <f t="shared" ref="AF36" si="49">+AD36+1</f>
         <v>2025</v>
       </c>
-      <c r="AG36" s="189"/>
-      <c r="AH36" s="189">
+      <c r="AG36" s="217"/>
+      <c r="AH36" s="217">
         <f t="shared" ref="AH36" si="50">+AF36+1</f>
         <v>2026</v>
       </c>
-      <c r="AI36" s="189"/>
-      <c r="AJ36" s="189">
+      <c r="AI36" s="217"/>
+      <c r="AJ36" s="217">
         <f t="shared" ref="AJ36" si="51">+AH36+1</f>
         <v>2027</v>
       </c>
-      <c r="AK36" s="189"/>
-      <c r="AL36" s="189">
+      <c r="AK36" s="217"/>
+      <c r="AL36" s="217">
         <f t="shared" ref="AL36" si="52">+AJ36+1</f>
         <v>2028</v>
       </c>
-      <c r="AM36" s="189"/>
-      <c r="AN36" s="189">
+      <c r="AM36" s="217"/>
+      <c r="AN36" s="217">
         <f t="shared" ref="AN36" si="53">+AL36+1</f>
         <v>2029</v>
       </c>
-      <c r="AO36" s="189"/>
-      <c r="AP36" s="189">
+      <c r="AO36" s="217"/>
+      <c r="AP36" s="217">
         <f t="shared" ref="AP36" si="54">+AN36+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ36" s="189"/>
-      <c r="AR36" s="189">
+      <c r="AQ36" s="217"/>
+      <c r="AR36" s="217">
         <f t="shared" ref="AR36" si="55">+AP36+1</f>
         <v>2031</v>
       </c>
-      <c r="AS36" s="189"/>
-      <c r="AT36" s="189">
+      <c r="AS36" s="217"/>
+      <c r="AT36" s="217">
         <f t="shared" ref="AT36" si="56">+AR36+1</f>
         <v>2032</v>
       </c>
-      <c r="AU36" s="205"/>
+      <c r="AU36" s="218"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="199"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="195"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="195"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="221"/>
+      <c r="I37" s="222"/>
+      <c r="J37" s="221"/>
+      <c r="K37" s="222"/>
       <c r="V37" s="89" t="s">
         <v>280</v>
       </c>
@@ -8083,11 +8226,11 @@
       </c>
     </row>
     <row r="38" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="199"/>
-      <c r="B38" s="187" t="s">
+      <c r="A38" s="211"/>
+      <c r="B38" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="205"/>
       <c r="D38" s="105">
         <f>+E27/$E$27</f>
         <v>1</v>
@@ -8100,7 +8243,7 @@
       <c r="J38" s="110"/>
       <c r="K38" s="82"/>
       <c r="L38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M38" s="87"/>
       <c r="U38" s="97" t="s">
@@ -8173,11 +8316,11 @@
       <c r="AU38" s="92"/>
     </row>
     <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="199"/>
-      <c r="B39" s="187" t="s">
+      <c r="A39" s="211"/>
+      <c r="B39" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="205"/>
       <c r="D39" s="105">
         <f>+F28/$E$27</f>
         <v>0.83333333333333337</v>
@@ -8275,11 +8418,11 @@
       </c>
     </row>
     <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="199"/>
-      <c r="B40" s="187" t="s">
+      <c r="A40" s="211"/>
+      <c r="B40" s="204" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="188"/>
+      <c r="C40" s="205"/>
       <c r="D40" s="105">
         <f>+G29/$E$27</f>
         <v>0.83333333333333337</v>
@@ -8374,11 +8517,11 @@
       <c r="AU40" s="92"/>
     </row>
     <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="199"/>
-      <c r="B41" s="187" t="s">
+      <c r="A41" s="211"/>
+      <c r="B41" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="188"/>
+      <c r="C41" s="205"/>
       <c r="D41" s="105">
         <f>+H30/$E$27</f>
         <v>0.83333333333333337</v>
@@ -8470,11 +8613,11 @@
       </c>
     </row>
     <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="199"/>
-      <c r="B42" s="187" t="s">
+      <c r="A42" s="211"/>
+      <c r="B42" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="188"/>
+      <c r="C42" s="205"/>
       <c r="D42" s="105">
         <f>+I31/$E$27</f>
         <v>0.75</v>
@@ -8563,11 +8706,11 @@
       <c r="AU42" s="92"/>
     </row>
     <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="199"/>
-      <c r="B43" s="187" t="s">
+      <c r="A43" s="211"/>
+      <c r="B43" s="204" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="205"/>
       <c r="D43" s="111">
         <f>+J32/$E$27</f>
         <v>0.75</v>
@@ -8657,40 +8800,51 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="V2:AS2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="V13:AU13"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AS26"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="A14:A21"/>
@@ -8707,51 +8861,40 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="V35:AU35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="V2:AS2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AN3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8764,7 +8907,7 @@
   <dimension ref="A2:N139"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="P120" sqref="P120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8784,7 +8927,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="164" t="s">
+      <c r="K2" s="234" t="s">
         <v>209</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -8795,7 +8938,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K3" s="164"/>
+      <c r="K3" s="234"/>
       <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
@@ -8807,7 +8950,7 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="164"/>
+      <c r="K4" s="234"/>
       <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
@@ -8832,7 +8975,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="164"/>
+      <c r="K5" s="234"/>
       <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
@@ -8849,7 +8992,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="164"/>
+      <c r="K6" s="234"/>
       <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
@@ -8918,7 +9061,7 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="167" t="s">
+      <c r="K8" s="237" t="s">
         <v>218</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -8953,7 +9096,7 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="167"/>
+      <c r="K9" s="237"/>
       <c r="L9" s="25">
         <v>1</v>
       </c>
@@ -8986,7 +9129,7 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="167"/>
+      <c r="K10" s="237"/>
       <c r="L10" s="25">
         <v>2</v>
       </c>
@@ -9019,7 +9162,7 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="237"/>
       <c r="L11" s="25">
         <v>3</v>
       </c>
@@ -9052,7 +9195,7 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="167"/>
+      <c r="K12" s="237"/>
       <c r="L12" s="25">
         <v>4</v>
       </c>
@@ -9085,7 +9228,7 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="167"/>
+      <c r="K13" s="237"/>
       <c r="L13" s="25">
         <v>5</v>
       </c>
@@ -9118,7 +9261,7 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="167"/>
+      <c r="K14" s="237"/>
       <c r="L14" s="25">
         <v>6</v>
       </c>
@@ -9151,7 +9294,7 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="167"/>
+      <c r="K15" s="237"/>
       <c r="L15" s="25">
         <v>7</v>
       </c>
@@ -9184,7 +9327,7 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="167"/>
+      <c r="K16" s="237"/>
       <c r="L16" s="25">
         <v>8</v>
       </c>
@@ -9217,7 +9360,7 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="167"/>
+      <c r="K17" s="237"/>
       <c r="L17" s="25">
         <v>9</v>
       </c>
@@ -9250,7 +9393,7 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="167"/>
+      <c r="K18" s="237"/>
       <c r="L18" s="25">
         <v>10</v>
       </c>
@@ -9283,7 +9426,7 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="167"/>
+      <c r="K19" s="237"/>
       <c r="L19" s="25">
         <v>11</v>
       </c>
@@ -9316,7 +9459,7 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="167"/>
+      <c r="K20" s="237"/>
       <c r="L20" s="25">
         <v>12</v>
       </c>
@@ -9349,7 +9492,7 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="167"/>
+      <c r="K21" s="237"/>
       <c r="L21" s="25">
         <v>13</v>
       </c>
@@ -9382,7 +9525,7 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="167"/>
+      <c r="K22" s="237"/>
       <c r="L22" s="25">
         <v>14</v>
       </c>
@@ -9415,7 +9558,7 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="167"/>
+      <c r="K23" s="237"/>
       <c r="L23" s="25">
         <v>15</v>
       </c>
@@ -9448,7 +9591,7 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="167"/>
+      <c r="K24" s="237"/>
       <c r="L24" s="25">
         <v>16</v>
       </c>
@@ -9481,7 +9624,7 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="167"/>
+      <c r="K25" s="237"/>
       <c r="L25" s="25">
         <v>17</v>
       </c>
@@ -9514,7 +9657,7 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="167"/>
+      <c r="K26" s="237"/>
       <c r="L26" s="25">
         <v>18</v>
       </c>
@@ -9547,7 +9690,7 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="167"/>
+      <c r="K27" s="237"/>
       <c r="L27" s="25">
         <v>19</v>
       </c>
@@ -9580,7 +9723,7 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="168" t="s">
+      <c r="K28" s="238" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="26" t="s">
@@ -9615,7 +9758,7 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="168"/>
+      <c r="K29" s="238"/>
       <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
@@ -9648,7 +9791,7 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="168"/>
+      <c r="K30" s="238"/>
       <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
@@ -9681,7 +9824,7 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="168"/>
+      <c r="K31" s="238"/>
       <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
@@ -9714,7 +9857,7 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="168"/>
+      <c r="K32" s="238"/>
       <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
@@ -9747,7 +9890,7 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="168"/>
+      <c r="K33" s="238"/>
       <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
@@ -9780,7 +9923,7 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="168"/>
+      <c r="K34" s="238"/>
       <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
@@ -9813,7 +9956,7 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="168"/>
+      <c r="K35" s="238"/>
       <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
@@ -9846,7 +9989,7 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="168"/>
+      <c r="K36" s="238"/>
       <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
@@ -9879,7 +10022,7 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="168"/>
+      <c r="K37" s="238"/>
       <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
@@ -9912,7 +10055,7 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="168"/>
+      <c r="K38" s="238"/>
       <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
@@ -9945,7 +10088,7 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="168"/>
+      <c r="K39" s="238"/>
       <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
@@ -9978,7 +10121,7 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="168"/>
+      <c r="K40" s="238"/>
       <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
@@ -11702,13 +11845,13 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="165" t="s">
+      <c r="A107" s="235" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="166"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="166"/>
-      <c r="E107" s="166"/>
+      <c r="B107" s="236"/>
+      <c r="C107" s="236"/>
+      <c r="D107" s="236"/>
+      <c r="E107" s="236"/>
       <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
@@ -11723,31 +11866,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="165" t="s">
+      <c r="A108" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="166"/>
-      <c r="C108" s="166"/>
-      <c r="D108" s="166"/>
-      <c r="E108" s="166"/>
+      <c r="B108" s="236"/>
+      <c r="C108" s="236"/>
+      <c r="D108" s="236"/>
+      <c r="E108" s="236"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F109" s="165" t="s">
+      <c r="F109" s="235" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="166"/>
-      <c r="H109" s="166"/>
-      <c r="I109" s="166"/>
-      <c r="J109" s="166"/>
+      <c r="G109" s="236"/>
+      <c r="H109" s="236"/>
+      <c r="I109" s="236"/>
+      <c r="J109" s="236"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F110" s="165" t="s">
+      <c r="F110" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="166"/>
-      <c r="H110" s="166"/>
-      <c r="I110" s="166"/>
-      <c r="J110" s="166"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="236"/>
+      <c r="I110" s="236"/>
+      <c r="J110" s="236"/>
     </row>
     <row r="114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
@@ -11789,27 +11932,27 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="169" t="s">
+      <c r="A117" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="174" t="s">
+      <c r="B117" s="231" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="175"/>
-      <c r="D117" s="175"/>
-      <c r="E117" s="175"/>
-      <c r="F117" s="175"/>
-      <c r="G117" s="175"/>
-      <c r="H117" s="175"/>
-      <c r="I117" s="175"/>
-      <c r="J117" s="175"/>
-      <c r="K117" s="175"/>
-      <c r="L117" s="175"/>
-      <c r="M117" s="175"/>
-      <c r="N117" s="176"/>
+      <c r="C117" s="232"/>
+      <c r="D117" s="232"/>
+      <c r="E117" s="232"/>
+      <c r="F117" s="232"/>
+      <c r="G117" s="232"/>
+      <c r="H117" s="232"/>
+      <c r="I117" s="232"/>
+      <c r="J117" s="232"/>
+      <c r="K117" s="232"/>
+      <c r="L117" s="232"/>
+      <c r="M117" s="232"/>
+      <c r="N117" s="233"/>
     </row>
     <row r="118" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="169"/>
+      <c r="A118" s="226"/>
       <c r="B118" s="53">
         <v>2019</v>
       </c>
@@ -11863,12 +12006,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="169"/>
-      <c r="B119" s="171" t="s">
+      <c r="A119" s="226"/>
+      <c r="B119" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="172"/>
-      <c r="D119" s="173"/>
+      <c r="C119" s="229"/>
+      <c r="D119" s="230"/>
       <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
@@ -11996,7 +12139,7 @@
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="170">
+      <c r="C126" s="227">
         <v>0.32675410103003655</v>
       </c>
       <c r="D126" s="49">
@@ -12009,7 +12152,7 @@
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="170">
+      <c r="H126" s="227">
         <v>0.32475247524752476</v>
       </c>
       <c r="I126" s="49">
@@ -12024,7 +12167,7 @@
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="170"/>
+      <c r="C127" s="227"/>
       <c r="D127" s="49">
         <f t="shared" ref="D127:D135" si="2">B127*$C$126</f>
         <v>118.61173867390326</v>
@@ -12035,7 +12178,7 @@
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="170"/>
+      <c r="H127" s="227"/>
       <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
@@ -12048,7 +12191,7 @@
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="170"/>
+      <c r="C128" s="227"/>
       <c r="D128" s="49">
         <f t="shared" si="2"/>
         <v>92.144656490470311</v>
@@ -12072,7 +12215,7 @@
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="170"/>
+      <c r="C129" s="227"/>
       <c r="D129" s="49">
         <f t="shared" si="2"/>
         <v>77.767476045148697</v>
@@ -12085,7 +12228,7 @@
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="170"/>
+      <c r="C130" s="227"/>
       <c r="D130" s="49">
         <f t="shared" si="2"/>
         <v>32.675410103003657</v>
@@ -12098,7 +12241,7 @@
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="170"/>
+      <c r="C131" s="227"/>
       <c r="D131" s="49">
         <f t="shared" si="2"/>
         <v>41.824524931844678</v>
@@ -12111,7 +12254,7 @@
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="170"/>
+      <c r="C132" s="227"/>
       <c r="D132" s="49">
         <f t="shared" si="2"/>
         <v>75.480197337938449</v>
@@ -12124,7 +12267,7 @@
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="170"/>
+      <c r="C133" s="227"/>
       <c r="D133" s="49">
         <f t="shared" si="2"/>
         <v>79.401246550298879</v>
@@ -12137,7 +12280,7 @@
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="170"/>
+      <c r="C134" s="227"/>
       <c r="D134" s="49">
         <f t="shared" si="2"/>
         <v>6.8618361216307679</v>
@@ -12150,7 +12293,7 @@
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="170"/>
+      <c r="C135" s="227"/>
       <c r="D135" s="49">
         <f t="shared" si="2"/>
         <v>41.171016729784604</v>
@@ -12188,11 +12331,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -12200,6 +12338,11 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12213,7 +12356,7 @@
   <dimension ref="B2:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12429,27 +12572,27 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="239" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="239"/>
     </row>
     <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="240" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="59">
@@ -12499,7 +12642,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="179"/>
+      <c r="B14" s="241"/>
       <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
@@ -12946,8 +13089,8 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="269" t="s">
-        <v>395</v>
+      <c r="B23" s="177" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="15" x14ac:dyDescent="0.25">
@@ -12981,24 +13124,24 @@
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="K28" s="184" t="s">
-        <v>363</v>
-      </c>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="143"/>
+      <c r="K28" s="246" t="s">
+        <v>362</v>
+      </c>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
+      <c r="N28" s="247"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
     </row>
     <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="180" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29" s="152" t="s">
-        <v>334</v>
+      <c r="B29" s="242" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="150" t="s">
+        <v>393</v>
       </c>
       <c r="D29" s="79">
         <v>20</v>
@@ -13018,22 +13161,22 @@
       <c r="I29" s="79">
         <v>0</v>
       </c>
-      <c r="K29" s="145">
+      <c r="K29" s="143">
         <f>D30/D29</f>
         <v>0.75</v>
       </c>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="150">
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="148">
         <f>AVERAGE(K29:N29)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="181"/>
-      <c r="C30" s="152" t="s">
-        <v>335</v>
+      <c r="B30" s="243"/>
+      <c r="C30" s="150" t="s">
+        <v>334</v>
       </c>
       <c r="D30" s="79">
         <v>15</v>
@@ -13053,59 +13196,59 @@
       <c r="I30" s="79">
         <v>0</v>
       </c>
-      <c r="K30" s="145"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="147"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="145"/>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="182" t="s">
-        <v>336</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>334</v>
+      <c r="B31" s="244" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="149" t="s">
+        <v>393</v>
       </c>
       <c r="D31" s="79">
         <v>0</v>
       </c>
       <c r="E31" s="79">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F31" s="79">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G31" s="79">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H31" s="79">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I31" s="79">
-        <v>30</v>
-      </c>
-      <c r="K31" s="148"/>
-      <c r="L31" s="149">
+        <v>20</v>
+      </c>
+      <c r="K31" s="146"/>
+      <c r="L31" s="147">
         <f t="shared" ref="L31" si="2">E32/E31</f>
-        <v>0.8</v>
-      </c>
-      <c r="M31" s="149">
+        <v>1</v>
+      </c>
+      <c r="M31" s="147">
         <f t="shared" ref="M31" si="3">F32/F31</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="N31" s="149">
+        <v>1</v>
+      </c>
+      <c r="N31" s="147">
         <f t="shared" ref="N31" si="4">G32/G31</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O31" s="144">
+        <v>1</v>
+      </c>
+      <c r="O31" s="142">
         <f>AVERAGE(K31:N31)</f>
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="183"/>
-      <c r="C32" s="151" t="s">
-        <v>335</v>
+      <c r="B32" s="245"/>
+      <c r="C32" s="149" t="s">
+        <v>334</v>
       </c>
       <c r="D32" s="79">
         <v>0</v>
@@ -13127,59 +13270,59 @@
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="142" t="s">
-        <v>361</v>
-      </c>
-      <c r="D33" s="153">
+      <c r="C33" s="140" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" s="151">
         <f>+D29+D31</f>
         <v>20</v>
       </c>
-      <c r="E33" s="153">
+      <c r="E33" s="151">
         <f t="shared" ref="E33:I33" si="5">+E29+E31</f>
-        <v>30</v>
-      </c>
-      <c r="F33" s="153">
+        <v>24</v>
+      </c>
+      <c r="F33" s="151">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="G33" s="153">
+        <v>26</v>
+      </c>
+      <c r="G33" s="151">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H33" s="153">
+        <v>20</v>
+      </c>
+      <c r="H33" s="151">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="I33" s="153">
+        <v>20</v>
+      </c>
+      <c r="I33" s="151">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="142" t="s">
-        <v>362</v>
-      </c>
-      <c r="D34" s="154">
+      <c r="C34" s="140" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="152">
         <f>+D30+D32</f>
         <v>15</v>
       </c>
-      <c r="E34" s="154">
+      <c r="E34" s="152">
         <f t="shared" ref="E34:I34" si="6">+E30+E32</f>
         <v>24</v>
       </c>
-      <c r="F34" s="154">
+      <c r="F34" s="152">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="G34" s="154">
+      <c r="G34" s="152">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="H34" s="154">
+      <c r="H34" s="152">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="I34" s="154">
+      <c r="I34" s="152">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
@@ -13199,10 +13342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7CF57-8EE0-43FD-AF13-2469FC1B265B}">
-  <dimension ref="B2:R60"/>
+  <dimension ref="B2:R64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -13213,1018 +13356,1256 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="268"/>
-    </row>
-    <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="B2" s="176"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="252" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="254"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="253" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="254"/>
-      <c r="D24" s="254"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="254"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="254"/>
-      <c r="N24" s="254"/>
-      <c r="O24" s="254"/>
-      <c r="P24" s="254"/>
-      <c r="Q24" s="254"/>
-      <c r="R24" s="255"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="265" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="155">
+      <c r="B24" s="173" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="153">
         <v>2005</v>
       </c>
-      <c r="D25" s="155">
-        <f>+C25+1</f>
+      <c r="D24" s="153">
+        <f>+C24+1</f>
         <v>2006</v>
       </c>
-      <c r="E25" s="155">
-        <f t="shared" ref="E25" si="0">+D25+1</f>
+      <c r="E24" s="153">
+        <f t="shared" ref="E24" si="0">+D24+1</f>
         <v>2007</v>
       </c>
-      <c r="F25" s="155">
-        <f t="shared" ref="F25" si="1">+E25+1</f>
+      <c r="F24" s="153">
+        <f t="shared" ref="F24" si="1">+E24+1</f>
         <v>2008</v>
       </c>
-      <c r="G25" s="155">
-        <f t="shared" ref="G25" si="2">+F25+1</f>
+      <c r="G24" s="153">
+        <f t="shared" ref="G24" si="2">+F24+1</f>
         <v>2009</v>
       </c>
-      <c r="H25" s="155">
-        <f t="shared" ref="H25" si="3">+G25+1</f>
+      <c r="H24" s="153">
+        <f t="shared" ref="H24" si="3">+G24+1</f>
         <v>2010</v>
       </c>
-      <c r="I25" s="155">
-        <f t="shared" ref="I25" si="4">+H25+1</f>
+      <c r="I24" s="153">
+        <f t="shared" ref="I24" si="4">+H24+1</f>
         <v>2011</v>
       </c>
-      <c r="J25" s="155">
-        <f t="shared" ref="J25" si="5">+I25+1</f>
+      <c r="J24" s="153">
+        <f t="shared" ref="J24" si="5">+I24+1</f>
         <v>2012</v>
       </c>
-      <c r="K25" s="155">
-        <f t="shared" ref="K25" si="6">+J25+1</f>
+      <c r="K24" s="153">
+        <f t="shared" ref="K24" si="6">+J24+1</f>
         <v>2013</v>
       </c>
-      <c r="L25" s="155">
-        <f t="shared" ref="L25" si="7">+K25+1</f>
+      <c r="L24" s="153">
+        <f t="shared" ref="L24" si="7">+K24+1</f>
         <v>2014</v>
       </c>
-      <c r="M25" s="155">
-        <f t="shared" ref="M25" si="8">+L25+1</f>
+      <c r="M24" s="153">
+        <f t="shared" ref="M24" si="8">+L24+1</f>
         <v>2015</v>
       </c>
-      <c r="N25" s="155">
-        <f t="shared" ref="N25" si="9">+M25+1</f>
+      <c r="N24" s="153">
+        <f t="shared" ref="N24" si="9">+M24+1</f>
         <v>2016</v>
       </c>
-      <c r="O25" s="155">
-        <f t="shared" ref="O25" si="10">+N25+1</f>
+      <c r="O24" s="153">
+        <f t="shared" ref="O24" si="10">+N24+1</f>
         <v>2017</v>
       </c>
-      <c r="P25" s="155">
-        <f t="shared" ref="P25" si="11">+O25+1</f>
+      <c r="P24" s="153">
+        <f t="shared" ref="P24" si="11">+O24+1</f>
         <v>2018</v>
       </c>
-      <c r="Q25" s="155">
-        <f t="shared" ref="Q25:R25" si="12">+P25+1</f>
+      <c r="Q24" s="153">
+        <f t="shared" ref="Q24:R24" si="12">+P24+1</f>
         <v>2019</v>
       </c>
-      <c r="R25" s="266">
+      <c r="R24" s="174">
         <f t="shared" si="12"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="256" t="s">
-        <v>385</v>
-      </c>
-      <c r="C26" s="157">
+    <row r="25" spans="2:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="167" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="155">
         <f>+'Pobl. Ingresante Total'!C14</f>
         <v>57</v>
       </c>
-      <c r="D26" s="157">
+      <c r="D25" s="155">
         <f>+'Pobl. Ingresante Total'!D14</f>
         <v>47</v>
       </c>
-      <c r="E26" s="157">
+      <c r="E25" s="155">
         <f>+'Pobl. Ingresante Total'!E14</f>
         <v>34</v>
       </c>
-      <c r="F26" s="157">
+      <c r="F25" s="155">
         <f>+'Pobl. Ingresante Total'!F14</f>
         <v>0</v>
       </c>
-      <c r="G26" s="157">
+      <c r="G25" s="155">
         <f>+'Pobl. Ingresante Total'!G14</f>
         <v>42</v>
       </c>
-      <c r="H26" s="157">
+      <c r="H25" s="155">
         <f>+'Pobl. Ingresante Total'!H14</f>
         <v>41</v>
       </c>
-      <c r="I26" s="157">
+      <c r="I25" s="155">
         <f>+'Pobl. Ingresante Total'!I14</f>
         <v>46</v>
       </c>
-      <c r="J26" s="157">
+      <c r="J25" s="155">
         <f>+'Pobl. Ingresante Total'!J14</f>
         <v>40</v>
       </c>
-      <c r="K26" s="157">
+      <c r="K25" s="155">
         <f>+'Pobl. Ingresante Total'!K14</f>
         <v>35</v>
       </c>
-      <c r="L26" s="157">
+      <c r="L25" s="155">
         <f>+'Pobl. Ingresante Total'!L14</f>
         <v>37</v>
       </c>
-      <c r="M26" s="157">
+      <c r="M25" s="155">
         <f>+'Pobl. Ingresante Total'!M14</f>
         <v>33</v>
       </c>
-      <c r="N26" s="157">
+      <c r="N25" s="155">
         <f>+'Pobl. Ingresante Total'!N14</f>
         <v>39</v>
       </c>
-      <c r="O26" s="157">
+      <c r="O25" s="155">
         <f>+'Pobl. Ingresante Total'!O14</f>
         <v>50</v>
       </c>
-      <c r="P26" s="157">
+      <c r="P25" s="155">
         <f>+'Pobl. Ingresante Total'!P14</f>
         <v>61</v>
       </c>
-      <c r="Q26" s="157">
+      <c r="Q25" s="155">
         <f>+'Pobl. Ingresante Total'!Q14</f>
         <v>50</v>
       </c>
-      <c r="R26" s="82">
+      <c r="R25" s="82">
         <f>+'matriculados Ind. Aprob.'!M33</f>
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="257" t="s">
+    <row r="26" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="168" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171">
+        <f>(D25/C25)^(1/1)-1</f>
+        <v>-0.17543859649122806</v>
+      </c>
+      <c r="E26" s="171">
+        <f>(E25/D25)^(1/1)-1</f>
+        <v>-0.27659574468085102</v>
+      </c>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171">
+        <f>(G25/E25)^(1/2)-1</f>
+        <v>0.11143786045242265</v>
+      </c>
+      <c r="H26" s="171">
+        <f t="shared" ref="H26:M26" si="13">(H25/G25)^(1/1)-1</f>
+        <v>-2.3809523809523836E-2</v>
+      </c>
+      <c r="I26" s="171">
+        <f t="shared" si="13"/>
+        <v>0.12195121951219523</v>
+      </c>
+      <c r="J26" s="171">
+        <f t="shared" si="13"/>
+        <v>-0.13043478260869568</v>
+      </c>
+      <c r="K26" s="171">
+        <f t="shared" si="13"/>
+        <v>-0.125</v>
+      </c>
+      <c r="L26" s="171">
+        <f t="shared" si="13"/>
+        <v>5.7142857142857162E-2</v>
+      </c>
+      <c r="M26" s="171">
+        <f t="shared" si="13"/>
+        <v>-0.10810810810810811</v>
+      </c>
+      <c r="N26" s="171">
+        <f t="shared" ref="N26:R26" si="14">(N25/M25)^(1/1)-1</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="O26" s="171">
+        <f t="shared" si="14"/>
+        <v>0.28205128205128216</v>
+      </c>
+      <c r="P26" s="171">
+        <f t="shared" si="14"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="Q26" s="171">
+        <f t="shared" si="14"/>
+        <v>-0.18032786885245899</v>
+      </c>
+      <c r="R26" s="172">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="169" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="249">
+        <f>((((G26+1)*(H26+1)*(I26+1)*(J26+1)*(K26+1)*(L26+1)*(M26+1)*(N26+1)*(O26+1)*(P26+1)*(Q26+1)*(R26+1))^(1/12))-1)</f>
+        <v>3.1770758844814617E-2</v>
+      </c>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="250"/>
+      <c r="L27" s="250"/>
+      <c r="M27" s="250"/>
+      <c r="N27" s="250"/>
+      <c r="O27" s="250"/>
+      <c r="P27" s="250"/>
+      <c r="Q27" s="250"/>
+      <c r="R27" s="251"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="188"/>
+      <c r="E30" s="154" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="154" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="154" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" s="154" t="s">
+        <v>248</v>
+      </c>
+      <c r="I30" s="154" t="s">
+        <v>249</v>
+      </c>
+      <c r="J30" s="154" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" s="154" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" s="154" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" s="154" t="s">
+        <v>253</v>
+      </c>
+      <c r="N30" s="154" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="166"/>
+      <c r="C31" s="165">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="165">
+        <f>+C31+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E31" s="165">
+        <f t="shared" ref="E31:N31" si="15">+D31+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F31" s="165">
+        <f t="shared" si="15"/>
+        <v>2023</v>
+      </c>
+      <c r="G31" s="165">
+        <f t="shared" si="15"/>
+        <v>2024</v>
+      </c>
+      <c r="H31" s="165">
+        <f t="shared" si="15"/>
+        <v>2025</v>
+      </c>
+      <c r="I31" s="165">
+        <f t="shared" si="15"/>
+        <v>2026</v>
+      </c>
+      <c r="J31" s="165">
+        <f t="shared" si="15"/>
+        <v>2027</v>
+      </c>
+      <c r="K31" s="165">
+        <f t="shared" si="15"/>
+        <v>2028</v>
+      </c>
+      <c r="L31" s="165">
+        <f t="shared" si="15"/>
+        <v>2029</v>
+      </c>
+      <c r="M31" s="165">
+        <f t="shared" si="15"/>
+        <v>2030</v>
+      </c>
+      <c r="N31" s="165">
+        <f t="shared" si="15"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="175" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260">
-        <f>(D26/C26)^(1/1)-1</f>
-        <v>-0.17543859649122806</v>
-      </c>
-      <c r="E27" s="260">
-        <f>(E26/D26)^(1/1)-1</f>
-        <v>-0.27659574468085102</v>
-      </c>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260">
-        <f>(G26/E26)^(1/2)-1</f>
-        <v>0.11143786045242265</v>
-      </c>
-      <c r="H27" s="260">
-        <f>(H26/G26)^(1/1)-1</f>
-        <v>-2.3809523809523836E-2</v>
-      </c>
-      <c r="I27" s="260">
-        <f>(I26/H26)^(1/1)-1</f>
-        <v>0.12195121951219523</v>
-      </c>
-      <c r="J27" s="260">
-        <f>(J26/I26)^(1/1)-1</f>
-        <v>-0.13043478260869568</v>
-      </c>
-      <c r="K27" s="260">
-        <f>(K26/J26)^(1/1)-1</f>
-        <v>-0.125</v>
-      </c>
-      <c r="L27" s="260">
-        <f>(L26/K26)^(1/1)-1</f>
-        <v>5.7142857142857162E-2</v>
-      </c>
-      <c r="M27" s="260">
-        <f>(M26/L26)^(1/1)-1</f>
-        <v>-0.10810810810810811</v>
-      </c>
-      <c r="N27" s="260">
-        <f t="shared" ref="N27:R27" si="13">(N26/M26)^(1/1)-1</f>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="O27" s="260">
-        <f t="shared" si="13"/>
-        <v>0.28205128205128216</v>
-      </c>
-      <c r="P27" s="260">
-        <f t="shared" si="13"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="Q27" s="260">
-        <f t="shared" si="13"/>
-        <v>-0.18032786885245899</v>
-      </c>
-      <c r="R27" s="261">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="258" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="262">
-        <f>((((G27+1)*(H27+1)*(I27+1)*(J27+1)*(K27+1)*(L27+1)*(M27+1)*(N27+1)*(O27+1)*(P27+1)*(Q27+1)*(R27+1))^(1/14))-1)</f>
-        <v>2.7171015644805951E-2</v>
-      </c>
-      <c r="D28" s="263"/>
-      <c r="E28" s="263"/>
-      <c r="F28" s="263"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="263"/>
-      <c r="I28" s="263"/>
-      <c r="J28" s="263"/>
-      <c r="K28" s="263"/>
-      <c r="L28" s="263"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="263"/>
-      <c r="Q28" s="263"/>
-      <c r="R28" s="264"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="225" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="225"/>
-      <c r="E31" s="156" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="156" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" s="156" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" s="156" t="s">
-        <v>249</v>
-      </c>
-      <c r="J31" s="156" t="s">
-        <v>250</v>
-      </c>
-      <c r="K31" s="156" t="s">
-        <v>251</v>
-      </c>
-      <c r="L31" s="156" t="s">
-        <v>252</v>
-      </c>
-      <c r="M31" s="156" t="s">
-        <v>253</v>
-      </c>
-      <c r="N31" s="156" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="252"/>
-      <c r="C32" s="251">
-        <v>2020</v>
-      </c>
-      <c r="D32" s="251">
-        <f>+C32+1</f>
-        <v>2021</v>
-      </c>
-      <c r="E32" s="251">
-        <f t="shared" ref="E32:N32" si="14">+D32+1</f>
-        <v>2022</v>
-      </c>
-      <c r="F32" s="251">
-        <f t="shared" si="14"/>
-        <v>2023</v>
-      </c>
-      <c r="G32" s="251">
-        <f t="shared" si="14"/>
-        <v>2024</v>
-      </c>
-      <c r="H32" s="251">
-        <f t="shared" si="14"/>
-        <v>2025</v>
-      </c>
-      <c r="I32" s="251">
-        <f t="shared" si="14"/>
-        <v>2026</v>
-      </c>
-      <c r="J32" s="251">
-        <f t="shared" si="14"/>
-        <v>2027</v>
-      </c>
-      <c r="K32" s="251">
-        <f t="shared" si="14"/>
-        <v>2028</v>
-      </c>
-      <c r="L32" s="251">
-        <f t="shared" si="14"/>
-        <v>2029</v>
-      </c>
-      <c r="M32" s="251">
-        <f t="shared" si="14"/>
-        <v>2030</v>
-      </c>
-      <c r="N32" s="251">
-        <f t="shared" si="14"/>
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="267" t="s">
-        <v>386</v>
-      </c>
-      <c r="C33" s="157">
-        <f>+R26</f>
+      <c r="C32" s="155">
+        <f>+R25</f>
         <v>55</v>
       </c>
-      <c r="D33" s="49">
-        <f>C33*($C$28+1)</f>
-        <v>56.494405860464326</v>
-      </c>
-      <c r="E33" s="49">
-        <f t="shared" ref="E33:N33" si="15">D33*($C$28+1)</f>
-        <v>58.029416245943018</v>
-      </c>
-      <c r="F33" s="49">
-        <f t="shared" si="15"/>
-        <v>59.606134422620492</v>
-      </c>
-      <c r="G33" s="49">
-        <f t="shared" si="15"/>
-        <v>61.225693633543919</v>
-      </c>
-      <c r="H33" s="49">
-        <f t="shared" si="15"/>
-        <v>62.889257913125036</v>
-      </c>
-      <c r="I33" s="49">
-        <f t="shared" si="15"/>
-        <v>64.598022923772788</v>
-      </c>
-      <c r="J33" s="49">
-        <f t="shared" si="15"/>
-        <v>66.353216815258151</v>
-      </c>
-      <c r="K33" s="49">
-        <f t="shared" si="15"/>
-        <v>68.156101107428725</v>
-      </c>
-      <c r="L33" s="49">
-        <f t="shared" si="15"/>
-        <v>70.007971596907652</v>
-      </c>
-      <c r="M33" s="49">
-        <f t="shared" si="15"/>
-        <v>71.91015928842836</v>
-      </c>
-      <c r="N33" s="49">
-        <f t="shared" si="15"/>
-        <v>73.864031351474736</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="245" t="s">
-        <v>366</v>
-      </c>
-      <c r="C39" s="141">
+      <c r="D32" s="49">
+        <f>C32*($C$27+1)</f>
+        <v>56.747391736464806</v>
+      </c>
+      <c r="E32" s="49">
+        <f t="shared" ref="E32:N32" si="16">D32*($C$27+1)</f>
+        <v>58.550299434396258</v>
+      </c>
+      <c r="F32" s="49">
+        <f t="shared" si="16"/>
+        <v>60.410486878018148</v>
+      </c>
+      <c r="G32" s="49">
+        <f t="shared" si="16"/>
+        <v>62.329773888317497</v>
+      </c>
+      <c r="H32" s="49">
+        <f t="shared" si="16"/>
+        <v>64.310038103375049</v>
+      </c>
+      <c r="I32" s="49">
+        <f t="shared" si="16"/>
+        <v>66.353216815258222</v>
+      </c>
+      <c r="J32" s="49">
+        <f t="shared" si="16"/>
+        <v>68.461308865273494</v>
+      </c>
+      <c r="K32" s="49">
+        <f t="shared" si="16"/>
+        <v>70.636376599432467</v>
+      </c>
+      <c r="L32" s="49">
+        <f t="shared" si="16"/>
+        <v>72.880547886044539</v>
+      </c>
+      <c r="M32" s="49">
+        <f t="shared" si="16"/>
+        <v>75.196018197410027</v>
+      </c>
+      <c r="N32" s="49">
+        <f t="shared" si="16"/>
+        <v>77.585052757650232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="274" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="275"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="275"/>
+      <c r="F34" s="275"/>
+      <c r="G34" s="275"/>
+      <c r="H34" s="275"/>
+      <c r="I34" s="275"/>
+      <c r="J34" s="275"/>
+      <c r="K34" s="275"/>
+      <c r="L34" s="275"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="275"/>
+      <c r="O34" s="275"/>
+      <c r="P34" s="275"/>
+      <c r="Q34" s="276"/>
+    </row>
+    <row r="35" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="277"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="278"/>
+      <c r="F35" s="278"/>
+      <c r="G35" s="278"/>
+      <c r="H35" s="278"/>
+      <c r="I35" s="278"/>
+      <c r="J35" s="278"/>
+      <c r="K35" s="278"/>
+      <c r="L35" s="278"/>
+      <c r="M35" s="278"/>
+      <c r="N35" s="278"/>
+      <c r="O35" s="278"/>
+      <c r="P35" s="278"/>
+      <c r="Q35" s="279"/>
+    </row>
+    <row r="36" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="284" t="s">
+        <v>385</v>
+      </c>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="285"/>
+      <c r="H37" s="285"/>
+      <c r="I37" s="285"/>
+      <c r="J37" s="285"/>
+      <c r="K37" s="285"/>
+      <c r="L37" s="285"/>
+      <c r="M37" s="285"/>
+      <c r="N37" s="204" t="s">
+        <v>395</v>
+      </c>
+      <c r="O37" s="204"/>
+      <c r="P37" s="204"/>
+      <c r="Q37" s="204"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="282" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="283">
         <v>2005</v>
       </c>
-      <c r="D39" s="141">
-        <f>+C39+1</f>
+      <c r="D38" s="283">
+        <f>+C38+1</f>
         <v>2006</v>
       </c>
-      <c r="E39" s="141">
-        <f t="shared" ref="E39:M39" si="16">+D39+1</f>
+      <c r="E38" s="283">
+        <f t="shared" ref="E38:M38" si="17">+D38+1</f>
         <v>2007</v>
       </c>
-      <c r="F39" s="141">
-        <f t="shared" si="16"/>
+      <c r="F38" s="283">
+        <f t="shared" si="17"/>
         <v>2008</v>
       </c>
-      <c r="G39" s="141">
-        <f t="shared" si="16"/>
+      <c r="G38" s="283">
+        <f t="shared" si="17"/>
         <v>2009</v>
       </c>
-      <c r="H39" s="141">
-        <f t="shared" si="16"/>
+      <c r="H38" s="283">
+        <f t="shared" si="17"/>
         <v>2010</v>
       </c>
-      <c r="I39" s="141">
-        <f t="shared" si="16"/>
+      <c r="I38" s="283">
+        <f t="shared" si="17"/>
         <v>2011</v>
       </c>
-      <c r="J39" s="141">
-        <f t="shared" si="16"/>
+      <c r="J38" s="283">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-      <c r="K39" s="141">
-        <f t="shared" si="16"/>
+      <c r="K38" s="283">
+        <f t="shared" si="17"/>
         <v>2013</v>
       </c>
-      <c r="L39" s="141">
-        <f t="shared" si="16"/>
+      <c r="L38" s="283">
+        <f t="shared" si="17"/>
         <v>2014</v>
       </c>
-      <c r="M39" s="141">
-        <f t="shared" si="16"/>
+      <c r="M38" s="283">
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
-      <c r="N39" s="156">
-        <f t="shared" ref="N39" si="17">+M39+1</f>
+      <c r="N38" s="154">
+        <f t="shared" ref="N38" si="18">+M38+1</f>
         <v>2016</v>
       </c>
-      <c r="O39" s="156">
-        <f t="shared" ref="O39" si="18">+N39+1</f>
+      <c r="O38" s="154">
+        <f t="shared" ref="O38" si="19">+N38+1</f>
         <v>2017</v>
       </c>
-      <c r="P39" s="156">
-        <f t="shared" ref="P39" si="19">+O39+1</f>
+      <c r="P38" s="154">
+        <f t="shared" ref="P38" si="20">+O38+1</f>
         <v>2018</v>
       </c>
-      <c r="Q39" s="156">
-        <f t="shared" ref="Q39:R39" si="20">+P39+1</f>
+      <c r="Q38" s="154">
+        <f t="shared" ref="Q38" si="21">+P38+1</f>
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="159" t="s">
-        <v>364</v>
-      </c>
-      <c r="C40" s="140">
+    <row r="39" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="280" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="139">
         <f>+'Pobl. Ingresante Total'!C14</f>
         <v>57</v>
       </c>
-      <c r="D40" s="140">
+      <c r="D39" s="139">
         <f>+'Pobl. Ingresante Total'!D14</f>
         <v>47</v>
       </c>
-      <c r="E40" s="140">
+      <c r="E39" s="139">
         <f>+'Pobl. Ingresante Total'!E14</f>
         <v>34</v>
       </c>
-      <c r="F40" s="140">
+      <c r="F39" s="139">
         <f>+'Pobl. Ingresante Total'!F14</f>
         <v>0</v>
       </c>
-      <c r="G40" s="140">
+      <c r="G39" s="139">
         <f>+'Pobl. Ingresante Total'!G14</f>
         <v>42</v>
       </c>
-      <c r="H40" s="140">
+      <c r="H39" s="139">
         <f>+'Pobl. Ingresante Total'!H14</f>
         <v>41</v>
       </c>
-      <c r="I40" s="140">
+      <c r="I39" s="139">
         <f>+'Pobl. Ingresante Total'!I14</f>
         <v>46</v>
       </c>
-      <c r="J40" s="140">
+      <c r="J39" s="139">
         <f>+'Pobl. Ingresante Total'!J14</f>
         <v>40</v>
       </c>
-      <c r="K40" s="140">
+      <c r="K39" s="139">
         <f>+'Pobl. Ingresante Total'!K14</f>
         <v>35</v>
       </c>
-      <c r="L40" s="140">
+      <c r="L39" s="139">
         <f>+'Pobl. Ingresante Total'!L14</f>
         <v>37</v>
       </c>
-      <c r="M40" s="140">
+      <c r="M39" s="273">
         <f>+'matriculados Ind. Aprob.'!C11</f>
         <v>34</v>
       </c>
-      <c r="N40" s="49">
-        <f>M40*($C$42+1)</f>
+      <c r="N39" s="49">
+        <f>M39*($C$41+1)</f>
         <v>33.490674197979331</v>
       </c>
-      <c r="O40" s="49">
-        <f>N40*($C$42+1)</f>
+      <c r="O39" s="49">
+        <f>N39*($C$41+1)</f>
         <v>32.988978183388191</v>
       </c>
-      <c r="P40" s="49">
-        <f>O40*($C$42+1)</f>
+      <c r="P39" s="49">
+        <f>O39*($C$41+1)</f>
         <v>32.494797660708883</v>
       </c>
-      <c r="Q40" s="49">
-        <f>P40*($C$42+1)</f>
+      <c r="Q39" s="49">
+        <f>P39*($C$41+1)</f>
         <v>32.008020046590062</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="158" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="139">
-        <f>(D40/C40)^(1/1)-1</f>
+    <row r="40" spans="2:17" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="156" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" s="170"/>
+      <c r="D40" s="171">
+        <f>(D39/C39)^(1/1)-1</f>
         <v>-0.17543859649122806</v>
       </c>
-      <c r="E41" s="139">
-        <f t="shared" ref="E41:M41" si="21">(E40/D40)^(1/1)-1</f>
+      <c r="E40" s="171">
+        <f t="shared" ref="E40:M40" si="22">(E39/D39)^(1/1)-1</f>
         <v>-0.27659574468085102</v>
       </c>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139">
-        <f>(G40/E40)^(1/2)-1</f>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171">
+        <f>(G39/E39)^(1/2)-1</f>
         <v>0.11143786045242265</v>
       </c>
-      <c r="H41" s="139">
-        <f t="shared" si="21"/>
+      <c r="H40" s="171">
+        <f t="shared" si="22"/>
         <v>-2.3809523809523836E-2</v>
       </c>
-      <c r="I41" s="139">
-        <f t="shared" si="21"/>
+      <c r="I40" s="171">
+        <f t="shared" si="22"/>
         <v>0.12195121951219523</v>
       </c>
-      <c r="J41" s="139">
-        <f t="shared" si="21"/>
+      <c r="J40" s="171">
+        <f t="shared" si="22"/>
         <v>-0.13043478260869568</v>
       </c>
-      <c r="K41" s="139">
-        <f t="shared" si="21"/>
+      <c r="K40" s="171">
+        <f t="shared" si="22"/>
         <v>-0.125</v>
       </c>
-      <c r="L41" s="139">
-        <f t="shared" si="21"/>
+      <c r="L40" s="171">
+        <f t="shared" si="22"/>
         <v>5.7142857142857162E-2</v>
       </c>
-      <c r="M41" s="139">
-        <f t="shared" si="21"/>
+      <c r="M40" s="171">
+        <f t="shared" si="22"/>
         <v>-8.108108108108103E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="C42" s="238">
-        <f>(((G41+1)*(H41+1)*(I41+1)*(J41+1)*(K41+1)*(L41+1)*(M41+1))^(1/7))-1</f>
+    <row r="41" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="290" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="291">
+        <f>(((G40+1)*(H40+1)*(I40+1)*(J40+1)*(K40+1)*(L40+1)*(M40+1))^(1/7))-1</f>
         <v>-1.4980170647666657E-2</v>
       </c>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="239"/>
-      <c r="G42" s="239"/>
-      <c r="H42" s="239"/>
-      <c r="I42" s="239"/>
-      <c r="J42" s="239"/>
-      <c r="K42" s="239"/>
-      <c r="L42" s="239"/>
-      <c r="M42" s="240"/>
-    </row>
-    <row r="43" spans="2:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="141" t="s">
-        <v>366</v>
-      </c>
-      <c r="C45" s="141">
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="292"/>
+      <c r="H41" s="292"/>
+      <c r="I41" s="292"/>
+      <c r="J41" s="292"/>
+      <c r="K41" s="292"/>
+      <c r="L41" s="292"/>
+      <c r="M41" s="293"/>
+    </row>
+    <row r="42" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="286" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="287"/>
+      <c r="D43" s="287"/>
+      <c r="E43" s="287"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="288"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="289" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" s="283">
         <v>2015</v>
       </c>
-      <c r="D45" s="141">
-        <f>+C45+1</f>
+      <c r="D44" s="283">
+        <f>+C44+1</f>
         <v>2016</v>
       </c>
-      <c r="E45" s="141">
-        <f t="shared" ref="E45:H45" si="22">+D45+1</f>
+      <c r="E44" s="283">
+        <f t="shared" ref="E44:H44" si="23">+D44+1</f>
         <v>2017</v>
       </c>
-      <c r="F45" s="141">
-        <f t="shared" si="22"/>
+      <c r="F44" s="283">
+        <f t="shared" si="23"/>
         <v>2018</v>
       </c>
-      <c r="G45" s="141">
-        <f t="shared" si="22"/>
+      <c r="G44" s="283">
+        <f t="shared" si="23"/>
         <v>2019</v>
       </c>
-      <c r="H45" s="141">
-        <f t="shared" si="22"/>
+      <c r="H44" s="283">
+        <f t="shared" si="23"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="161" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46" s="140">
-        <f>+'Pobl. Ingresante Total'!M14</f>
-        <v>33</v>
-      </c>
-      <c r="D46" s="140">
+    <row r="45" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="281" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139">
         <f>+'Pobl. Ingresante Total'!N14</f>
         <v>39</v>
       </c>
-      <c r="E46" s="140">
+      <c r="E45" s="139">
         <f>+'Pobl. Ingresante Total'!O14</f>
         <v>50</v>
       </c>
-      <c r="F46" s="140">
+      <c r="F45" s="139">
         <f>+'Pobl. Ingresante Total'!P14</f>
         <v>61</v>
       </c>
-      <c r="G46" s="140">
+      <c r="G45" s="139">
         <f>+'Pobl. Ingresante Total'!Q14</f>
         <v>50</v>
       </c>
-      <c r="H46" s="140">
+      <c r="H45" s="139">
         <f>+'matriculados Ind. Aprob.'!M33</f>
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="2:17" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="162" t="s">
+    <row r="46" spans="2:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="157" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171">
+        <f t="shared" ref="E46:H46" si="24">(E45/D45)^(1/1)-1</f>
+        <v>0.28205128205128216</v>
+      </c>
+      <c r="F46" s="171">
+        <f t="shared" si="24"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G46" s="171">
+        <f t="shared" si="24"/>
+        <v>-0.18032786885245899</v>
+      </c>
+      <c r="H46" s="171">
+        <f t="shared" si="24"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="294" t="s">
+        <v>363</v>
+      </c>
+      <c r="C47" s="295">
+        <f>((((E46+1)*(F46+1)*(G46+1)*(H46+1))^(1/4))-1)</f>
+        <v>8.9744085549771979E-2</v>
+      </c>
+      <c r="D47" s="296"/>
+      <c r="E47" s="296"/>
+      <c r="F47" s="296"/>
+      <c r="G47" s="296"/>
+      <c r="H47" s="297"/>
+      <c r="J47" s="164">
+        <f>AVERAGE(C41,C47)</f>
+        <v>3.7381957451052661E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="300" t="s">
         <v>367</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="139">
-        <f>(D46/C46)^(1/1)-1</f>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="E47" s="139">
-        <f t="shared" ref="E47:H47" si="23">(E46/D46)^(1/1)-1</f>
-        <v>0.28205128205128216</v>
-      </c>
-      <c r="F47" s="139">
-        <f t="shared" si="23"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="G47" s="139">
-        <f t="shared" si="23"/>
-        <v>-0.18032786885245899</v>
-      </c>
-      <c r="H47" s="139">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="163" t="s">
-        <v>365</v>
-      </c>
-      <c r="C48" s="235">
-        <f>(((D47+1)*(E47+1)*(F47+1)*(G47+1)*(H47+1))^(1/5))-1</f>
-        <v>0.10756634324829006</v>
-      </c>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="J48" s="250">
-        <f>AVERAGE(C42,C48)</f>
-        <v>4.6293086300311703E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="301"/>
+      <c r="D51" s="301"/>
+      <c r="E51" s="301"/>
+      <c r="F51" s="301"/>
+      <c r="G51" s="301"/>
+      <c r="H51" s="301"/>
+      <c r="I51" s="301"/>
+      <c r="J51" s="301"/>
+      <c r="K51" s="301"/>
+      <c r="L51" s="301"/>
+      <c r="M51" s="301"/>
+      <c r="N51" s="302"/>
+    </row>
+    <row r="52" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="303" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="298" t="s">
+        <v>370</v>
+      </c>
+      <c r="D52" s="299"/>
+      <c r="E52" s="282" t="s">
+        <v>371</v>
+      </c>
+      <c r="F52" s="282" t="s">
+        <v>372</v>
+      </c>
+      <c r="G52" s="282" t="s">
+        <v>373</v>
+      </c>
+      <c r="H52" s="282" t="s">
+        <v>374</v>
+      </c>
+      <c r="I52" s="282" t="s">
+        <v>375</v>
+      </c>
+      <c r="J52" s="282" t="s">
+        <v>376</v>
+      </c>
+      <c r="K52" s="282" t="s">
+        <v>377</v>
+      </c>
+      <c r="L52" s="282" t="s">
+        <v>378</v>
+      </c>
+      <c r="M52" s="282" t="s">
+        <v>379</v>
+      </c>
+      <c r="N52" s="282" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="304"/>
+      <c r="C53" s="161">
+        <f>+Q38+1</f>
+        <v>2020</v>
+      </c>
+      <c r="D53" s="161">
+        <f t="shared" ref="D53" si="25">+C53+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E53" s="161">
+        <f t="shared" ref="E53" si="26">+D53+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F53" s="161">
+        <f t="shared" ref="F53" si="27">+E53+1</f>
+        <v>2023</v>
+      </c>
+      <c r="G53" s="161">
+        <f t="shared" ref="G53" si="28">+F53+1</f>
+        <v>2024</v>
+      </c>
+      <c r="H53" s="161">
+        <f t="shared" ref="H53" si="29">+G53+1</f>
+        <v>2025</v>
+      </c>
+      <c r="I53" s="161">
+        <f t="shared" ref="I53" si="30">+H53+1</f>
+        <v>2026</v>
+      </c>
+      <c r="J53" s="161">
+        <f t="shared" ref="J53" si="31">+I53+1</f>
+        <v>2027</v>
+      </c>
+      <c r="K53" s="161">
+        <f t="shared" ref="K53" si="32">+J53+1</f>
+        <v>2028</v>
+      </c>
+      <c r="L53" s="161">
+        <f t="shared" ref="L53" si="33">+K53+1</f>
+        <v>2029</v>
+      </c>
+      <c r="M53" s="161">
+        <f t="shared" ref="M53" si="34">+L53+1</f>
+        <v>2030</v>
+      </c>
+      <c r="N53" s="161">
+        <f t="shared" ref="N53" si="35">+M53+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="160" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="241" t="s">
+      <c r="C54" s="49">
+        <f>Q39*($C$41+1)</f>
+        <v>31.528534444198208</v>
+      </c>
+      <c r="D54" s="49">
+        <f t="shared" ref="D54:N54" si="36">C54*($C$41+1)</f>
+        <v>31.056231617953284</v>
+      </c>
+      <c r="E54" s="49">
+        <f t="shared" si="36"/>
+        <v>30.591003968642884</v>
+      </c>
+      <c r="F54" s="49">
+        <f t="shared" si="36"/>
+        <v>30.132745508909167</v>
+      </c>
+      <c r="G54" s="49">
+        <f t="shared" si="36"/>
+        <v>29.681351839102998</v>
+      </c>
+      <c r="H54" s="49">
+        <f t="shared" si="36"/>
+        <v>29.236720123499801</v>
+      </c>
+      <c r="I54" s="49">
+        <f t="shared" si="36"/>
+        <v>28.798749066871704</v>
+      </c>
+      <c r="J54" s="49">
+        <f t="shared" si="36"/>
+        <v>28.367338891410636</v>
+      </c>
+      <c r="K54" s="49">
+        <f t="shared" si="36"/>
+        <v>27.942391313997113</v>
+      </c>
+      <c r="L54" s="49">
+        <f t="shared" si="36"/>
+        <v>27.523809523809557</v>
+      </c>
+      <c r="M54" s="49">
+        <f t="shared" si="36"/>
+        <v>27.111498160269019</v>
+      </c>
+      <c r="N54" s="49">
+        <f t="shared" si="36"/>
+        <v>26.705363291314288</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="300" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
+      <c r="E56" s="301"/>
+      <c r="F56" s="301"/>
+      <c r="G56" s="301"/>
+      <c r="H56" s="301"/>
+      <c r="I56" s="301"/>
+      <c r="J56" s="301"/>
+      <c r="K56" s="301"/>
+      <c r="L56" s="301"/>
+      <c r="M56" s="301"/>
+      <c r="N56" s="302"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="305" t="s">
+        <v>381</v>
+      </c>
+      <c r="C57" s="255" t="s">
         <v>370</v>
       </c>
-      <c r="C53" s="243" t="s">
+      <c r="D57" s="256"/>
+      <c r="E57" s="162" t="s">
+        <v>371</v>
+      </c>
+      <c r="F57" s="162" t="s">
         <v>372</v>
       </c>
-      <c r="D53" s="244"/>
-      <c r="E53" s="245" t="s">
+      <c r="G57" s="162" t="s">
         <v>373</v>
       </c>
-      <c r="F53" s="245" t="s">
+      <c r="H57" s="162" t="s">
         <v>374</v>
       </c>
-      <c r="G53" s="245" t="s">
+      <c r="I57" s="162" t="s">
         <v>375</v>
       </c>
-      <c r="H53" s="245" t="s">
+      <c r="J57" s="162" t="s">
         <v>376</v>
       </c>
-      <c r="I53" s="245" t="s">
+      <c r="K57" s="162" t="s">
         <v>377</v>
       </c>
-      <c r="J53" s="245" t="s">
+      <c r="L57" s="162" t="s">
         <v>378</v>
       </c>
-      <c r="K53" s="245" t="s">
+      <c r="M57" s="162" t="s">
         <v>379</v>
       </c>
-      <c r="L53" s="245" t="s">
+      <c r="N57" s="162" t="s">
         <v>380</v>
       </c>
-      <c r="M53" s="245" t="s">
-        <v>381</v>
-      </c>
-      <c r="N53" s="245" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="241"/>
-      <c r="C54" s="245">
-        <f>+Q39+1</f>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="305"/>
+      <c r="C58" s="163">
         <v>2020</v>
       </c>
-      <c r="D54" s="245">
-        <f t="shared" ref="D54" si="24">+C54+1</f>
+      <c r="D58" s="162">
+        <f>+C58+1</f>
         <v>2021</v>
       </c>
-      <c r="E54" s="245">
-        <f t="shared" ref="E54" si="25">+D54+1</f>
+      <c r="E58" s="162">
+        <f t="shared" ref="E58" si="37">+D58+1</f>
         <v>2022</v>
       </c>
-      <c r="F54" s="245">
-        <f t="shared" ref="F54" si="26">+E54+1</f>
+      <c r="F58" s="162">
+        <f t="shared" ref="F58" si="38">+E58+1</f>
         <v>2023</v>
       </c>
-      <c r="G54" s="245">
-        <f t="shared" ref="G54" si="27">+F54+1</f>
+      <c r="G58" s="162">
+        <f t="shared" ref="G58" si="39">+F58+1</f>
         <v>2024</v>
       </c>
-      <c r="H54" s="245">
-        <f t="shared" ref="H54" si="28">+G54+1</f>
+      <c r="H58" s="162">
+        <f t="shared" ref="H58" si="40">+G58+1</f>
         <v>2025</v>
       </c>
-      <c r="I54" s="245">
-        <f t="shared" ref="I54" si="29">+H54+1</f>
+      <c r="I58" s="162">
+        <f t="shared" ref="I58" si="41">+H58+1</f>
         <v>2026</v>
       </c>
-      <c r="J54" s="245">
-        <f t="shared" ref="J54" si="30">+I54+1</f>
+      <c r="J58" s="162">
+        <f t="shared" ref="J58" si="42">+I58+1</f>
         <v>2027</v>
       </c>
-      <c r="K54" s="245">
-        <f t="shared" ref="K54" si="31">+J54+1</f>
+      <c r="K58" s="162">
+        <f t="shared" ref="K58" si="43">+J58+1</f>
         <v>2028</v>
       </c>
-      <c r="L54" s="245">
-        <f t="shared" ref="L54" si="32">+K54+1</f>
+      <c r="L58" s="162">
+        <f t="shared" ref="L58" si="44">+K58+1</f>
         <v>2029</v>
       </c>
-      <c r="M54" s="245">
-        <f t="shared" ref="M54" si="33">+L54+1</f>
+      <c r="M58" s="162">
+        <f t="shared" ref="M58" si="45">+L58+1</f>
         <v>2030</v>
       </c>
-      <c r="N54" s="245">
-        <f t="shared" ref="N54" si="34">+M54+1</f>
+      <c r="N58" s="162">
+        <f t="shared" ref="N58" si="46">+M58+1</f>
         <v>2031</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="242" t="s">
-        <v>371</v>
-      </c>
-      <c r="C55" s="49">
-        <f>Q40*($C$42+1)</f>
-        <v>31.528534444198208</v>
-      </c>
-      <c r="D55" s="49">
-        <f>C55*($C$42+1)</f>
-        <v>31.056231617953284</v>
-      </c>
-      <c r="E55" s="49">
-        <f>D55*($C$42+1)</f>
-        <v>30.591003968642884</v>
-      </c>
-      <c r="F55" s="49">
-        <f>E55*($C$42+1)</f>
-        <v>30.132745508909167</v>
-      </c>
-      <c r="G55" s="49">
-        <f>F55*($C$42+1)</f>
-        <v>29.681351839102998</v>
-      </c>
-      <c r="H55" s="49">
-        <f>G55*($C$42+1)</f>
-        <v>29.236720123499801</v>
-      </c>
-      <c r="I55" s="49">
-        <f>H55*($C$42+1)</f>
-        <v>28.798749066871704</v>
-      </c>
-      <c r="J55" s="49">
-        <f>I55*($C$42+1)</f>
-        <v>28.367338891410636</v>
-      </c>
-      <c r="K55" s="49">
-        <f>J55*($C$42+1)</f>
-        <v>27.942391313997113</v>
-      </c>
-      <c r="L55" s="49">
-        <f>K55*($C$42+1)</f>
-        <v>27.523809523809557</v>
-      </c>
-      <c r="M55" s="49">
-        <f>L55*($C$42+1)</f>
-        <v>27.111498160269019</v>
-      </c>
-      <c r="N55" s="49">
-        <f>M55*($C$42+1)</f>
-        <v>26.705363291314288</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="236" t="s">
-        <v>383</v>
-      </c>
-      <c r="C58" s="246" t="s">
-        <v>372</v>
-      </c>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248" t="s">
-        <v>373</v>
-      </c>
-      <c r="F58" s="248" t="s">
-        <v>374</v>
-      </c>
-      <c r="G58" s="248" t="s">
-        <v>375</v>
-      </c>
-      <c r="H58" s="248" t="s">
-        <v>376</v>
-      </c>
-      <c r="I58" s="248" t="s">
-        <v>377</v>
-      </c>
-      <c r="J58" s="248" t="s">
-        <v>378</v>
-      </c>
-      <c r="K58" s="248" t="s">
-        <v>379</v>
-      </c>
-      <c r="L58" s="248" t="s">
-        <v>380</v>
-      </c>
-      <c r="M58" s="248" t="s">
-        <v>381</v>
-      </c>
-      <c r="N58" s="248" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="236"/>
-      <c r="C59" s="249">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="159" t="s">
+        <v>369</v>
+      </c>
+      <c r="C59" s="49">
+        <f>+H45</f>
+        <v>55</v>
+      </c>
+      <c r="D59" s="49">
+        <f t="shared" ref="D59:N59" si="47">C59*($C$47+1)</f>
+        <v>59.935924705237461</v>
+      </c>
+      <c r="E59" s="49">
+        <f t="shared" si="47"/>
+        <v>65.314819459488987</v>
+      </c>
+      <c r="F59" s="49">
+        <f t="shared" si="47"/>
+        <v>71.17643820472928</v>
+      </c>
+      <c r="G59" s="49">
+        <f t="shared" si="47"/>
+        <v>77.564102564102569</v>
+      </c>
+      <c r="H59" s="49">
+        <f t="shared" si="47"/>
+        <v>84.525022020206677</v>
+      </c>
+      <c r="I59" s="49">
+        <f>H59*($C$47+1)</f>
+        <v>92.110642827484469</v>
+      </c>
+      <c r="J59" s="49">
+        <f t="shared" si="47"/>
+        <v>100.37702823743872</v>
+      </c>
+      <c r="K59" s="49">
+        <f t="shared" si="47"/>
+        <v>109.3852728468113</v>
+      </c>
+      <c r="L59" s="49">
+        <f t="shared" si="47"/>
+        <v>119.20195413106069</v>
+      </c>
+      <c r="M59" s="49">
+        <f t="shared" si="47"/>
+        <v>129.89962450029859</v>
+      </c>
+      <c r="N59" s="49">
+        <f t="shared" si="47"/>
+        <v>141.55734751433664</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="307" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="301"/>
+      <c r="D61" s="301"/>
+      <c r="E61" s="301"/>
+      <c r="F61" s="301"/>
+      <c r="G61" s="301"/>
+      <c r="H61" s="301"/>
+      <c r="I61" s="301"/>
+      <c r="J61" s="301"/>
+      <c r="K61" s="301"/>
+      <c r="L61" s="301"/>
+      <c r="M61" s="301"/>
+      <c r="N61" s="302"/>
+    </row>
+    <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="308" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="188"/>
+      <c r="E62" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="158" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="158" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" s="158" t="s">
+        <v>248</v>
+      </c>
+      <c r="I62" s="158" t="s">
+        <v>249</v>
+      </c>
+      <c r="J62" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="K62" s="158" t="s">
+        <v>251</v>
+      </c>
+      <c r="L62" s="158" t="s">
+        <v>252</v>
+      </c>
+      <c r="M62" s="158" t="s">
+        <v>253</v>
+      </c>
+      <c r="N62" s="158" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="309"/>
+      <c r="C63" s="165">
         <v>2020</v>
       </c>
-      <c r="D59" s="248">
-        <f>+C59+1</f>
+      <c r="D63" s="165">
+        <f>+C63+1</f>
         <v>2021</v>
       </c>
-      <c r="E59" s="248">
-        <f t="shared" ref="E59" si="35">+D59+1</f>
+      <c r="E63" s="165">
+        <f t="shared" ref="E63" si="48">+D63+1</f>
         <v>2022</v>
       </c>
-      <c r="F59" s="248">
-        <f t="shared" ref="F59" si="36">+E59+1</f>
+      <c r="F63" s="165">
+        <f t="shared" ref="F63" si="49">+E63+1</f>
         <v>2023</v>
       </c>
-      <c r="G59" s="248">
-        <f t="shared" ref="G59" si="37">+F59+1</f>
+      <c r="G63" s="165">
+        <f t="shared" ref="G63" si="50">+F63+1</f>
         <v>2024</v>
       </c>
-      <c r="H59" s="248">
-        <f t="shared" ref="H59" si="38">+G59+1</f>
+      <c r="H63" s="165">
+        <f t="shared" ref="H63" si="51">+G63+1</f>
         <v>2025</v>
       </c>
-      <c r="I59" s="248">
-        <f t="shared" ref="I59" si="39">+H59+1</f>
+      <c r="I63" s="165">
+        <f t="shared" ref="I63" si="52">+H63+1</f>
         <v>2026</v>
       </c>
-      <c r="J59" s="248">
-        <f t="shared" ref="J59" si="40">+I59+1</f>
+      <c r="J63" s="165">
+        <f t="shared" ref="J63" si="53">+I63+1</f>
         <v>2027</v>
       </c>
-      <c r="K59" s="248">
-        <f t="shared" ref="K59" si="41">+J59+1</f>
+      <c r="K63" s="165">
+        <f t="shared" ref="K63" si="54">+J63+1</f>
         <v>2028</v>
       </c>
-      <c r="L59" s="248">
-        <f t="shared" ref="L59" si="42">+K59+1</f>
+      <c r="L63" s="165">
+        <f t="shared" ref="L63" si="55">+K63+1</f>
         <v>2029</v>
       </c>
-      <c r="M59" s="248">
-        <f t="shared" ref="M59" si="43">+L59+1</f>
+      <c r="M63" s="165">
+        <f t="shared" ref="M63" si="56">+L63+1</f>
         <v>2030</v>
       </c>
-      <c r="N59" s="248">
-        <f t="shared" ref="N59" si="44">+M59+1</f>
+      <c r="N63" s="165">
+        <f t="shared" ref="N63" si="57">+M63+1</f>
         <v>2031</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="237" t="s">
-        <v>371</v>
-      </c>
-      <c r="C60" s="49">
-        <f>+H46</f>
-        <v>55</v>
-      </c>
-      <c r="D60" s="49">
-        <f>C60*($C$48+1)</f>
-        <v>60.916148878655953</v>
-      </c>
-      <c r="E60" s="49">
-        <f>D60*($C$48+1)</f>
-        <v>67.4686762583014</v>
-      </c>
-      <c r="F60" s="49">
-        <f>E60*($C$48+1)</f>
-        <v>74.726035047209606</v>
-      </c>
-      <c r="G60" s="49">
-        <f>F60*($C$48+1)</f>
-        <v>82.764041382681512</v>
-      </c>
-      <c r="H60" s="49">
-        <f>G60*($C$48+1)</f>
-        <v>91.666666666666714</v>
-      </c>
-      <c r="I60" s="49">
-        <f>H60*($C$48+1)</f>
-        <v>101.52691479775997</v>
-      </c>
-      <c r="J60" s="49">
-        <f>I60*($C$48+1)</f>
-        <v>112.44779376383572</v>
-      </c>
-      <c r="K60" s="49">
-        <f>J60*($C$48+1)</f>
-        <v>124.5433917453494</v>
-      </c>
-      <c r="L60" s="49">
-        <f>K60*($C$48+1)</f>
-        <v>137.9400689711359</v>
-      </c>
-      <c r="M60" s="49">
-        <f>L60*($C$48+1)</f>
-        <v>152.77777777777791</v>
-      </c>
-      <c r="N60" s="49">
-        <f>M60*($C$48+1)</f>
-        <v>169.21152466293336</v>
+    <row r="64" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="310"/>
+      <c r="C64" s="306">
+        <f>+C54+C59</f>
+        <v>86.528534444198215</v>
+      </c>
+      <c r="D64" s="306">
+        <f>+D54+D59</f>
+        <v>90.992156323190741</v>
+      </c>
+      <c r="E64" s="306">
+        <f>+E54+E59</f>
+        <v>95.905823428131868</v>
+      </c>
+      <c r="F64" s="306">
+        <f>+F54+F59</f>
+        <v>101.30918371363845</v>
+      </c>
+      <c r="G64" s="306">
+        <f>+G54+G59</f>
+        <v>107.24545440320557</v>
+      </c>
+      <c r="H64" s="306">
+        <f>+H54+H59</f>
+        <v>113.76174214370647</v>
+      </c>
+      <c r="I64" s="306">
+        <f>+I54+I59</f>
+        <v>120.90939189435618</v>
+      </c>
+      <c r="J64" s="306">
+        <f>+J54+J59</f>
+        <v>128.74436712884935</v>
+      </c>
+      <c r="K64" s="306">
+        <f>+K54+K59</f>
+        <v>137.32766416080841</v>
+      </c>
+      <c r="L64" s="306">
+        <f>+L54+L59</f>
+        <v>146.72576365487024</v>
+      </c>
+      <c r="M64" s="306">
+        <f>+M54+M59</f>
+        <v>157.01112266056759</v>
+      </c>
+      <c r="N64" s="306">
+        <f>+N54+N59</f>
+        <v>168.26271080565093</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C28:R28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C42:M42"/>
+  <mergeCells count="18">
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B61:N61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="B34:Q35"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B51:N51"/>
+    <mergeCell ref="B56:N56"/>
+    <mergeCell ref="C27:R27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C47:H47"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14235,52 +14616,427 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A458A3-5EF2-4FA8-9CDF-DA2FA9E33C01}">
-  <dimension ref="A1:E545"/>
+  <dimension ref="B13:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="M628" sqref="M628"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="269"/>
+    <col min="2" max="2" width="15.85546875" style="269" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="269"/>
+    <col min="6" max="6" width="13.85546875" style="269" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="269"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="257" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="259"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="260" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
+      <c r="F14" s="262"/>
+    </row>
+    <row r="15" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="266" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="263">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="264">
+        <f>+'Pobl. Ingresante Total'!D29</f>
+        <v>20</v>
+      </c>
+      <c r="E15" s="264">
+        <f>+'matriculados Ind. Aprob.'!C5</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="267">
+        <f>E15/D15</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="157" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="C16" s="263">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="264">
+        <f>+'Pobl. Ingresante Total'!I31</f>
+        <v>20</v>
+      </c>
+      <c r="E16" s="265">
+        <f>+'matriculados Ind. Aprob.'!M27</f>
+        <v>16</v>
+      </c>
+      <c r="F16" s="268">
+        <f>E16/D16</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="270" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="F17" s="272"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="158" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="158" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="158" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="158" t="s">
+        <v>249</v>
+      </c>
+      <c r="J20" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="158" t="s">
+        <v>251</v>
+      </c>
+      <c r="L20" s="158" t="s">
+        <v>252</v>
+      </c>
+      <c r="M20" s="158" t="s">
+        <v>253</v>
+      </c>
+      <c r="N20" s="158" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="166"/>
+      <c r="C21" s="165">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="165">
+        <f>+C21+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E21" s="165">
+        <f t="shared" ref="E21:N21" si="0">+D21+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F21" s="165">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="G21" s="165">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="H21" s="165">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="I21" s="165">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="J21" s="165">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="K21" s="165">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="L21" s="165">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="M21" s="165">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="N21" s="165">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="175" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C544" t="s">
+      <c r="C22" s="49">
+        <f>'Pobl. Referencia'!C54*'Pobl. Potencial'!$F$15</f>
+        <v>23.646400833148654</v>
+      </c>
+      <c r="D22" s="49">
+        <f>'Pobl. Referencia'!D54*'Pobl. Potencial'!$F$15</f>
+        <v>23.292173713464962</v>
+      </c>
+      <c r="E22" s="49">
+        <f>'Pobl. Referencia'!E54*'Pobl. Potencial'!$F$15</f>
+        <v>22.943252976482164</v>
+      </c>
+      <c r="F22" s="49">
+        <f>'Pobl. Referencia'!F54*'Pobl. Potencial'!$F$15</f>
+        <v>22.599559131681875</v>
+      </c>
+      <c r="G22" s="49">
+        <f>'Pobl. Referencia'!G54*'Pobl. Potencial'!$F$15</f>
+        <v>22.261013879327248</v>
+      </c>
+      <c r="H22" s="49">
+        <f>'Pobl. Referencia'!H54*'Pobl. Potencial'!$F$15</f>
+        <v>21.927540092624852</v>
+      </c>
+      <c r="I22" s="49">
+        <f>'Pobl. Referencia'!I54*'Pobl. Potencial'!$F$15</f>
+        <v>21.599061800153777</v>
+      </c>
+      <c r="J22" s="49">
+        <f>'Pobl. Referencia'!J54*'Pobl. Potencial'!$F$15</f>
+        <v>21.275504168557976</v>
+      </c>
+      <c r="K22" s="49">
+        <f>'Pobl. Referencia'!K54*'Pobl. Potencial'!$F$15</f>
+        <v>20.956793485497833</v>
+      </c>
+      <c r="L22" s="49">
+        <f>'Pobl. Referencia'!L54*'Pobl. Potencial'!$F$15</f>
+        <v>20.642857142857167</v>
+      </c>
+      <c r="M22" s="49">
+        <f>'Pobl. Referencia'!M54*'Pobl. Potencial'!$F$15</f>
+        <v>20.333623620201763</v>
+      </c>
+      <c r="N22" s="49">
+        <f>'Pobl. Referencia'!N54*'Pobl. Potencial'!$F$15</f>
+        <v>20.029022468485717</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="158" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="158" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="158" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="158" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="158" t="s">
+        <v>251</v>
+      </c>
+      <c r="L24" s="158" t="s">
+        <v>252</v>
+      </c>
+      <c r="M24" s="158" t="s">
+        <v>253</v>
+      </c>
+      <c r="N24" s="158" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="166"/>
+      <c r="C25" s="165">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="165">
+        <f>+C25+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E25" s="165">
+        <f t="shared" ref="E25" si="1">+D25+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F25" s="165">
+        <f t="shared" ref="F25" si="2">+E25+1</f>
+        <v>2023</v>
+      </c>
+      <c r="G25" s="165">
+        <f t="shared" ref="G25" si="3">+F25+1</f>
+        <v>2024</v>
+      </c>
+      <c r="H25" s="165">
+        <f t="shared" ref="H25" si="4">+G25+1</f>
+        <v>2025</v>
+      </c>
+      <c r="I25" s="165">
+        <f t="shared" ref="I25" si="5">+H25+1</f>
+        <v>2026</v>
+      </c>
+      <c r="J25" s="165">
+        <f t="shared" ref="J25" si="6">+I25+1</f>
+        <v>2027</v>
+      </c>
+      <c r="K25" s="165">
+        <f t="shared" ref="K25" si="7">+J25+1</f>
+        <v>2028</v>
+      </c>
+      <c r="L25" s="165">
+        <f t="shared" ref="L25" si="8">+K25+1</f>
+        <v>2029</v>
+      </c>
+      <c r="M25" s="165">
+        <f t="shared" ref="M25" si="9">+L25+1</f>
+        <v>2030</v>
+      </c>
+      <c r="N25" s="165">
+        <f t="shared" ref="N25" si="10">+M25+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="175" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C545" t="s">
-        <v>393</v>
-      </c>
-      <c r="E545" t="s">
-        <v>394</v>
+      <c r="C26" s="49">
+        <f>'Pobl. Referencia'!C59*'Pobl. Potencial'!$F$16</f>
+        <v>44</v>
+      </c>
+      <c r="D26" s="49">
+        <f>'Pobl. Referencia'!D59*'Pobl. Potencial'!$F$16</f>
+        <v>47.948739764189973</v>
+      </c>
+      <c r="E26" s="49">
+        <f>'Pobl. Referencia'!E59*'Pobl. Potencial'!$F$16</f>
+        <v>52.251855567591193</v>
+      </c>
+      <c r="F26" s="49">
+        <f>'Pobl. Referencia'!F59*'Pobl. Potencial'!$F$16</f>
+        <v>56.941150563783424</v>
+      </c>
+      <c r="G26" s="49">
+        <f>'Pobl. Referencia'!G59*'Pobl. Potencial'!$F$16</f>
+        <v>62.051282051282058</v>
+      </c>
+      <c r="H26" s="49">
+        <f>'Pobl. Referencia'!H59*'Pobl. Potencial'!$F$16</f>
+        <v>67.620017616165342</v>
+      </c>
+      <c r="I26" s="49">
+        <f>'Pobl. Referencia'!I59*'Pobl. Potencial'!$F$16</f>
+        <v>73.688514261987578</v>
+      </c>
+      <c r="J26" s="49">
+        <f>'Pobl. Referencia'!J59*'Pobl. Potencial'!$F$16</f>
+        <v>80.301622589950981</v>
+      </c>
+      <c r="K26" s="49">
+        <f>'Pobl. Referencia'!K59*'Pobl. Potencial'!$F$16</f>
+        <v>87.508218277449046</v>
+      </c>
+      <c r="L26" s="49">
+        <f>'Pobl. Referencia'!L59*'Pobl. Potencial'!$F$16</f>
+        <v>95.361563304848559</v>
+      </c>
+      <c r="M26" s="49">
+        <f>'Pobl. Referencia'!M59*'Pobl. Potencial'!$F$16</f>
+        <v>103.91969960023887</v>
+      </c>
+      <c r="N26" s="49">
+        <f>'Pobl. Referencia'!N59*'Pobl. Potencial'!$F$16</f>
+        <v>113.24587801146932</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="271"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C28" s="7">
+        <f>+C22+C26</f>
+        <v>67.646400833148647</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:N28" si="11">+D22+D26</f>
+        <v>71.240913477654942</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="11"/>
+        <v>75.195108544073349</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="11"/>
+        <v>79.540709695465296</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="11"/>
+        <v>84.312295930609309</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="11"/>
+        <v>89.547557708790194</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="11"/>
+        <v>95.287576062141355</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="11"/>
+        <v>101.57712675850895</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="11"/>
+        <v>108.46501176294689</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="11"/>
+        <v>116.00442044770573</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="11"/>
+        <v>124.25332322044063</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="11"/>
+        <v>133.27490047995502</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C24:D24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC06DD-CFF3-46C3-B6E3-76181E7E4AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BB9F5-6DDF-4383-9A9D-785CD9BFCB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Pobl. área de Influencia" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Pobl. Referencia" sheetId="4" r:id="rId3"/>
     <sheet name="Pobl. Potencial" sheetId="5" r:id="rId4"/>
     <sheet name="matriculados Ind. Aprob." sheetId="3" r:id="rId5"/>
+    <sheet name="Pobl. Efectiva SP." sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -1278,6 +1279,42 @@
   <si>
     <t>SE TIENE REFERENCIA QUE HASTA EL AÑO 2015 EL NUMERO DE POSTULANTES ERA PARA LA CARRERA DE INDUSTRIAS ALIMENTARIAS POR SER LA UNICA CARRERA QUE BRINDABA LA IESTP ALFREDO SARMIENTO PALOMINO, A PARTIR DEL AÑO 2016 LA CARRERA QUE BRINDO EL SERVICIO EDUCATIVO FUE LA CARRERA DE CONSTRUCCIÓN CIVIL, POR LO QUE SE UTILIZARA UNA SOLA TASA EN TODO EL HORIZONTE, PERO CON POBLACIÓN HISTORICA POR SEPARADO PARA CADA CARRERA.</t>
   </si>
+  <si>
+    <t>Postulantes que dirigen al ISP</t>
+  </si>
+  <si>
+    <t>Ratio de Ingresantes/Postulantes prom. CONSTRUCCIÓN CIVIL</t>
+  </si>
+  <si>
+    <t>Ratio de Ingresantes/Postulantes prom. INDUSTRIAS ALIMENTARIAS</t>
+  </si>
+  <si>
+    <t>AÑOS</t>
+  </si>
+  <si>
+    <t>PERIODO 0</t>
+  </si>
+  <si>
+    <t>Ingresantes a INDUSTRIAS ALIMENTARIAS</t>
+  </si>
+  <si>
+    <t>Ingresantes a CONSTRUCCIÓN CIVIL</t>
+  </si>
+  <si>
+    <t>Población Demandante Efectiva SIN PROYECTO de la Carrera de INDUSTRIAS ALIMENTARIAS</t>
+  </si>
+  <si>
+    <t>CICLOS ACADEMICOS</t>
+  </si>
+  <si>
+    <t>TOTAL Ciclo impar I,III y V</t>
+  </si>
+  <si>
+    <t>CICLOS</t>
+  </si>
+  <si>
+    <t>RATIOS</t>
+  </si>
 </sst>
 </file>
 
@@ -1288,7 +1325,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,6 +1579,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -2307,7 +2357,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2887,37 +2937,313 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2947,295 +3273,76 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6086,7 +6193,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="242" t="s">
+      <c r="K2" s="207" t="s">
         <v>209</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -6097,7 +6204,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K3" s="242"/>
+      <c r="K3" s="207"/>
       <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
@@ -6109,7 +6216,7 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="242"/>
+      <c r="K4" s="207"/>
       <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
@@ -6134,7 +6241,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="242"/>
+      <c r="K5" s="207"/>
       <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
@@ -6151,7 +6258,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="242"/>
+      <c r="K6" s="207"/>
       <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
@@ -6220,7 +6327,7 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="245" t="s">
+      <c r="K8" s="210" t="s">
         <v>218</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -6255,7 +6362,7 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="245"/>
+      <c r="K9" s="210"/>
       <c r="L9" s="25">
         <v>1</v>
       </c>
@@ -6288,7 +6395,7 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="245"/>
+      <c r="K10" s="210"/>
       <c r="L10" s="25">
         <v>2</v>
       </c>
@@ -6321,7 +6428,7 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="245"/>
+      <c r="K11" s="210"/>
       <c r="L11" s="25">
         <v>3</v>
       </c>
@@ -6354,7 +6461,7 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="245"/>
+      <c r="K12" s="210"/>
       <c r="L12" s="25">
         <v>4</v>
       </c>
@@ -6387,7 +6494,7 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="245"/>
+      <c r="K13" s="210"/>
       <c r="L13" s="25">
         <v>5</v>
       </c>
@@ -6420,7 +6527,7 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="245"/>
+      <c r="K14" s="210"/>
       <c r="L14" s="25">
         <v>6</v>
       </c>
@@ -6453,7 +6560,7 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="245"/>
+      <c r="K15" s="210"/>
       <c r="L15" s="25">
         <v>7</v>
       </c>
@@ -6486,7 +6593,7 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="245"/>
+      <c r="K16" s="210"/>
       <c r="L16" s="25">
         <v>8</v>
       </c>
@@ -6519,7 +6626,7 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="245"/>
+      <c r="K17" s="210"/>
       <c r="L17" s="25">
         <v>9</v>
       </c>
@@ -6552,7 +6659,7 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="245"/>
+      <c r="K18" s="210"/>
       <c r="L18" s="25">
         <v>10</v>
       </c>
@@ -6585,7 +6692,7 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="245"/>
+      <c r="K19" s="210"/>
       <c r="L19" s="25">
         <v>11</v>
       </c>
@@ -6618,7 +6725,7 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="245"/>
+      <c r="K20" s="210"/>
       <c r="L20" s="25">
         <v>12</v>
       </c>
@@ -6651,7 +6758,7 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="245"/>
+      <c r="K21" s="210"/>
       <c r="L21" s="25">
         <v>13</v>
       </c>
@@ -6684,7 +6791,7 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="245"/>
+      <c r="K22" s="210"/>
       <c r="L22" s="25">
         <v>14</v>
       </c>
@@ -6717,7 +6824,7 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="245"/>
+      <c r="K23" s="210"/>
       <c r="L23" s="25">
         <v>15</v>
       </c>
@@ -6750,7 +6857,7 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="245"/>
+      <c r="K24" s="210"/>
       <c r="L24" s="25">
         <v>16</v>
       </c>
@@ -6783,7 +6890,7 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="245"/>
+      <c r="K25" s="210"/>
       <c r="L25" s="25">
         <v>17</v>
       </c>
@@ -6816,7 +6923,7 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="245"/>
+      <c r="K26" s="210"/>
       <c r="L26" s="25">
         <v>18</v>
       </c>
@@ -6849,7 +6956,7 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="245"/>
+      <c r="K27" s="210"/>
       <c r="L27" s="25">
         <v>19</v>
       </c>
@@ -6882,7 +6989,7 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="246" t="s">
+      <c r="K28" s="211" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="26" t="s">
@@ -6917,7 +7024,7 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="246"/>
+      <c r="K29" s="211"/>
       <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
@@ -6950,7 +7057,7 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="246"/>
+      <c r="K30" s="211"/>
       <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
@@ -6983,7 +7090,7 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="246"/>
+      <c r="K31" s="211"/>
       <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
@@ -7016,7 +7123,7 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="246"/>
+      <c r="K32" s="211"/>
       <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
@@ -7049,7 +7156,7 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="246"/>
+      <c r="K33" s="211"/>
       <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
@@ -7082,7 +7189,7 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="246"/>
+      <c r="K34" s="211"/>
       <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
@@ -7115,7 +7222,7 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="246"/>
+      <c r="K35" s="211"/>
       <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
@@ -7148,7 +7255,7 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="246"/>
+      <c r="K36" s="211"/>
       <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
@@ -7181,7 +7288,7 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="246"/>
+      <c r="K37" s="211"/>
       <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
@@ -7214,7 +7321,7 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="246"/>
+      <c r="K38" s="211"/>
       <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
@@ -7247,7 +7354,7 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="246"/>
+      <c r="K39" s="211"/>
       <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
@@ -7280,7 +7387,7 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="246"/>
+      <c r="K40" s="211"/>
       <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
@@ -9004,13 +9111,13 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="243" t="s">
+      <c r="A107" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="244"/>
-      <c r="C107" s="244"/>
-      <c r="D107" s="244"/>
-      <c r="E107" s="244"/>
+      <c r="B107" s="209"/>
+      <c r="C107" s="209"/>
+      <c r="D107" s="209"/>
+      <c r="E107" s="209"/>
       <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
@@ -9025,31 +9132,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="243" t="s">
+      <c r="A108" s="208" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="244"/>
-      <c r="C108" s="244"/>
-      <c r="D108" s="244"/>
-      <c r="E108" s="244"/>
+      <c r="B108" s="209"/>
+      <c r="C108" s="209"/>
+      <c r="D108" s="209"/>
+      <c r="E108" s="209"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F109" s="243" t="s">
+      <c r="F109" s="208" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="244"/>
-      <c r="H109" s="244"/>
-      <c r="I109" s="244"/>
-      <c r="J109" s="244"/>
+      <c r="G109" s="209"/>
+      <c r="H109" s="209"/>
+      <c r="I109" s="209"/>
+      <c r="J109" s="209"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F110" s="243" t="s">
+      <c r="F110" s="208" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="244"/>
-      <c r="H110" s="244"/>
-      <c r="I110" s="244"/>
-      <c r="J110" s="244"/>
+      <c r="G110" s="209"/>
+      <c r="H110" s="209"/>
+      <c r="I110" s="209"/>
+      <c r="J110" s="209"/>
     </row>
     <row r="114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
@@ -9091,27 +9198,27 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="247" t="s">
+      <c r="A117" s="199" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="252" t="s">
+      <c r="B117" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="253"/>
-      <c r="D117" s="253"/>
-      <c r="E117" s="253"/>
-      <c r="F117" s="253"/>
-      <c r="G117" s="253"/>
-      <c r="H117" s="253"/>
-      <c r="I117" s="253"/>
-      <c r="J117" s="253"/>
-      <c r="K117" s="253"/>
-      <c r="L117" s="253"/>
-      <c r="M117" s="253"/>
-      <c r="N117" s="254"/>
+      <c r="C117" s="205"/>
+      <c r="D117" s="205"/>
+      <c r="E117" s="205"/>
+      <c r="F117" s="205"/>
+      <c r="G117" s="205"/>
+      <c r="H117" s="205"/>
+      <c r="I117" s="205"/>
+      <c r="J117" s="205"/>
+      <c r="K117" s="205"/>
+      <c r="L117" s="205"/>
+      <c r="M117" s="205"/>
+      <c r="N117" s="206"/>
     </row>
     <row r="118" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="247"/>
+      <c r="A118" s="199"/>
       <c r="B118" s="53">
         <v>2019</v>
       </c>
@@ -9165,12 +9272,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="247"/>
-      <c r="B119" s="249" t="s">
+      <c r="A119" s="199"/>
+      <c r="B119" s="201" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="250"/>
-      <c r="D119" s="251"/>
+      <c r="C119" s="202"/>
+      <c r="D119" s="203"/>
       <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
@@ -9298,7 +9405,7 @@
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="248">
+      <c r="C126" s="200">
         <v>0.32675410103003655</v>
       </c>
       <c r="D126" s="49">
@@ -9311,7 +9418,7 @@
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="248">
+      <c r="H126" s="200">
         <v>0.32475247524752476</v>
       </c>
       <c r="I126" s="49">
@@ -9326,7 +9433,7 @@
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="248"/>
+      <c r="C127" s="200"/>
       <c r="D127" s="49">
         <f t="shared" ref="D127:D135" si="2">B127*$C$126</f>
         <v>118.61173867390326</v>
@@ -9337,7 +9444,7 @@
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="248"/>
+      <c r="H127" s="200"/>
       <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
@@ -9350,7 +9457,7 @@
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="248"/>
+      <c r="C128" s="200"/>
       <c r="D128" s="49">
         <f t="shared" si="2"/>
         <v>92.144656490470311</v>
@@ -9374,7 +9481,7 @@
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="248"/>
+      <c r="C129" s="200"/>
       <c r="D129" s="49">
         <f t="shared" si="2"/>
         <v>77.767476045148697</v>
@@ -9387,7 +9494,7 @@
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="248"/>
+      <c r="C130" s="200"/>
       <c r="D130" s="49">
         <f t="shared" si="2"/>
         <v>32.675410103003657</v>
@@ -9400,7 +9507,7 @@
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="248"/>
+      <c r="C131" s="200"/>
       <c r="D131" s="49">
         <f t="shared" si="2"/>
         <v>41.824524931844678</v>
@@ -9413,7 +9520,7 @@
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="248"/>
+      <c r="C132" s="200"/>
       <c r="D132" s="49">
         <f t="shared" si="2"/>
         <v>75.480197337938449</v>
@@ -9426,7 +9533,7 @@
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="248"/>
+      <c r="C133" s="200"/>
       <c r="D133" s="49">
         <f t="shared" si="2"/>
         <v>79.401246550298879</v>
@@ -9439,7 +9546,7 @@
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="248"/>
+      <c r="C134" s="200"/>
       <c r="D134" s="49">
         <f t="shared" si="2"/>
         <v>6.8618361216307679</v>
@@ -9452,7 +9559,7 @@
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="248"/>
+      <c r="C135" s="200"/>
       <c r="D135" s="49">
         <f t="shared" si="2"/>
         <v>41.171016729784604</v>
@@ -9490,11 +9597,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -9502,6 +9604,11 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9731,27 +9838,27 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="212" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="255"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="255"/>
-      <c r="N12" s="255"/>
-      <c r="O12" s="255"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="255"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
     </row>
     <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="213" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="59">
@@ -9801,7 +9908,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="257"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
@@ -10283,20 +10390,20 @@
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="K28" s="262" t="s">
+      <c r="K28" s="219" t="s">
         <v>362</v>
       </c>
-      <c r="L28" s="263"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="264"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="221"/>
       <c r="P28" s="141"/>
       <c r="Q28" s="141"/>
       <c r="R28" s="141"/>
       <c r="S28" s="141"/>
     </row>
     <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="258" t="s">
+      <c r="B29" s="215" t="s">
         <v>336</v>
       </c>
       <c r="C29" s="150" t="s">
@@ -10333,7 +10440,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="259"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="150" t="s">
         <v>334</v>
       </c>
@@ -10362,7 +10469,7 @@
       <c r="O30" s="145"/>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="260" t="s">
+      <c r="B31" s="217" t="s">
         <v>335</v>
       </c>
       <c r="C31" s="149" t="s">
@@ -10405,7 +10512,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="261"/>
+      <c r="B32" s="218"/>
       <c r="C32" s="149" t="s">
         <v>334</v>
       </c>
@@ -10503,8 +10610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7CF57-8EE0-43FD-AF13-2469FC1B265B}">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -10519,25 +10626,25 @@
     </row>
     <row r="25" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="292" t="s">
+      <c r="B26" s="229" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="293"/>
-      <c r="D26" s="293"/>
-      <c r="E26" s="293"/>
-      <c r="F26" s="293"/>
-      <c r="G26" s="293"/>
-      <c r="H26" s="293"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="293"/>
-      <c r="K26" s="293"/>
-      <c r="L26" s="293"/>
-      <c r="M26" s="293"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="293"/>
-      <c r="Q26" s="293"/>
-      <c r="R26" s="294"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
+      <c r="R26" s="231"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="173" t="s">
@@ -10651,7 +10758,7 @@
         <f>+'Pobl. Ingresante Total'!L14</f>
         <v>37</v>
       </c>
-      <c r="M28" s="311">
+      <c r="M28" s="198">
         <f>+'Pobl. Ingresante Total'!M14</f>
         <v>33</v>
       </c>
@@ -10743,25 +10850,25 @@
       <c r="B30" s="169" t="s">
         <v>363</v>
       </c>
-      <c r="C30" s="289">
+      <c r="C30" s="225">
         <f>((((G29+1)*(H29+1)*(I29+1)*(J29+1)*(K29+1)*(L29+1)*(M29+1)*(N29+1)*(O29+1)*(P29+1)*(Q29+1)*(R29+1))^(1/12))-1)</f>
         <v>3.1770758844814617E-2</v>
       </c>
-      <c r="D30" s="290"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="290"/>
-      <c r="I30" s="290"/>
-      <c r="J30" s="290"/>
-      <c r="K30" s="290"/>
-      <c r="L30" s="290"/>
-      <c r="M30" s="290"/>
-      <c r="N30" s="290"/>
-      <c r="O30" s="290"/>
-      <c r="P30" s="290"/>
-      <c r="Q30" s="290"/>
-      <c r="R30" s="291"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="226"/>
+      <c r="M30" s="226"/>
+      <c r="N30" s="226"/>
+      <c r="O30" s="226"/>
+      <c r="P30" s="226"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="227"/>
     </row>
     <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -10769,10 +10876,10 @@
       </c>
     </row>
     <row r="33" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="231" t="s">
+      <c r="C33" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="231"/>
+      <c r="D33" s="228"/>
       <c r="E33" s="154" t="s">
         <v>245</v>
       </c>
@@ -10909,64 +11016,64 @@
     </row>
     <row r="36" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="277" t="s">
+      <c r="B37" s="242" t="s">
         <v>397</v>
       </c>
-      <c r="C37" s="278"/>
-      <c r="D37" s="278"/>
-      <c r="E37" s="278"/>
-      <c r="F37" s="278"/>
-      <c r="G37" s="278"/>
-      <c r="H37" s="278"/>
-      <c r="I37" s="278"/>
-      <c r="J37" s="278"/>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
-      <c r="M37" s="278"/>
-      <c r="N37" s="278"/>
-      <c r="O37" s="278"/>
-      <c r="P37" s="278"/>
-      <c r="Q37" s="279"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="243"/>
+      <c r="L37" s="243"/>
+      <c r="M37" s="243"/>
+      <c r="N37" s="243"/>
+      <c r="O37" s="243"/>
+      <c r="P37" s="243"/>
+      <c r="Q37" s="244"/>
     </row>
     <row r="38" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="280"/>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
-      <c r="H38" s="281"/>
-      <c r="I38" s="281"/>
-      <c r="J38" s="281"/>
-      <c r="K38" s="281"/>
-      <c r="L38" s="281"/>
-      <c r="M38" s="281"/>
-      <c r="N38" s="281"/>
-      <c r="O38" s="281"/>
-      <c r="P38" s="281"/>
-      <c r="Q38" s="282"/>
+      <c r="B38" s="245"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="246"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="246"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="246"/>
+      <c r="M38" s="246"/>
+      <c r="N38" s="246"/>
+      <c r="O38" s="246"/>
+      <c r="P38" s="246"/>
+      <c r="Q38" s="247"/>
     </row>
     <row r="40" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="283" t="s">
+      <c r="B40" s="248" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="284"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="284"/>
-      <c r="F40" s="284"/>
-      <c r="G40" s="284"/>
-      <c r="H40" s="284"/>
-      <c r="I40" s="284"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="284"/>
-      <c r="L40" s="284"/>
-      <c r="M40" s="284"/>
-      <c r="N40" s="194" t="s">
+      <c r="C40" s="249"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="249"/>
+      <c r="J40" s="249"/>
+      <c r="K40" s="249"/>
+      <c r="L40" s="249"/>
+      <c r="M40" s="249"/>
+      <c r="N40" s="253" t="s">
         <v>394</v>
       </c>
-      <c r="O40" s="194"/>
-      <c r="P40" s="194"/>
-      <c r="Q40" s="194"/>
+      <c r="O40" s="253"/>
+      <c r="P40" s="253"/>
+      <c r="Q40" s="253"/>
     </row>
     <row r="41" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="188" t="s">
@@ -11144,32 +11251,32 @@
       <c r="B44" s="191" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="274">
+      <c r="C44" s="239">
         <f>(((G43+1)*(H43+1)*(I43+1)*(J43+1)*(K43+1)*(L43+1)*(M43+1))^(1/7))-1</f>
         <v>-1.4980170647666657E-2</v>
       </c>
-      <c r="D44" s="275"/>
-      <c r="E44" s="275"/>
-      <c r="F44" s="275"/>
-      <c r="G44" s="275"/>
-      <c r="H44" s="275"/>
-      <c r="I44" s="275"/>
-      <c r="J44" s="275"/>
-      <c r="K44" s="275"/>
-      <c r="L44" s="275"/>
-      <c r="M44" s="276"/>
+      <c r="D44" s="240"/>
+      <c r="E44" s="240"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="240"/>
+      <c r="H44" s="240"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="240"/>
+      <c r="M44" s="241"/>
     </row>
     <row r="45" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:17" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="285" t="s">
+      <c r="B46" s="250" t="s">
         <v>385</v>
       </c>
-      <c r="C46" s="286"/>
-      <c r="D46" s="286"/>
-      <c r="E46" s="286"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="286"/>
-      <c r="H46" s="287"/>
+      <c r="C46" s="251"/>
+      <c r="D46" s="251"/>
+      <c r="E46" s="251"/>
+      <c r="F46" s="251"/>
+      <c r="G46" s="251"/>
+      <c r="H46" s="252"/>
     </row>
     <row r="47" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="190" t="s">
@@ -11252,15 +11359,15 @@
       <c r="B50" s="192" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="299">
+      <c r="C50" s="236">
         <f>((((E49+1)*(F49+1)*(G49+1)*(H49+1))^(1/4))-1)</f>
         <v>8.9744085549771979E-2</v>
       </c>
-      <c r="D50" s="300"/>
-      <c r="E50" s="300"/>
-      <c r="F50" s="300"/>
-      <c r="G50" s="300"/>
-      <c r="H50" s="301"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
+      <c r="G50" s="237"/>
+      <c r="H50" s="238"/>
       <c r="J50" s="164">
         <f>AVERAGE(C44,C50)</f>
         <v>3.7381957451052661E-2</v>
@@ -11268,30 +11375,30 @@
     </row>
     <row r="53" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="288" t="s">
+      <c r="B54" s="222" t="s">
         <v>367</v>
       </c>
-      <c r="C54" s="266"/>
-      <c r="D54" s="266"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="266"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="266"/>
-      <c r="M54" s="266"/>
-      <c r="N54" s="267"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="223"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="223"/>
+      <c r="J54" s="223"/>
+      <c r="K54" s="223"/>
+      <c r="L54" s="223"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="224"/>
     </row>
     <row r="55" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="297" t="s">
+      <c r="B55" s="234" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="295" t="s">
+      <c r="C55" s="232" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="296"/>
+      <c r="D55" s="233"/>
       <c r="E55" s="188" t="s">
         <v>371</v>
       </c>
@@ -11324,7 +11431,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="298"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="161">
         <f>+Q41+1</f>
         <v>2020</v>
@@ -11429,30 +11536,30 @@
     </row>
     <row r="58" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="288" t="s">
+      <c r="B59" s="222" t="s">
         <v>367</v>
       </c>
-      <c r="C59" s="266"/>
-      <c r="D59" s="266"/>
-      <c r="E59" s="266"/>
-      <c r="F59" s="266"/>
-      <c r="G59" s="266"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="266"/>
-      <c r="J59" s="266"/>
-      <c r="K59" s="266"/>
-      <c r="L59" s="266"/>
-      <c r="M59" s="266"/>
-      <c r="N59" s="267"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="223"/>
+      <c r="K59" s="223"/>
+      <c r="L59" s="223"/>
+      <c r="M59" s="223"/>
+      <c r="N59" s="224"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="271" t="s">
+      <c r="B60" s="258" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="272" t="s">
+      <c r="C60" s="259" t="s">
         <v>370</v>
       </c>
-      <c r="D60" s="273"/>
+      <c r="D60" s="260"/>
       <c r="E60" s="162" t="s">
         <v>371</v>
       </c>
@@ -11485,7 +11592,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="271"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="163">
         <v>2020</v>
       </c>
@@ -11589,30 +11696,30 @@
     </row>
     <row r="63" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="265" t="s">
+      <c r="B64" s="254" t="s">
         <v>367</v>
       </c>
-      <c r="C64" s="266"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="266"/>
-      <c r="J64" s="266"/>
-      <c r="K64" s="266"/>
-      <c r="L64" s="266"/>
-      <c r="M64" s="266"/>
-      <c r="N64" s="267"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="223"/>
+      <c r="E64" s="223"/>
+      <c r="F64" s="223"/>
+      <c r="G64" s="223"/>
+      <c r="H64" s="223"/>
+      <c r="I64" s="223"/>
+      <c r="J64" s="223"/>
+      <c r="K64" s="223"/>
+      <c r="L64" s="223"/>
+      <c r="M64" s="223"/>
+      <c r="N64" s="224"/>
     </row>
     <row r="65" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="268" t="s">
+      <c r="B65" s="255" t="s">
         <v>384</v>
       </c>
-      <c r="C65" s="231" t="s">
+      <c r="C65" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="231"/>
+      <c r="D65" s="228"/>
       <c r="E65" s="158" t="s">
         <v>245</v>
       </c>
@@ -11645,7 +11752,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="269"/>
+      <c r="B66" s="256"/>
       <c r="C66" s="165">
         <v>2020</v>
       </c>
@@ -11695,58 +11802,63 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="270"/>
+      <c r="B67" s="257"/>
       <c r="C67" s="193">
-        <f>+C57+C62</f>
+        <f t="shared" ref="C67:N67" si="58">+C57+C62</f>
         <v>93.586022862025033</v>
       </c>
       <c r="D67" s="193">
-        <f>+D57+D62</f>
+        <f t="shared" si="58"/>
         <v>96.559321825619747</v>
       </c>
       <c r="E67" s="193">
-        <f>+E57+E62</f>
+        <f t="shared" si="58"/>
         <v>99.627084753560354</v>
       </c>
       <c r="F67" s="193">
-        <f>+F57+F62</f>
+        <f t="shared" si="58"/>
         <v>102.79231283767763</v>
       </c>
       <c r="G67" s="193">
-        <f>+G57+G62</f>
+        <f t="shared" si="58"/>
         <v>106.05810261994422</v>
       </c>
       <c r="H67" s="193">
-        <f>+H57+H62</f>
+        <f t="shared" si="58"/>
         <v>109.42764902182107</v>
       </c>
       <c r="I67" s="193">
-        <f>+I57+I62</f>
+        <f t="shared" si="58"/>
         <v>112.90424846984837</v>
       </c>
       <c r="J67" s="193">
-        <f>+J57+J62</f>
+        <f t="shared" si="58"/>
         <v>116.49130212053895</v>
       </c>
       <c r="K67" s="193">
-        <f>+K57+K62</f>
+        <f t="shared" si="58"/>
         <v>120.19231918772903</v>
       </c>
       <c r="L67" s="193">
-        <f>+L57+L62</f>
+        <f t="shared" si="58"/>
         <v>124.01092037564135</v>
       </c>
       <c r="M67" s="193">
-        <f>+M57+M62</f>
+        <f t="shared" si="58"/>
         <v>127.95084142101936</v>
       </c>
       <c r="N67" s="193">
-        <f>+N57+N62</f>
+        <f t="shared" si="58"/>
         <v>132.0159367477977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="B54:N54"/>
     <mergeCell ref="B59:N59"/>
     <mergeCell ref="C30:R30"/>
@@ -11760,11 +11872,6 @@
     <mergeCell ref="B40:M40"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D60"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11777,8 +11884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A458A3-5EF2-4FA8-9CDF-DA2FA9E33C01}">
   <dimension ref="B13:O33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11793,22 +11900,22 @@
   </cols>
   <sheetData>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="261" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="304"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="264" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="306"/>
-      <c r="F14" s="307"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="265"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="266"/>
     </row>
     <row r="15" spans="2:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="182" t="s">
@@ -11860,30 +11967,30 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="267" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="309"/>
-      <c r="M19" s="309"/>
-      <c r="N19" s="309"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="267"/>
+      <c r="J19" s="267"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="267"/>
     </row>
     <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="308" t="s">
+      <c r="B20" s="268" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="231" t="s">
+      <c r="C20" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="231"/>
+      <c r="D20" s="228"/>
       <c r="E20" s="178" t="s">
         <v>245</v>
       </c>
@@ -11916,7 +12023,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="308"/>
+      <c r="B21" s="268"/>
       <c r="C21" s="165">
         <v>2020</v>
       </c>
@@ -11966,7 +12073,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="308"/>
+      <c r="B22" s="268"/>
       <c r="C22" s="49">
         <f>'Pobl. Ingresante Total'!D29*'Pobl. Potencial'!F15</f>
         <v>15</v>
@@ -12018,30 +12125,30 @@
       <c r="O22" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="309" t="s">
+      <c r="B24" s="267" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="309"/>
-      <c r="D24" s="309"/>
-      <c r="E24" s="309"/>
-      <c r="F24" s="309"/>
-      <c r="G24" s="309"/>
-      <c r="H24" s="309"/>
-      <c r="I24" s="309"/>
-      <c r="J24" s="309"/>
-      <c r="K24" s="309"/>
-      <c r="L24" s="309"/>
-      <c r="M24" s="309"/>
-      <c r="N24" s="309"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
+      <c r="J24" s="267"/>
+      <c r="K24" s="267"/>
+      <c r="L24" s="267"/>
+      <c r="M24" s="267"/>
+      <c r="N24" s="267"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="308" t="s">
+      <c r="B25" s="268" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="231" t="s">
+      <c r="C25" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="231"/>
+      <c r="D25" s="228"/>
       <c r="E25" s="178" t="s">
         <v>245</v>
       </c>
@@ -12074,7 +12181,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="308"/>
+      <c r="B26" s="268"/>
       <c r="C26" s="165">
         <v>2020</v>
       </c>
@@ -12124,7 +12231,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="308"/>
+      <c r="B27" s="268"/>
       <c r="C27" s="49">
         <f>'Pobl. Ingresante Total'!I31*'Pobl. Potencial'!F16</f>
         <v>16</v>
@@ -12182,30 +12289,30 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="309" t="s">
+      <c r="B30" s="267" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="309"/>
-      <c r="D30" s="309"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="309"/>
-      <c r="G30" s="309"/>
-      <c r="H30" s="309"/>
-      <c r="I30" s="309"/>
-      <c r="J30" s="309"/>
-      <c r="K30" s="309"/>
-      <c r="L30" s="309"/>
-      <c r="M30" s="309"/>
-      <c r="N30" s="309"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="267"/>
+      <c r="M30" s="267"/>
+      <c r="N30" s="267"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="308" t="s">
+      <c r="B31" s="268" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="231" t="s">
+      <c r="C31" s="228" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="231"/>
+      <c r="D31" s="228"/>
       <c r="E31" s="178" t="s">
         <v>245</v>
       </c>
@@ -12238,7 +12345,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="308"/>
+      <c r="B32" s="268"/>
       <c r="C32" s="165">
         <v>2020</v>
       </c>
@@ -12288,7 +12395,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="308"/>
+      <c r="B33" s="268"/>
       <c r="C33" s="49">
         <f>+C22+C27</f>
         <v>31</v>
@@ -12364,7 +12471,7 @@
   <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="K17" sqref="K17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12386,69 +12493,69 @@
   <sheetData>
     <row r="1" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="236" t="s">
+      <c r="V2" s="270" t="s">
         <v>337</v>
       </c>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="237"/>
-      <c r="AK2" s="237"/>
-      <c r="AL2" s="237"/>
-      <c r="AM2" s="237"/>
-      <c r="AN2" s="237"/>
-      <c r="AO2" s="237"/>
-      <c r="AP2" s="237"/>
-      <c r="AQ2" s="237"/>
-      <c r="AR2" s="237"/>
-      <c r="AS2" s="238"/>
+      <c r="W2" s="271"/>
+      <c r="X2" s="271"/>
+      <c r="Y2" s="271"/>
+      <c r="Z2" s="271"/>
+      <c r="AA2" s="271"/>
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="271"/>
+      <c r="AD2" s="271"/>
+      <c r="AE2" s="271"/>
+      <c r="AF2" s="271"/>
+      <c r="AG2" s="271"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="271"/>
+      <c r="AJ2" s="271"/>
+      <c r="AK2" s="271"/>
+      <c r="AL2" s="271"/>
+      <c r="AM2" s="271"/>
+      <c r="AN2" s="271"/>
+      <c r="AO2" s="271"/>
+      <c r="AP2" s="271"/>
+      <c r="AQ2" s="271"/>
+      <c r="AR2" s="271"/>
+      <c r="AS2" s="272"/>
       <c r="AT2" s="70"/>
       <c r="AU2" s="70"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="273" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="197">
+      <c r="B3" s="273"/>
+      <c r="C3" s="274">
         <v>2015</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197">
+      <c r="D3" s="274"/>
+      <c r="E3" s="274">
         <f>+C3+1</f>
         <v>2016</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197">
+      <c r="F3" s="274"/>
+      <c r="G3" s="274">
         <f t="shared" ref="G3" si="0">+E3+1</f>
         <v>2017</v>
       </c>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197">
+      <c r="H3" s="274"/>
+      <c r="I3" s="274">
         <f t="shared" ref="I3" si="1">+G3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197">
+      <c r="J3" s="274"/>
+      <c r="K3" s="274">
         <f t="shared" ref="K3" si="2">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197">
+      <c r="L3" s="274"/>
+      <c r="M3" s="274">
         <f t="shared" ref="M3" si="3">+K3+1</f>
         <v>2020</v>
       </c>
-      <c r="N3" s="197"/>
+      <c r="N3" s="274"/>
       <c r="P3" s="123" t="s">
         <v>354</v>
       </c>
@@ -12458,74 +12565,74 @@
       <c r="T3" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="V3" s="240">
+      <c r="V3" s="275">
         <v>2020</v>
       </c>
-      <c r="W3" s="235"/>
-      <c r="X3" s="235">
+      <c r="W3" s="276"/>
+      <c r="X3" s="276">
         <f>+V3+1</f>
         <v>2021</v>
       </c>
-      <c r="Y3" s="235"/>
-      <c r="Z3" s="235">
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="276">
         <f t="shared" ref="Z3" si="4">+X3+1</f>
         <v>2022</v>
       </c>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="235">
+      <c r="AA3" s="276"/>
+      <c r="AB3" s="276">
         <f t="shared" ref="AB3" si="5">+Z3+1</f>
         <v>2023</v>
       </c>
-      <c r="AC3" s="235"/>
-      <c r="AD3" s="235">
+      <c r="AC3" s="276"/>
+      <c r="AD3" s="276">
         <f t="shared" ref="AD3" si="6">+AB3+1</f>
         <v>2024</v>
       </c>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="235">
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276">
         <f t="shared" ref="AF3" si="7">+AD3+1</f>
         <v>2025</v>
       </c>
-      <c r="AG3" s="235"/>
-      <c r="AH3" s="235">
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="276">
         <f t="shared" ref="AH3" si="8">+AF3+1</f>
         <v>2026</v>
       </c>
-      <c r="AI3" s="235"/>
-      <c r="AJ3" s="235">
+      <c r="AI3" s="276"/>
+      <c r="AJ3" s="276">
         <f t="shared" ref="AJ3" si="9">+AH3+1</f>
         <v>2027</v>
       </c>
-      <c r="AK3" s="235"/>
-      <c r="AL3" s="235">
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276">
         <f t="shared" ref="AL3" si="10">+AJ3+1</f>
         <v>2028</v>
       </c>
-      <c r="AM3" s="235"/>
-      <c r="AN3" s="235">
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="276">
         <f t="shared" ref="AN3" si="11">+AL3+1</f>
         <v>2029</v>
       </c>
-      <c r="AO3" s="235"/>
-      <c r="AP3" s="235">
+      <c r="AO3" s="276"/>
+      <c r="AP3" s="276">
         <f t="shared" ref="AP3" si="12">+AN3+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ3" s="235"/>
-      <c r="AR3" s="235">
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="276">
         <f t="shared" ref="AR3" si="13">+AP3+1</f>
         <v>2031</v>
       </c>
-      <c r="AS3" s="241"/>
-      <c r="AT3" s="229">
+      <c r="AS3" s="277"/>
+      <c r="AT3" s="278">
         <f t="shared" ref="AT3" si="14">+AR3+1</f>
         <v>2032</v>
       </c>
-      <c r="AU3" s="230"/>
+      <c r="AU3" s="279"/>
     </row>
     <row r="4" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
+      <c r="A4" s="273"/>
+      <c r="B4" s="273"/>
       <c r="C4" s="102" t="s">
         <v>280</v>
       </c>
@@ -12653,7 +12760,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="228" t="s">
         <v>338</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -12719,7 +12826,7 @@
       <c r="AU5" s="133"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="231"/>
+      <c r="A6" s="228"/>
       <c r="B6" s="32" t="s">
         <v>281</v>
       </c>
@@ -12783,7 +12890,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="231"/>
+      <c r="A7" s="228"/>
       <c r="B7" s="32" t="s">
         <v>282</v>
       </c>
@@ -12846,7 +12953,7 @@
       <c r="AU7" s="133"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="231"/>
+      <c r="A8" s="228"/>
       <c r="B8" s="32" t="s">
         <v>283</v>
       </c>
@@ -12909,7 +13016,7 @@
       <c r="AU8" s="133"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="231"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="32" t="s">
         <v>284</v>
       </c>
@@ -12974,7 +13081,7 @@
       <c r="AU9" s="133"/>
     </row>
     <row r="10" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="231"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="32" t="s">
         <v>285</v>
       </c>
@@ -13039,7 +13146,7 @@
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:51" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="231"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="32" t="s">
         <v>339</v>
       </c>
@@ -13131,124 +13238,124 @@
     </row>
     <row r="12" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V13" s="232" t="s">
+      <c r="V13" s="280" t="s">
         <v>340</v>
       </c>
-      <c r="W13" s="233"/>
-      <c r="X13" s="233"/>
-      <c r="Y13" s="233"/>
-      <c r="Z13" s="233"/>
-      <c r="AA13" s="233"/>
-      <c r="AB13" s="233"/>
-      <c r="AC13" s="233"/>
-      <c r="AD13" s="233"/>
-      <c r="AE13" s="233"/>
-      <c r="AF13" s="233"/>
-      <c r="AG13" s="233"/>
-      <c r="AH13" s="233"/>
-      <c r="AI13" s="233"/>
-      <c r="AJ13" s="233"/>
-      <c r="AK13" s="233"/>
-      <c r="AL13" s="233"/>
-      <c r="AM13" s="233"/>
-      <c r="AN13" s="233"/>
-      <c r="AO13" s="233"/>
-      <c r="AP13" s="233"/>
-      <c r="AQ13" s="233"/>
-      <c r="AR13" s="233"/>
-      <c r="AS13" s="233"/>
-      <c r="AT13" s="233"/>
-      <c r="AU13" s="234"/>
+      <c r="W13" s="281"/>
+      <c r="X13" s="281"/>
+      <c r="Y13" s="281"/>
+      <c r="Z13" s="281"/>
+      <c r="AA13" s="281"/>
+      <c r="AB13" s="281"/>
+      <c r="AC13" s="281"/>
+      <c r="AD13" s="281"/>
+      <c r="AE13" s="281"/>
+      <c r="AF13" s="281"/>
+      <c r="AG13" s="281"/>
+      <c r="AH13" s="281"/>
+      <c r="AI13" s="281"/>
+      <c r="AJ13" s="281"/>
+      <c r="AK13" s="281"/>
+      <c r="AL13" s="281"/>
+      <c r="AM13" s="281"/>
+      <c r="AN13" s="281"/>
+      <c r="AO13" s="281"/>
+      <c r="AP13" s="281"/>
+      <c r="AQ13" s="281"/>
+      <c r="AR13" s="281"/>
+      <c r="AS13" s="281"/>
+      <c r="AT13" s="281"/>
+      <c r="AU13" s="282"/>
     </row>
     <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="289" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="290" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="223" t="s">
+      <c r="C14" s="291"/>
+      <c r="D14" s="294" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="224"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="224"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="294"/>
+      <c r="I14" s="295"/>
       <c r="K14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="V14" s="225">
+      <c r="V14" s="287">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W14" s="226"/>
-      <c r="X14" s="226">
+      <c r="W14" s="285"/>
+      <c r="X14" s="285">
         <f>+V14+1</f>
         <v>2021</v>
       </c>
-      <c r="Y14" s="226"/>
-      <c r="Z14" s="226">
+      <c r="Y14" s="285"/>
+      <c r="Z14" s="285">
         <f t="shared" ref="Z14" si="17">+X14+1</f>
         <v>2022</v>
       </c>
-      <c r="AA14" s="226"/>
-      <c r="AB14" s="226">
+      <c r="AA14" s="285"/>
+      <c r="AB14" s="285">
         <f t="shared" ref="AB14" si="18">+Z14+1</f>
         <v>2023</v>
       </c>
-      <c r="AC14" s="226"/>
-      <c r="AD14" s="226">
+      <c r="AC14" s="285"/>
+      <c r="AD14" s="285">
         <f t="shared" ref="AD14" si="19">+AB14+1</f>
         <v>2024</v>
       </c>
-      <c r="AE14" s="226"/>
-      <c r="AF14" s="226">
+      <c r="AE14" s="285"/>
+      <c r="AF14" s="285">
         <f t="shared" ref="AF14" si="20">+AD14+1</f>
         <v>2025</v>
       </c>
-      <c r="AG14" s="226"/>
-      <c r="AH14" s="226">
+      <c r="AG14" s="285"/>
+      <c r="AH14" s="285">
         <f t="shared" ref="AH14" si="21">+AF14+1</f>
         <v>2026</v>
       </c>
-      <c r="AI14" s="226"/>
-      <c r="AJ14" s="226">
+      <c r="AI14" s="285"/>
+      <c r="AJ14" s="285">
         <f t="shared" ref="AJ14" si="22">+AH14+1</f>
         <v>2027</v>
       </c>
-      <c r="AK14" s="226"/>
-      <c r="AL14" s="226">
+      <c r="AK14" s="285"/>
+      <c r="AL14" s="285">
         <f t="shared" ref="AL14" si="23">+AJ14+1</f>
         <v>2028</v>
       </c>
-      <c r="AM14" s="226"/>
-      <c r="AN14" s="226">
+      <c r="AM14" s="285"/>
+      <c r="AN14" s="285">
         <f t="shared" ref="AN14" si="24">+AL14+1</f>
         <v>2029</v>
       </c>
-      <c r="AO14" s="226"/>
-      <c r="AP14" s="226">
+      <c r="AO14" s="285"/>
+      <c r="AP14" s="285">
         <f t="shared" ref="AP14" si="25">+AN14+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ14" s="226"/>
-      <c r="AR14" s="226">
+      <c r="AQ14" s="285"/>
+      <c r="AR14" s="285">
         <f t="shared" ref="AR14" si="26">+AP14+1</f>
         <v>2031</v>
       </c>
-      <c r="AS14" s="226"/>
-      <c r="AT14" s="226">
+      <c r="AS14" s="285"/>
+      <c r="AT14" s="285">
         <f t="shared" ref="AT14" si="27">+AR14+1</f>
         <v>2032</v>
       </c>
-      <c r="AU14" s="228"/>
+      <c r="AU14" s="286"/>
     </row>
     <row r="15" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="221"/>
-      <c r="C15" s="222"/>
+      <c r="A15" s="289"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="293"/>
       <c r="D15" s="89" t="s">
         <v>345</v>
       </c>
@@ -13339,11 +13446,11 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="194" t="s">
+      <c r="A16" s="289"/>
+      <c r="B16" s="253" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="195"/>
+      <c r="C16" s="288"/>
       <c r="D16" s="80"/>
       <c r="E16" s="81"/>
       <c r="F16" s="80"/>
@@ -13396,11 +13503,11 @@
       <c r="AU16" s="133"/>
     </row>
     <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="218"/>
-      <c r="B17" s="194" t="s">
+      <c r="A17" s="289"/>
+      <c r="B17" s="253" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="195"/>
+      <c r="C17" s="288"/>
       <c r="D17" s="105">
         <f>+D6/C5</f>
         <v>0.73333333333333328</v>
@@ -13467,11 +13574,11 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="218"/>
-      <c r="B18" s="194" t="s">
+      <c r="A18" s="289"/>
+      <c r="B18" s="253" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="195"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="105">
         <f>+E7/C5</f>
         <v>0.53333333333333333</v>
@@ -13535,11 +13642,11 @@
       <c r="AU18" s="133"/>
     </row>
     <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
-      <c r="B19" s="194" t="s">
+      <c r="A19" s="289"/>
+      <c r="B19" s="253" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="195"/>
+      <c r="C19" s="288"/>
       <c r="D19" s="107">
         <f>+F8/C5</f>
         <v>0.53333333333333333</v>
@@ -13603,11 +13710,11 @@
       <c r="AU19" s="133"/>
     </row>
     <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
-      <c r="B20" s="194" t="s">
+      <c r="A20" s="289"/>
+      <c r="B20" s="253" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="195"/>
+      <c r="C20" s="288"/>
       <c r="D20" s="107">
         <f>+G9/C5</f>
         <v>0.26666666666666666</v>
@@ -13671,11 +13778,11 @@
       <c r="AU20" s="133"/>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="194" t="s">
+      <c r="A21" s="289"/>
+      <c r="B21" s="253" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="195"/>
+      <c r="C21" s="288"/>
       <c r="D21" s="108">
         <f>+H10/C5</f>
         <v>0.26666666666666666</v>
@@ -13777,72 +13884,72 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="283" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="227"/>
-      <c r="C25" s="198">
+      <c r="B25" s="283"/>
+      <c r="C25" s="284">
         <f>+C3</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198">
+      <c r="D25" s="284"/>
+      <c r="E25" s="284">
         <f>+C25+1</f>
         <v>2016</v>
       </c>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198">
+      <c r="F25" s="284"/>
+      <c r="G25" s="284">
         <f t="shared" ref="G25" si="29">+E25+1</f>
         <v>2017</v>
       </c>
-      <c r="H25" s="198"/>
-      <c r="I25" s="198">
+      <c r="H25" s="284"/>
+      <c r="I25" s="284">
         <f t="shared" ref="I25" si="30">+G25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198">
+      <c r="J25" s="284"/>
+      <c r="K25" s="284">
         <f t="shared" ref="K25" si="31">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198">
+      <c r="L25" s="284"/>
+      <c r="M25" s="284">
         <f t="shared" ref="M25" si="32">+K25+1</f>
         <v>2020</v>
       </c>
-      <c r="N25" s="198"/>
-      <c r="V25" s="203" t="s">
+      <c r="N25" s="284"/>
+      <c r="V25" s="313" t="s">
         <v>337</v>
       </c>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="204"/>
-      <c r="AD25" s="204"/>
-      <c r="AE25" s="204"/>
-      <c r="AF25" s="204"/>
-      <c r="AG25" s="204"/>
-      <c r="AH25" s="204"/>
-      <c r="AI25" s="204"/>
-      <c r="AJ25" s="204"/>
-      <c r="AK25" s="204"/>
-      <c r="AL25" s="204"/>
-      <c r="AM25" s="204"/>
-      <c r="AN25" s="204"/>
-      <c r="AO25" s="204"/>
-      <c r="AP25" s="204"/>
-      <c r="AQ25" s="204"/>
-      <c r="AR25" s="204"/>
-      <c r="AS25" s="204"/>
-      <c r="AT25" s="204"/>
-      <c r="AU25" s="205"/>
+      <c r="W25" s="314"/>
+      <c r="X25" s="314"/>
+      <c r="Y25" s="314"/>
+      <c r="Z25" s="314"/>
+      <c r="AA25" s="314"/>
+      <c r="AB25" s="314"/>
+      <c r="AC25" s="314"/>
+      <c r="AD25" s="314"/>
+      <c r="AE25" s="314"/>
+      <c r="AF25" s="314"/>
+      <c r="AG25" s="314"/>
+      <c r="AH25" s="314"/>
+      <c r="AI25" s="314"/>
+      <c r="AJ25" s="314"/>
+      <c r="AK25" s="314"/>
+      <c r="AL25" s="314"/>
+      <c r="AM25" s="314"/>
+      <c r="AN25" s="314"/>
+      <c r="AO25" s="314"/>
+      <c r="AP25" s="314"/>
+      <c r="AQ25" s="314"/>
+      <c r="AR25" s="314"/>
+      <c r="AS25" s="314"/>
+      <c r="AT25" s="314"/>
+      <c r="AU25" s="315"/>
     </row>
     <row r="26" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="227"/>
-      <c r="B26" s="227"/>
+      <c r="A26" s="283"/>
+      <c r="B26" s="283"/>
       <c r="C26" s="85" t="s">
         <v>280</v>
       </c>
@@ -13894,74 +14001,74 @@
       <c r="T26" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="V26" s="217">
+      <c r="V26" s="297">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W26" s="198"/>
-      <c r="X26" s="198">
+      <c r="W26" s="284"/>
+      <c r="X26" s="284">
         <f>+V26+1</f>
         <v>2021</v>
       </c>
-      <c r="Y26" s="198"/>
-      <c r="Z26" s="198">
+      <c r="Y26" s="284"/>
+      <c r="Z26" s="284">
         <f t="shared" ref="Z26" si="33">+X26+1</f>
         <v>2022</v>
       </c>
-      <c r="AA26" s="198"/>
-      <c r="AB26" s="198">
+      <c r="AA26" s="284"/>
+      <c r="AB26" s="284">
         <f t="shared" ref="AB26" si="34">+Z26+1</f>
         <v>2023</v>
       </c>
-      <c r="AC26" s="198"/>
-      <c r="AD26" s="198">
+      <c r="AC26" s="284"/>
+      <c r="AD26" s="284">
         <f t="shared" ref="AD26" si="35">+AB26+1</f>
         <v>2024</v>
       </c>
-      <c r="AE26" s="198"/>
-      <c r="AF26" s="198">
+      <c r="AE26" s="284"/>
+      <c r="AF26" s="284">
         <f t="shared" ref="AF26" si="36">+AD26+1</f>
         <v>2025</v>
       </c>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="198">
+      <c r="AG26" s="284"/>
+      <c r="AH26" s="284">
         <f t="shared" ref="AH26" si="37">+AF26+1</f>
         <v>2026</v>
       </c>
-      <c r="AI26" s="198"/>
-      <c r="AJ26" s="198">
+      <c r="AI26" s="284"/>
+      <c r="AJ26" s="284">
         <f t="shared" ref="AJ26" si="38">+AH26+1</f>
         <v>2027</v>
       </c>
-      <c r="AK26" s="198"/>
-      <c r="AL26" s="198">
+      <c r="AK26" s="284"/>
+      <c r="AL26" s="284">
         <f t="shared" ref="AL26" si="39">+AJ26+1</f>
         <v>2028</v>
       </c>
-      <c r="AM26" s="198"/>
-      <c r="AN26" s="198">
+      <c r="AM26" s="284"/>
+      <c r="AN26" s="284">
         <f t="shared" ref="AN26" si="40">+AL26+1</f>
         <v>2029</v>
       </c>
-      <c r="AO26" s="198"/>
-      <c r="AP26" s="198">
+      <c r="AO26" s="284"/>
+      <c r="AP26" s="284">
         <f t="shared" ref="AP26" si="41">+AN26+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ26" s="198"/>
-      <c r="AR26" s="198">
+      <c r="AQ26" s="284"/>
+      <c r="AR26" s="284">
         <f t="shared" ref="AR26" si="42">+AP26+1</f>
         <v>2031</v>
       </c>
-      <c r="AS26" s="198"/>
-      <c r="AT26" s="198">
+      <c r="AS26" s="284"/>
+      <c r="AT26" s="284">
         <f t="shared" ref="AT26" si="43">+AR26+1</f>
         <v>2032</v>
       </c>
-      <c r="AU26" s="216"/>
+      <c r="AU26" s="296"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="198" t="s">
+      <c r="A27" s="284" t="s">
         <v>338</v>
       </c>
       <c r="B27" s="86" t="s">
@@ -14089,7 +14196,7 @@
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="198"/>
+      <c r="A28" s="284"/>
       <c r="B28" s="86" t="s">
         <v>281</v>
       </c>
@@ -14183,7 +14290,7 @@
       <c r="AU28" s="92"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="198"/>
+      <c r="A29" s="284"/>
       <c r="B29" s="86" t="s">
         <v>282</v>
       </c>
@@ -14207,10 +14314,10 @@
         <v>21</v>
       </c>
       <c r="N29" s="46"/>
-      <c r="P29" s="310"/>
-      <c r="Q29" s="310"/>
-      <c r="R29" s="310"/>
-      <c r="S29" s="310"/>
+      <c r="P29" s="269"/>
+      <c r="Q29" s="269"/>
+      <c r="R29" s="269"/>
+      <c r="S29" s="269"/>
       <c r="U29" s="32" t="s">
         <v>281</v>
       </c>
@@ -14281,7 +14388,7 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="198"/>
+      <c r="A30" s="284"/>
       <c r="B30" s="86" t="s">
         <v>283</v>
       </c>
@@ -14370,7 +14477,7 @@
       <c r="AU30" s="92"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="198"/>
+      <c r="A31" s="284"/>
       <c r="B31" s="86" t="s">
         <v>284</v>
       </c>
@@ -14459,7 +14566,7 @@
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="198"/>
+      <c r="A32" s="284"/>
       <c r="B32" s="86" t="s">
         <v>285</v>
       </c>
@@ -14543,7 +14650,7 @@
       <c r="AU32" s="92"/>
     </row>
     <row r="33" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="198"/>
+      <c r="A33" s="284"/>
       <c r="B33" s="86" t="s">
         <v>339</v>
       </c>
@@ -14660,137 +14767,137 @@
     </row>
     <row r="34" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V35" s="206" t="s">
+      <c r="V35" s="298" t="s">
         <v>340</v>
       </c>
-      <c r="W35" s="207"/>
-      <c r="X35" s="207"/>
-      <c r="Y35" s="207"/>
-      <c r="Z35" s="207"/>
-      <c r="AA35" s="207"/>
-      <c r="AB35" s="207"/>
-      <c r="AC35" s="207"/>
-      <c r="AD35" s="207"/>
-      <c r="AE35" s="207"/>
-      <c r="AF35" s="207"/>
-      <c r="AG35" s="207"/>
-      <c r="AH35" s="207"/>
-      <c r="AI35" s="207"/>
-      <c r="AJ35" s="207"/>
-      <c r="AK35" s="207"/>
-      <c r="AL35" s="207"/>
-      <c r="AM35" s="207"/>
-      <c r="AN35" s="207"/>
-      <c r="AO35" s="207"/>
-      <c r="AP35" s="207"/>
-      <c r="AQ35" s="207"/>
-      <c r="AR35" s="207"/>
-      <c r="AS35" s="207"/>
-      <c r="AT35" s="207"/>
-      <c r="AU35" s="208"/>
+      <c r="W35" s="299"/>
+      <c r="X35" s="299"/>
+      <c r="Y35" s="299"/>
+      <c r="Z35" s="299"/>
+      <c r="AA35" s="299"/>
+      <c r="AB35" s="299"/>
+      <c r="AC35" s="299"/>
+      <c r="AD35" s="299"/>
+      <c r="AE35" s="299"/>
+      <c r="AF35" s="299"/>
+      <c r="AG35" s="299"/>
+      <c r="AH35" s="299"/>
+      <c r="AI35" s="299"/>
+      <c r="AJ35" s="299"/>
+      <c r="AK35" s="299"/>
+      <c r="AL35" s="299"/>
+      <c r="AM35" s="299"/>
+      <c r="AN35" s="299"/>
+      <c r="AO35" s="299"/>
+      <c r="AP35" s="299"/>
+      <c r="AQ35" s="299"/>
+      <c r="AR35" s="299"/>
+      <c r="AS35" s="299"/>
+      <c r="AT35" s="299"/>
+      <c r="AU35" s="300"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="209" t="s">
+      <c r="A36" s="301" t="s">
         <v>341</v>
       </c>
-      <c r="B36" s="210" t="s">
+      <c r="B36" s="302" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="211"/>
-      <c r="D36" s="199" t="s">
+      <c r="C36" s="303"/>
+      <c r="D36" s="309" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="200"/>
-      <c r="F36" s="199" t="s">
+      <c r="E36" s="310"/>
+      <c r="F36" s="309" t="s">
         <v>344</v>
       </c>
-      <c r="G36" s="200"/>
-      <c r="H36" s="199" t="s">
+      <c r="G36" s="310"/>
+      <c r="H36" s="309" t="s">
         <v>351</v>
       </c>
-      <c r="I36" s="200"/>
-      <c r="J36" s="199" t="s">
+      <c r="I36" s="310"/>
+      <c r="J36" s="309" t="s">
         <v>352</v>
       </c>
-      <c r="K36" s="200"/>
-      <c r="V36" s="214">
+      <c r="K36" s="310"/>
+      <c r="V36" s="306">
         <f>+V26</f>
         <v>2020</v>
       </c>
-      <c r="W36" s="196"/>
-      <c r="X36" s="196">
+      <c r="W36" s="307"/>
+      <c r="X36" s="307">
         <f>+V36+1</f>
         <v>2021</v>
       </c>
-      <c r="Y36" s="196"/>
-      <c r="Z36" s="196">
+      <c r="Y36" s="307"/>
+      <c r="Z36" s="307">
         <f t="shared" ref="Z36" si="46">+X36+1</f>
         <v>2022</v>
       </c>
-      <c r="AA36" s="196"/>
-      <c r="AB36" s="196">
+      <c r="AA36" s="307"/>
+      <c r="AB36" s="307">
         <f t="shared" ref="AB36" si="47">+Z36+1</f>
         <v>2023</v>
       </c>
-      <c r="AC36" s="196"/>
-      <c r="AD36" s="196">
+      <c r="AC36" s="307"/>
+      <c r="AD36" s="307">
         <f t="shared" ref="AD36" si="48">+AB36+1</f>
         <v>2024</v>
       </c>
-      <c r="AE36" s="196"/>
-      <c r="AF36" s="196">
+      <c r="AE36" s="307"/>
+      <c r="AF36" s="307">
         <f t="shared" ref="AF36" si="49">+AD36+1</f>
         <v>2025</v>
       </c>
-      <c r="AG36" s="196"/>
-      <c r="AH36" s="196">
+      <c r="AG36" s="307"/>
+      <c r="AH36" s="307">
         <f t="shared" ref="AH36" si="50">+AF36+1</f>
         <v>2026</v>
       </c>
-      <c r="AI36" s="196"/>
-      <c r="AJ36" s="196">
+      <c r="AI36" s="307"/>
+      <c r="AJ36" s="307">
         <f t="shared" ref="AJ36" si="51">+AH36+1</f>
         <v>2027</v>
       </c>
-      <c r="AK36" s="196"/>
-      <c r="AL36" s="196">
+      <c r="AK36" s="307"/>
+      <c r="AL36" s="307">
         <f t="shared" ref="AL36" si="52">+AJ36+1</f>
         <v>2028</v>
       </c>
-      <c r="AM36" s="196"/>
-      <c r="AN36" s="196">
+      <c r="AM36" s="307"/>
+      <c r="AN36" s="307">
         <f t="shared" ref="AN36" si="53">+AL36+1</f>
         <v>2029</v>
       </c>
-      <c r="AO36" s="196"/>
-      <c r="AP36" s="196">
+      <c r="AO36" s="307"/>
+      <c r="AP36" s="307">
         <f t="shared" ref="AP36" si="54">+AN36+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ36" s="196"/>
-      <c r="AR36" s="196">
+      <c r="AQ36" s="307"/>
+      <c r="AR36" s="307">
         <f t="shared" ref="AR36" si="55">+AP36+1</f>
         <v>2031</v>
       </c>
-      <c r="AS36" s="196"/>
-      <c r="AT36" s="196">
+      <c r="AS36" s="307"/>
+      <c r="AT36" s="307">
         <f t="shared" ref="AT36" si="56">+AR36+1</f>
         <v>2032</v>
       </c>
-      <c r="AU36" s="215"/>
+      <c r="AU36" s="308"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="209"/>
-      <c r="B37" s="212"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="201"/>
-      <c r="K37" s="202"/>
+      <c r="A37" s="301"/>
+      <c r="B37" s="304"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="311"/>
+      <c r="G37" s="312"/>
+      <c r="H37" s="311"/>
+      <c r="I37" s="312"/>
+      <c r="J37" s="311"/>
+      <c r="K37" s="312"/>
       <c r="V37" s="89" t="s">
         <v>280</v>
       </c>
@@ -14871,11 +14978,11 @@
       </c>
     </row>
     <row r="38" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="209"/>
-      <c r="B38" s="194" t="s">
+      <c r="A38" s="301"/>
+      <c r="B38" s="253" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="195"/>
+      <c r="C38" s="288"/>
       <c r="D38" s="105">
         <f>+E27/$E$27</f>
         <v>1</v>
@@ -14961,11 +15068,11 @@
       <c r="AU38" s="92"/>
     </row>
     <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="209"/>
-      <c r="B39" s="194" t="s">
+      <c r="A39" s="301"/>
+      <c r="B39" s="253" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="195"/>
+      <c r="C39" s="288"/>
       <c r="D39" s="105">
         <f>+F28/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15063,11 +15170,11 @@
       </c>
     </row>
     <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="209"/>
-      <c r="B40" s="194" t="s">
+      <c r="A40" s="301"/>
+      <c r="B40" s="253" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="195"/>
+      <c r="C40" s="288"/>
       <c r="D40" s="105">
         <f>+G29/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15162,11 +15269,11 @@
       <c r="AU40" s="92"/>
     </row>
     <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="209"/>
-      <c r="B41" s="194" t="s">
+      <c r="A41" s="301"/>
+      <c r="B41" s="253" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="195"/>
+      <c r="C41" s="288"/>
       <c r="D41" s="105">
         <f>+H30/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15258,11 +15365,11 @@
       </c>
     </row>
     <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="209"/>
-      <c r="B42" s="194" t="s">
+      <c r="A42" s="301"/>
+      <c r="B42" s="253" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="195"/>
+      <c r="C42" s="288"/>
       <c r="D42" s="105">
         <f>+I31/$E$27</f>
         <v>0.75</v>
@@ -15351,11 +15458,11 @@
       <c r="AU42" s="92"/>
     </row>
     <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="209"/>
-      <c r="B43" s="194" t="s">
+      <c r="A43" s="301"/>
+      <c r="B43" s="253" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="195"/>
+      <c r="C43" s="288"/>
       <c r="D43" s="111">
         <f>+J32/$E$27</f>
         <v>0.75</v>
@@ -15445,53 +15552,39 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:AS2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="V13:AU13"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="I25:J25"/>
@@ -15508,42 +15601,762 @@
     <mergeCell ref="AP26:AQ26"/>
     <mergeCell ref="AR26:AS26"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="V35:AU35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="V2:AS2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433E9C3-B3BD-4E05-8AE5-BDB438795BDA}">
+  <dimension ref="B5:N40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="316" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="317" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="318">
+        <f>+'Pobl. Ingresante Total'!O29</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="317" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="318">
+        <f>+'Pobl. Ingresante Total'!O31</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="319" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="320" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="321"/>
+      <c r="E11" s="322" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="322" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="322" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="322" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="322" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="322" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="322" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="322" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="322" t="s">
+        <v>253</v>
+      </c>
+      <c r="N11" s="322" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="323"/>
+      <c r="C12" s="322">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="322">
+        <f>C12+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E12" s="322">
+        <f t="shared" ref="E12:N12" si="0">D12+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F12" s="322">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="G12" s="322">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="H12" s="322">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="I12" s="322">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="J12" s="322">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="K12" s="322">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="L12" s="322">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="M12" s="322">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="N12" s="322">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="324" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="49">
+        <f>$C$6*'Pobl. Potencial'!C22</f>
+        <v>7.5</v>
+      </c>
+      <c r="D13" s="49">
+        <f>$C$6*'Pobl. Potencial'!D22</f>
+        <v>9.9529825222887336</v>
+      </c>
+      <c r="E13" s="49">
+        <f>$C$6*'Pobl. Potencial'!E22</f>
+        <v>10.269196329791024</v>
+      </c>
+      <c r="F13" s="49">
+        <f>$C$6*'Pobl. Potencial'!F22</f>
+        <v>10.59545648991487</v>
+      </c>
+      <c r="G13" s="49">
+        <f>$C$6*'Pobl. Potencial'!G22</f>
+        <v>10.932082182906681</v>
+      </c>
+      <c r="H13" s="49">
+        <f>$C$6*'Pobl. Potencial'!H22</f>
+        <v>11.279402729611505</v>
+      </c>
+      <c r="I13" s="49">
+        <f>$C$6*'Pobl. Potencial'!I22</f>
+        <v>11.637757913647535</v>
+      </c>
+      <c r="J13" s="49">
+        <f>$C$6*'Pobl. Potencial'!J22</f>
+        <v>12.007498313816363</v>
+      </c>
+      <c r="K13" s="49">
+        <f>$C$6*'Pobl. Potencial'!K22</f>
+        <v>12.388985647074142</v>
+      </c>
+      <c r="L13" s="49">
+        <f>$C$6*'Pobl. Potencial'!L22</f>
+        <v>12.782593122399204</v>
+      </c>
+      <c r="M13" s="49">
+        <f>$C$6*'Pobl. Potencial'!M22</f>
+        <v>13.188705805902336</v>
+      </c>
+      <c r="N13" s="49">
+        <f>$C$6*'Pobl. Potencial'!N22</f>
+        <v>13.607720997536866</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="195" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="228" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="330" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="228"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="329" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="196">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="329" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="196">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="329" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="196">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="329" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="196">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="329" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="196">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="325" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="327" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="327"/>
+      <c r="E25" s="179" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="179" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="179" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="179" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="179" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" s="179" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="179" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="179" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" s="179" t="s">
+        <v>253</v>
+      </c>
+      <c r="N25" s="179" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="326"/>
+      <c r="C26" s="179">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="179">
+        <f t="shared" ref="D26:N26" si="1">C26+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E26" s="179">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="F26" s="179">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="G26" s="179">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="H26" s="179">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="I26" s="179">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="J26" s="179">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="K26" s="179">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="L26" s="179">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="M26" s="179">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="N26" s="179">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="328" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="328"/>
+      <c r="D27" s="328"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
+      <c r="K27" s="328"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="328"/>
+      <c r="N27" s="328"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="195" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="329" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="49">
+        <f>+C13</f>
+        <v>7.5</v>
+      </c>
+      <c r="D29" s="49">
+        <f t="shared" ref="D29:N29" si="2">+D13</f>
+        <v>9.9529825222887336</v>
+      </c>
+      <c r="E29" s="49">
+        <f t="shared" si="2"/>
+        <v>10.269196329791024</v>
+      </c>
+      <c r="F29" s="49">
+        <f t="shared" si="2"/>
+        <v>10.59545648991487</v>
+      </c>
+      <c r="G29" s="49">
+        <f t="shared" si="2"/>
+        <v>10.932082182906681</v>
+      </c>
+      <c r="H29" s="49">
+        <f t="shared" si="2"/>
+        <v>11.279402729611505</v>
+      </c>
+      <c r="I29" s="49">
+        <f t="shared" si="2"/>
+        <v>11.637757913647535</v>
+      </c>
+      <c r="J29" s="49">
+        <f t="shared" si="2"/>
+        <v>12.007498313816363</v>
+      </c>
+      <c r="K29" s="49">
+        <f t="shared" si="2"/>
+        <v>12.388985647074142</v>
+      </c>
+      <c r="L29" s="49">
+        <f t="shared" si="2"/>
+        <v>12.782593122399204</v>
+      </c>
+      <c r="M29" s="49">
+        <f t="shared" si="2"/>
+        <v>13.188705805902336</v>
+      </c>
+      <c r="N29" s="49">
+        <f t="shared" si="2"/>
+        <v>13.607720997536866</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="329" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="49">
+        <f>C29*$C$18</f>
+        <v>5.5</v>
+      </c>
+      <c r="D30" s="49">
+        <f t="shared" ref="D30:N30" si="3">D29*$C$18</f>
+        <v>7.2988538496784043</v>
+      </c>
+      <c r="E30" s="49">
+        <f t="shared" si="3"/>
+        <v>7.5307439751800835</v>
+      </c>
+      <c r="F30" s="49">
+        <f t="shared" si="3"/>
+        <v>7.7700014259375711</v>
+      </c>
+      <c r="G30" s="49">
+        <f t="shared" si="3"/>
+        <v>8.0168602674648994</v>
+      </c>
+      <c r="H30" s="49">
+        <f t="shared" si="3"/>
+        <v>8.2715620017151021</v>
+      </c>
+      <c r="I30" s="49">
+        <f t="shared" si="3"/>
+        <v>8.5343558033415245</v>
+      </c>
+      <c r="J30" s="49">
+        <f t="shared" si="3"/>
+        <v>8.8054987634653319</v>
+      </c>
+      <c r="K30" s="49">
+        <f t="shared" si="3"/>
+        <v>9.0852561411877026</v>
+      </c>
+      <c r="L30" s="49">
+        <f t="shared" si="3"/>
+        <v>9.373901623092749</v>
+      </c>
+      <c r="M30" s="49">
+        <f t="shared" si="3"/>
+        <v>9.6717175909950459</v>
+      </c>
+      <c r="N30" s="49">
+        <f t="shared" si="3"/>
+        <v>9.9789953981937014</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="329" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="329" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="329" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="329" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="194"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="197" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="319" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" s="320" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="321"/>
+      <c r="E38" s="322" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="322" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="322" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="322" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="322" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" s="322" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="322" t="s">
+        <v>251</v>
+      </c>
+      <c r="L38" s="322" t="s">
+        <v>252</v>
+      </c>
+      <c r="M38" s="322" t="s">
+        <v>253</v>
+      </c>
+      <c r="N38" s="322" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="323"/>
+      <c r="C39" s="322">
+        <v>2020</v>
+      </c>
+      <c r="D39" s="322">
+        <f>C39+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E39" s="322">
+        <f t="shared" ref="E39" si="4">D39+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F39" s="322">
+        <f t="shared" ref="F39" si="5">E39+1</f>
+        <v>2023</v>
+      </c>
+      <c r="G39" s="322">
+        <f t="shared" ref="G39" si="6">F39+1</f>
+        <v>2024</v>
+      </c>
+      <c r="H39" s="322">
+        <f t="shared" ref="H39" si="7">G39+1</f>
+        <v>2025</v>
+      </c>
+      <c r="I39" s="322">
+        <f t="shared" ref="I39" si="8">H39+1</f>
+        <v>2026</v>
+      </c>
+      <c r="J39" s="322">
+        <f t="shared" ref="J39" si="9">I39+1</f>
+        <v>2027</v>
+      </c>
+      <c r="K39" s="322">
+        <f t="shared" ref="K39" si="10">J39+1</f>
+        <v>2028</v>
+      </c>
+      <c r="L39" s="322">
+        <f t="shared" ref="L39" si="11">K39+1</f>
+        <v>2029</v>
+      </c>
+      <c r="M39" s="322">
+        <f t="shared" ref="M39" si="12">L39+1</f>
+        <v>2030</v>
+      </c>
+      <c r="N39" s="322">
+        <f t="shared" ref="N39" si="13">M39+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="324" t="s">
+        <v>404</v>
+      </c>
+      <c r="C40" s="49">
+        <f>$C$7*'Pobl. Potencial'!C27</f>
+        <v>12.444444444444445</v>
+      </c>
+      <c r="D40" s="49">
+        <f>$C$7*'Pobl. Potencial'!D27</f>
+        <v>23.539658794385399</v>
+      </c>
+      <c r="E40" s="49">
+        <f>$C$7*'Pobl. Potencial'!E27</f>
+        <v>24.287531617231039</v>
+      </c>
+      <c r="F40" s="49">
+        <f>$C$7*'Pobl. Potencial'!F27</f>
+        <v>25.0591649271779</v>
+      </c>
+      <c r="G40" s="49">
+        <f>$C$7*'Pobl. Potencial'!G27</f>
+        <v>25.855313612931702</v>
+      </c>
+      <c r="H40" s="49">
+        <f>$C$7*'Pobl. Potencial'!H27</f>
+        <v>26.676756546585207</v>
+      </c>
+      <c r="I40" s="49">
+        <f>$C$7*'Pobl. Potencial'!I27</f>
+        <v>27.524297345588597</v>
+      </c>
+      <c r="J40" s="49">
+        <f>$C$7*'Pobl. Potencial'!J27</f>
+        <v>28.398765158928267</v>
+      </c>
+      <c r="K40" s="49">
+        <f>$C$7*'Pobl. Potencial'!K27</f>
+        <v>29.301015478283098</v>
+      </c>
+      <c r="L40" s="49">
+        <f>$C$7*'Pobl. Potencial'!L27</f>
+        <v>30.231930974951808</v>
+      </c>
+      <c r="M40" s="49">
+        <f>$C$7*'Pobl. Potencial'!M27</f>
+        <v>31.192422363370085</v>
+      </c>
+      <c r="N40" s="49">
+        <f>$C$7*'Pobl. Potencial'!N27</f>
+        <v>32.183429292062321</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BB9F5-6DDF-4383-9A9D-785CD9BFCB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132455A7-9270-428D-ABFF-65126B5DA138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="411">
   <si>
     <t>AREA # 030204</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>SE TIENE REFERENCIA QUE HASTA EL AÑO 2015 EL NUMERO DE POSTULANTES ERA PARA LA CARRERA DE INDUSTRIAS ALIMENTARIAS POR SER LA UNICA CARRERA QUE BRINDABA LA IESTP ALFREDO SARMIENTO PALOMINO, A PARTIR DEL AÑO 2016 LA CARRERA QUE BRINDO EL SERVICIO EDUCATIVO FUE LA CARRERA DE CONSTRUCCIÓN CIVIL, POR LO QUE SE UTILIZARA UNA SOLA TASA EN TODO EL HORIZONTE, PERO CON POBLACIÓN HISTORICA POR SEPARADO PARA CADA CARRERA.</t>
   </si>
   <si>
-    <t>Postulantes que dirigen al ISP</t>
-  </si>
-  <si>
     <t>Ratio de Ingresantes/Postulantes prom. CONSTRUCCIÓN CIVIL</t>
   </si>
   <si>
@@ -1314,6 +1311,12 @@
   </si>
   <si>
     <t>RATIOS</t>
+  </si>
+  <si>
+    <t>Población Demandante Efectiva SIN PROYECTO de la Carrera de CONSTRUCCIÓN CIVIL</t>
+  </si>
+  <si>
+    <t>Postulantes que dirigen al ISPT "ASP"</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2360,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2880,9 +2883,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2949,6 +2949,48 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2973,21 +3015,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3018,15 +3045,39 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3034,9 +3085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3114,27 +3162,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3159,6 +3186,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3174,159 +3318,15 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3339,11 +3339,59 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4800,9 +4848,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="3175">
           <a:solidFill>
@@ -4810,7 +4856,7 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
               <a:alpha val="40000"/>
             </a:prstClr>
@@ -4839,10 +4885,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="1" u="sng" cap="none" spc="0">
+            <a:rPr lang="es-PE" sz="1100" b="0" u="sng" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4858,10 +4904,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100" b="1" u="sng" cap="none" spc="0">
+          <a:endParaRPr lang="es-PE" sz="1100" b="0" u="sng" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4879,7 +4925,7 @@
             <a:rPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4898,7 +4944,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4916,7 +4962,7 @@
             <a:rPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4935,7 +4981,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4952,7 +4998,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4969,7 +5015,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -4986,7 +5032,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -5003,7 +5049,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -5021,7 +5067,7 @@
             <a:rPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -5040,7 +5086,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -5057,7 +5103,7 @@
           <a:endParaRPr lang="es-PE" sz="1000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
@@ -5172,15 +5218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152961</xdr:rowOff>
+      <xdr:colOff>305921</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114862</xdr:rowOff>
+      <xdr:colOff>191622</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5195,7 +5241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="2875990"/>
+          <a:off x="305921" y="3156137"/>
           <a:ext cx="3998260" cy="432548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5647,7 +5693,7 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
               <a:alpha val="40000"/>
             </a:prstClr>
@@ -9198,27 +9244,27 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="199" t="s">
+      <c r="A117" s="212" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="204" t="s">
+      <c r="B117" s="217" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="205"/>
-      <c r="D117" s="205"/>
-      <c r="E117" s="205"/>
-      <c r="F117" s="205"/>
-      <c r="G117" s="205"/>
-      <c r="H117" s="205"/>
-      <c r="I117" s="205"/>
-      <c r="J117" s="205"/>
-      <c r="K117" s="205"/>
-      <c r="L117" s="205"/>
-      <c r="M117" s="205"/>
-      <c r="N117" s="206"/>
+      <c r="C117" s="218"/>
+      <c r="D117" s="218"/>
+      <c r="E117" s="218"/>
+      <c r="F117" s="218"/>
+      <c r="G117" s="218"/>
+      <c r="H117" s="218"/>
+      <c r="I117" s="218"/>
+      <c r="J117" s="218"/>
+      <c r="K117" s="218"/>
+      <c r="L117" s="218"/>
+      <c r="M117" s="218"/>
+      <c r="N117" s="219"/>
     </row>
     <row r="118" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="199"/>
+      <c r="A118" s="212"/>
       <c r="B118" s="53">
         <v>2019</v>
       </c>
@@ -9272,12 +9318,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="199"/>
-      <c r="B119" s="201" t="s">
+      <c r="A119" s="212"/>
+      <c r="B119" s="214" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="202"/>
-      <c r="D119" s="203"/>
+      <c r="C119" s="215"/>
+      <c r="D119" s="216"/>
       <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
@@ -9405,7 +9451,7 @@
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="200">
+      <c r="C126" s="213">
         <v>0.32675410103003655</v>
       </c>
       <c r="D126" s="49">
@@ -9418,7 +9464,7 @@
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="200">
+      <c r="H126" s="213">
         <v>0.32475247524752476</v>
       </c>
       <c r="I126" s="49">
@@ -9433,7 +9479,7 @@
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="200"/>
+      <c r="C127" s="213"/>
       <c r="D127" s="49">
         <f t="shared" ref="D127:D135" si="2">B127*$C$126</f>
         <v>118.61173867390326</v>
@@ -9444,7 +9490,7 @@
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="200"/>
+      <c r="H127" s="213"/>
       <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
@@ -9457,7 +9503,7 @@
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="200"/>
+      <c r="C128" s="213"/>
       <c r="D128" s="49">
         <f t="shared" si="2"/>
         <v>92.144656490470311</v>
@@ -9481,7 +9527,7 @@
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="200"/>
+      <c r="C129" s="213"/>
       <c r="D129" s="49">
         <f t="shared" si="2"/>
         <v>77.767476045148697</v>
@@ -9494,7 +9540,7 @@
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="200"/>
+      <c r="C130" s="213"/>
       <c r="D130" s="49">
         <f t="shared" si="2"/>
         <v>32.675410103003657</v>
@@ -9507,7 +9553,7 @@
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="200"/>
+      <c r="C131" s="213"/>
       <c r="D131" s="49">
         <f t="shared" si="2"/>
         <v>41.824524931844678</v>
@@ -9520,7 +9566,7 @@
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="200"/>
+      <c r="C132" s="213"/>
       <c r="D132" s="49">
         <f t="shared" si="2"/>
         <v>75.480197337938449</v>
@@ -9533,7 +9579,7 @@
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="200"/>
+      <c r="C133" s="213"/>
       <c r="D133" s="49">
         <f t="shared" si="2"/>
         <v>79.401246550298879</v>
@@ -9546,7 +9592,7 @@
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="200"/>
+      <c r="C134" s="213"/>
       <c r="D134" s="49">
         <f t="shared" si="2"/>
         <v>6.8618361216307679</v>
@@ -9559,7 +9605,7 @@
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="200"/>
+      <c r="C135" s="213"/>
       <c r="D135" s="49">
         <f t="shared" si="2"/>
         <v>41.171016729784604</v>
@@ -9597,6 +9643,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -9604,11 +9655,6 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9838,27 +9884,27 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="220" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="212"/>
-      <c r="O12" s="212"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="212"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="220"/>
     </row>
     <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="221" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="59">
@@ -9908,7 +9954,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="214"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
@@ -10355,7 +10401,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="176" t="s">
         <v>386</v>
       </c>
     </row>
@@ -10390,20 +10436,20 @@
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="K28" s="219" t="s">
+      <c r="K28" s="227" t="s">
         <v>362</v>
       </c>
-      <c r="L28" s="220"/>
-      <c r="M28" s="220"/>
-      <c r="N28" s="220"/>
-      <c r="O28" s="221"/>
+      <c r="L28" s="228"/>
+      <c r="M28" s="228"/>
+      <c r="N28" s="228"/>
+      <c r="O28" s="229"/>
       <c r="P28" s="141"/>
       <c r="Q28" s="141"/>
       <c r="R28" s="141"/>
       <c r="S28" s="141"/>
     </row>
     <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="215" t="s">
+      <c r="B29" s="223" t="s">
         <v>336</v>
       </c>
       <c r="C29" s="150" t="s">
@@ -10440,7 +10486,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="216"/>
+      <c r="B30" s="224"/>
       <c r="C30" s="150" t="s">
         <v>334</v>
       </c>
@@ -10469,7 +10515,7 @@
       <c r="O30" s="145"/>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="217" t="s">
+      <c r="B31" s="225" t="s">
         <v>335</v>
       </c>
       <c r="C31" s="149" t="s">
@@ -10512,7 +10558,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="218"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="149" t="s">
         <v>334</v>
       </c>
@@ -10608,10 +10654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7CF57-8EE0-43FD-AF13-2469FC1B265B}">
-  <dimension ref="B2:R67"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -10621,32 +10670,314 @@
     <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="176"/>
-    </row>
-    <row r="25" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="229" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="344"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="344"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="344"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="344"/>
+      <c r="B4" s="344"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="344"/>
+      <c r="I4" s="344"/>
+      <c r="J4" s="344"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="344"/>
+      <c r="B5" s="344"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="344"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="344"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="344"/>
+      <c r="B6" s="344"/>
+      <c r="C6" s="344"/>
+      <c r="D6" s="344"/>
+      <c r="E6" s="344"/>
+      <c r="F6" s="344"/>
+      <c r="G6" s="344"/>
+      <c r="H6" s="344"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="344"/>
+      <c r="K6" s="344"/>
+      <c r="L6" s="344"/>
+      <c r="M6" s="344"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="344"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="344"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="344"/>
+      <c r="M7" s="344"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="344"/>
+      <c r="B8" s="344"/>
+      <c r="C8" s="344"/>
+      <c r="D8" s="344"/>
+      <c r="E8" s="344"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="344"/>
+      <c r="M8" s="344"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="344"/>
+      <c r="B9" s="344"/>
+      <c r="C9" s="344"/>
+      <c r="D9" s="344"/>
+      <c r="E9" s="344"/>
+      <c r="F9" s="344"/>
+      <c r="G9" s="344"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="344"/>
+      <c r="J9" s="344"/>
+      <c r="K9" s="344"/>
+      <c r="L9" s="344"/>
+      <c r="M9" s="344"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="344"/>
+      <c r="B10" s="344"/>
+      <c r="C10" s="344"/>
+      <c r="D10" s="344"/>
+      <c r="E10" s="344"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="344"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="344"/>
+      <c r="B11" s="344"/>
+      <c r="C11" s="344"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="344"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="344"/>
+      <c r="B12" s="344"/>
+      <c r="C12" s="344"/>
+      <c r="D12" s="344"/>
+      <c r="E12" s="344"/>
+      <c r="F12" s="344"/>
+      <c r="G12" s="344"/>
+      <c r="H12" s="344"/>
+      <c r="I12" s="344"/>
+      <c r="J12" s="344"/>
+      <c r="K12" s="344"/>
+      <c r="L12" s="344"/>
+      <c r="M12" s="344"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="344"/>
+      <c r="B13" s="344"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="344"/>
+      <c r="H13" s="344"/>
+      <c r="I13" s="344"/>
+      <c r="J13" s="344"/>
+      <c r="K13" s="344"/>
+      <c r="L13" s="344"/>
+      <c r="M13" s="344"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="344"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="344"/>
+      <c r="J14" s="344"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="344"/>
+      <c r="M14" s="344"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="344"/>
+      <c r="B15" s="344"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="344"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="344"/>
+      <c r="I15" s="344"/>
+      <c r="J15" s="344"/>
+      <c r="K15" s="344"/>
+      <c r="L15" s="344"/>
+      <c r="M15" s="344"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="344"/>
+      <c r="B16" s="344"/>
+      <c r="C16" s="344"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="344"/>
+      <c r="G16" s="344"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="344"/>
+      <c r="J16" s="344"/>
+      <c r="K16" s="344"/>
+      <c r="L16" s="344"/>
+      <c r="M16" s="344"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="344"/>
+      <c r="B17" s="344"/>
+      <c r="C17" s="344"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="344"/>
+      <c r="L17" s="344"/>
+      <c r="M17" s="344"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="344"/>
+      <c r="B18" s="344"/>
+      <c r="C18" s="344"/>
+      <c r="D18" s="344"/>
+      <c r="E18" s="344"/>
+      <c r="F18" s="344"/>
+      <c r="G18" s="344"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="344"/>
+      <c r="J18" s="344"/>
+      <c r="K18" s="344"/>
+      <c r="L18" s="344"/>
+      <c r="M18" s="344"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="344"/>
+      <c r="B19" s="344"/>
+      <c r="C19" s="344"/>
+      <c r="D19" s="344"/>
+      <c r="E19" s="344"/>
+      <c r="F19" s="344"/>
+      <c r="G19" s="344"/>
+      <c r="H19" s="344"/>
+      <c r="I19" s="344"/>
+      <c r="J19" s="344"/>
+      <c r="K19" s="344"/>
+      <c r="L19" s="344"/>
+      <c r="M19" s="344"/>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="244" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="230"/>
-      <c r="K26" s="230"/>
-      <c r="L26" s="230"/>
-      <c r="M26" s="230"/>
-      <c r="N26" s="230"/>
-      <c r="O26" s="230"/>
-      <c r="P26" s="230"/>
-      <c r="Q26" s="230"/>
-      <c r="R26" s="231"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="245"/>
+      <c r="D26" s="245"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="245"/>
+      <c r="J26" s="245"/>
+      <c r="K26" s="245"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="245"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="245"/>
+      <c r="R26" s="246"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="173" t="s">
         <v>364</v>
       </c>
@@ -10714,7 +11045,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="167" t="s">
         <v>383</v>
       </c>
@@ -10758,7 +11089,7 @@
         <f>+'Pobl. Ingresante Total'!L14</f>
         <v>37</v>
       </c>
-      <c r="M28" s="198">
+      <c r="M28" s="197">
         <f>+'Pobl. Ingresante Total'!M14</f>
         <v>33</v>
       </c>
@@ -10783,7 +11114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="168" t="s">
         <v>382</v>
       </c>
@@ -10846,40 +11177,40 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="169" t="s">
         <v>363</v>
       </c>
-      <c r="C30" s="225">
+      <c r="C30" s="241">
         <f>((((G29+1)*(H29+1)*(I29+1)*(J29+1)*(K29+1)*(L29+1)*(M29+1)*(N29+1)*(O29+1)*(P29+1)*(Q29+1)*(R29+1))^(1/12))-1)</f>
         <v>3.1770758844814617E-2</v>
       </c>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="226"/>
-      <c r="M30" s="226"/>
-      <c r="N30" s="226"/>
-      <c r="O30" s="226"/>
-      <c r="P30" s="226"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="227"/>
-    </row>
-    <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="242"/>
+      <c r="L30" s="242"/>
+      <c r="M30" s="242"/>
+      <c r="N30" s="242"/>
+      <c r="O30" s="242"/>
+      <c r="P30" s="242"/>
+      <c r="Q30" s="242"/>
+      <c r="R30" s="243"/>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="33" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="228" t="s">
+      <c r="C33" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="228"/>
+      <c r="D33" s="230"/>
       <c r="E33" s="154" t="s">
         <v>245</v>
       </c>
@@ -11016,109 +11347,109 @@
     </row>
     <row r="36" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="242" t="s">
+      <c r="B37" s="257" t="s">
         <v>397</v>
       </c>
-      <c r="C37" s="243"/>
-      <c r="D37" s="243"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="243"/>
-      <c r="G37" s="243"/>
-      <c r="H37" s="243"/>
-      <c r="I37" s="243"/>
-      <c r="J37" s="243"/>
-      <c r="K37" s="243"/>
-      <c r="L37" s="243"/>
-      <c r="M37" s="243"/>
-      <c r="N37" s="243"/>
-      <c r="O37" s="243"/>
-      <c r="P37" s="243"/>
-      <c r="Q37" s="244"/>
+      <c r="C37" s="258"/>
+      <c r="D37" s="258"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="258"/>
+      <c r="H37" s="258"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="258"/>
+      <c r="N37" s="258"/>
+      <c r="O37" s="258"/>
+      <c r="P37" s="258"/>
+      <c r="Q37" s="259"/>
     </row>
     <row r="38" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="245"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="246"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="246"/>
-      <c r="G38" s="246"/>
-      <c r="H38" s="246"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="246"/>
-      <c r="K38" s="246"/>
-      <c r="L38" s="246"/>
-      <c r="M38" s="246"/>
-      <c r="N38" s="246"/>
-      <c r="O38" s="246"/>
-      <c r="P38" s="246"/>
-      <c r="Q38" s="247"/>
+      <c r="B38" s="260"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
+      <c r="G38" s="261"/>
+      <c r="H38" s="261"/>
+      <c r="I38" s="261"/>
+      <c r="J38" s="261"/>
+      <c r="K38" s="261"/>
+      <c r="L38" s="261"/>
+      <c r="M38" s="261"/>
+      <c r="N38" s="261"/>
+      <c r="O38" s="261"/>
+      <c r="P38" s="261"/>
+      <c r="Q38" s="262"/>
     </row>
     <row r="40" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="263" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="249"/>
-      <c r="D40" s="249"/>
-      <c r="E40" s="249"/>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="249"/>
-      <c r="I40" s="249"/>
-      <c r="J40" s="249"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="249"/>
-      <c r="M40" s="249"/>
-      <c r="N40" s="253" t="s">
+      <c r="C40" s="264"/>
+      <c r="D40" s="264"/>
+      <c r="E40" s="264"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="264"/>
+      <c r="J40" s="264"/>
+      <c r="K40" s="264"/>
+      <c r="L40" s="264"/>
+      <c r="M40" s="264"/>
+      <c r="N40" s="268" t="s">
         <v>394</v>
       </c>
-      <c r="O40" s="253"/>
-      <c r="P40" s="253"/>
-      <c r="Q40" s="253"/>
+      <c r="O40" s="268"/>
+      <c r="P40" s="268"/>
+      <c r="Q40" s="268"/>
     </row>
     <row r="41" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="188" t="s">
+      <c r="B41" s="187" t="s">
         <v>364</v>
       </c>
-      <c r="C41" s="189">
+      <c r="C41" s="188">
         <v>2005</v>
       </c>
-      <c r="D41" s="189">
+      <c r="D41" s="188">
         <f>+C41+1</f>
         <v>2006</v>
       </c>
-      <c r="E41" s="189">
+      <c r="E41" s="188">
         <f t="shared" ref="E41:M41" si="17">+D41+1</f>
         <v>2007</v>
       </c>
-      <c r="F41" s="189">
+      <c r="F41" s="188">
         <f t="shared" si="17"/>
         <v>2008</v>
       </c>
-      <c r="G41" s="189">
+      <c r="G41" s="188">
         <f t="shared" si="17"/>
         <v>2009</v>
       </c>
-      <c r="H41" s="189">
+      <c r="H41" s="188">
         <f t="shared" si="17"/>
         <v>2010</v>
       </c>
-      <c r="I41" s="189">
+      <c r="I41" s="188">
         <f t="shared" si="17"/>
         <v>2011</v>
       </c>
-      <c r="J41" s="189">
+      <c r="J41" s="188">
         <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-      <c r="K41" s="189">
+      <c r="K41" s="188">
         <f t="shared" si="17"/>
         <v>2013</v>
       </c>
-      <c r="L41" s="189">
+      <c r="L41" s="188">
         <f t="shared" si="17"/>
         <v>2014</v>
       </c>
-      <c r="M41" s="189">
+      <c r="M41" s="188">
         <f t="shared" si="17"/>
         <v>2015</v>
       </c>
@@ -11140,7 +11471,7 @@
       </c>
     </row>
     <row r="42" spans="2:17" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="186" t="s">
+      <c r="B42" s="185" t="s">
         <v>383</v>
       </c>
       <c r="C42" s="139">
@@ -11183,7 +11514,7 @@
         <f>+'Pobl. Ingresante Total'!L14</f>
         <v>37</v>
       </c>
-      <c r="M42" s="185">
+      <c r="M42" s="184">
         <f>+'matriculados Ind. Aprob.'!C11</f>
         <v>34</v>
       </c>
@@ -11248,66 +11579,66 @@
       </c>
     </row>
     <row r="44" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="191" t="s">
+      <c r="B44" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="239">
+      <c r="C44" s="254">
         <f>(((G43+1)*(H43+1)*(I43+1)*(J43+1)*(K43+1)*(L43+1)*(M43+1))^(1/7))-1</f>
         <v>-1.4980170647666657E-2</v>
       </c>
-      <c r="D44" s="240"/>
-      <c r="E44" s="240"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="240"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="241"/>
+      <c r="D44" s="255"/>
+      <c r="E44" s="255"/>
+      <c r="F44" s="255"/>
+      <c r="G44" s="255"/>
+      <c r="H44" s="255"/>
+      <c r="I44" s="255"/>
+      <c r="J44" s="255"/>
+      <c r="K44" s="255"/>
+      <c r="L44" s="255"/>
+      <c r="M44" s="256"/>
     </row>
     <row r="45" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:17" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="250" t="s">
+      <c r="B46" s="265" t="s">
         <v>385</v>
       </c>
-      <c r="C46" s="251"/>
-      <c r="D46" s="251"/>
-      <c r="E46" s="251"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="251"/>
-      <c r="H46" s="252"/>
+      <c r="C46" s="266"/>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
+      <c r="H46" s="267"/>
     </row>
     <row r="47" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="190" t="s">
+      <c r="B47" s="189" t="s">
         <v>364</v>
       </c>
-      <c r="C47" s="189">
+      <c r="C47" s="188">
         <v>2015</v>
       </c>
-      <c r="D47" s="189">
+      <c r="D47" s="188">
         <f>+C47+1</f>
         <v>2016</v>
       </c>
-      <c r="E47" s="189">
+      <c r="E47" s="188">
         <f t="shared" ref="E47:H47" si="23">+D47+1</f>
         <v>2017</v>
       </c>
-      <c r="F47" s="189">
+      <c r="F47" s="188">
         <f t="shared" si="23"/>
         <v>2018</v>
       </c>
-      <c r="G47" s="189">
+      <c r="G47" s="188">
         <f t="shared" si="23"/>
         <v>2019</v>
       </c>
-      <c r="H47" s="189">
+      <c r="H47" s="188">
         <f t="shared" si="23"/>
         <v>2020</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="187" t="s">
+      <c r="B48" s="186" t="s">
         <v>383</v>
       </c>
       <c r="C48" s="139"/>
@@ -11356,18 +11687,18 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="192" t="s">
+      <c r="B50" s="191" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="236">
+      <c r="C50" s="251">
         <f>((((E49+1)*(F49+1)*(G49+1)*(H49+1))^(1/4))-1)</f>
         <v>8.9744085549771979E-2</v>
       </c>
-      <c r="D50" s="237"/>
-      <c r="E50" s="237"/>
-      <c r="F50" s="237"/>
-      <c r="G50" s="237"/>
-      <c r="H50" s="238"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
+      <c r="F50" s="252"/>
+      <c r="G50" s="252"/>
+      <c r="H50" s="253"/>
       <c r="J50" s="164">
         <f>AVERAGE(C44,C50)</f>
         <v>3.7381957451052661E-2</v>
@@ -11375,63 +11706,63 @@
     </row>
     <row r="53" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="240" t="s">
         <v>367</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="223"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="223"/>
-      <c r="H54" s="223"/>
-      <c r="I54" s="223"/>
-      <c r="J54" s="223"/>
-      <c r="K54" s="223"/>
-      <c r="L54" s="223"/>
-      <c r="M54" s="223"/>
-      <c r="N54" s="224"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="232"/>
+      <c r="H54" s="232"/>
+      <c r="I54" s="232"/>
+      <c r="J54" s="232"/>
+      <c r="K54" s="232"/>
+      <c r="L54" s="232"/>
+      <c r="M54" s="232"/>
+      <c r="N54" s="233"/>
     </row>
     <row r="55" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="234" t="s">
+      <c r="B55" s="249" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="232" t="s">
+      <c r="C55" s="247" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="233"/>
-      <c r="E55" s="188" t="s">
+      <c r="D55" s="248"/>
+      <c r="E55" s="187" t="s">
         <v>371</v>
       </c>
-      <c r="F55" s="188" t="s">
+      <c r="F55" s="187" t="s">
         <v>372</v>
       </c>
-      <c r="G55" s="188" t="s">
+      <c r="G55" s="187" t="s">
         <v>373</v>
       </c>
-      <c r="H55" s="188" t="s">
+      <c r="H55" s="187" t="s">
         <v>374</v>
       </c>
-      <c r="I55" s="188" t="s">
+      <c r="I55" s="187" t="s">
         <v>375</v>
       </c>
-      <c r="J55" s="188" t="s">
+      <c r="J55" s="187" t="s">
         <v>376</v>
       </c>
-      <c r="K55" s="188" t="s">
+      <c r="K55" s="187" t="s">
         <v>377</v>
       </c>
-      <c r="L55" s="188" t="s">
+      <c r="L55" s="187" t="s">
         <v>378</v>
       </c>
-      <c r="M55" s="188" t="s">
+      <c r="M55" s="187" t="s">
         <v>379</v>
       </c>
-      <c r="N55" s="188" t="s">
+      <c r="N55" s="187" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="235"/>
+      <c r="B56" s="250"/>
       <c r="C56" s="161">
         <f>+Q41+1</f>
         <v>2020</v>
@@ -11536,30 +11867,30 @@
     </row>
     <row r="58" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="222" t="s">
+      <c r="B59" s="240" t="s">
         <v>367</v>
       </c>
-      <c r="C59" s="223"/>
-      <c r="D59" s="223"/>
-      <c r="E59" s="223"/>
-      <c r="F59" s="223"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="223"/>
-      <c r="I59" s="223"/>
-      <c r="J59" s="223"/>
-      <c r="K59" s="223"/>
-      <c r="L59" s="223"/>
-      <c r="M59" s="223"/>
-      <c r="N59" s="224"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="232"/>
+      <c r="I59" s="232"/>
+      <c r="J59" s="232"/>
+      <c r="K59" s="232"/>
+      <c r="L59" s="232"/>
+      <c r="M59" s="232"/>
+      <c r="N59" s="233"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="258" t="s">
+      <c r="B60" s="237" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="259" t="s">
+      <c r="C60" s="238" t="s">
         <v>370</v>
       </c>
-      <c r="D60" s="260"/>
+      <c r="D60" s="239"/>
       <c r="E60" s="162" t="s">
         <v>371</v>
       </c>
@@ -11592,7 +11923,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="258"/>
+      <c r="B61" s="237"/>
       <c r="C61" s="163">
         <v>2020</v>
       </c>
@@ -11696,30 +12027,30 @@
     </row>
     <row r="63" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="254" t="s">
+      <c r="B64" s="231" t="s">
         <v>367</v>
       </c>
-      <c r="C64" s="223"/>
-      <c r="D64" s="223"/>
-      <c r="E64" s="223"/>
-      <c r="F64" s="223"/>
-      <c r="G64" s="223"/>
-      <c r="H64" s="223"/>
-      <c r="I64" s="223"/>
-      <c r="J64" s="223"/>
-      <c r="K64" s="223"/>
-      <c r="L64" s="223"/>
-      <c r="M64" s="223"/>
-      <c r="N64" s="224"/>
+      <c r="C64" s="232"/>
+      <c r="D64" s="232"/>
+      <c r="E64" s="232"/>
+      <c r="F64" s="232"/>
+      <c r="G64" s="232"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="232"/>
+      <c r="J64" s="232"/>
+      <c r="K64" s="232"/>
+      <c r="L64" s="232"/>
+      <c r="M64" s="232"/>
+      <c r="N64" s="233"/>
     </row>
     <row r="65" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="255" t="s">
+      <c r="B65" s="234" t="s">
         <v>384</v>
       </c>
-      <c r="C65" s="228" t="s">
+      <c r="C65" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="228"/>
+      <c r="D65" s="230"/>
       <c r="E65" s="158" t="s">
         <v>245</v>
       </c>
@@ -11752,7 +12083,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="256"/>
+      <c r="B66" s="235"/>
       <c r="C66" s="165">
         <v>2020</v>
       </c>
@@ -11802,63 +12133,58 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="257"/>
-      <c r="C67" s="193">
+      <c r="B67" s="236"/>
+      <c r="C67" s="192">
         <f t="shared" ref="C67:N67" si="58">+C57+C62</f>
         <v>93.586022862025033</v>
       </c>
-      <c r="D67" s="193">
+      <c r="D67" s="192">
         <f t="shared" si="58"/>
         <v>96.559321825619747</v>
       </c>
-      <c r="E67" s="193">
+      <c r="E67" s="192">
         <f t="shared" si="58"/>
         <v>99.627084753560354</v>
       </c>
-      <c r="F67" s="193">
+      <c r="F67" s="192">
         <f t="shared" si="58"/>
         <v>102.79231283767763</v>
       </c>
-      <c r="G67" s="193">
+      <c r="G67" s="192">
         <f t="shared" si="58"/>
         <v>106.05810261994422</v>
       </c>
-      <c r="H67" s="193">
+      <c r="H67" s="192">
         <f t="shared" si="58"/>
         <v>109.42764902182107</v>
       </c>
-      <c r="I67" s="193">
+      <c r="I67" s="192">
         <f t="shared" si="58"/>
         <v>112.90424846984837</v>
       </c>
-      <c r="J67" s="193">
+      <c r="J67" s="192">
         <f t="shared" si="58"/>
         <v>116.49130212053895</v>
       </c>
-      <c r="K67" s="193">
+      <c r="K67" s="192">
         <f t="shared" si="58"/>
         <v>120.19231918772903</v>
       </c>
-      <c r="L67" s="193">
+      <c r="L67" s="192">
         <f t="shared" si="58"/>
         <v>124.01092037564135</v>
       </c>
-      <c r="M67" s="193">
+      <c r="M67" s="192">
         <f t="shared" si="58"/>
         <v>127.95084142101936</v>
       </c>
-      <c r="N67" s="193">
+      <c r="N67" s="192">
         <f t="shared" si="58"/>
         <v>132.0159367477977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D60"/>
     <mergeCell ref="B54:N54"/>
     <mergeCell ref="B59:N59"/>
     <mergeCell ref="C30:R30"/>
@@ -11872,6 +12198,11 @@
     <mergeCell ref="B40:M40"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D60"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11882,15 +12213,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A458A3-5EF2-4FA8-9CDF-DA2FA9E33C01}">
-  <dimension ref="B13:O33"/>
+  <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
@@ -11899,66 +12230,216 @@
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="261" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="344"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="344"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="344"/>
+      <c r="B4" s="344"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="344"/>
+      <c r="I4" s="344"/>
+      <c r="J4" s="344"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="344"/>
+      <c r="B5" s="344"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="344"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="344"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="344"/>
+      <c r="B6" s="344"/>
+      <c r="C6" s="344"/>
+      <c r="D6" s="344"/>
+      <c r="E6" s="344"/>
+      <c r="F6" s="344"/>
+      <c r="G6" s="344"/>
+      <c r="H6" s="344"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="344"/>
+      <c r="K6" s="344"/>
+      <c r="L6" s="344"/>
+      <c r="M6" s="344"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="344"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="344"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="344"/>
+      <c r="M7" s="344"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="344"/>
+      <c r="B8" s="344"/>
+      <c r="C8" s="344"/>
+      <c r="D8" s="344"/>
+      <c r="E8" s="344"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="344"/>
+      <c r="M8" s="344"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="344"/>
+      <c r="B9" s="344"/>
+      <c r="C9" s="344"/>
+      <c r="D9" s="344"/>
+      <c r="E9" s="344"/>
+      <c r="F9" s="344"/>
+      <c r="G9" s="344"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="344"/>
+      <c r="J9" s="344"/>
+      <c r="K9" s="344"/>
+      <c r="L9" s="344"/>
+      <c r="M9" s="344"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="344"/>
+      <c r="B10" s="344"/>
+      <c r="C10" s="344"/>
+      <c r="D10" s="344"/>
+      <c r="E10" s="344"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="344"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="344"/>
+      <c r="B11" s="344"/>
+      <c r="C11" s="344"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="344"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="269" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="262"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="263"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="264" t="s">
+      <c r="C13" s="270"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="271"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="272" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="265"/>
-      <c r="D14" s="265"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="266"/>
-    </row>
-    <row r="15" spans="2:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="182" t="s">
+      <c r="C14" s="273"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="274"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="178">
         <v>2015</v>
       </c>
-      <c r="D15" s="180">
+      <c r="D15" s="179">
         <f>+'Pobl. Ingresante Total'!D29</f>
         <v>30</v>
       </c>
-      <c r="E15" s="180">
+      <c r="E15" s="179">
         <f>+'matriculados Ind. Aprob.'!C5</f>
         <v>15</v>
       </c>
-      <c r="F15" s="183">
+      <c r="F15" s="182">
         <f>E15/D15</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="157" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="178">
         <v>2020</v>
       </c>
-      <c r="D16" s="180">
+      <c r="D16" s="179">
         <f>+'Pobl. Ingresante Total'!I31</f>
         <v>30</v>
       </c>
-      <c r="E16" s="181">
+      <c r="E16" s="180">
         <f>+'matriculados Ind. Aprob.'!M27</f>
         <v>16</v>
       </c>
-      <c r="F16" s="184">
+      <c r="F16" s="183">
         <f>E16/D16</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="176" t="s">
         <v>390</v>
       </c>
       <c r="F17" s="164">
@@ -11967,63 +12448,63 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="267" t="s">
+      <c r="B19" s="275" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="267"/>
-      <c r="I19" s="267"/>
-      <c r="J19" s="267"/>
-      <c r="K19" s="267"/>
-      <c r="L19" s="267"/>
-      <c r="M19" s="267"/>
-      <c r="N19" s="267"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="275"/>
+      <c r="I19" s="275"/>
+      <c r="J19" s="275"/>
+      <c r="K19" s="275"/>
+      <c r="L19" s="275"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="275"/>
     </row>
     <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="276" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C20" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="228"/>
-      <c r="E20" s="178" t="s">
+      <c r="D20" s="230"/>
+      <c r="E20" s="177" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="178" t="s">
+      <c r="F20" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="178" t="s">
+      <c r="G20" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="178" t="s">
+      <c r="H20" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="I20" s="178" t="s">
+      <c r="I20" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="J20" s="178" t="s">
+      <c r="J20" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="K20" s="178" t="s">
+      <c r="K20" s="177" t="s">
         <v>251</v>
       </c>
-      <c r="L20" s="178" t="s">
+      <c r="L20" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="M20" s="178" t="s">
+      <c r="M20" s="177" t="s">
         <v>253</v>
       </c>
-      <c r="N20" s="178" t="s">
+      <c r="N20" s="177" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="268"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="165">
         <v>2020</v>
       </c>
@@ -12073,7 +12554,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="268"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="49">
         <f>'Pobl. Ingresante Total'!D29*'Pobl. Potencial'!F15</f>
         <v>15</v>
@@ -12125,63 +12606,63 @@
       <c r="O22" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="267" t="s">
+      <c r="B24" s="275" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="267"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="267"/>
-      <c r="G24" s="267"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="267"/>
-      <c r="J24" s="267"/>
-      <c r="K24" s="267"/>
-      <c r="L24" s="267"/>
-      <c r="M24" s="267"/>
-      <c r="N24" s="267"/>
+      <c r="C24" s="275"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="275"/>
+      <c r="F24" s="275"/>
+      <c r="G24" s="275"/>
+      <c r="H24" s="275"/>
+      <c r="I24" s="275"/>
+      <c r="J24" s="275"/>
+      <c r="K24" s="275"/>
+      <c r="L24" s="275"/>
+      <c r="M24" s="275"/>
+      <c r="N24" s="275"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="268" t="s">
+      <c r="B25" s="276" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="228" t="s">
+      <c r="C25" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="228"/>
-      <c r="E25" s="178" t="s">
+      <c r="D25" s="230"/>
+      <c r="E25" s="177" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="178" t="s">
+      <c r="F25" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="178" t="s">
+      <c r="G25" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="H25" s="178" t="s">
+      <c r="H25" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="178" t="s">
+      <c r="I25" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="178" t="s">
+      <c r="J25" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="K25" s="178" t="s">
+      <c r="K25" s="177" t="s">
         <v>251</v>
       </c>
-      <c r="L25" s="178" t="s">
+      <c r="L25" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="M25" s="178" t="s">
+      <c r="M25" s="177" t="s">
         <v>253</v>
       </c>
-      <c r="N25" s="178" t="s">
+      <c r="N25" s="177" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="268"/>
+      <c r="B26" s="276"/>
       <c r="C26" s="165">
         <v>2020</v>
       </c>
@@ -12231,7 +12712,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="268"/>
+      <c r="B27" s="276"/>
       <c r="C27" s="49">
         <f>'Pobl. Ingresante Total'!I31*'Pobl. Potencial'!F16</f>
         <v>16</v>
@@ -12289,63 +12770,63 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="267" t="s">
+      <c r="B30" s="275" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="267"/>
-      <c r="K30" s="267"/>
-      <c r="L30" s="267"/>
-      <c r="M30" s="267"/>
-      <c r="N30" s="267"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="275"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="275"/>
+      <c r="K30" s="275"/>
+      <c r="L30" s="275"/>
+      <c r="M30" s="275"/>
+      <c r="N30" s="275"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="268" t="s">
+      <c r="B31" s="276" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="228" t="s">
+      <c r="C31" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="228"/>
-      <c r="E31" s="178" t="s">
+      <c r="D31" s="230"/>
+      <c r="E31" s="177" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="178" t="s">
+      <c r="F31" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="G31" s="178" t="s">
+      <c r="G31" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="178" t="s">
+      <c r="H31" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="I31" s="178" t="s">
+      <c r="I31" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="J31" s="178" t="s">
+      <c r="J31" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="K31" s="178" t="s">
+      <c r="K31" s="177" t="s">
         <v>251</v>
       </c>
-      <c r="L31" s="178" t="s">
+      <c r="L31" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="M31" s="178" t="s">
+      <c r="M31" s="177" t="s">
         <v>253</v>
       </c>
-      <c r="N31" s="178" t="s">
+      <c r="N31" s="177" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="268"/>
+      <c r="B32" s="276"/>
       <c r="C32" s="165">
         <v>2020</v>
       </c>
@@ -12395,7 +12876,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="268"/>
+      <c r="B33" s="276"/>
       <c r="C33" s="49">
         <f>+C22+C27</f>
         <v>31</v>
@@ -12468,10 +12949,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE765B5-C02C-4406-9DFD-504504C6F65F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K21"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12493,69 +12977,69 @@
   <sheetData>
     <row r="1" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="270" t="s">
+      <c r="V2" s="317" t="s">
         <v>337</v>
       </c>
-      <c r="W2" s="271"/>
-      <c r="X2" s="271"/>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="271"/>
-      <c r="AA2" s="271"/>
-      <c r="AB2" s="271"/>
-      <c r="AC2" s="271"/>
-      <c r="AD2" s="271"/>
-      <c r="AE2" s="271"/>
-      <c r="AF2" s="271"/>
-      <c r="AG2" s="271"/>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="271"/>
-      <c r="AJ2" s="271"/>
-      <c r="AK2" s="271"/>
-      <c r="AL2" s="271"/>
-      <c r="AM2" s="271"/>
-      <c r="AN2" s="271"/>
-      <c r="AO2" s="271"/>
-      <c r="AP2" s="271"/>
-      <c r="AQ2" s="271"/>
-      <c r="AR2" s="271"/>
-      <c r="AS2" s="272"/>
+      <c r="W2" s="318"/>
+      <c r="X2" s="318"/>
+      <c r="Y2" s="318"/>
+      <c r="Z2" s="318"/>
+      <c r="AA2" s="318"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="318"/>
+      <c r="AD2" s="318"/>
+      <c r="AE2" s="318"/>
+      <c r="AF2" s="318"/>
+      <c r="AG2" s="318"/>
+      <c r="AH2" s="318"/>
+      <c r="AI2" s="318"/>
+      <c r="AJ2" s="318"/>
+      <c r="AK2" s="318"/>
+      <c r="AL2" s="318"/>
+      <c r="AM2" s="318"/>
+      <c r="AN2" s="318"/>
+      <c r="AO2" s="318"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="318"/>
+      <c r="AR2" s="318"/>
+      <c r="AS2" s="319"/>
       <c r="AT2" s="70"/>
       <c r="AU2" s="70"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="320" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274">
+      <c r="B3" s="320"/>
+      <c r="C3" s="282">
         <v>2015</v>
       </c>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274">
+      <c r="D3" s="282"/>
+      <c r="E3" s="282">
         <f>+C3+1</f>
         <v>2016</v>
       </c>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274">
+      <c r="F3" s="282"/>
+      <c r="G3" s="282">
         <f t="shared" ref="G3" si="0">+E3+1</f>
         <v>2017</v>
       </c>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274">
+      <c r="H3" s="282"/>
+      <c r="I3" s="282">
         <f t="shared" ref="I3" si="1">+G3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274">
+      <c r="J3" s="282"/>
+      <c r="K3" s="282">
         <f t="shared" ref="K3" si="2">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274">
+      <c r="L3" s="282"/>
+      <c r="M3" s="282">
         <f t="shared" ref="M3" si="3">+K3+1</f>
         <v>2020</v>
       </c>
-      <c r="N3" s="274"/>
+      <c r="N3" s="282"/>
       <c r="P3" s="123" t="s">
         <v>354</v>
       </c>
@@ -12565,74 +13049,74 @@
       <c r="T3" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="V3" s="275">
+      <c r="V3" s="321">
         <v>2020</v>
       </c>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276">
+      <c r="W3" s="315"/>
+      <c r="X3" s="315">
         <f>+V3+1</f>
         <v>2021</v>
       </c>
-      <c r="Y3" s="276"/>
-      <c r="Z3" s="276">
+      <c r="Y3" s="315"/>
+      <c r="Z3" s="315">
         <f t="shared" ref="Z3" si="4">+X3+1</f>
         <v>2022</v>
       </c>
-      <c r="AA3" s="276"/>
-      <c r="AB3" s="276">
+      <c r="AA3" s="315"/>
+      <c r="AB3" s="315">
         <f t="shared" ref="AB3" si="5">+Z3+1</f>
         <v>2023</v>
       </c>
-      <c r="AC3" s="276"/>
-      <c r="AD3" s="276">
+      <c r="AC3" s="315"/>
+      <c r="AD3" s="315">
         <f t="shared" ref="AD3" si="6">+AB3+1</f>
         <v>2024</v>
       </c>
-      <c r="AE3" s="276"/>
-      <c r="AF3" s="276">
+      <c r="AE3" s="315"/>
+      <c r="AF3" s="315">
         <f t="shared" ref="AF3" si="7">+AD3+1</f>
         <v>2025</v>
       </c>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="276">
+      <c r="AG3" s="315"/>
+      <c r="AH3" s="315">
         <f t="shared" ref="AH3" si="8">+AF3+1</f>
         <v>2026</v>
       </c>
-      <c r="AI3" s="276"/>
-      <c r="AJ3" s="276">
+      <c r="AI3" s="315"/>
+      <c r="AJ3" s="315">
         <f t="shared" ref="AJ3" si="9">+AH3+1</f>
         <v>2027</v>
       </c>
-      <c r="AK3" s="276"/>
-      <c r="AL3" s="276">
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315">
         <f t="shared" ref="AL3" si="10">+AJ3+1</f>
         <v>2028</v>
       </c>
-      <c r="AM3" s="276"/>
-      <c r="AN3" s="276">
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="315">
         <f t="shared" ref="AN3" si="11">+AL3+1</f>
         <v>2029</v>
       </c>
-      <c r="AO3" s="276"/>
-      <c r="AP3" s="276">
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315">
         <f t="shared" ref="AP3" si="12">+AN3+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ3" s="276"/>
-      <c r="AR3" s="276">
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="315">
         <f t="shared" ref="AR3" si="13">+AP3+1</f>
         <v>2031</v>
       </c>
-      <c r="AS3" s="277"/>
-      <c r="AT3" s="278">
+      <c r="AS3" s="322"/>
+      <c r="AT3" s="310">
         <f t="shared" ref="AT3" si="14">+AR3+1</f>
         <v>2032</v>
       </c>
-      <c r="AU3" s="279"/>
+      <c r="AU3" s="311"/>
     </row>
     <row r="4" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="273"/>
-      <c r="B4" s="273"/>
+      <c r="A4" s="320"/>
+      <c r="B4" s="320"/>
       <c r="C4" s="102" t="s">
         <v>280</v>
       </c>
@@ -12760,7 +13244,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="230" t="s">
         <v>338</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -12826,7 +13310,7 @@
       <c r="AU5" s="133"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="228"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="32" t="s">
         <v>281</v>
       </c>
@@ -12890,7 +13374,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="228"/>
+      <c r="A7" s="230"/>
       <c r="B7" s="32" t="s">
         <v>282</v>
       </c>
@@ -12953,7 +13437,7 @@
       <c r="AU7" s="133"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="228"/>
+      <c r="A8" s="230"/>
       <c r="B8" s="32" t="s">
         <v>283</v>
       </c>
@@ -13016,7 +13500,7 @@
       <c r="AU8" s="133"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
+      <c r="A9" s="230"/>
       <c r="B9" s="32" t="s">
         <v>284</v>
       </c>
@@ -13081,7 +13565,7 @@
       <c r="AU9" s="133"/>
     </row>
     <row r="10" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="228"/>
+      <c r="A10" s="230"/>
       <c r="B10" s="32" t="s">
         <v>285</v>
       </c>
@@ -13146,7 +13630,7 @@
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:51" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="230"/>
       <c r="B11" s="32" t="s">
         <v>339</v>
       </c>
@@ -13238,124 +13722,124 @@
     </row>
     <row r="12" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V13" s="280" t="s">
+      <c r="V13" s="312" t="s">
         <v>340</v>
       </c>
-      <c r="W13" s="281"/>
-      <c r="X13" s="281"/>
-      <c r="Y13" s="281"/>
-      <c r="Z13" s="281"/>
-      <c r="AA13" s="281"/>
-      <c r="AB13" s="281"/>
-      <c r="AC13" s="281"/>
-      <c r="AD13" s="281"/>
-      <c r="AE13" s="281"/>
-      <c r="AF13" s="281"/>
-      <c r="AG13" s="281"/>
-      <c r="AH13" s="281"/>
-      <c r="AI13" s="281"/>
-      <c r="AJ13" s="281"/>
-      <c r="AK13" s="281"/>
-      <c r="AL13" s="281"/>
-      <c r="AM13" s="281"/>
-      <c r="AN13" s="281"/>
-      <c r="AO13" s="281"/>
-      <c r="AP13" s="281"/>
-      <c r="AQ13" s="281"/>
-      <c r="AR13" s="281"/>
-      <c r="AS13" s="281"/>
-      <c r="AT13" s="281"/>
-      <c r="AU13" s="282"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
+      <c r="Y13" s="313"/>
+      <c r="Z13" s="313"/>
+      <c r="AA13" s="313"/>
+      <c r="AB13" s="313"/>
+      <c r="AC13" s="313"/>
+      <c r="AD13" s="313"/>
+      <c r="AE13" s="313"/>
+      <c r="AF13" s="313"/>
+      <c r="AG13" s="313"/>
+      <c r="AH13" s="313"/>
+      <c r="AI13" s="313"/>
+      <c r="AJ13" s="313"/>
+      <c r="AK13" s="313"/>
+      <c r="AL13" s="313"/>
+      <c r="AM13" s="313"/>
+      <c r="AN13" s="313"/>
+      <c r="AO13" s="313"/>
+      <c r="AP13" s="313"/>
+      <c r="AQ13" s="313"/>
+      <c r="AR13" s="313"/>
+      <c r="AS13" s="313"/>
+      <c r="AT13" s="313"/>
+      <c r="AU13" s="314"/>
     </row>
     <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="289" t="s">
+      <c r="A14" s="302" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="290" t="s">
+      <c r="B14" s="303" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="291"/>
-      <c r="D14" s="294" t="s">
+      <c r="C14" s="304"/>
+      <c r="D14" s="299" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="295"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="294"/>
-      <c r="I14" s="295"/>
+      <c r="E14" s="300"/>
+      <c r="F14" s="299"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="300"/>
       <c r="K14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="V14" s="287">
+      <c r="V14" s="309">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W14" s="285"/>
-      <c r="X14" s="285">
+      <c r="W14" s="307"/>
+      <c r="X14" s="307">
         <f>+V14+1</f>
         <v>2021</v>
       </c>
-      <c r="Y14" s="285"/>
-      <c r="Z14" s="285">
+      <c r="Y14" s="307"/>
+      <c r="Z14" s="307">
         <f t="shared" ref="Z14" si="17">+X14+1</f>
         <v>2022</v>
       </c>
-      <c r="AA14" s="285"/>
-      <c r="AB14" s="285">
+      <c r="AA14" s="307"/>
+      <c r="AB14" s="307">
         <f t="shared" ref="AB14" si="18">+Z14+1</f>
         <v>2023</v>
       </c>
-      <c r="AC14" s="285"/>
-      <c r="AD14" s="285">
+      <c r="AC14" s="307"/>
+      <c r="AD14" s="307">
         <f t="shared" ref="AD14" si="19">+AB14+1</f>
         <v>2024</v>
       </c>
-      <c r="AE14" s="285"/>
-      <c r="AF14" s="285">
+      <c r="AE14" s="307"/>
+      <c r="AF14" s="307">
         <f t="shared" ref="AF14" si="20">+AD14+1</f>
         <v>2025</v>
       </c>
-      <c r="AG14" s="285"/>
-      <c r="AH14" s="285">
+      <c r="AG14" s="307"/>
+      <c r="AH14" s="307">
         <f t="shared" ref="AH14" si="21">+AF14+1</f>
         <v>2026</v>
       </c>
-      <c r="AI14" s="285"/>
-      <c r="AJ14" s="285">
+      <c r="AI14" s="307"/>
+      <c r="AJ14" s="307">
         <f t="shared" ref="AJ14" si="22">+AH14+1</f>
         <v>2027</v>
       </c>
-      <c r="AK14" s="285"/>
-      <c r="AL14" s="285">
+      <c r="AK14" s="307"/>
+      <c r="AL14" s="307">
         <f t="shared" ref="AL14" si="23">+AJ14+1</f>
         <v>2028</v>
       </c>
-      <c r="AM14" s="285"/>
-      <c r="AN14" s="285">
+      <c r="AM14" s="307"/>
+      <c r="AN14" s="307">
         <f t="shared" ref="AN14" si="24">+AL14+1</f>
         <v>2029</v>
       </c>
-      <c r="AO14" s="285"/>
-      <c r="AP14" s="285">
+      <c r="AO14" s="307"/>
+      <c r="AP14" s="307">
         <f t="shared" ref="AP14" si="25">+AN14+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ14" s="285"/>
-      <c r="AR14" s="285">
+      <c r="AQ14" s="307"/>
+      <c r="AR14" s="307">
         <f t="shared" ref="AR14" si="26">+AP14+1</f>
         <v>2031</v>
       </c>
-      <c r="AS14" s="285"/>
-      <c r="AT14" s="285">
+      <c r="AS14" s="307"/>
+      <c r="AT14" s="307">
         <f t="shared" ref="AT14" si="27">+AR14+1</f>
         <v>2032</v>
       </c>
-      <c r="AU14" s="286"/>
+      <c r="AU14" s="308"/>
     </row>
     <row r="15" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="289"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="293"/>
+      <c r="A15" s="302"/>
+      <c r="B15" s="305"/>
+      <c r="C15" s="306"/>
       <c r="D15" s="89" t="s">
         <v>345</v>
       </c>
@@ -13446,11 +13930,11 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="289"/>
-      <c r="B16" s="253" t="s">
+      <c r="A16" s="302"/>
+      <c r="B16" s="268" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="288"/>
+      <c r="C16" s="281"/>
       <c r="D16" s="80"/>
       <c r="E16" s="81"/>
       <c r="F16" s="80"/>
@@ -13503,11 +13987,11 @@
       <c r="AU16" s="133"/>
     </row>
     <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="289"/>
-      <c r="B17" s="253" t="s">
+      <c r="A17" s="302"/>
+      <c r="B17" s="268" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="288"/>
+      <c r="C17" s="281"/>
       <c r="D17" s="105">
         <f>+D6/C5</f>
         <v>0.73333333333333328</v>
@@ -13574,11 +14058,11 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="289"/>
-      <c r="B18" s="253" t="s">
+      <c r="A18" s="302"/>
+      <c r="B18" s="268" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="288"/>
+      <c r="C18" s="281"/>
       <c r="D18" s="105">
         <f>+E7/C5</f>
         <v>0.53333333333333333</v>
@@ -13642,11 +14126,11 @@
       <c r="AU18" s="133"/>
     </row>
     <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="289"/>
-      <c r="B19" s="253" t="s">
+      <c r="A19" s="302"/>
+      <c r="B19" s="268" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="288"/>
+      <c r="C19" s="281"/>
       <c r="D19" s="107">
         <f>+F8/C5</f>
         <v>0.53333333333333333</v>
@@ -13710,11 +14194,11 @@
       <c r="AU19" s="133"/>
     </row>
     <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="289"/>
-      <c r="B20" s="253" t="s">
+      <c r="A20" s="302"/>
+      <c r="B20" s="268" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="288"/>
+      <c r="C20" s="281"/>
       <c r="D20" s="107">
         <f>+G9/C5</f>
         <v>0.26666666666666666</v>
@@ -13778,11 +14262,11 @@
       <c r="AU20" s="133"/>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="289"/>
-      <c r="B21" s="253" t="s">
+      <c r="A21" s="302"/>
+      <c r="B21" s="268" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="288"/>
+      <c r="C21" s="281"/>
       <c r="D21" s="108">
         <f>+H10/C5</f>
         <v>0.26666666666666666</v>
@@ -13884,72 +14368,72 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="283" t="s">
+      <c r="A25" s="323" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="283"/>
-      <c r="C25" s="284">
+      <c r="B25" s="323"/>
+      <c r="C25" s="283">
         <f>+C3</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="284"/>
-      <c r="E25" s="284">
+      <c r="D25" s="283"/>
+      <c r="E25" s="283">
         <f>+C25+1</f>
         <v>2016</v>
       </c>
-      <c r="F25" s="284"/>
-      <c r="G25" s="284">
+      <c r="F25" s="283"/>
+      <c r="G25" s="283">
         <f t="shared" ref="G25" si="29">+E25+1</f>
         <v>2017</v>
       </c>
-      <c r="H25" s="284"/>
-      <c r="I25" s="284">
+      <c r="H25" s="283"/>
+      <c r="I25" s="283">
         <f t="shared" ref="I25" si="30">+G25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="284"/>
-      <c r="K25" s="284">
+      <c r="J25" s="283"/>
+      <c r="K25" s="283">
         <f t="shared" ref="K25" si="31">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="L25" s="284"/>
-      <c r="M25" s="284">
+      <c r="L25" s="283"/>
+      <c r="M25" s="283">
         <f t="shared" ref="M25" si="32">+K25+1</f>
         <v>2020</v>
       </c>
-      <c r="N25" s="284"/>
-      <c r="V25" s="313" t="s">
+      <c r="N25" s="283"/>
+      <c r="V25" s="277" t="s">
         <v>337</v>
       </c>
-      <c r="W25" s="314"/>
-      <c r="X25" s="314"/>
-      <c r="Y25" s="314"/>
-      <c r="Z25" s="314"/>
-      <c r="AA25" s="314"/>
-      <c r="AB25" s="314"/>
-      <c r="AC25" s="314"/>
-      <c r="AD25" s="314"/>
-      <c r="AE25" s="314"/>
-      <c r="AF25" s="314"/>
-      <c r="AG25" s="314"/>
-      <c r="AH25" s="314"/>
-      <c r="AI25" s="314"/>
-      <c r="AJ25" s="314"/>
-      <c r="AK25" s="314"/>
-      <c r="AL25" s="314"/>
-      <c r="AM25" s="314"/>
-      <c r="AN25" s="314"/>
-      <c r="AO25" s="314"/>
-      <c r="AP25" s="314"/>
-      <c r="AQ25" s="314"/>
-      <c r="AR25" s="314"/>
-      <c r="AS25" s="314"/>
-      <c r="AT25" s="314"/>
-      <c r="AU25" s="315"/>
+      <c r="W25" s="278"/>
+      <c r="X25" s="278"/>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="278"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="278"/>
+      <c r="AD25" s="278"/>
+      <c r="AE25" s="278"/>
+      <c r="AF25" s="278"/>
+      <c r="AG25" s="278"/>
+      <c r="AH25" s="278"/>
+      <c r="AI25" s="278"/>
+      <c r="AJ25" s="278"/>
+      <c r="AK25" s="278"/>
+      <c r="AL25" s="278"/>
+      <c r="AM25" s="278"/>
+      <c r="AN25" s="278"/>
+      <c r="AO25" s="278"/>
+      <c r="AP25" s="278"/>
+      <c r="AQ25" s="278"/>
+      <c r="AR25" s="278"/>
+      <c r="AS25" s="278"/>
+      <c r="AT25" s="278"/>
+      <c r="AU25" s="279"/>
     </row>
     <row r="26" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="283"/>
-      <c r="B26" s="283"/>
+      <c r="A26" s="323"/>
+      <c r="B26" s="323"/>
       <c r="C26" s="85" t="s">
         <v>280</v>
       </c>
@@ -14001,74 +14485,74 @@
       <c r="T26" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="V26" s="297">
+      <c r="V26" s="288">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W26" s="284"/>
-      <c r="X26" s="284">
+      <c r="W26" s="283"/>
+      <c r="X26" s="283">
         <f>+V26+1</f>
         <v>2021</v>
       </c>
-      <c r="Y26" s="284"/>
-      <c r="Z26" s="284">
+      <c r="Y26" s="283"/>
+      <c r="Z26" s="283">
         <f t="shared" ref="Z26" si="33">+X26+1</f>
         <v>2022</v>
       </c>
-      <c r="AA26" s="284"/>
-      <c r="AB26" s="284">
+      <c r="AA26" s="283"/>
+      <c r="AB26" s="283">
         <f t="shared" ref="AB26" si="34">+Z26+1</f>
         <v>2023</v>
       </c>
-      <c r="AC26" s="284"/>
-      <c r="AD26" s="284">
+      <c r="AC26" s="283"/>
+      <c r="AD26" s="283">
         <f t="shared" ref="AD26" si="35">+AB26+1</f>
         <v>2024</v>
       </c>
-      <c r="AE26" s="284"/>
-      <c r="AF26" s="284">
+      <c r="AE26" s="283"/>
+      <c r="AF26" s="283">
         <f t="shared" ref="AF26" si="36">+AD26+1</f>
         <v>2025</v>
       </c>
-      <c r="AG26" s="284"/>
-      <c r="AH26" s="284">
+      <c r="AG26" s="283"/>
+      <c r="AH26" s="283">
         <f t="shared" ref="AH26" si="37">+AF26+1</f>
         <v>2026</v>
       </c>
-      <c r="AI26" s="284"/>
-      <c r="AJ26" s="284">
+      <c r="AI26" s="283"/>
+      <c r="AJ26" s="283">
         <f t="shared" ref="AJ26" si="38">+AH26+1</f>
         <v>2027</v>
       </c>
-      <c r="AK26" s="284"/>
-      <c r="AL26" s="284">
+      <c r="AK26" s="283"/>
+      <c r="AL26" s="283">
         <f t="shared" ref="AL26" si="39">+AJ26+1</f>
         <v>2028</v>
       </c>
-      <c r="AM26" s="284"/>
-      <c r="AN26" s="284">
+      <c r="AM26" s="283"/>
+      <c r="AN26" s="283">
         <f t="shared" ref="AN26" si="40">+AL26+1</f>
         <v>2029</v>
       </c>
-      <c r="AO26" s="284"/>
-      <c r="AP26" s="284">
+      <c r="AO26" s="283"/>
+      <c r="AP26" s="283">
         <f t="shared" ref="AP26" si="41">+AN26+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ26" s="284"/>
-      <c r="AR26" s="284">
+      <c r="AQ26" s="283"/>
+      <c r="AR26" s="283">
         <f t="shared" ref="AR26" si="42">+AP26+1</f>
         <v>2031</v>
       </c>
-      <c r="AS26" s="284"/>
-      <c r="AT26" s="284">
+      <c r="AS26" s="283"/>
+      <c r="AT26" s="283">
         <f t="shared" ref="AT26" si="43">+AR26+1</f>
         <v>2032</v>
       </c>
-      <c r="AU26" s="296"/>
+      <c r="AU26" s="301"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="284" t="s">
+      <c r="A27" s="283" t="s">
         <v>338</v>
       </c>
       <c r="B27" s="86" t="s">
@@ -14196,7 +14680,7 @@
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="284"/>
+      <c r="A28" s="283"/>
       <c r="B28" s="86" t="s">
         <v>281</v>
       </c>
@@ -14290,7 +14774,7 @@
       <c r="AU28" s="92"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="284"/>
+      <c r="A29" s="283"/>
       <c r="B29" s="86" t="s">
         <v>282</v>
       </c>
@@ -14314,10 +14798,10 @@
         <v>21</v>
       </c>
       <c r="N29" s="46"/>
-      <c r="P29" s="269"/>
-      <c r="Q29" s="269"/>
-      <c r="R29" s="269"/>
-      <c r="S29" s="269"/>
+      <c r="P29" s="316"/>
+      <c r="Q29" s="316"/>
+      <c r="R29" s="316"/>
+      <c r="S29" s="316"/>
       <c r="U29" s="32" t="s">
         <v>281</v>
       </c>
@@ -14388,7 +14872,7 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="284"/>
+      <c r="A30" s="283"/>
       <c r="B30" s="86" t="s">
         <v>283</v>
       </c>
@@ -14477,7 +14961,7 @@
       <c r="AU30" s="92"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="284"/>
+      <c r="A31" s="283"/>
       <c r="B31" s="86" t="s">
         <v>284</v>
       </c>
@@ -14566,7 +15050,7 @@
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="284"/>
+      <c r="A32" s="283"/>
       <c r="B32" s="86" t="s">
         <v>285</v>
       </c>
@@ -14650,7 +15134,7 @@
       <c r="AU32" s="92"/>
     </row>
     <row r="33" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="284"/>
+      <c r="A33" s="283"/>
       <c r="B33" s="86" t="s">
         <v>339</v>
       </c>
@@ -14767,137 +15251,137 @@
     </row>
     <row r="34" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V35" s="298" t="s">
+      <c r="V35" s="289" t="s">
         <v>340</v>
       </c>
-      <c r="W35" s="299"/>
-      <c r="X35" s="299"/>
-      <c r="Y35" s="299"/>
-      <c r="Z35" s="299"/>
-      <c r="AA35" s="299"/>
-      <c r="AB35" s="299"/>
-      <c r="AC35" s="299"/>
-      <c r="AD35" s="299"/>
-      <c r="AE35" s="299"/>
-      <c r="AF35" s="299"/>
-      <c r="AG35" s="299"/>
-      <c r="AH35" s="299"/>
-      <c r="AI35" s="299"/>
-      <c r="AJ35" s="299"/>
-      <c r="AK35" s="299"/>
-      <c r="AL35" s="299"/>
-      <c r="AM35" s="299"/>
-      <c r="AN35" s="299"/>
-      <c r="AO35" s="299"/>
-      <c r="AP35" s="299"/>
-      <c r="AQ35" s="299"/>
-      <c r="AR35" s="299"/>
-      <c r="AS35" s="299"/>
-      <c r="AT35" s="299"/>
-      <c r="AU35" s="300"/>
+      <c r="W35" s="290"/>
+      <c r="X35" s="290"/>
+      <c r="Y35" s="290"/>
+      <c r="Z35" s="290"/>
+      <c r="AA35" s="290"/>
+      <c r="AB35" s="290"/>
+      <c r="AC35" s="290"/>
+      <c r="AD35" s="290"/>
+      <c r="AE35" s="290"/>
+      <c r="AF35" s="290"/>
+      <c r="AG35" s="290"/>
+      <c r="AH35" s="290"/>
+      <c r="AI35" s="290"/>
+      <c r="AJ35" s="290"/>
+      <c r="AK35" s="290"/>
+      <c r="AL35" s="290"/>
+      <c r="AM35" s="290"/>
+      <c r="AN35" s="290"/>
+      <c r="AO35" s="290"/>
+      <c r="AP35" s="290"/>
+      <c r="AQ35" s="290"/>
+      <c r="AR35" s="290"/>
+      <c r="AS35" s="290"/>
+      <c r="AT35" s="290"/>
+      <c r="AU35" s="291"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="301" t="s">
+      <c r="A36" s="292" t="s">
         <v>341</v>
       </c>
-      <c r="B36" s="302" t="s">
+      <c r="B36" s="293" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="303"/>
-      <c r="D36" s="309" t="s">
+      <c r="C36" s="294"/>
+      <c r="D36" s="284" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="310"/>
-      <c r="F36" s="309" t="s">
+      <c r="E36" s="285"/>
+      <c r="F36" s="284" t="s">
         <v>344</v>
       </c>
-      <c r="G36" s="310"/>
-      <c r="H36" s="309" t="s">
+      <c r="G36" s="285"/>
+      <c r="H36" s="284" t="s">
         <v>351</v>
       </c>
-      <c r="I36" s="310"/>
-      <c r="J36" s="309" t="s">
+      <c r="I36" s="285"/>
+      <c r="J36" s="284" t="s">
         <v>352</v>
       </c>
-      <c r="K36" s="310"/>
-      <c r="V36" s="306">
+      <c r="K36" s="285"/>
+      <c r="V36" s="297">
         <f>+V26</f>
         <v>2020</v>
       </c>
-      <c r="W36" s="307"/>
-      <c r="X36" s="307">
+      <c r="W36" s="280"/>
+      <c r="X36" s="280">
         <f>+V36+1</f>
         <v>2021</v>
       </c>
-      <c r="Y36" s="307"/>
-      <c r="Z36" s="307">
+      <c r="Y36" s="280"/>
+      <c r="Z36" s="280">
         <f t="shared" ref="Z36" si="46">+X36+1</f>
         <v>2022</v>
       </c>
-      <c r="AA36" s="307"/>
-      <c r="AB36" s="307">
+      <c r="AA36" s="280"/>
+      <c r="AB36" s="280">
         <f t="shared" ref="AB36" si="47">+Z36+1</f>
         <v>2023</v>
       </c>
-      <c r="AC36" s="307"/>
-      <c r="AD36" s="307">
+      <c r="AC36" s="280"/>
+      <c r="AD36" s="280">
         <f t="shared" ref="AD36" si="48">+AB36+1</f>
         <v>2024</v>
       </c>
-      <c r="AE36" s="307"/>
-      <c r="AF36" s="307">
+      <c r="AE36" s="280"/>
+      <c r="AF36" s="280">
         <f t="shared" ref="AF36" si="49">+AD36+1</f>
         <v>2025</v>
       </c>
-      <c r="AG36" s="307"/>
-      <c r="AH36" s="307">
+      <c r="AG36" s="280"/>
+      <c r="AH36" s="280">
         <f t="shared" ref="AH36" si="50">+AF36+1</f>
         <v>2026</v>
       </c>
-      <c r="AI36" s="307"/>
-      <c r="AJ36" s="307">
+      <c r="AI36" s="280"/>
+      <c r="AJ36" s="280">
         <f t="shared" ref="AJ36" si="51">+AH36+1</f>
         <v>2027</v>
       </c>
-      <c r="AK36" s="307"/>
-      <c r="AL36" s="307">
+      <c r="AK36" s="280"/>
+      <c r="AL36" s="280">
         <f t="shared" ref="AL36" si="52">+AJ36+1</f>
         <v>2028</v>
       </c>
-      <c r="AM36" s="307"/>
-      <c r="AN36" s="307">
+      <c r="AM36" s="280"/>
+      <c r="AN36" s="280">
         <f t="shared" ref="AN36" si="53">+AL36+1</f>
         <v>2029</v>
       </c>
-      <c r="AO36" s="307"/>
-      <c r="AP36" s="307">
+      <c r="AO36" s="280"/>
+      <c r="AP36" s="280">
         <f t="shared" ref="AP36" si="54">+AN36+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ36" s="307"/>
-      <c r="AR36" s="307">
+      <c r="AQ36" s="280"/>
+      <c r="AR36" s="280">
         <f t="shared" ref="AR36" si="55">+AP36+1</f>
         <v>2031</v>
       </c>
-      <c r="AS36" s="307"/>
-      <c r="AT36" s="307">
+      <c r="AS36" s="280"/>
+      <c r="AT36" s="280">
         <f t="shared" ref="AT36" si="56">+AR36+1</f>
         <v>2032</v>
       </c>
-      <c r="AU36" s="308"/>
+      <c r="AU36" s="298"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="301"/>
-      <c r="B37" s="304"/>
-      <c r="C37" s="305"/>
-      <c r="D37" s="311"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="311"/>
-      <c r="G37" s="312"/>
-      <c r="H37" s="311"/>
-      <c r="I37" s="312"/>
-      <c r="J37" s="311"/>
-      <c r="K37" s="312"/>
+      <c r="A37" s="292"/>
+      <c r="B37" s="295"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="286"/>
+      <c r="G37" s="287"/>
+      <c r="H37" s="286"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="287"/>
       <c r="V37" s="89" t="s">
         <v>280</v>
       </c>
@@ -14978,11 +15462,11 @@
       </c>
     </row>
     <row r="38" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="301"/>
-      <c r="B38" s="253" t="s">
+      <c r="A38" s="292"/>
+      <c r="B38" s="268" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="288"/>
+      <c r="C38" s="281"/>
       <c r="D38" s="105">
         <f>+E27/$E$27</f>
         <v>1</v>
@@ -15068,11 +15552,11 @@
       <c r="AU38" s="92"/>
     </row>
     <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="301"/>
-      <c r="B39" s="253" t="s">
+      <c r="A39" s="292"/>
+      <c r="B39" s="268" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="288"/>
+      <c r="C39" s="281"/>
       <c r="D39" s="105">
         <f>+F28/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15170,11 +15654,11 @@
       </c>
     </row>
     <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="301"/>
-      <c r="B40" s="253" t="s">
+      <c r="A40" s="292"/>
+      <c r="B40" s="268" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="288"/>
+      <c r="C40" s="281"/>
       <c r="D40" s="105">
         <f>+G29/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15269,11 +15753,11 @@
       <c r="AU40" s="92"/>
     </row>
     <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="301"/>
-      <c r="B41" s="253" t="s">
+      <c r="A41" s="292"/>
+      <c r="B41" s="268" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="288"/>
+      <c r="C41" s="281"/>
       <c r="D41" s="105">
         <f>+H30/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15365,11 +15849,11 @@
       </c>
     </row>
     <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="301"/>
-      <c r="B42" s="253" t="s">
+      <c r="A42" s="292"/>
+      <c r="B42" s="268" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="288"/>
+      <c r="C42" s="281"/>
       <c r="D42" s="105">
         <f>+I31/$E$27</f>
         <v>0.75</v>
@@ -15458,11 +15942,11 @@
       <c r="AU42" s="92"/>
     </row>
     <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="301"/>
-      <c r="B43" s="253" t="s">
+      <c r="A43" s="292"/>
+      <c r="B43" s="268" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="288"/>
+      <c r="C43" s="281"/>
       <c r="D43" s="111">
         <f>+J32/$E$27</f>
         <v>0.75</v>
@@ -15552,6 +16036,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="V2:AS2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
     <mergeCell ref="V25:AU25"/>
     <mergeCell ref="AH36:AI36"/>
     <mergeCell ref="B43:C43"/>
@@ -15568,86 +16132,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="V35:AU35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="V13:AU13"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:AS2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15657,10 +16141,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433E9C3-B3BD-4E05-8AE5-BDB438795BDA}">
-  <dimension ref="B5:N40"/>
+  <dimension ref="B5:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15671,507 +16155,520 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="316" t="s">
-        <v>398</v>
+      <c r="B5" s="202" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="317" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="318">
+      <c r="B6" s="203" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="343">
         <f>+'Pobl. Ingresante Total'!O29</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="317" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="318">
-        <f>+'Pobl. Ingresante Total'!O31</f>
-        <v>0.77777777777777779</v>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="327" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="334" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="335"/>
+      <c r="E10" s="336" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="336" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="336" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="336" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="336" t="s">
+        <v>249</v>
+      </c>
+      <c r="J10" s="336" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="336" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="336" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="336" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" s="336" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="319" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="320" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" s="321"/>
-      <c r="E11" s="322" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="322" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="322" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="322" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="322" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="322" t="s">
-        <v>250</v>
-      </c>
-      <c r="K11" s="322" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="322" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="322" t="s">
-        <v>253</v>
-      </c>
-      <c r="N11" s="322" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="323"/>
-      <c r="C12" s="322">
+      <c r="B11" s="327"/>
+      <c r="C11" s="336">
         <v>2020</v>
       </c>
-      <c r="D12" s="322">
-        <f>C12+1</f>
+      <c r="D11" s="336">
+        <f>C11+1</f>
         <v>2021</v>
       </c>
-      <c r="E12" s="322">
-        <f t="shared" ref="E12:N12" si="0">D12+1</f>
+      <c r="E11" s="336">
+        <f t="shared" ref="E11:N11" si="0">D11+1</f>
         <v>2022</v>
       </c>
-      <c r="F12" s="322">
+      <c r="F11" s="336">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G12" s="322">
+      <c r="G11" s="336">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="H12" s="322">
+      <c r="H11" s="336">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="I12" s="322">
+      <c r="I11" s="336">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="J12" s="322">
+      <c r="J11" s="336">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="K12" s="322">
+      <c r="K11" s="336">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L12" s="322">
+      <c r="L11" s="336">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="M12" s="322">
+      <c r="M11" s="336">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="N12" s="322">
+      <c r="N11" s="336">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="324" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="49">
+    <row r="12" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="204" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="49">
         <f>$C$6*'Pobl. Potencial'!C22</f>
         <v>7.5</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D12" s="49">
         <f>$C$6*'Pobl. Potencial'!D22</f>
         <v>9.9529825222887336</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E12" s="49">
         <f>$C$6*'Pobl. Potencial'!E22</f>
         <v>10.269196329791024</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F12" s="49">
         <f>$C$6*'Pobl. Potencial'!F22</f>
         <v>10.59545648991487</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G12" s="49">
         <f>$C$6*'Pobl. Potencial'!G22</f>
         <v>10.932082182906681</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H12" s="49">
         <f>$C$6*'Pobl. Potencial'!H22</f>
         <v>11.279402729611505</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I12" s="49">
         <f>$C$6*'Pobl. Potencial'!I22</f>
         <v>11.637757913647535</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J12" s="49">
         <f>$C$6*'Pobl. Potencial'!J22</f>
         <v>12.007498313816363</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K12" s="49">
         <f>$C$6*'Pobl. Potencial'!K22</f>
         <v>12.388985647074142</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L12" s="49">
         <f>$C$6*'Pobl. Potencial'!L22</f>
         <v>12.782593122399204</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M12" s="49">
         <f>$C$6*'Pobl. Potencial'!M22</f>
         <v>13.188705805902336</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N12" s="49">
         <f>$C$6*'Pobl. Potencial'!N22</f>
         <v>13.607720997536866</v>
       </c>
     </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="194" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="230" t="s">
+        <v>408</v>
+      </c>
+    </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="195" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="228" t="s">
-        <v>409</v>
-      </c>
+      <c r="B16" s="206" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="230"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="330" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="228"/>
+      <c r="B17" s="205" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="195">
+        <f>+'matriculados Ind. Aprob.'!K17</f>
+        <v>0.73333333333333328</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="329" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="196">
-        <v>0.73333333333333328</v>
+      <c r="B18" s="205" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="198">
+        <f>+'matriculados Ind. Aprob.'!K18</f>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="329" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="196">
+      <c r="B19" s="205" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="198">
+        <f>+'matriculados Ind. Aprob.'!K19</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="329" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" s="196">
-        <v>0.53333333333333333</v>
+      <c r="B20" s="205" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="198">
+        <f>+'matriculados Ind. Aprob.'!K20</f>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="329" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="196">
+      <c r="B21" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="198">
+        <f>+'matriculados Ind. Aprob.'!K21</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="329" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="196">
-        <v>0.26666666666666666</v>
-      </c>
+    <row r="24" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="327" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="327"/>
+      <c r="D24" s="327"/>
+      <c r="E24" s="327"/>
+      <c r="F24" s="327"/>
+      <c r="G24" s="327"/>
+      <c r="H24" s="327"/>
+      <c r="I24" s="327"/>
+      <c r="J24" s="327"/>
+      <c r="K24" s="327"/>
+      <c r="L24" s="327"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="327"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="325" t="s">
+      <c r="B25" s="324" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="326" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="327" t="s">
-        <v>402</v>
-      </c>
-      <c r="D25" s="327"/>
-      <c r="E25" s="179" t="s">
+      <c r="D25" s="326"/>
+      <c r="E25" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="179" t="s">
+      <c r="F25" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="179" t="s">
+      <c r="G25" s="178" t="s">
         <v>247</v>
       </c>
-      <c r="H25" s="179" t="s">
+      <c r="H25" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="179" t="s">
+      <c r="I25" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="179" t="s">
+      <c r="J25" s="178" t="s">
         <v>250</v>
       </c>
-      <c r="K25" s="179" t="s">
+      <c r="K25" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="L25" s="179" t="s">
+      <c r="L25" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="M25" s="179" t="s">
+      <c r="M25" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="N25" s="179" t="s">
+      <c r="N25" s="178" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="326"/>
-      <c r="C26" s="179">
+      <c r="B26" s="325"/>
+      <c r="C26" s="178">
         <v>2020</v>
       </c>
-      <c r="D26" s="179">
+      <c r="D26" s="178">
         <f t="shared" ref="D26:N26" si="1">C26+1</f>
         <v>2021</v>
       </c>
-      <c r="E26" s="179">
+      <c r="E26" s="178">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="F26" s="179">
+      <c r="F26" s="178">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="H26" s="179">
+      <c r="H26" s="178">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="I26" s="179">
+      <c r="I26" s="178">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="J26" s="179">
+      <c r="J26" s="178">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="K26" s="179">
+      <c r="K26" s="178">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="L26" s="179">
+      <c r="L26" s="178">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="M26" s="179">
+      <c r="M26" s="178">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="N26" s="179">
+      <c r="N26" s="178">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="328" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="194" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="328"/>
-      <c r="D27" s="328"/>
-      <c r="E27" s="328"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="328"/>
-      <c r="I27" s="328"/>
-      <c r="J27" s="328"/>
-      <c r="K27" s="328"/>
-      <c r="L27" s="328"/>
-      <c r="M27" s="328"/>
-      <c r="N27" s="328"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="193"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="195" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
-      <c r="N28" s="194"/>
+      <c r="B28" s="205" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="49">
+        <f>+C12</f>
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="49">
+        <f>+D12</f>
+        <v>9.9529825222887336</v>
+      </c>
+      <c r="E28" s="49">
+        <f>+E12</f>
+        <v>10.269196329791024</v>
+      </c>
+      <c r="F28" s="49">
+        <f>+F12</f>
+        <v>10.59545648991487</v>
+      </c>
+      <c r="G28" s="49">
+        <f>+G12</f>
+        <v>10.932082182906681</v>
+      </c>
+      <c r="H28" s="49">
+        <f>+H12</f>
+        <v>11.279402729611505</v>
+      </c>
+      <c r="I28" s="49">
+        <f>+I12</f>
+        <v>11.637757913647535</v>
+      </c>
+      <c r="J28" s="49">
+        <f>+J12</f>
+        <v>12.007498313816363</v>
+      </c>
+      <c r="K28" s="49">
+        <f>+K12</f>
+        <v>12.388985647074142</v>
+      </c>
+      <c r="L28" s="49">
+        <f>+L12</f>
+        <v>12.782593122399204</v>
+      </c>
+      <c r="M28" s="49">
+        <f>+M12</f>
+        <v>13.188705805902336</v>
+      </c>
+      <c r="N28" s="49">
+        <f>+N12</f>
+        <v>13.607720997536866</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="329" t="s">
-        <v>280</v>
+      <c r="B29" s="205" t="s">
+        <v>281</v>
       </c>
       <c r="C29" s="49">
-        <f>+C13</f>
+        <f>C28</f>
         <v>7.5</v>
       </c>
       <c r="D29" s="49">
-        <f t="shared" ref="D29:N29" si="2">+D13</f>
-        <v>9.9529825222887336</v>
+        <f t="shared" ref="D29:N29" si="2">D28*$C$17</f>
+        <v>7.2988538496784043</v>
       </c>
       <c r="E29" s="49">
         <f t="shared" si="2"/>
-        <v>10.269196329791024</v>
+        <v>7.5307439751800835</v>
       </c>
       <c r="F29" s="49">
         <f t="shared" si="2"/>
-        <v>10.59545648991487</v>
+        <v>7.7700014259375711</v>
       </c>
       <c r="G29" s="49">
         <f t="shared" si="2"/>
-        <v>10.932082182906681</v>
+        <v>8.0168602674648994</v>
       </c>
       <c r="H29" s="49">
         <f t="shared" si="2"/>
-        <v>11.279402729611505</v>
+        <v>8.2715620017151021</v>
       </c>
       <c r="I29" s="49">
         <f t="shared" si="2"/>
-        <v>11.637757913647535</v>
+        <v>8.5343558033415245</v>
       </c>
       <c r="J29" s="49">
         <f t="shared" si="2"/>
-        <v>12.007498313816363</v>
+        <v>8.8054987634653319</v>
       </c>
       <c r="K29" s="49">
         <f t="shared" si="2"/>
-        <v>12.388985647074142</v>
+        <v>9.0852561411877026</v>
       </c>
       <c r="L29" s="49">
         <f t="shared" si="2"/>
-        <v>12.782593122399204</v>
+        <v>9.373901623092749</v>
       </c>
       <c r="M29" s="49">
         <f t="shared" si="2"/>
-        <v>13.188705805902336</v>
+        <v>9.6717175909950459</v>
       </c>
       <c r="N29" s="49">
         <f t="shared" si="2"/>
-        <v>13.607720997536866</v>
+        <v>9.9789953981937014</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="329" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="49">
-        <f>C29*$C$18</f>
-        <v>5.5</v>
-      </c>
-      <c r="D30" s="49">
-        <f t="shared" ref="D30:N30" si="3">D29*$C$18</f>
-        <v>7.2988538496784043</v>
-      </c>
-      <c r="E30" s="49">
-        <f t="shared" si="3"/>
-        <v>7.5307439751800835</v>
-      </c>
-      <c r="F30" s="49">
-        <f t="shared" si="3"/>
-        <v>7.7700014259375711</v>
-      </c>
-      <c r="G30" s="49">
-        <f t="shared" si="3"/>
-        <v>8.0168602674648994</v>
-      </c>
-      <c r="H30" s="49">
-        <f t="shared" si="3"/>
-        <v>8.2715620017151021</v>
-      </c>
-      <c r="I30" s="49">
-        <f t="shared" si="3"/>
-        <v>8.5343558033415245</v>
-      </c>
-      <c r="J30" s="49">
-        <f t="shared" si="3"/>
-        <v>8.8054987634653319</v>
-      </c>
-      <c r="K30" s="49">
-        <f t="shared" si="3"/>
-        <v>9.0852561411877026</v>
-      </c>
-      <c r="L30" s="49">
-        <f t="shared" si="3"/>
-        <v>9.373901623092749</v>
-      </c>
-      <c r="M30" s="49">
-        <f t="shared" si="3"/>
-        <v>9.6717175909950459</v>
-      </c>
-      <c r="N30" s="49">
-        <f t="shared" si="3"/>
-        <v>9.9789953981937014</v>
-      </c>
+      <c r="B30" s="205" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="193"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="193"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="329" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
-      <c r="M31" s="194"/>
-      <c r="N31" s="194"/>
+      <c r="B31" s="205" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="329" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="194"/>
+      <c r="B32" s="205" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="329" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
+      <c r="B33" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="193"/>
+      <c r="M33" s="193"/>
+      <c r="N33" s="193"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="329" t="s">
-        <v>285</v>
+      <c r="B34" s="196" t="s">
+        <v>406</v>
       </c>
       <c r="C34" s="194"/>
       <c r="D34" s="194"/>
@@ -16186,175 +16683,549 @@
       <c r="M34" s="194"/>
       <c r="N34" s="194"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="197" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="203" t="s">
+        <v>398</v>
+      </c>
+      <c r="C37" s="342">
+        <f>+'Pobl. Ingresante Total'!O31</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="329" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="331" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="332"/>
+      <c r="E39" s="333" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="333" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="333" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" s="333" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39" s="333" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" s="333" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" s="333" t="s">
+        <v>251</v>
+      </c>
+      <c r="L39" s="333" t="s">
+        <v>252</v>
+      </c>
+      <c r="M39" s="333" t="s">
+        <v>253</v>
+      </c>
+      <c r="N39" s="333" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="330"/>
+      <c r="C40" s="333">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="333">
+        <f>C40+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E40" s="333">
+        <f t="shared" ref="E40" si="3">D40+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F40" s="333">
+        <f t="shared" ref="F40" si="4">E40+1</f>
+        <v>2023</v>
+      </c>
+      <c r="G40" s="333">
+        <f t="shared" ref="G40" si="5">F40+1</f>
+        <v>2024</v>
+      </c>
+      <c r="H40" s="333">
+        <f t="shared" ref="H40" si="6">G40+1</f>
+        <v>2025</v>
+      </c>
+      <c r="I40" s="333">
+        <f t="shared" ref="I40" si="7">H40+1</f>
+        <v>2026</v>
+      </c>
+      <c r="J40" s="333">
+        <f t="shared" ref="J40" si="8">I40+1</f>
+        <v>2027</v>
+      </c>
+      <c r="K40" s="333">
+        <f t="shared" ref="K40" si="9">J40+1</f>
+        <v>2028</v>
+      </c>
+      <c r="L40" s="333">
+        <f t="shared" ref="L40" si="10">K40+1</f>
+        <v>2029</v>
+      </c>
+      <c r="M40" s="333">
+        <f t="shared" ref="M40" si="11">L40+1</f>
+        <v>2030</v>
+      </c>
+      <c r="N40" s="333">
+        <f t="shared" ref="N40" si="12">M40+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="328" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" s="49">
+        <f>$C$37*'Pobl. Potencial'!C27</f>
+        <v>12.444444444444445</v>
+      </c>
+      <c r="D41" s="49">
+        <f>$C$37*'Pobl. Potencial'!D27</f>
+        <v>23.539658794385399</v>
+      </c>
+      <c r="E41" s="49">
+        <f>$C$37*'Pobl. Potencial'!E27</f>
+        <v>24.287531617231039</v>
+      </c>
+      <c r="F41" s="49">
+        <f>$C$37*'Pobl. Potencial'!F27</f>
+        <v>25.0591649271779</v>
+      </c>
+      <c r="G41" s="49">
+        <f>$C$37*'Pobl. Potencial'!G27</f>
+        <v>25.855313612931702</v>
+      </c>
+      <c r="H41" s="49">
+        <f>$C$37*'Pobl. Potencial'!H27</f>
+        <v>26.676756546585207</v>
+      </c>
+      <c r="I41" s="49">
+        <f>$C$37*'Pobl. Potencial'!I27</f>
+        <v>27.524297345588597</v>
+      </c>
+      <c r="J41" s="49">
+        <f>$C$37*'Pobl. Potencial'!J27</f>
+        <v>28.398765158928267</v>
+      </c>
+      <c r="K41" s="49">
+        <f>$C$37*'Pobl. Potencial'!K27</f>
+        <v>29.301015478283098</v>
+      </c>
+      <c r="L41" s="49">
+        <f>$C$37*'Pobl. Potencial'!L27</f>
+        <v>30.231930974951808</v>
+      </c>
+      <c r="M41" s="49">
+        <f>$C$37*'Pobl. Potencial'!M27</f>
+        <v>31.192422363370085</v>
+      </c>
+      <c r="N41" s="49">
+        <f>$C$37*'Pobl. Potencial'!N27</f>
+        <v>32.183429292062321</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="199" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="195"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="319" t="s">
+      <c r="C43" s="230" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="206" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="230"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="205" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="198">
+        <f>+'matriculados Ind. Aprob.'!L39</f>
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="205" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="198">
+        <f>+'matriculados Ind. Aprob.'!L40</f>
+        <v>0.83814102564102555</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="205" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="198">
+        <f>+'matriculados Ind. Aprob.'!L41</f>
+        <v>0.73418803418803424</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="205" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="198">
+        <f>+'matriculados Ind. Aprob.'!L42</f>
+        <v>0.75512820512820511</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="198">
+        <f>+'matriculados Ind. Aprob.'!L43</f>
+        <v>0.4679487179487179</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="341" t="s">
+        <v>409</v>
+      </c>
+      <c r="C51" s="341"/>
+      <c r="D51" s="341"/>
+      <c r="E51" s="341"/>
+      <c r="F51" s="341"/>
+      <c r="G51" s="341"/>
+      <c r="H51" s="341"/>
+      <c r="I51" s="341"/>
+      <c r="J51" s="341"/>
+      <c r="K51" s="341"/>
+      <c r="L51" s="341"/>
+      <c r="M51" s="341"/>
+      <c r="N51" s="341"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="337" t="s">
+        <v>400</v>
+      </c>
+      <c r="C52" s="338" t="s">
         <v>401</v>
       </c>
-      <c r="C38" s="320" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="321"/>
-      <c r="E38" s="322" t="s">
+      <c r="D52" s="338"/>
+      <c r="E52" s="339" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="322" t="s">
+      <c r="F52" s="339" t="s">
         <v>246</v>
       </c>
-      <c r="G38" s="322" t="s">
+      <c r="G52" s="339" t="s">
         <v>247</v>
       </c>
-      <c r="H38" s="322" t="s">
+      <c r="H52" s="339" t="s">
         <v>248</v>
       </c>
-      <c r="I38" s="322" t="s">
+      <c r="I52" s="339" t="s">
         <v>249</v>
       </c>
-      <c r="J38" s="322" t="s">
+      <c r="J52" s="339" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="322" t="s">
+      <c r="K52" s="339" t="s">
         <v>251</v>
       </c>
-      <c r="L38" s="322" t="s">
+      <c r="L52" s="339" t="s">
         <v>252</v>
       </c>
-      <c r="M38" s="322" t="s">
+      <c r="M52" s="339" t="s">
         <v>253</v>
       </c>
-      <c r="N38" s="322" t="s">
+      <c r="N52" s="339" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="323"/>
-      <c r="C39" s="322">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="340"/>
+      <c r="C53" s="339">
         <v>2020</v>
       </c>
-      <c r="D39" s="322">
-        <f>C39+1</f>
+      <c r="D53" s="339">
+        <f t="shared" ref="D53" si="13">C53+1</f>
         <v>2021</v>
       </c>
-      <c r="E39" s="322">
-        <f t="shared" ref="E39" si="4">D39+1</f>
+      <c r="E53" s="339">
+        <f t="shared" ref="E53" si="14">D53+1</f>
         <v>2022</v>
       </c>
-      <c r="F39" s="322">
-        <f t="shared" ref="F39" si="5">E39+1</f>
+      <c r="F53" s="339">
+        <f t="shared" ref="F53" si="15">E53+1</f>
         <v>2023</v>
       </c>
-      <c r="G39" s="322">
-        <f t="shared" ref="G39" si="6">F39+1</f>
+      <c r="G53" s="339">
+        <f t="shared" ref="G53" si="16">F53+1</f>
         <v>2024</v>
       </c>
-      <c r="H39" s="322">
-        <f t="shared" ref="H39" si="7">G39+1</f>
+      <c r="H53" s="339">
+        <f t="shared" ref="H53" si="17">G53+1</f>
         <v>2025</v>
       </c>
-      <c r="I39" s="322">
-        <f t="shared" ref="I39" si="8">H39+1</f>
+      <c r="I53" s="339">
+        <f t="shared" ref="I53" si="18">H53+1</f>
         <v>2026</v>
       </c>
-      <c r="J39" s="322">
-        <f t="shared" ref="J39" si="9">I39+1</f>
+      <c r="J53" s="339">
+        <f t="shared" ref="J53" si="19">I53+1</f>
         <v>2027</v>
       </c>
-      <c r="K39" s="322">
-        <f t="shared" ref="K39" si="10">J39+1</f>
+      <c r="K53" s="339">
+        <f t="shared" ref="K53" si="20">J53+1</f>
         <v>2028</v>
       </c>
-      <c r="L39" s="322">
-        <f t="shared" ref="L39" si="11">K39+1</f>
+      <c r="L53" s="339">
+        <f t="shared" ref="L53" si="21">K53+1</f>
         <v>2029</v>
       </c>
-      <c r="M39" s="322">
-        <f t="shared" ref="M39" si="12">L39+1</f>
+      <c r="M53" s="339">
+        <f t="shared" ref="M53" si="22">L53+1</f>
         <v>2030</v>
       </c>
-      <c r="N39" s="322">
-        <f t="shared" ref="N39" si="13">M39+1</f>
+      <c r="N53" s="339">
+        <f t="shared" ref="N53" si="23">M53+1</f>
         <v>2031</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="324" t="s">
-        <v>404</v>
-      </c>
-      <c r="C40" s="49">
-        <f>$C$7*'Pobl. Potencial'!C27</f>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="199" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" s="200"/>
+      <c r="D54" s="200"/>
+      <c r="E54" s="200"/>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="200"/>
+      <c r="K54" s="200"/>
+      <c r="L54" s="200"/>
+      <c r="M54" s="200"/>
+      <c r="N54" s="200"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="205" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="49">
+        <f>+C41</f>
         <v>12.444444444444445</v>
       </c>
-      <c r="D40" s="49">
-        <f>$C$7*'Pobl. Potencial'!D27</f>
+      <c r="D55" s="49">
+        <f t="shared" ref="D55:N55" si="24">+D41</f>
         <v>23.539658794385399</v>
       </c>
-      <c r="E40" s="49">
-        <f>$C$7*'Pobl. Potencial'!E27</f>
+      <c r="E55" s="49">
+        <f t="shared" si="24"/>
         <v>24.287531617231039</v>
       </c>
-      <c r="F40" s="49">
-        <f>$C$7*'Pobl. Potencial'!F27</f>
+      <c r="F55" s="49">
+        <f t="shared" si="24"/>
         <v>25.0591649271779</v>
       </c>
-      <c r="G40" s="49">
-        <f>$C$7*'Pobl. Potencial'!G27</f>
+      <c r="G55" s="49">
+        <f t="shared" si="24"/>
         <v>25.855313612931702</v>
       </c>
-      <c r="H40" s="49">
-        <f>$C$7*'Pobl. Potencial'!H27</f>
+      <c r="H55" s="49">
+        <f t="shared" si="24"/>
         <v>26.676756546585207</v>
       </c>
-      <c r="I40" s="49">
-        <f>$C$7*'Pobl. Potencial'!I27</f>
+      <c r="I55" s="49">
+        <f t="shared" si="24"/>
         <v>27.524297345588597</v>
       </c>
-      <c r="J40" s="49">
-        <f>$C$7*'Pobl. Potencial'!J27</f>
+      <c r="J55" s="49">
+        <f t="shared" si="24"/>
         <v>28.398765158928267</v>
       </c>
-      <c r="K40" s="49">
-        <f>$C$7*'Pobl. Potencial'!K27</f>
+      <c r="K55" s="49">
+        <f t="shared" si="24"/>
         <v>29.301015478283098</v>
       </c>
-      <c r="L40" s="49">
-        <f>$C$7*'Pobl. Potencial'!L27</f>
+      <c r="L55" s="49">
+        <f t="shared" si="24"/>
         <v>30.231930974951808</v>
       </c>
-      <c r="M40" s="49">
-        <f>$C$7*'Pobl. Potencial'!M27</f>
+      <c r="M55" s="49">
+        <f t="shared" si="24"/>
         <v>31.192422363370085</v>
       </c>
-      <c r="N40" s="49">
-        <f>$C$7*'Pobl. Potencial'!N27</f>
+      <c r="N55" s="49">
+        <f t="shared" si="24"/>
         <v>32.183429292062321</v>
       </c>
     </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="205" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="49">
+        <f>C55*$C$45</f>
+        <v>11.148148148148149</v>
+      </c>
+      <c r="D56" s="49">
+        <f t="shared" ref="D56:N56" si="25">D55*$C$45</f>
+        <v>21.087611003303589</v>
+      </c>
+      <c r="E56" s="49">
+        <f t="shared" si="25"/>
+        <v>21.757580407102807</v>
+      </c>
+      <c r="F56" s="49">
+        <f t="shared" si="25"/>
+        <v>22.448835247263535</v>
+      </c>
+      <c r="G56" s="49">
+        <f t="shared" si="25"/>
+        <v>23.162051778251318</v>
+      </c>
+      <c r="H56" s="49">
+        <f t="shared" si="25"/>
+        <v>23.897927739649248</v>
+      </c>
+      <c r="I56" s="49">
+        <f t="shared" si="25"/>
+        <v>24.657183038756454</v>
+      </c>
+      <c r="J56" s="49">
+        <f t="shared" si="25"/>
+        <v>25.440560454873239</v>
+      </c>
+      <c r="K56" s="49">
+        <f t="shared" si="25"/>
+        <v>26.248826365961943</v>
+      </c>
+      <c r="L56" s="49">
+        <f t="shared" si="25"/>
+        <v>27.08277149839433</v>
+      </c>
+      <c r="M56" s="49">
+        <f t="shared" si="25"/>
+        <v>27.943211700519036</v>
+      </c>
+      <c r="N56" s="49">
+        <f t="shared" si="25"/>
+        <v>28.830988740805832</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="205" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="200"/>
+      <c r="D57" s="200"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="200"/>
+      <c r="J57" s="200"/>
+      <c r="K57" s="200"/>
+      <c r="L57" s="200"/>
+      <c r="M57" s="200"/>
+      <c r="N57" s="200"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="205" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="200"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="200"/>
+      <c r="G58" s="200"/>
+      <c r="H58" s="200"/>
+      <c r="I58" s="200"/>
+      <c r="J58" s="200"/>
+      <c r="K58" s="200"/>
+      <c r="L58" s="200"/>
+      <c r="M58" s="200"/>
+      <c r="N58" s="200"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="205" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="200"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="200"/>
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="200"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="200"/>
+      <c r="D60" s="200"/>
+      <c r="E60" s="200"/>
+      <c r="F60" s="200"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="200"/>
+      <c r="J60" s="200"/>
+      <c r="K60" s="200"/>
+      <c r="L60" s="200"/>
+      <c r="M60" s="200"/>
+      <c r="N60" s="200"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="201" t="s">
+        <v>406</v>
+      </c>
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="199"/>
+      <c r="H61" s="199"/>
+      <c r="I61" s="199"/>
+      <c r="J61" s="199"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="199"/>
+      <c r="M61" s="199"/>
+      <c r="N61" s="199"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:D38"/>
+  <mergeCells count="12">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B51:N51"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
+++ b/CALCULOS DE DEMANDA/DEMANDA DE SERVICIOS DEL ISTP ALFREDO SARMIENTO PALOMINO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\PROYECTO-035\CALCULOS DE DEMANDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132455A7-9270-428D-ABFF-65126B5DA138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7C086A-1626-490F-94EC-C58C793ED587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="5" xr2:uid="{35FB2B50-CCB2-49E2-8EB9-1608D8A05A77}"/>
   </bookViews>
@@ -1733,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2353,6 +2353,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2360,7 +2588,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2976,6 +3204,57 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2991,30 +3270,6 @@
     <xf numFmtId="3" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3045,16 +3300,103 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3075,93 +3417,6 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3186,37 +3441,91 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3252,95 +3561,47 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3354,44 +3615,128 @@
     <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6239,7 +6584,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="224" t="s">
         <v>209</v>
       </c>
       <c r="L2" s="22" t="s">
@@ -6250,7 +6595,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K3" s="207"/>
+      <c r="K3" s="224"/>
       <c r="L3" s="22" t="s">
         <v>212</v>
       </c>
@@ -6262,7 +6607,7 @@
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="207"/>
+      <c r="K4" s="224"/>
       <c r="L4" s="22" t="s">
         <v>214</v>
       </c>
@@ -6287,7 +6632,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="K5" s="207"/>
+      <c r="K5" s="224"/>
       <c r="L5" s="22" t="s">
         <v>216</v>
       </c>
@@ -6304,7 +6649,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="K6" s="207"/>
+      <c r="K6" s="224"/>
       <c r="L6" s="28" t="s">
         <v>206</v>
       </c>
@@ -6373,7 +6718,7 @@
       <c r="I8" s="17">
         <v>1.12220641997528E-2</v>
       </c>
-      <c r="K8" s="210" t="s">
+      <c r="K8" s="227" t="s">
         <v>218</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -6408,7 +6753,7 @@
       <c r="I9" s="17">
         <v>2.42809808578364E-2</v>
       </c>
-      <c r="K9" s="210"/>
+      <c r="K9" s="227"/>
       <c r="L9" s="25">
         <v>1</v>
       </c>
@@ -6441,7 +6786,7 @@
       <c r="I10" s="17">
         <v>4.0534224964335598E-2</v>
       </c>
-      <c r="K10" s="210"/>
+      <c r="K10" s="227"/>
       <c r="L10" s="25">
         <v>2</v>
       </c>
@@ -6474,7 +6819,7 @@
       <c r="I11" s="17">
         <v>5.7216414936108302E-2</v>
       </c>
-      <c r="K11" s="210"/>
+      <c r="K11" s="227"/>
       <c r="L11" s="25">
         <v>3</v>
       </c>
@@ -6507,7 +6852,7 @@
       <c r="I12" s="17">
         <v>7.2493294998307006E-2</v>
       </c>
-      <c r="K12" s="210"/>
+      <c r="K12" s="227"/>
       <c r="L12" s="25">
         <v>4</v>
       </c>
@@ -6540,7 +6885,7 @@
       <c r="I13" s="17">
         <v>9.2429521932332101E-2</v>
       </c>
-      <c r="K13" s="210"/>
+      <c r="K13" s="227"/>
       <c r="L13" s="25">
         <v>5</v>
       </c>
@@ -6573,7 +6918,7 @@
       <c r="I14" s="17">
         <v>0.110458072549454</v>
       </c>
-      <c r="K14" s="210"/>
+      <c r="K14" s="227"/>
       <c r="L14" s="25">
         <v>6</v>
       </c>
@@ -6606,7 +6951,7 @@
       <c r="I15" s="17">
         <v>0.13315095229583701</v>
       </c>
-      <c r="K15" s="210"/>
+      <c r="K15" s="227"/>
       <c r="L15" s="25">
         <v>7</v>
       </c>
@@ -6639,7 +6984,7 @@
       <c r="I16" s="17">
         <v>0.15706523080858101</v>
       </c>
-      <c r="K16" s="210"/>
+      <c r="K16" s="227"/>
       <c r="L16" s="25">
         <v>8</v>
       </c>
@@ -6672,7 +7017,7 @@
       <c r="I17" s="17">
         <v>0.17786366584129401</v>
       </c>
-      <c r="K17" s="210"/>
+      <c r="K17" s="227"/>
       <c r="L17" s="25">
         <v>9</v>
       </c>
@@ -6705,7 +7050,7 @@
       <c r="I18" s="17">
         <v>0.19936728181294999</v>
       </c>
-      <c r="K18" s="210"/>
+      <c r="K18" s="227"/>
       <c r="L18" s="25">
         <v>10</v>
       </c>
@@ -6738,7 +7083,7 @@
       <c r="I19" s="17">
         <v>0.22272622006005399</v>
       </c>
-      <c r="K19" s="210"/>
+      <c r="K19" s="227"/>
       <c r="L19" s="25">
         <v>11</v>
       </c>
@@ -6771,7 +7116,7 @@
       <c r="I20" s="17">
         <v>0.24853967233204699</v>
       </c>
-      <c r="K20" s="210"/>
+      <c r="K20" s="227"/>
       <c r="L20" s="25">
         <v>12</v>
       </c>
@@ -6804,7 +7149,7 @@
       <c r="I21" s="17">
         <v>0.27281756444609701</v>
       </c>
-      <c r="K21" s="210"/>
+      <c r="K21" s="227"/>
       <c r="L21" s="25">
         <v>13</v>
       </c>
@@ -6837,7 +7182,7 @@
       <c r="I22" s="17">
         <v>0.29411892827154901</v>
       </c>
-      <c r="K22" s="210"/>
+      <c r="K22" s="227"/>
       <c r="L22" s="25">
         <v>14</v>
       </c>
@@ -6870,7 +7215,7 @@
       <c r="I23" s="17">
         <v>0.31491634238404698</v>
       </c>
-      <c r="K23" s="210"/>
+      <c r="K23" s="227"/>
       <c r="L23" s="25">
         <v>15</v>
       </c>
@@ -6903,7 +7248,7 @@
       <c r="I24" s="17">
         <v>0.33519476776427998</v>
       </c>
-      <c r="K24" s="210"/>
+      <c r="K24" s="227"/>
       <c r="L24" s="25">
         <v>16</v>
       </c>
@@ -6936,7 +7281,7 @@
       <c r="I25" s="17">
         <v>0.35314484572600202</v>
       </c>
-      <c r="K25" s="210"/>
+      <c r="K25" s="227"/>
       <c r="L25" s="25">
         <v>17</v>
       </c>
@@ -6969,7 +7314,7 @@
       <c r="I26" s="17">
         <v>0.368667589937197</v>
       </c>
-      <c r="K26" s="210"/>
+      <c r="K26" s="227"/>
       <c r="L26" s="25">
         <v>18</v>
       </c>
@@ -7002,7 +7347,7 @@
       <c r="I27" s="17">
         <v>0.38110756456661499</v>
       </c>
-      <c r="K27" s="210"/>
+      <c r="K27" s="227"/>
       <c r="L27" s="25">
         <v>19</v>
       </c>
@@ -7035,7 +7380,7 @@
       <c r="I28" s="17">
         <v>0.39552916583221398</v>
       </c>
-      <c r="K28" s="211" t="s">
+      <c r="K28" s="228" t="s">
         <v>220</v>
       </c>
       <c r="L28" s="26" t="s">
@@ -7070,7 +7415,7 @@
       <c r="I29" s="17">
         <v>0.405698283610674</v>
       </c>
-      <c r="K29" s="211"/>
+      <c r="K29" s="228"/>
       <c r="L29" s="26" t="s">
         <v>222</v>
       </c>
@@ -7103,7 +7448,7 @@
       <c r="I30" s="17">
         <v>0.41896690541231102</v>
       </c>
-      <c r="K30" s="211"/>
+      <c r="K30" s="228"/>
       <c r="L30" s="26" t="s">
         <v>223</v>
       </c>
@@ -7136,7 +7481,7 @@
       <c r="I31" s="17">
         <v>0.43100154121860501</v>
       </c>
-      <c r="K31" s="211"/>
+      <c r="K31" s="228"/>
       <c r="L31" s="26" t="s">
         <v>224</v>
       </c>
@@ -7169,7 +7514,7 @@
       <c r="I32" s="17">
         <v>0.442984309022109</v>
       </c>
-      <c r="K32" s="211"/>
+      <c r="K32" s="228"/>
       <c r="L32" s="26" t="s">
         <v>225</v>
       </c>
@@ -7202,7 +7547,7 @@
       <c r="I33" s="17">
         <v>0.45545824821289499</v>
       </c>
-      <c r="K33" s="211"/>
+      <c r="K33" s="228"/>
       <c r="L33" s="26" t="s">
         <v>226</v>
       </c>
@@ -7235,7 +7580,7 @@
       <c r="I34" s="17">
         <v>0.46322084753672299</v>
       </c>
-      <c r="K34" s="211"/>
+      <c r="K34" s="228"/>
       <c r="L34" s="26" t="s">
         <v>227</v>
       </c>
@@ -7268,7 +7613,7 @@
       <c r="I35" s="17">
         <v>0.47464392966994801</v>
       </c>
-      <c r="K35" s="211"/>
+      <c r="K35" s="228"/>
       <c r="L35" s="26" t="s">
         <v>228</v>
       </c>
@@ -7301,7 +7646,7 @@
       <c r="I36" s="17">
         <v>0.484015124043298</v>
       </c>
-      <c r="K36" s="211"/>
+      <c r="K36" s="228"/>
       <c r="L36" s="26" t="s">
         <v>229</v>
       </c>
@@ -7334,7 +7679,7 @@
       <c r="I37" s="17">
         <v>0.49526944192962802</v>
       </c>
-      <c r="K37" s="211"/>
+      <c r="K37" s="228"/>
       <c r="L37" s="26" t="s">
         <v>230</v>
       </c>
@@ -7367,7 +7712,7 @@
       <c r="I38" s="17">
         <v>0.50593192354971295</v>
       </c>
-      <c r="K38" s="211"/>
+      <c r="K38" s="228"/>
       <c r="L38" s="26" t="s">
         <v>231</v>
       </c>
@@ -7400,7 +7745,7 @@
       <c r="I39" s="17">
         <v>0.51779485865617103</v>
       </c>
-      <c r="K39" s="211"/>
+      <c r="K39" s="228"/>
       <c r="L39" s="26" t="s">
         <v>232</v>
       </c>
@@ -7433,7 +7778,7 @@
       <c r="I40" s="17">
         <v>0.52978976268593903</v>
       </c>
-      <c r="K40" s="211"/>
+      <c r="K40" s="228"/>
       <c r="L40" s="26" t="s">
         <v>233</v>
       </c>
@@ -9157,13 +9502,13 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="208" t="s">
+      <c r="A107" s="225" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="209"/>
-      <c r="C107" s="209"/>
-      <c r="D107" s="209"/>
-      <c r="E107" s="209"/>
+      <c r="B107" s="226"/>
+      <c r="C107" s="226"/>
+      <c r="D107" s="226"/>
+      <c r="E107" s="226"/>
       <c r="F107" s="42" t="s">
         <v>206</v>
       </c>
@@ -9178,31 +9523,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="208" t="s">
+      <c r="A108" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="209"/>
-      <c r="C108" s="209"/>
-      <c r="D108" s="209"/>
-      <c r="E108" s="209"/>
+      <c r="B108" s="226"/>
+      <c r="C108" s="226"/>
+      <c r="D108" s="226"/>
+      <c r="E108" s="226"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F109" s="208" t="s">
+      <c r="F109" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="209"/>
-      <c r="H109" s="209"/>
-      <c r="I109" s="209"/>
-      <c r="J109" s="209"/>
+      <c r="G109" s="226"/>
+      <c r="H109" s="226"/>
+      <c r="I109" s="226"/>
+      <c r="J109" s="226"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F110" s="208" t="s">
+      <c r="F110" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="G110" s="209"/>
-      <c r="H110" s="209"/>
-      <c r="I110" s="209"/>
-      <c r="J110" s="209"/>
+      <c r="G110" s="226"/>
+      <c r="H110" s="226"/>
+      <c r="I110" s="226"/>
+      <c r="J110" s="226"/>
     </row>
     <row r="114" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
@@ -9244,27 +9589,27 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="212" t="s">
+      <c r="A117" s="216" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="217" t="s">
+      <c r="B117" s="221" t="s">
         <v>278</v>
       </c>
-      <c r="C117" s="218"/>
-      <c r="D117" s="218"/>
-      <c r="E117" s="218"/>
-      <c r="F117" s="218"/>
-      <c r="G117" s="218"/>
-      <c r="H117" s="218"/>
-      <c r="I117" s="218"/>
-      <c r="J117" s="218"/>
-      <c r="K117" s="218"/>
-      <c r="L117" s="218"/>
-      <c r="M117" s="218"/>
-      <c r="N117" s="219"/>
+      <c r="C117" s="222"/>
+      <c r="D117" s="222"/>
+      <c r="E117" s="222"/>
+      <c r="F117" s="222"/>
+      <c r="G117" s="222"/>
+      <c r="H117" s="222"/>
+      <c r="I117" s="222"/>
+      <c r="J117" s="222"/>
+      <c r="K117" s="222"/>
+      <c r="L117" s="222"/>
+      <c r="M117" s="222"/>
+      <c r="N117" s="223"/>
     </row>
     <row r="118" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="212"/>
+      <c r="A118" s="216"/>
       <c r="B118" s="53">
         <v>2019</v>
       </c>
@@ -9318,12 +9663,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="212"/>
-      <c r="B119" s="214" t="s">
+      <c r="A119" s="216"/>
+      <c r="B119" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="215"/>
-      <c r="D119" s="216"/>
+      <c r="C119" s="219"/>
+      <c r="D119" s="220"/>
       <c r="E119" s="54" t="s">
         <v>245</v>
       </c>
@@ -9451,7 +9796,7 @@
       <c r="B126" s="46">
         <v>488</v>
       </c>
-      <c r="C126" s="213">
+      <c r="C126" s="217">
         <v>0.32675410103003655</v>
       </c>
       <c r="D126" s="49">
@@ -9464,7 +9809,7 @@
       <c r="G126" s="46">
         <v>640</v>
       </c>
-      <c r="H126" s="213">
+      <c r="H126" s="217">
         <v>0.32475247524752476</v>
       </c>
       <c r="I126" s="49">
@@ -9479,7 +9824,7 @@
       <c r="B127" s="46">
         <v>363</v>
       </c>
-      <c r="C127" s="213"/>
+      <c r="C127" s="217"/>
       <c r="D127" s="49">
         <f t="shared" ref="D127:D135" si="2">B127*$C$126</f>
         <v>118.61173867390326</v>
@@ -9490,7 +9835,7 @@
       <c r="G127" s="46">
         <v>52</v>
       </c>
-      <c r="H127" s="213"/>
+      <c r="H127" s="217"/>
       <c r="I127" s="49">
         <f>G127*$H$126</f>
         <v>16.887128712871288</v>
@@ -9503,7 +9848,7 @@
       <c r="B128" s="46">
         <v>282</v>
       </c>
-      <c r="C128" s="213"/>
+      <c r="C128" s="217"/>
       <c r="D128" s="49">
         <f t="shared" si="2"/>
         <v>92.144656490470311</v>
@@ -9527,7 +9872,7 @@
       <c r="B129" s="46">
         <v>238</v>
       </c>
-      <c r="C129" s="213"/>
+      <c r="C129" s="217"/>
       <c r="D129" s="49">
         <f t="shared" si="2"/>
         <v>77.767476045148697</v>
@@ -9540,7 +9885,7 @@
       <c r="B130" s="46">
         <v>100</v>
       </c>
-      <c r="C130" s="213"/>
+      <c r="C130" s="217"/>
       <c r="D130" s="49">
         <f t="shared" si="2"/>
         <v>32.675410103003657</v>
@@ -9553,7 +9898,7 @@
       <c r="B131" s="46">
         <v>128</v>
       </c>
-      <c r="C131" s="213"/>
+      <c r="C131" s="217"/>
       <c r="D131" s="49">
         <f t="shared" si="2"/>
         <v>41.824524931844678</v>
@@ -9566,7 +9911,7 @@
       <c r="B132" s="46">
         <v>231</v>
       </c>
-      <c r="C132" s="213"/>
+      <c r="C132" s="217"/>
       <c r="D132" s="49">
         <f t="shared" si="2"/>
         <v>75.480197337938449</v>
@@ -9579,7 +9924,7 @@
       <c r="B133" s="46">
         <v>243</v>
       </c>
-      <c r="C133" s="213"/>
+      <c r="C133" s="217"/>
       <c r="D133" s="49">
         <f t="shared" si="2"/>
         <v>79.401246550298879</v>
@@ -9592,7 +9937,7 @@
       <c r="B134" s="46">
         <v>21</v>
       </c>
-      <c r="C134" s="213"/>
+      <c r="C134" s="217"/>
       <c r="D134" s="49">
         <f t="shared" si="2"/>
         <v>6.8618361216307679</v>
@@ -9605,7 +9950,7 @@
       <c r="B135" s="46">
         <v>126</v>
       </c>
-      <c r="C135" s="213"/>
+      <c r="C135" s="217"/>
       <c r="D135" s="49">
         <f t="shared" si="2"/>
         <v>41.171016729784604</v>
@@ -9643,11 +9988,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B117:N117"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A108:E108"/>
@@ -9655,6 +9995,11 @@
     <mergeCell ref="F110:J110"/>
     <mergeCell ref="K8:K27"/>
     <mergeCell ref="K28:K40"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B117:N117"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9884,27 +10229,27 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="229" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="220"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="220"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="229"/>
+      <c r="K12" s="229"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="229"/>
+      <c r="N12" s="229"/>
+      <c r="O12" s="229"/>
+      <c r="P12" s="229"/>
+      <c r="Q12" s="229"/>
     </row>
     <row r="13" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="221" t="s">
+      <c r="B13" s="230" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="59">
@@ -9954,7 +10299,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="222"/>
+      <c r="B14" s="231"/>
       <c r="C14" s="60">
         <f>SUM(C15:C22)</f>
         <v>57</v>
@@ -10436,20 +10781,20 @@
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="K28" s="227" t="s">
+      <c r="K28" s="236" t="s">
         <v>362</v>
       </c>
-      <c r="L28" s="228"/>
-      <c r="M28" s="228"/>
-      <c r="N28" s="228"/>
-      <c r="O28" s="229"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="237"/>
+      <c r="N28" s="237"/>
+      <c r="O28" s="238"/>
       <c r="P28" s="141"/>
       <c r="Q28" s="141"/>
       <c r="R28" s="141"/>
       <c r="S28" s="141"/>
     </row>
     <row r="29" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="232" t="s">
         <v>336</v>
       </c>
       <c r="C29" s="150" t="s">
@@ -10486,7 +10831,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="224"/>
+      <c r="B30" s="233"/>
       <c r="C30" s="150" t="s">
         <v>334</v>
       </c>
@@ -10515,7 +10860,7 @@
       <c r="O30" s="145"/>
     </row>
     <row r="31" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="234" t="s">
         <v>335</v>
       </c>
       <c r="C31" s="149" t="s">
@@ -10558,7 +10903,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="226"/>
+      <c r="B32" s="235"/>
       <c r="C32" s="149" t="s">
         <v>334</v>
       </c>
@@ -10659,7 +11004,7 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -10671,311 +11016,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="344"/>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="344"/>
-      <c r="B2" s="345"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="344"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="344"/>
-      <c r="B4" s="344"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="344"/>
-      <c r="J4" s="344"/>
-      <c r="K4" s="344"/>
-      <c r="L4" s="344"/>
-      <c r="M4" s="344"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="344"/>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
+      <c r="A5" s="214"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="344"/>
-      <c r="B6" s="344"/>
-      <c r="C6" s="344"/>
-      <c r="D6" s="344"/>
-      <c r="E6" s="344"/>
-      <c r="F6" s="344"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="344"/>
-      <c r="I6" s="344"/>
-      <c r="J6" s="344"/>
-      <c r="K6" s="344"/>
-      <c r="L6" s="344"/>
-      <c r="M6" s="344"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="344"/>
-      <c r="B7" s="344"/>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="344"/>
-      <c r="J7" s="344"/>
-      <c r="K7" s="344"/>
-      <c r="L7" s="344"/>
-      <c r="M7" s="344"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="344"/>
-      <c r="B8" s="344"/>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="344"/>
-      <c r="B9" s="344"/>
-      <c r="C9" s="344"/>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="344"/>
-      <c r="J9" s="344"/>
-      <c r="K9" s="344"/>
-      <c r="L9" s="344"/>
-      <c r="M9" s="344"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="344"/>
-      <c r="B10" s="344"/>
-      <c r="C10" s="344"/>
-      <c r="D10" s="344"/>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
-      <c r="G10" s="344"/>
-      <c r="H10" s="344"/>
-      <c r="I10" s="344"/>
-      <c r="J10" s="344"/>
-      <c r="K10" s="344"/>
-      <c r="L10" s="344"/>
-      <c r="M10" s="344"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="344"/>
-      <c r="B11" s="344"/>
-      <c r="C11" s="344"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="344"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="344"/>
-      <c r="J11" s="344"/>
-      <c r="K11" s="344"/>
-      <c r="L11" s="344"/>
-      <c r="M11" s="344"/>
+      <c r="A11" s="214"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="344"/>
-      <c r="B12" s="344"/>
-      <c r="C12" s="344"/>
-      <c r="D12" s="344"/>
-      <c r="E12" s="344"/>
-      <c r="F12" s="344"/>
-      <c r="G12" s="344"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="344"/>
-      <c r="K12" s="344"/>
-      <c r="L12" s="344"/>
-      <c r="M12" s="344"/>
+      <c r="A12" s="214"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="344"/>
-      <c r="B13" s="344"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="344"/>
-      <c r="K13" s="344"/>
-      <c r="L13" s="344"/>
-      <c r="M13" s="344"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="344"/>
-      <c r="B14" s="344"/>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="344"/>
-      <c r="H14" s="344"/>
-      <c r="I14" s="344"/>
-      <c r="J14" s="344"/>
-      <c r="K14" s="344"/>
-      <c r="L14" s="344"/>
-      <c r="M14" s="344"/>
+      <c r="A14" s="214"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="344"/>
-      <c r="B15" s="344"/>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
-      <c r="H15" s="344"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="344"/>
-      <c r="K15" s="344"/>
-      <c r="L15" s="344"/>
-      <c r="M15" s="344"/>
+      <c r="A15" s="214"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="344"/>
-      <c r="B16" s="344"/>
-      <c r="C16" s="344"/>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="344"/>
-      <c r="G16" s="344"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="344"/>
-      <c r="J16" s="344"/>
-      <c r="K16" s="344"/>
-      <c r="L16" s="344"/>
-      <c r="M16" s="344"/>
+      <c r="A16" s="214"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="344"/>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="344"/>
-      <c r="K17" s="344"/>
-      <c r="L17" s="344"/>
-      <c r="M17" s="344"/>
+      <c r="A17" s="214"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="344"/>
-      <c r="B18" s="344"/>
-      <c r="C18" s="344"/>
-      <c r="D18" s="344"/>
-      <c r="E18" s="344"/>
-      <c r="F18" s="344"/>
-      <c r="G18" s="344"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="344"/>
-      <c r="J18" s="344"/>
-      <c r="K18" s="344"/>
-      <c r="L18" s="344"/>
-      <c r="M18" s="344"/>
+      <c r="A18" s="214"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="344"/>
-      <c r="B19" s="344"/>
-      <c r="C19" s="344"/>
-      <c r="D19" s="344"/>
-      <c r="E19" s="344"/>
-      <c r="F19" s="344"/>
-      <c r="G19" s="344"/>
-      <c r="H19" s="344"/>
-      <c r="I19" s="344"/>
-      <c r="J19" s="344"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="344"/>
-      <c r="M19" s="344"/>
+      <c r="A19" s="214"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
     </row>
     <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="246" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="245"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="246"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="247"/>
+      <c r="R26" s="248"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="173" t="s">
@@ -11181,25 +11526,25 @@
       <c r="B30" s="169" t="s">
         <v>363</v>
       </c>
-      <c r="C30" s="241">
+      <c r="C30" s="242">
         <f>((((G29+1)*(H29+1)*(I29+1)*(J29+1)*(K29+1)*(L29+1)*(M29+1)*(N29+1)*(O29+1)*(P29+1)*(Q29+1)*(R29+1))^(1/12))-1)</f>
         <v>3.1770758844814617E-2</v>
       </c>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="242"/>
-      <c r="L30" s="242"/>
-      <c r="M30" s="242"/>
-      <c r="N30" s="242"/>
-      <c r="O30" s="242"/>
-      <c r="P30" s="242"/>
-      <c r="Q30" s="242"/>
-      <c r="R30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="243"/>
+      <c r="I30" s="243"/>
+      <c r="J30" s="243"/>
+      <c r="K30" s="243"/>
+      <c r="L30" s="243"/>
+      <c r="M30" s="243"/>
+      <c r="N30" s="243"/>
+      <c r="O30" s="243"/>
+      <c r="P30" s="243"/>
+      <c r="Q30" s="243"/>
+      <c r="R30" s="244"/>
     </row>
     <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -11207,10 +11552,10 @@
       </c>
     </row>
     <row r="33" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="230" t="s">
+      <c r="C33" s="245" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="230"/>
+      <c r="D33" s="245"/>
       <c r="E33" s="154" t="s">
         <v>245</v>
       </c>
@@ -11347,64 +11692,64 @@
     </row>
     <row r="36" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="257" t="s">
+      <c r="B37" s="259" t="s">
         <v>397</v>
       </c>
-      <c r="C37" s="258"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="258"/>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="258"/>
-      <c r="M37" s="258"/>
-      <c r="N37" s="258"/>
-      <c r="O37" s="258"/>
-      <c r="P37" s="258"/>
-      <c r="Q37" s="259"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="260"/>
+      <c r="L37" s="260"/>
+      <c r="M37" s="260"/>
+      <c r="N37" s="260"/>
+      <c r="O37" s="260"/>
+      <c r="P37" s="260"/>
+      <c r="Q37" s="261"/>
     </row>
     <row r="38" spans="2:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="260"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="261"/>
-      <c r="K38" s="261"/>
-      <c r="L38" s="261"/>
-      <c r="M38" s="261"/>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="262"/>
+      <c r="B38" s="262"/>
+      <c r="C38" s="263"/>
+      <c r="D38" s="263"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="263"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="263"/>
+      <c r="I38" s="263"/>
+      <c r="J38" s="263"/>
+      <c r="K38" s="263"/>
+      <c r="L38" s="263"/>
+      <c r="M38" s="263"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="263"/>
+      <c r="Q38" s="264"/>
     </row>
     <row r="40" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="263" t="s">
+      <c r="B40" s="265" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="264"/>
-      <c r="D40" s="264"/>
-      <c r="E40" s="264"/>
-      <c r="F40" s="264"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="264"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="264"/>
-      <c r="K40" s="264"/>
-      <c r="L40" s="264"/>
-      <c r="M40" s="264"/>
-      <c r="N40" s="268" t="s">
+      <c r="C40" s="266"/>
+      <c r="D40" s="266"/>
+      <c r="E40" s="266"/>
+      <c r="F40" s="266"/>
+      <c r="G40" s="266"/>
+      <c r="H40" s="266"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="266"/>
+      <c r="K40" s="266"/>
+      <c r="L40" s="266"/>
+      <c r="M40" s="266"/>
+      <c r="N40" s="270" t="s">
         <v>394</v>
       </c>
-      <c r="O40" s="268"/>
-      <c r="P40" s="268"/>
-      <c r="Q40" s="268"/>
+      <c r="O40" s="270"/>
+      <c r="P40" s="270"/>
+      <c r="Q40" s="270"/>
     </row>
     <row r="41" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="187" t="s">
@@ -11582,32 +11927,32 @@
       <c r="B44" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="C44" s="254">
+      <c r="C44" s="256">
         <f>(((G43+1)*(H43+1)*(I43+1)*(J43+1)*(K43+1)*(L43+1)*(M43+1))^(1/7))-1</f>
         <v>-1.4980170647666657E-2</v>
       </c>
-      <c r="D44" s="255"/>
-      <c r="E44" s="255"/>
-      <c r="F44" s="255"/>
-      <c r="G44" s="255"/>
-      <c r="H44" s="255"/>
-      <c r="I44" s="255"/>
-      <c r="J44" s="255"/>
-      <c r="K44" s="255"/>
-      <c r="L44" s="255"/>
-      <c r="M44" s="256"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="257"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="257"/>
+      <c r="H44" s="257"/>
+      <c r="I44" s="257"/>
+      <c r="J44" s="257"/>
+      <c r="K44" s="257"/>
+      <c r="L44" s="257"/>
+      <c r="M44" s="258"/>
     </row>
     <row r="45" spans="2:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:17" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="265" t="s">
+      <c r="B46" s="267" t="s">
         <v>385</v>
       </c>
-      <c r="C46" s="266"/>
-      <c r="D46" s="266"/>
-      <c r="E46" s="266"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="266"/>
-      <c r="H46" s="267"/>
+      <c r="C46" s="268"/>
+      <c r="D46" s="268"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="268"/>
+      <c r="G46" s="268"/>
+      <c r="H46" s="269"/>
     </row>
     <row r="47" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="189" t="s">
@@ -11690,15 +12035,15 @@
       <c r="B50" s="191" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="251">
+      <c r="C50" s="253">
         <f>((((E49+1)*(F49+1)*(G49+1)*(H49+1))^(1/4))-1)</f>
         <v>8.9744085549771979E-2</v>
       </c>
-      <c r="D50" s="252"/>
-      <c r="E50" s="252"/>
-      <c r="F50" s="252"/>
-      <c r="G50" s="252"/>
-      <c r="H50" s="253"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="255"/>
       <c r="J50" s="164">
         <f>AVERAGE(C44,C50)</f>
         <v>3.7381957451052661E-2</v>
@@ -11706,30 +12051,30 @@
     </row>
     <row r="53" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="240" t="s">
+      <c r="B54" s="239" t="s">
         <v>367</v>
       </c>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="232"/>
-      <c r="J54" s="232"/>
-      <c r="K54" s="232"/>
-      <c r="L54" s="232"/>
-      <c r="M54" s="232"/>
-      <c r="N54" s="233"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="240"/>
+      <c r="E54" s="240"/>
+      <c r="F54" s="240"/>
+      <c r="G54" s="240"/>
+      <c r="H54" s="240"/>
+      <c r="I54" s="240"/>
+      <c r="J54" s="240"/>
+      <c r="K54" s="240"/>
+      <c r="L54" s="240"/>
+      <c r="M54" s="240"/>
+      <c r="N54" s="241"/>
     </row>
     <row r="55" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="249" t="s">
+      <c r="B55" s="251" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="247" t="s">
+      <c r="C55" s="249" t="s">
         <v>370</v>
       </c>
-      <c r="D55" s="248"/>
+      <c r="D55" s="250"/>
       <c r="E55" s="187" t="s">
         <v>371</v>
       </c>
@@ -11762,7 +12107,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="250"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="161">
         <f>+Q41+1</f>
         <v>2020</v>
@@ -11867,30 +12212,30 @@
     </row>
     <row r="58" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="240" t="s">
+      <c r="B59" s="239" t="s">
         <v>367</v>
       </c>
-      <c r="C59" s="232"/>
-      <c r="D59" s="232"/>
-      <c r="E59" s="232"/>
-      <c r="F59" s="232"/>
-      <c r="G59" s="232"/>
-      <c r="H59" s="232"/>
-      <c r="I59" s="232"/>
-      <c r="J59" s="232"/>
-      <c r="K59" s="232"/>
-      <c r="L59" s="232"/>
-      <c r="M59" s="232"/>
-      <c r="N59" s="233"/>
+      <c r="C59" s="240"/>
+      <c r="D59" s="240"/>
+      <c r="E59" s="240"/>
+      <c r="F59" s="240"/>
+      <c r="G59" s="240"/>
+      <c r="H59" s="240"/>
+      <c r="I59" s="240"/>
+      <c r="J59" s="240"/>
+      <c r="K59" s="240"/>
+      <c r="L59" s="240"/>
+      <c r="M59" s="240"/>
+      <c r="N59" s="241"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="237" t="s">
+      <c r="B60" s="275" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="238" t="s">
+      <c r="C60" s="276" t="s">
         <v>370</v>
       </c>
-      <c r="D60" s="239"/>
+      <c r="D60" s="277"/>
       <c r="E60" s="162" t="s">
         <v>371</v>
       </c>
@@ -11923,7 +12268,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="237"/>
+      <c r="B61" s="275"/>
       <c r="C61" s="163">
         <v>2020</v>
       </c>
@@ -12027,30 +12372,30 @@
     </row>
     <row r="63" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="231" t="s">
+      <c r="B64" s="271" t="s">
         <v>367</v>
       </c>
-      <c r="C64" s="232"/>
-      <c r="D64" s="232"/>
-      <c r="E64" s="232"/>
-      <c r="F64" s="232"/>
-      <c r="G64" s="232"/>
-      <c r="H64" s="232"/>
-      <c r="I64" s="232"/>
-      <c r="J64" s="232"/>
-      <c r="K64" s="232"/>
-      <c r="L64" s="232"/>
-      <c r="M64" s="232"/>
-      <c r="N64" s="233"/>
+      <c r="C64" s="240"/>
+      <c r="D64" s="240"/>
+      <c r="E64" s="240"/>
+      <c r="F64" s="240"/>
+      <c r="G64" s="240"/>
+      <c r="H64" s="240"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="240"/>
+      <c r="L64" s="240"/>
+      <c r="M64" s="240"/>
+      <c r="N64" s="241"/>
     </row>
     <row r="65" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="234" t="s">
+      <c r="B65" s="272" t="s">
         <v>384</v>
       </c>
-      <c r="C65" s="230" t="s">
+      <c r="C65" s="245" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="230"/>
+      <c r="D65" s="245"/>
       <c r="E65" s="158" t="s">
         <v>245</v>
       </c>
@@ -12083,7 +12428,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="235"/>
+      <c r="B66" s="273"/>
       <c r="C66" s="165">
         <v>2020</v>
       </c>
@@ -12133,7 +12478,7 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="236"/>
+      <c r="B67" s="274"/>
       <c r="C67" s="192">
         <f t="shared" ref="C67:N67" si="58">+C57+C62</f>
         <v>93.586022862025033</v>
@@ -12185,6 +12530,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="B54:N54"/>
     <mergeCell ref="B59:N59"/>
     <mergeCell ref="C30:R30"/>
@@ -12198,11 +12548,6 @@
     <mergeCell ref="B40:M40"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D60"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12216,7 +12561,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12231,172 +12576,172 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="344"/>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="344"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="344"/>
-      <c r="B4" s="344"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="344"/>
-      <c r="J4" s="344"/>
-      <c r="K4" s="344"/>
-      <c r="L4" s="344"/>
-      <c r="M4" s="344"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="344"/>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
+      <c r="A5" s="214"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="344"/>
-      <c r="B6" s="344"/>
-      <c r="C6" s="344"/>
-      <c r="D6" s="344"/>
-      <c r="E6" s="344"/>
-      <c r="F6" s="344"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="344"/>
-      <c r="I6" s="344"/>
-      <c r="J6" s="344"/>
-      <c r="K6" s="344"/>
-      <c r="L6" s="344"/>
-      <c r="M6" s="344"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="344"/>
-      <c r="B7" s="344"/>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
-      <c r="F7" s="344"/>
-      <c r="G7" s="344"/>
-      <c r="H7" s="344"/>
-      <c r="I7" s="344"/>
-      <c r="J7" s="344"/>
-      <c r="K7" s="344"/>
-      <c r="L7" s="344"/>
-      <c r="M7" s="344"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="344"/>
-      <c r="B8" s="344"/>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="344"/>
-      <c r="B9" s="344"/>
-      <c r="C9" s="344"/>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="344"/>
-      <c r="J9" s="344"/>
-      <c r="K9" s="344"/>
-      <c r="L9" s="344"/>
-      <c r="M9" s="344"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="344"/>
-      <c r="B10" s="344"/>
-      <c r="C10" s="344"/>
-      <c r="D10" s="344"/>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
-      <c r="G10" s="344"/>
-      <c r="H10" s="344"/>
-      <c r="I10" s="344"/>
-      <c r="J10" s="344"/>
-      <c r="K10" s="344"/>
-      <c r="L10" s="344"/>
-      <c r="M10" s="344"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="344"/>
-      <c r="B11" s="344"/>
-      <c r="C11" s="344"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="344"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="344"/>
-      <c r="J11" s="344"/>
-      <c r="K11" s="344"/>
-      <c r="L11" s="344"/>
-      <c r="M11" s="344"/>
+      <c r="A11" s="214"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="278" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="271"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="280"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="272" t="s">
+      <c r="B14" s="281" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="273"/>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="274"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="282"/>
+      <c r="E14" s="282"/>
+      <c r="F14" s="283"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="181" t="s">
@@ -12448,30 +12793,30 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="275" t="s">
+      <c r="B19" s="284" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="275"/>
-      <c r="I19" s="275"/>
-      <c r="J19" s="275"/>
-      <c r="K19" s="275"/>
-      <c r="L19" s="275"/>
-      <c r="M19" s="275"/>
-      <c r="N19" s="275"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
     </row>
     <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="285" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="230" t="s">
+      <c r="C20" s="245" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="230"/>
+      <c r="D20" s="245"/>
       <c r="E20" s="177" t="s">
         <v>245</v>
       </c>
@@ -12504,7 +12849,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="276"/>
+      <c r="B21" s="285"/>
       <c r="C21" s="165">
         <v>2020</v>
       </c>
@@ -12554,7 +12899,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="276"/>
+      <c r="B22" s="285"/>
       <c r="C22" s="49">
         <f>'Pobl. Ingresante Total'!D29*'Pobl. Potencial'!F15</f>
         <v>15</v>
@@ -12606,30 +12951,30 @@
       <c r="O22" s="4"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="275" t="s">
+      <c r="B24" s="284" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="275"/>
-      <c r="D24" s="275"/>
-      <c r="E24" s="275"/>
-      <c r="F24" s="275"/>
-      <c r="G24" s="275"/>
-      <c r="H24" s="275"/>
-      <c r="I24" s="275"/>
-      <c r="J24" s="275"/>
-      <c r="K24" s="275"/>
-      <c r="L24" s="275"/>
-      <c r="M24" s="275"/>
-      <c r="N24" s="275"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="284"/>
+      <c r="F24" s="284"/>
+      <c r="G24" s="284"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="284"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="284"/>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="276" t="s">
+      <c r="B25" s="285" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="230" t="s">
+      <c r="C25" s="245" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="230"/>
+      <c r="D25" s="245"/>
       <c r="E25" s="177" t="s">
         <v>245</v>
       </c>
@@ -12662,7 +13007,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="276"/>
+      <c r="B26" s="285"/>
       <c r="C26" s="165">
         <v>2020</v>
       </c>
@@ -12712,7 +13057,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="276"/>
+      <c r="B27" s="285"/>
       <c r="C27" s="49">
         <f>'Pobl. Ingresante Total'!I31*'Pobl. Potencial'!F16</f>
         <v>16</v>
@@ -12770,30 +13115,30 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="275" t="s">
+      <c r="B30" s="284" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="275"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="275"/>
-      <c r="K30" s="275"/>
-      <c r="L30" s="275"/>
-      <c r="M30" s="275"/>
-      <c r="N30" s="275"/>
+      <c r="C30" s="284"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="284"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="284"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="276" t="s">
+      <c r="B31" s="285" t="s">
         <v>395</v>
       </c>
-      <c r="C31" s="230" t="s">
+      <c r="C31" s="245" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="230"/>
+      <c r="D31" s="245"/>
       <c r="E31" s="177" t="s">
         <v>245</v>
       </c>
@@ -12826,7 +13171,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="276"/>
+      <c r="B32" s="285"/>
       <c r="C32" s="165">
         <v>2020</v>
       </c>
@@ -12876,7 +13221,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="276"/>
+      <c r="B33" s="285"/>
       <c r="C33" s="49">
         <f>+C22+C27</f>
         <v>31</v>
@@ -12977,69 +13322,69 @@
   <sheetData>
     <row r="1" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="317" t="s">
+      <c r="V2" s="287" t="s">
         <v>337</v>
       </c>
-      <c r="W2" s="318"/>
-      <c r="X2" s="318"/>
-      <c r="Y2" s="318"/>
-      <c r="Z2" s="318"/>
-      <c r="AA2" s="318"/>
-      <c r="AB2" s="318"/>
-      <c r="AC2" s="318"/>
-      <c r="AD2" s="318"/>
-      <c r="AE2" s="318"/>
-      <c r="AF2" s="318"/>
-      <c r="AG2" s="318"/>
-      <c r="AH2" s="318"/>
-      <c r="AI2" s="318"/>
-      <c r="AJ2" s="318"/>
-      <c r="AK2" s="318"/>
-      <c r="AL2" s="318"/>
-      <c r="AM2" s="318"/>
-      <c r="AN2" s="318"/>
-      <c r="AO2" s="318"/>
-      <c r="AP2" s="318"/>
-      <c r="AQ2" s="318"/>
-      <c r="AR2" s="318"/>
-      <c r="AS2" s="319"/>
+      <c r="W2" s="288"/>
+      <c r="X2" s="288"/>
+      <c r="Y2" s="288"/>
+      <c r="Z2" s="288"/>
+      <c r="AA2" s="288"/>
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="288"/>
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="288"/>
+      <c r="AF2" s="288"/>
+      <c r="AG2" s="288"/>
+      <c r="AH2" s="288"/>
+      <c r="AI2" s="288"/>
+      <c r="AJ2" s="288"/>
+      <c r="AK2" s="288"/>
+      <c r="AL2" s="288"/>
+      <c r="AM2" s="288"/>
+      <c r="AN2" s="288"/>
+      <c r="AO2" s="288"/>
+      <c r="AP2" s="288"/>
+      <c r="AQ2" s="288"/>
+      <c r="AR2" s="288"/>
+      <c r="AS2" s="289"/>
       <c r="AT2" s="70"/>
       <c r="AU2" s="70"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="290" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="282">
+      <c r="B3" s="290"/>
+      <c r="C3" s="291">
         <v>2015</v>
       </c>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282">
+      <c r="D3" s="291"/>
+      <c r="E3" s="291">
         <f>+C3+1</f>
         <v>2016</v>
       </c>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282">
+      <c r="F3" s="291"/>
+      <c r="G3" s="291">
         <f t="shared" ref="G3" si="0">+E3+1</f>
         <v>2017</v>
       </c>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291">
         <f t="shared" ref="I3" si="1">+G3+1</f>
         <v>2018</v>
       </c>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282">
+      <c r="J3" s="291"/>
+      <c r="K3" s="291">
         <f t="shared" ref="K3" si="2">+I3+1</f>
         <v>2019</v>
       </c>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282">
+      <c r="L3" s="291"/>
+      <c r="M3" s="291">
         <f t="shared" ref="M3" si="3">+K3+1</f>
         <v>2020</v>
       </c>
-      <c r="N3" s="282"/>
+      <c r="N3" s="291"/>
       <c r="P3" s="123" t="s">
         <v>354</v>
       </c>
@@ -13049,74 +13394,74 @@
       <c r="T3" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="V3" s="321">
+      <c r="V3" s="292">
         <v>2020</v>
       </c>
-      <c r="W3" s="315"/>
-      <c r="X3" s="315">
+      <c r="W3" s="293"/>
+      <c r="X3" s="293">
         <f>+V3+1</f>
         <v>2021</v>
       </c>
-      <c r="Y3" s="315"/>
-      <c r="Z3" s="315">
+      <c r="Y3" s="293"/>
+      <c r="Z3" s="293">
         <f t="shared" ref="Z3" si="4">+X3+1</f>
         <v>2022</v>
       </c>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315">
+      <c r="AA3" s="293"/>
+      <c r="AB3" s="293">
         <f t="shared" ref="AB3" si="5">+Z3+1</f>
         <v>2023</v>
       </c>
-      <c r="AC3" s="315"/>
-      <c r="AD3" s="315">
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="293">
         <f t="shared" ref="AD3" si="6">+AB3+1</f>
         <v>2024</v>
       </c>
-      <c r="AE3" s="315"/>
-      <c r="AF3" s="315">
+      <c r="AE3" s="293"/>
+      <c r="AF3" s="293">
         <f t="shared" ref="AF3" si="7">+AD3+1</f>
         <v>2025</v>
       </c>
-      <c r="AG3" s="315"/>
-      <c r="AH3" s="315">
+      <c r="AG3" s="293"/>
+      <c r="AH3" s="293">
         <f t="shared" ref="AH3" si="8">+AF3+1</f>
         <v>2026</v>
       </c>
-      <c r="AI3" s="315"/>
-      <c r="AJ3" s="315">
+      <c r="AI3" s="293"/>
+      <c r="AJ3" s="293">
         <f t="shared" ref="AJ3" si="9">+AH3+1</f>
         <v>2027</v>
       </c>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315">
+      <c r="AK3" s="293"/>
+      <c r="AL3" s="293">
         <f t="shared" ref="AL3" si="10">+AJ3+1</f>
         <v>2028</v>
       </c>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="315">
+      <c r="AM3" s="293"/>
+      <c r="AN3" s="293">
         <f t="shared" ref="AN3" si="11">+AL3+1</f>
         <v>2029</v>
       </c>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315">
+      <c r="AO3" s="293"/>
+      <c r="AP3" s="293">
         <f t="shared" ref="AP3" si="12">+AN3+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="315">
+      <c r="AQ3" s="293"/>
+      <c r="AR3" s="293">
         <f t="shared" ref="AR3" si="13">+AP3+1</f>
         <v>2031</v>
       </c>
-      <c r="AS3" s="322"/>
-      <c r="AT3" s="310">
+      <c r="AS3" s="294"/>
+      <c r="AT3" s="301">
         <f t="shared" ref="AT3" si="14">+AR3+1</f>
         <v>2032</v>
       </c>
-      <c r="AU3" s="311"/>
+      <c r="AU3" s="302"/>
     </row>
     <row r="4" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="320"/>
-      <c r="B4" s="320"/>
+      <c r="A4" s="290"/>
+      <c r="B4" s="290"/>
       <c r="C4" s="102" t="s">
         <v>280</v>
       </c>
@@ -13244,7 +13589,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="245" t="s">
         <v>338</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -13310,7 +13655,7 @@
       <c r="AU5" s="133"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="32" t="s">
         <v>281</v>
       </c>
@@ -13374,7 +13719,7 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="32" t="s">
         <v>282</v>
       </c>
@@ -13437,7 +13782,7 @@
       <c r="AU7" s="133"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="32" t="s">
         <v>283</v>
       </c>
@@ -13500,7 +13845,7 @@
       <c r="AU8" s="133"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
+      <c r="A9" s="245"/>
       <c r="B9" s="32" t="s">
         <v>284</v>
       </c>
@@ -13565,7 +13910,7 @@
       <c r="AU9" s="133"/>
     </row>
     <row r="10" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="230"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="32" t="s">
         <v>285</v>
       </c>
@@ -13630,7 +13975,7 @@
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:51" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="32" t="s">
         <v>339</v>
       </c>
@@ -13722,43 +14067,43 @@
     </row>
     <row r="12" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V13" s="312" t="s">
+      <c r="V13" s="303" t="s">
         <v>340</v>
       </c>
-      <c r="W13" s="313"/>
-      <c r="X13" s="313"/>
-      <c r="Y13" s="313"/>
-      <c r="Z13" s="313"/>
-      <c r="AA13" s="313"/>
-      <c r="AB13" s="313"/>
-      <c r="AC13" s="313"/>
-      <c r="AD13" s="313"/>
-      <c r="AE13" s="313"/>
-      <c r="AF13" s="313"/>
-      <c r="AG13" s="313"/>
-      <c r="AH13" s="313"/>
-      <c r="AI13" s="313"/>
-      <c r="AJ13" s="313"/>
-      <c r="AK13" s="313"/>
-      <c r="AL13" s="313"/>
-      <c r="AM13" s="313"/>
-      <c r="AN13" s="313"/>
-      <c r="AO13" s="313"/>
-      <c r="AP13" s="313"/>
-      <c r="AQ13" s="313"/>
-      <c r="AR13" s="313"/>
-      <c r="AS13" s="313"/>
-      <c r="AT13" s="313"/>
-      <c r="AU13" s="314"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="304"/>
+      <c r="Z13" s="304"/>
+      <c r="AA13" s="304"/>
+      <c r="AB13" s="304"/>
+      <c r="AC13" s="304"/>
+      <c r="AD13" s="304"/>
+      <c r="AE13" s="304"/>
+      <c r="AF13" s="304"/>
+      <c r="AG13" s="304"/>
+      <c r="AH13" s="304"/>
+      <c r="AI13" s="304"/>
+      <c r="AJ13" s="304"/>
+      <c r="AK13" s="304"/>
+      <c r="AL13" s="304"/>
+      <c r="AM13" s="304"/>
+      <c r="AN13" s="304"/>
+      <c r="AO13" s="304"/>
+      <c r="AP13" s="304"/>
+      <c r="AQ13" s="304"/>
+      <c r="AR13" s="304"/>
+      <c r="AS13" s="304"/>
+      <c r="AT13" s="304"/>
+      <c r="AU13" s="305"/>
     </row>
     <row r="14" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="302" t="s">
+      <c r="A14" s="306" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="303" t="s">
+      <c r="B14" s="307" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="304"/>
+      <c r="C14" s="308"/>
       <c r="D14" s="299" t="s">
         <v>343</v>
       </c>
@@ -13770,76 +14115,76 @@
       <c r="K14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="V14" s="309">
+      <c r="V14" s="297">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W14" s="307"/>
-      <c r="X14" s="307">
+      <c r="W14" s="298"/>
+      <c r="X14" s="298">
         <f>+V14+1</f>
         <v>2021</v>
       </c>
-      <c r="Y14" s="307"/>
-      <c r="Z14" s="307">
+      <c r="Y14" s="298"/>
+      <c r="Z14" s="298">
         <f t="shared" ref="Z14" si="17">+X14+1</f>
         <v>2022</v>
       </c>
-      <c r="AA14" s="307"/>
-      <c r="AB14" s="307">
+      <c r="AA14" s="298"/>
+      <c r="AB14" s="298">
         <f t="shared" ref="AB14" si="18">+Z14+1</f>
         <v>2023</v>
       </c>
-      <c r="AC14" s="307"/>
-      <c r="AD14" s="307">
+      <c r="AC14" s="298"/>
+      <c r="AD14" s="298">
         <f t="shared" ref="AD14" si="19">+AB14+1</f>
         <v>2024</v>
       </c>
-      <c r="AE14" s="307"/>
-      <c r="AF14" s="307">
+      <c r="AE14" s="298"/>
+      <c r="AF14" s="298">
         <f t="shared" ref="AF14" si="20">+AD14+1</f>
         <v>2025</v>
       </c>
-      <c r="AG14" s="307"/>
-      <c r="AH14" s="307">
+      <c r="AG14" s="298"/>
+      <c r="AH14" s="298">
         <f t="shared" ref="AH14" si="21">+AF14+1</f>
         <v>2026</v>
       </c>
-      <c r="AI14" s="307"/>
-      <c r="AJ14" s="307">
+      <c r="AI14" s="298"/>
+      <c r="AJ14" s="298">
         <f t="shared" ref="AJ14" si="22">+AH14+1</f>
         <v>2027</v>
       </c>
-      <c r="AK14" s="307"/>
-      <c r="AL14" s="307">
+      <c r="AK14" s="298"/>
+      <c r="AL14" s="298">
         <f t="shared" ref="AL14" si="23">+AJ14+1</f>
         <v>2028</v>
       </c>
-      <c r="AM14" s="307"/>
-      <c r="AN14" s="307">
+      <c r="AM14" s="298"/>
+      <c r="AN14" s="298">
         <f t="shared" ref="AN14" si="24">+AL14+1</f>
         <v>2029</v>
       </c>
-      <c r="AO14" s="307"/>
-      <c r="AP14" s="307">
+      <c r="AO14" s="298"/>
+      <c r="AP14" s="298">
         <f t="shared" ref="AP14" si="25">+AN14+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ14" s="307"/>
-      <c r="AR14" s="307">
+      <c r="AQ14" s="298"/>
+      <c r="AR14" s="298">
         <f t="shared" ref="AR14" si="26">+AP14+1</f>
         <v>2031</v>
       </c>
-      <c r="AS14" s="307"/>
-      <c r="AT14" s="307">
+      <c r="AS14" s="298"/>
+      <c r="AT14" s="298">
         <f t="shared" ref="AT14" si="27">+AR14+1</f>
         <v>2032</v>
       </c>
-      <c r="AU14" s="308"/>
+      <c r="AU14" s="311"/>
     </row>
     <row r="15" spans="1:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="302"/>
-      <c r="B15" s="305"/>
-      <c r="C15" s="306"/>
+      <c r="A15" s="306"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="310"/>
       <c r="D15" s="89" t="s">
         <v>345</v>
       </c>
@@ -13930,11 +14275,11 @@
       </c>
     </row>
     <row r="16" spans="1:51" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="302"/>
-      <c r="B16" s="268" t="s">
+      <c r="A16" s="306"/>
+      <c r="B16" s="270" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="281"/>
+      <c r="C16" s="312"/>
       <c r="D16" s="80"/>
       <c r="E16" s="81"/>
       <c r="F16" s="80"/>
@@ -13987,11 +14332,11 @@
       <c r="AU16" s="133"/>
     </row>
     <row r="17" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="302"/>
-      <c r="B17" s="268" t="s">
+      <c r="A17" s="306"/>
+      <c r="B17" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="281"/>
+      <c r="C17" s="312"/>
       <c r="D17" s="105">
         <f>+D6/C5</f>
         <v>0.73333333333333328</v>
@@ -14058,11 +14403,11 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="302"/>
-      <c r="B18" s="268" t="s">
+      <c r="A18" s="306"/>
+      <c r="B18" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="281"/>
+      <c r="C18" s="312"/>
       <c r="D18" s="105">
         <f>+E7/C5</f>
         <v>0.53333333333333333</v>
@@ -14126,11 +14471,11 @@
       <c r="AU18" s="133"/>
     </row>
     <row r="19" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="302"/>
-      <c r="B19" s="268" t="s">
+      <c r="A19" s="306"/>
+      <c r="B19" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="281"/>
+      <c r="C19" s="312"/>
       <c r="D19" s="107">
         <f>+F8/C5</f>
         <v>0.53333333333333333</v>
@@ -14194,11 +14539,11 @@
       <c r="AU19" s="133"/>
     </row>
     <row r="20" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="302"/>
-      <c r="B20" s="268" t="s">
+      <c r="A20" s="306"/>
+      <c r="B20" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="281"/>
+      <c r="C20" s="312"/>
       <c r="D20" s="107">
         <f>+G9/C5</f>
         <v>0.26666666666666666</v>
@@ -14262,11 +14607,11 @@
       <c r="AU20" s="133"/>
     </row>
     <row r="21" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="302"/>
-      <c r="B21" s="268" t="s">
+      <c r="A21" s="306"/>
+      <c r="B21" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="281"/>
+      <c r="C21" s="312"/>
       <c r="D21" s="108">
         <f>+H10/C5</f>
         <v>0.26666666666666666</v>
@@ -14368,72 +14713,72 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25" s="323" t="s">
+      <c r="A25" s="295" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="323"/>
-      <c r="C25" s="283">
+      <c r="B25" s="295"/>
+      <c r="C25" s="296">
         <f>+C3</f>
         <v>2015</v>
       </c>
-      <c r="D25" s="283"/>
-      <c r="E25" s="283">
+      <c r="D25" s="296"/>
+      <c r="E25" s="296">
         <f>+C25+1</f>
         <v>2016</v>
       </c>
-      <c r="F25" s="283"/>
-      <c r="G25" s="283">
+      <c r="F25" s="296"/>
+      <c r="G25" s="296">
         <f t="shared" ref="G25" si="29">+E25+1</f>
         <v>2017</v>
       </c>
-      <c r="H25" s="283"/>
-      <c r="I25" s="283">
+      <c r="H25" s="296"/>
+      <c r="I25" s="296">
         <f t="shared" ref="I25" si="30">+G25+1</f>
         <v>2018</v>
       </c>
-      <c r="J25" s="283"/>
-      <c r="K25" s="283">
+      <c r="J25" s="296"/>
+      <c r="K25" s="296">
         <f t="shared" ref="K25" si="31">+I25+1</f>
         <v>2019</v>
       </c>
-      <c r="L25" s="283"/>
-      <c r="M25" s="283">
+      <c r="L25" s="296"/>
+      <c r="M25" s="296">
         <f t="shared" ref="M25" si="32">+K25+1</f>
         <v>2020</v>
       </c>
-      <c r="N25" s="283"/>
-      <c r="V25" s="277" t="s">
+      <c r="N25" s="296"/>
+      <c r="V25" s="326" t="s">
         <v>337</v>
       </c>
-      <c r="W25" s="278"/>
-      <c r="X25" s="278"/>
-      <c r="Y25" s="278"/>
-      <c r="Z25" s="278"/>
-      <c r="AA25" s="278"/>
-      <c r="AB25" s="278"/>
-      <c r="AC25" s="278"/>
-      <c r="AD25" s="278"/>
-      <c r="AE25" s="278"/>
-      <c r="AF25" s="278"/>
-      <c r="AG25" s="278"/>
-      <c r="AH25" s="278"/>
-      <c r="AI25" s="278"/>
-      <c r="AJ25" s="278"/>
-      <c r="AK25" s="278"/>
-      <c r="AL25" s="278"/>
-      <c r="AM25" s="278"/>
-      <c r="AN25" s="278"/>
-      <c r="AO25" s="278"/>
-      <c r="AP25" s="278"/>
-      <c r="AQ25" s="278"/>
-      <c r="AR25" s="278"/>
-      <c r="AS25" s="278"/>
-      <c r="AT25" s="278"/>
-      <c r="AU25" s="279"/>
+      <c r="W25" s="327"/>
+      <c r="X25" s="327"/>
+      <c r="Y25" s="327"/>
+      <c r="Z25" s="327"/>
+      <c r="AA25" s="327"/>
+      <c r="AB25" s="327"/>
+      <c r="AC25" s="327"/>
+      <c r="AD25" s="327"/>
+      <c r="AE25" s="327"/>
+      <c r="AF25" s="327"/>
+      <c r="AG25" s="327"/>
+      <c r="AH25" s="327"/>
+      <c r="AI25" s="327"/>
+      <c r="AJ25" s="327"/>
+      <c r="AK25" s="327"/>
+      <c r="AL25" s="327"/>
+      <c r="AM25" s="327"/>
+      <c r="AN25" s="327"/>
+      <c r="AO25" s="327"/>
+      <c r="AP25" s="327"/>
+      <c r="AQ25" s="327"/>
+      <c r="AR25" s="327"/>
+      <c r="AS25" s="327"/>
+      <c r="AT25" s="327"/>
+      <c r="AU25" s="328"/>
     </row>
     <row r="26" spans="1:47" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="323"/>
-      <c r="B26" s="323"/>
+      <c r="A26" s="295"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="85" t="s">
         <v>280</v>
       </c>
@@ -14485,74 +14830,74 @@
       <c r="T26" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="V26" s="288">
+      <c r="V26" s="315">
         <f>+V3</f>
         <v>2020</v>
       </c>
-      <c r="W26" s="283"/>
-      <c r="X26" s="283">
+      <c r="W26" s="296"/>
+      <c r="X26" s="296">
         <f>+V26+1</f>
         <v>2021</v>
       </c>
-      <c r="Y26" s="283"/>
-      <c r="Z26" s="283">
+      <c r="Y26" s="296"/>
+      <c r="Z26" s="296">
         <f t="shared" ref="Z26" si="33">+X26+1</f>
         <v>2022</v>
       </c>
-      <c r="AA26" s="283"/>
-      <c r="AB26" s="283">
+      <c r="AA26" s="296"/>
+      <c r="AB26" s="296">
         <f t="shared" ref="AB26" si="34">+Z26+1</f>
         <v>2023</v>
       </c>
-      <c r="AC26" s="283"/>
-      <c r="AD26" s="283">
+      <c r="AC26" s="296"/>
+      <c r="AD26" s="296">
         <f t="shared" ref="AD26" si="35">+AB26+1</f>
         <v>2024</v>
       </c>
-      <c r="AE26" s="283"/>
-      <c r="AF26" s="283">
+      <c r="AE26" s="296"/>
+      <c r="AF26" s="296">
         <f t="shared" ref="AF26" si="36">+AD26+1</f>
         <v>2025</v>
       </c>
-      <c r="AG26" s="283"/>
-      <c r="AH26" s="283">
+      <c r="AG26" s="296"/>
+      <c r="AH26" s="296">
         <f t="shared" ref="AH26" si="37">+AF26+1</f>
         <v>2026</v>
       </c>
-      <c r="AI26" s="283"/>
-      <c r="AJ26" s="283">
+      <c r="AI26" s="296"/>
+      <c r="AJ26" s="296">
         <f t="shared" ref="AJ26" si="38">+AH26+1</f>
         <v>2027</v>
       </c>
-      <c r="AK26" s="283"/>
-      <c r="AL26" s="283">
+      <c r="AK26" s="296"/>
+      <c r="AL26" s="296">
         <f t="shared" ref="AL26" si="39">+AJ26+1</f>
         <v>2028</v>
       </c>
-      <c r="AM26" s="283"/>
-      <c r="AN26" s="283">
+      <c r="AM26" s="296"/>
+      <c r="AN26" s="296">
         <f t="shared" ref="AN26" si="40">+AL26+1</f>
         <v>2029</v>
       </c>
-      <c r="AO26" s="283"/>
-      <c r="AP26" s="283">
+      <c r="AO26" s="296"/>
+      <c r="AP26" s="296">
         <f t="shared" ref="AP26" si="41">+AN26+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ26" s="283"/>
-      <c r="AR26" s="283">
+      <c r="AQ26" s="296"/>
+      <c r="AR26" s="296">
         <f t="shared" ref="AR26" si="42">+AP26+1</f>
         <v>2031</v>
       </c>
-      <c r="AS26" s="283"/>
-      <c r="AT26" s="283">
+      <c r="AS26" s="296"/>
+      <c r="AT26" s="296">
         <f t="shared" ref="AT26" si="43">+AR26+1</f>
         <v>2032</v>
       </c>
-      <c r="AU26" s="301"/>
+      <c r="AU26" s="314"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="283" t="s">
+      <c r="A27" s="296" t="s">
         <v>338</v>
       </c>
       <c r="B27" s="86" t="s">
@@ -14680,7 +15025,7 @@
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="283"/>
+      <c r="A28" s="296"/>
       <c r="B28" s="86" t="s">
         <v>281</v>
       </c>
@@ -14774,7 +15119,7 @@
       <c r="AU28" s="92"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A29" s="283"/>
+      <c r="A29" s="296"/>
       <c r="B29" s="86" t="s">
         <v>282</v>
       </c>
@@ -14798,10 +15143,10 @@
         <v>21</v>
       </c>
       <c r="N29" s="46"/>
-      <c r="P29" s="316"/>
-      <c r="Q29" s="316"/>
-      <c r="R29" s="316"/>
-      <c r="S29" s="316"/>
+      <c r="P29" s="286"/>
+      <c r="Q29" s="286"/>
+      <c r="R29" s="286"/>
+      <c r="S29" s="286"/>
       <c r="U29" s="32" t="s">
         <v>281</v>
       </c>
@@ -14872,7 +15217,7 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="283"/>
+      <c r="A30" s="296"/>
       <c r="B30" s="86" t="s">
         <v>283</v>
       </c>
@@ -14961,7 +15306,7 @@
       <c r="AU30" s="92"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A31" s="283"/>
+      <c r="A31" s="296"/>
       <c r="B31" s="86" t="s">
         <v>284</v>
       </c>
@@ -15050,7 +15395,7 @@
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A32" s="283"/>
+      <c r="A32" s="296"/>
       <c r="B32" s="86" t="s">
         <v>285</v>
       </c>
@@ -15134,7 +15479,7 @@
       <c r="AU32" s="92"/>
     </row>
     <row r="33" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="283"/>
+      <c r="A33" s="296"/>
       <c r="B33" s="86" t="s">
         <v>339</v>
       </c>
@@ -15251,137 +15596,137 @@
     </row>
     <row r="34" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V35" s="289" t="s">
+      <c r="V35" s="316" t="s">
         <v>340</v>
       </c>
-      <c r="W35" s="290"/>
-      <c r="X35" s="290"/>
-      <c r="Y35" s="290"/>
-      <c r="Z35" s="290"/>
-      <c r="AA35" s="290"/>
-      <c r="AB35" s="290"/>
-      <c r="AC35" s="290"/>
-      <c r="AD35" s="290"/>
-      <c r="AE35" s="290"/>
-      <c r="AF35" s="290"/>
-      <c r="AG35" s="290"/>
-      <c r="AH35" s="290"/>
-      <c r="AI35" s="290"/>
-      <c r="AJ35" s="290"/>
-      <c r="AK35" s="290"/>
-      <c r="AL35" s="290"/>
-      <c r="AM35" s="290"/>
-      <c r="AN35" s="290"/>
-      <c r="AO35" s="290"/>
-      <c r="AP35" s="290"/>
-      <c r="AQ35" s="290"/>
-      <c r="AR35" s="290"/>
-      <c r="AS35" s="290"/>
-      <c r="AT35" s="290"/>
-      <c r="AU35" s="291"/>
+      <c r="W35" s="317"/>
+      <c r="X35" s="317"/>
+      <c r="Y35" s="317"/>
+      <c r="Z35" s="317"/>
+      <c r="AA35" s="317"/>
+      <c r="AB35" s="317"/>
+      <c r="AC35" s="317"/>
+      <c r="AD35" s="317"/>
+      <c r="AE35" s="317"/>
+      <c r="AF35" s="317"/>
+      <c r="AG35" s="317"/>
+      <c r="AH35" s="317"/>
+      <c r="AI35" s="317"/>
+      <c r="AJ35" s="317"/>
+      <c r="AK35" s="317"/>
+      <c r="AL35" s="317"/>
+      <c r="AM35" s="317"/>
+      <c r="AN35" s="317"/>
+      <c r="AO35" s="317"/>
+      <c r="AP35" s="317"/>
+      <c r="AQ35" s="317"/>
+      <c r="AR35" s="317"/>
+      <c r="AS35" s="317"/>
+      <c r="AT35" s="317"/>
+      <c r="AU35" s="318"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="292" t="s">
+      <c r="A36" s="319" t="s">
         <v>341</v>
       </c>
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="320" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="294"/>
-      <c r="D36" s="284" t="s">
+      <c r="C36" s="321"/>
+      <c r="D36" s="329" t="s">
         <v>350</v>
       </c>
-      <c r="E36" s="285"/>
-      <c r="F36" s="284" t="s">
+      <c r="E36" s="330"/>
+      <c r="F36" s="329" t="s">
         <v>344</v>
       </c>
-      <c r="G36" s="285"/>
-      <c r="H36" s="284" t="s">
+      <c r="G36" s="330"/>
+      <c r="H36" s="329" t="s">
         <v>351</v>
       </c>
-      <c r="I36" s="285"/>
-      <c r="J36" s="284" t="s">
+      <c r="I36" s="330"/>
+      <c r="J36" s="329" t="s">
         <v>352</v>
       </c>
-      <c r="K36" s="285"/>
-      <c r="V36" s="297">
+      <c r="K36" s="330"/>
+      <c r="V36" s="324">
         <f>+V26</f>
         <v>2020</v>
       </c>
-      <c r="W36" s="280"/>
-      <c r="X36" s="280">
+      <c r="W36" s="313"/>
+      <c r="X36" s="313">
         <f>+V36+1</f>
         <v>2021</v>
       </c>
-      <c r="Y36" s="280"/>
-      <c r="Z36" s="280">
+      <c r="Y36" s="313"/>
+      <c r="Z36" s="313">
         <f t="shared" ref="Z36" si="46">+X36+1</f>
         <v>2022</v>
       </c>
-      <c r="AA36" s="280"/>
-      <c r="AB36" s="280">
+      <c r="AA36" s="313"/>
+      <c r="AB36" s="313">
         <f t="shared" ref="AB36" si="47">+Z36+1</f>
         <v>2023</v>
       </c>
-      <c r="AC36" s="280"/>
-      <c r="AD36" s="280">
+      <c r="AC36" s="313"/>
+      <c r="AD36" s="313">
         <f t="shared" ref="AD36" si="48">+AB36+1</f>
         <v>2024</v>
       </c>
-      <c r="AE36" s="280"/>
-      <c r="AF36" s="280">
+      <c r="AE36" s="313"/>
+      <c r="AF36" s="313">
         <f t="shared" ref="AF36" si="49">+AD36+1</f>
         <v>2025</v>
       </c>
-      <c r="AG36" s="280"/>
-      <c r="AH36" s="280">
+      <c r="AG36" s="313"/>
+      <c r="AH36" s="313">
         <f t="shared" ref="AH36" si="50">+AF36+1</f>
         <v>2026</v>
       </c>
-      <c r="AI36" s="280"/>
-      <c r="AJ36" s="280">
+      <c r="AI36" s="313"/>
+      <c r="AJ36" s="313">
         <f t="shared" ref="AJ36" si="51">+AH36+1</f>
         <v>2027</v>
       </c>
-      <c r="AK36" s="280"/>
-      <c r="AL36" s="280">
+      <c r="AK36" s="313"/>
+      <c r="AL36" s="313">
         <f t="shared" ref="AL36" si="52">+AJ36+1</f>
         <v>2028</v>
       </c>
-      <c r="AM36" s="280"/>
-      <c r="AN36" s="280">
+      <c r="AM36" s="313"/>
+      <c r="AN36" s="313">
         <f t="shared" ref="AN36" si="53">+AL36+1</f>
         <v>2029</v>
       </c>
-      <c r="AO36" s="280"/>
-      <c r="AP36" s="280">
+      <c r="AO36" s="313"/>
+      <c r="AP36" s="313">
         <f t="shared" ref="AP36" si="54">+AN36+1</f>
         <v>2030</v>
       </c>
-      <c r="AQ36" s="280"/>
-      <c r="AR36" s="280">
+      <c r="AQ36" s="313"/>
+      <c r="AR36" s="313">
         <f t="shared" ref="AR36" si="55">+AP36+1</f>
         <v>2031</v>
       </c>
-      <c r="AS36" s="280"/>
-      <c r="AT36" s="280">
+      <c r="AS36" s="313"/>
+      <c r="AT36" s="313">
         <f t="shared" ref="AT36" si="56">+AR36+1</f>
         <v>2032</v>
       </c>
-      <c r="AU36" s="298"/>
+      <c r="AU36" s="325"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A37" s="292"/>
-      <c r="B37" s="295"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="286"/>
-      <c r="E37" s="287"/>
-      <c r="F37" s="286"/>
-      <c r="G37" s="287"/>
-      <c r="H37" s="286"/>
-      <c r="I37" s="287"/>
-      <c r="J37" s="286"/>
-      <c r="K37" s="287"/>
+      <c r="A37" s="319"/>
+      <c r="B37" s="322"/>
+      <c r="C37" s="323"/>
+      <c r="D37" s="331"/>
+      <c r="E37" s="332"/>
+      <c r="F37" s="331"/>
+      <c r="G37" s="332"/>
+      <c r="H37" s="331"/>
+      <c r="I37" s="332"/>
+      <c r="J37" s="331"/>
+      <c r="K37" s="332"/>
       <c r="V37" s="89" t="s">
         <v>280</v>
       </c>
@@ -15462,11 +15807,11 @@
       </c>
     </row>
     <row r="38" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="292"/>
-      <c r="B38" s="268" t="s">
+      <c r="A38" s="319"/>
+      <c r="B38" s="270" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="281"/>
+      <c r="C38" s="312"/>
       <c r="D38" s="105">
         <f>+E27/$E$27</f>
         <v>1</v>
@@ -15552,11 +15897,11 @@
       <c r="AU38" s="92"/>
     </row>
     <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="292"/>
-      <c r="B39" s="268" t="s">
+      <c r="A39" s="319"/>
+      <c r="B39" s="270" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="281"/>
+      <c r="C39" s="312"/>
       <c r="D39" s="105">
         <f>+F28/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15654,11 +15999,11 @@
       </c>
     </row>
     <row r="40" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="292"/>
-      <c r="B40" s="268" t="s">
+      <c r="A40" s="319"/>
+      <c r="B40" s="270" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="281"/>
+      <c r="C40" s="312"/>
       <c r="D40" s="105">
         <f>+G29/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15753,11 +16098,11 @@
       <c r="AU40" s="92"/>
     </row>
     <row r="41" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="292"/>
-      <c r="B41" s="268" t="s">
+      <c r="A41" s="319"/>
+      <c r="B41" s="270" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="281"/>
+      <c r="C41" s="312"/>
       <c r="D41" s="105">
         <f>+H30/$E$27</f>
         <v>0.83333333333333337</v>
@@ -15849,11 +16194,11 @@
       </c>
     </row>
     <row r="42" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="292"/>
-      <c r="B42" s="268" t="s">
+      <c r="A42" s="319"/>
+      <c r="B42" s="270" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="281"/>
+      <c r="C42" s="312"/>
       <c r="D42" s="105">
         <f>+I31/$E$27</f>
         <v>0.75</v>
@@ -15942,11 +16287,11 @@
       <c r="AU42" s="92"/>
     </row>
     <row r="43" spans="1:47" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="292"/>
-      <c r="B43" s="268" t="s">
+      <c r="A43" s="319"/>
+      <c r="B43" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="C43" s="281"/>
+      <c r="C43" s="312"/>
       <c r="D43" s="111">
         <f>+J32/$E$27</f>
         <v>0.75</v>
@@ -16036,6 +16381,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="V35:AU35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AK26"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V25:AU25"/>
+    <mergeCell ref="AN36:AO36"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL36:AM36"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="V13:AU13"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:AS2"/>
     <mergeCell ref="A3:B4"/>
@@ -16052,86 +16477,6 @@
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="V13:AU13"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AK26"/>
-    <mergeCell ref="AL26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="V35:AU35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AP36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="V25:AU25"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="AJ36:AK36"/>
-    <mergeCell ref="AL36:AM36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16143,8 +16488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433E9C3-B3BD-4E05-8AE5-BDB438795BDA}">
   <dimension ref="B5:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16163,96 +16508,96 @@
       <c r="B6" s="203" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="343">
+      <c r="C6" s="213">
         <f>+'Pobl. Ingresante Total'!O29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="327" t="s">
+      <c r="B10" s="337" t="s">
         <v>400</v>
       </c>
-      <c r="C10" s="334" t="s">
+      <c r="C10" s="338" t="s">
         <v>401</v>
       </c>
-      <c r="D10" s="335"/>
-      <c r="E10" s="336" t="s">
+      <c r="D10" s="339"/>
+      <c r="E10" s="210" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="336" t="s">
+      <c r="F10" s="210" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="336" t="s">
+      <c r="G10" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="H10" s="336" t="s">
+      <c r="H10" s="210" t="s">
         <v>248</v>
       </c>
-      <c r="I10" s="336" t="s">
+      <c r="I10" s="210" t="s">
         <v>249</v>
       </c>
-      <c r="J10" s="336" t="s">
+      <c r="J10" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="336" t="s">
+      <c r="K10" s="210" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="336" t="s">
+      <c r="L10" s="210" t="s">
         <v>252</v>
       </c>
-      <c r="M10" s="336" t="s">
+      <c r="M10" s="210" t="s">
         <v>253</v>
       </c>
-      <c r="N10" s="336" t="s">
+      <c r="N10" s="210" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="327"/>
-      <c r="C11" s="336">
+      <c r="B11" s="337"/>
+      <c r="C11" s="210">
         <v>2020</v>
       </c>
-      <c r="D11" s="336">
+      <c r="D11" s="210">
         <f>C11+1</f>
         <v>2021</v>
       </c>
-      <c r="E11" s="336">
+      <c r="E11" s="210">
         <f t="shared" ref="E11:N11" si="0">D11+1</f>
         <v>2022</v>
       </c>
-      <c r="F11" s="336">
+      <c r="F11" s="210">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="G11" s="336">
+      <c r="G11" s="210">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="H11" s="336">
+      <c r="H11" s="210">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="I11" s="336">
+      <c r="I11" s="210">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="J11" s="336">
+      <c r="J11" s="210">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="K11" s="336">
+      <c r="K11" s="210">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="L11" s="336">
+      <c r="L11" s="210">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="M11" s="336">
+      <c r="M11" s="210">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="N11" s="336">
+      <c r="N11" s="210">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
@@ -16314,7 +16659,7 @@
       <c r="B15" s="194" t="s">
         <v>407</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="245" t="s">
         <v>408</v>
       </c>
     </row>
@@ -16322,7 +16667,7 @@
       <c r="B16" s="206" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="230"/>
+      <c r="C16" s="245"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="205" t="s">
@@ -16370,30 +16715,30 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="327" t="s">
+      <c r="B24" s="337" t="s">
         <v>404</v>
       </c>
-      <c r="C24" s="327"/>
-      <c r="D24" s="327"/>
-      <c r="E24" s="327"/>
-      <c r="F24" s="327"/>
-      <c r="G24" s="327"/>
-      <c r="H24" s="327"/>
-      <c r="I24" s="327"/>
-      <c r="J24" s="327"/>
-      <c r="K24" s="327"/>
-      <c r="L24" s="327"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="327"/>
+      <c r="C24" s="337"/>
+      <c r="D24" s="337"/>
+      <c r="E24" s="337"/>
+      <c r="F24" s="337"/>
+      <c r="G24" s="337"/>
+      <c r="H24" s="337"/>
+      <c r="I24" s="337"/>
+      <c r="J24" s="337"/>
+      <c r="K24" s="337"/>
+      <c r="L24" s="337"/>
+      <c r="M24" s="337"/>
+      <c r="N24" s="337"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="324" t="s">
+      <c r="B25" s="344" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="326" t="s">
+      <c r="C25" s="346" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="326"/>
+      <c r="D25" s="346"/>
       <c r="E25" s="178" t="s">
         <v>245</v>
       </c>
@@ -16426,7 +16771,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="325"/>
+      <c r="B26" s="345"/>
       <c r="C26" s="178">
         <v>2020</v>
       </c>
@@ -16475,126 +16820,126 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="194" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
       <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
+      <c r="G27" s="350"/>
       <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
+      <c r="I27" s="350"/>
       <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
+      <c r="K27" s="350"/>
       <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
+      <c r="M27" s="350"/>
       <c r="N27" s="193"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="205" t="s">
+      <c r="B28" s="353" t="s">
         <v>280</v>
       </c>
-      <c r="C28" s="49">
-        <f>+C12</f>
+      <c r="C28" s="351">
+        <f t="shared" ref="C28:N28" si="2">+C12</f>
         <v>7.5</v>
       </c>
-      <c r="D28" s="49">
-        <f>+D12</f>
+      <c r="D28" s="366">
+        <f t="shared" si="2"/>
         <v>9.9529825222887336</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="362">
         <f>+E12</f>
         <v>10.269196329791024</v>
       </c>
-      <c r="F28" s="49">
-        <f>+F12</f>
+      <c r="F28" s="367">
+        <f t="shared" si="2"/>
         <v>10.59545648991487</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="372">
         <f>+G12</f>
         <v>10.932082182906681</v>
       </c>
-      <c r="H28" s="49">
-        <f>+H12</f>
+      <c r="H28" s="367">
+        <f t="shared" si="2"/>
         <v>11.279402729611505</v>
       </c>
-      <c r="I28" s="49">
-        <f>+I12</f>
+      <c r="I28" s="375">
+        <f t="shared" si="2"/>
         <v>11.637757913647535</v>
       </c>
-      <c r="J28" s="49">
-        <f>+J12</f>
+      <c r="J28" s="367">
+        <f t="shared" si="2"/>
         <v>12.007498313816363</v>
       </c>
-      <c r="K28" s="49">
-        <f>+K12</f>
+      <c r="K28" s="378">
+        <f t="shared" si="2"/>
         <v>12.388985647074142</v>
       </c>
-      <c r="L28" s="49">
-        <f>+L12</f>
+      <c r="L28" s="367">
+        <f t="shared" si="2"/>
         <v>12.782593122399204</v>
       </c>
-      <c r="M28" s="49">
-        <f>+M12</f>
+      <c r="M28" s="381">
+        <f t="shared" si="2"/>
         <v>13.188705805902336</v>
       </c>
-      <c r="N28" s="49">
-        <f>+N12</f>
+      <c r="N28" s="348">
+        <f t="shared" si="2"/>
         <v>13.607720997536866</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="205" t="s">
+    <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="353" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="49">
-        <f>C28</f>
-        <v>7.5</v>
-      </c>
-      <c r="D29" s="49">
-        <f t="shared" ref="D29:N29" si="2">D28*$C$17</f>
+      <c r="C29" s="352">
+        <f>C28*$C$17</f>
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="361">
+        <f>D28*$C$17</f>
         <v>7.2988538496784043</v>
       </c>
-      <c r="E29" s="49">
-        <f t="shared" si="2"/>
+      <c r="E29" s="360">
+        <f>E28*$C$17</f>
         <v>7.5307439751800835</v>
       </c>
-      <c r="F29" s="49">
-        <f t="shared" si="2"/>
+      <c r="F29" s="368">
+        <f t="shared" ref="D29:N29" si="3">F28*$C$17</f>
         <v>7.7700014259375711</v>
       </c>
-      <c r="G29" s="49">
-        <f t="shared" si="2"/>
+      <c r="G29" s="373">
+        <f>G28*$C$17</f>
         <v>8.0168602674648994</v>
       </c>
-      <c r="H29" s="49">
-        <f t="shared" si="2"/>
+      <c r="H29" s="368">
+        <f t="shared" si="3"/>
         <v>8.2715620017151021</v>
       </c>
-      <c r="I29" s="49">
-        <f t="shared" si="2"/>
+      <c r="I29" s="376">
+        <f t="shared" si="3"/>
         <v>8.5343558033415245</v>
       </c>
-      <c r="J29" s="49">
-        <f t="shared" si="2"/>
+      <c r="J29" s="368">
+        <f t="shared" si="3"/>
         <v>8.8054987634653319</v>
       </c>
-      <c r="K29" s="49">
-        <f t="shared" si="2"/>
+      <c r="K29" s="379">
+        <f t="shared" si="3"/>
         <v>9.0852561411877026</v>
       </c>
-      <c r="L29" s="49">
-        <f t="shared" si="2"/>
+      <c r="L29" s="368">
+        <f t="shared" si="3"/>
         <v>9.373901623092749</v>
       </c>
-      <c r="M29" s="49">
-        <f t="shared" si="2"/>
+      <c r="M29" s="382">
+        <f t="shared" si="3"/>
         <v>9.6717175909950459</v>
       </c>
-      <c r="N29" s="49">
-        <f t="shared" si="2"/>
+      <c r="N29" s="358">
+        <f t="shared" si="3"/>
         <v>9.9789953981937014</v>
       </c>
     </row>
@@ -16602,86 +16947,248 @@
       <c r="B30" s="205" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="193"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="193"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="354"/>
+      <c r="D30" s="357">
+        <f>C28*$C$18</f>
+        <v>4</v>
+      </c>
+      <c r="E30" s="363">
+        <f>D28*$C$18</f>
+        <v>5.3082573452206576</v>
+      </c>
+      <c r="F30" s="359">
+        <f>E28*$C$18</f>
+        <v>5.4769047092218797</v>
+      </c>
+      <c r="G30" s="370">
+        <f>F28*$C$18</f>
+        <v>5.6509101279545977</v>
+      </c>
+      <c r="H30" s="374">
+        <f>G28*$C$18</f>
+        <v>5.8304438308835635</v>
+      </c>
+      <c r="I30" s="370">
+        <f>H28*$C$18</f>
+        <v>6.0156814557928024</v>
+      </c>
+      <c r="J30" s="377">
+        <f t="shared" ref="H30:N30" si="4">I28*$C$18</f>
+        <v>6.2068042206120184</v>
+      </c>
+      <c r="K30" s="370">
+        <f t="shared" si="4"/>
+        <v>6.4039991007020607</v>
+      </c>
+      <c r="L30" s="380">
+        <f t="shared" si="4"/>
+        <v>6.6074590117728755</v>
+      </c>
+      <c r="M30" s="370">
+        <f t="shared" si="4"/>
+        <v>6.8173829986129091</v>
+      </c>
+      <c r="N30" s="383">
+        <f t="shared" si="4"/>
+        <v>7.0339764298145786</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="193"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="352">
+        <f>C28*$C$19</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="361">
+        <f>D28*$C$19</f>
+        <v>5.3082573452206576</v>
+      </c>
+      <c r="F31" s="360">
+        <f>E28*$C$19</f>
+        <v>5.4769047092218797</v>
+      </c>
+      <c r="G31" s="368">
+        <f>F28*$C$19</f>
+        <v>5.6509101279545977</v>
+      </c>
+      <c r="H31" s="373">
+        <f>G28*$C$19</f>
+        <v>5.8304438308835635</v>
+      </c>
+      <c r="I31" s="368">
+        <f t="shared" ref="E31:N31" si="5">H28*$C$19</f>
+        <v>6.0156814557928024</v>
+      </c>
+      <c r="J31" s="376">
+        <f t="shared" si="5"/>
+        <v>6.2068042206120184</v>
+      </c>
+      <c r="K31" s="368">
+        <f t="shared" si="5"/>
+        <v>6.4039991007020607</v>
+      </c>
+      <c r="L31" s="379">
+        <f t="shared" si="5"/>
+        <v>6.6074590117728755</v>
+      </c>
+      <c r="M31" s="368">
+        <f t="shared" si="5"/>
+        <v>6.8173829986129091</v>
+      </c>
+      <c r="N31" s="382">
+        <f t="shared" si="5"/>
+        <v>7.0339764298145786</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="205" t="s">
         <v>284</v>
       </c>
       <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="193"/>
-      <c r="N32" s="193"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="355"/>
+      <c r="E32" s="357">
+        <f>C28*$C$20</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="364">
+        <f>D28*$C$20</f>
+        <v>2.6541286726103288</v>
+      </c>
+      <c r="G32" s="359">
+        <f>E28*$C$20</f>
+        <v>2.7384523546109398</v>
+      </c>
+      <c r="H32" s="370">
+        <f>F28*$C$20</f>
+        <v>2.8254550639772988</v>
+      </c>
+      <c r="I32" s="374">
+        <f>G28*$C$20</f>
+        <v>2.9152219154417818</v>
+      </c>
+      <c r="J32" s="370">
+        <f t="shared" ref="F32:N32" si="6">H28*$C$20</f>
+        <v>3.0078407278964012</v>
+      </c>
+      <c r="K32" s="377">
+        <f t="shared" si="6"/>
+        <v>3.1034021103060092</v>
+      </c>
+      <c r="L32" s="370">
+        <f t="shared" si="6"/>
+        <v>3.2019995503510303</v>
+      </c>
+      <c r="M32" s="380">
+        <f t="shared" si="6"/>
+        <v>3.3037295058864378</v>
+      </c>
+      <c r="N32" s="369">
+        <f t="shared" si="6"/>
+        <v>3.4086914993064545</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="205" t="s">
         <v>285</v>
       </c>
       <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
-      <c r="M33" s="193"/>
-      <c r="N33" s="193"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="352">
+        <f>C28*$C$21</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="365">
+        <f>D28*$C$21</f>
+        <v>2.6541286726103288</v>
+      </c>
+      <c r="G33" s="360">
+        <f>E28*$C$21</f>
+        <v>2.7384523546109398</v>
+      </c>
+      <c r="H33" s="371">
+        <f>F28*$C$21</f>
+        <v>2.8254550639772988</v>
+      </c>
+      <c r="I33" s="373">
+        <f>G28*$C$21</f>
+        <v>2.9152219154417818</v>
+      </c>
+      <c r="J33" s="371">
+        <f t="shared" ref="F33:N33" si="7">H28*$C$21</f>
+        <v>3.0078407278964012</v>
+      </c>
+      <c r="K33" s="376">
+        <f t="shared" si="7"/>
+        <v>3.1034021103060092</v>
+      </c>
+      <c r="L33" s="371">
+        <f t="shared" si="7"/>
+        <v>3.2019995503510303</v>
+      </c>
+      <c r="M33" s="379">
+        <f t="shared" si="7"/>
+        <v>3.3037295058864378</v>
+      </c>
+      <c r="N33" s="349">
+        <f t="shared" si="7"/>
+        <v>3.4086914993064545</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="196" t="s">
         <v>406</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="194"/>
-      <c r="N34" s="194"/>
+      <c r="C34" s="347">
+        <f>SUM(C28:C33)</f>
+        <v>13</v>
+      </c>
+      <c r="D34" s="347">
+        <f t="shared" ref="D34:N34" si="8">SUM(D28:D33)</f>
+        <v>25.251836371967137</v>
+      </c>
+      <c r="E34" s="356">
+        <f t="shared" si="8"/>
+        <v>32.416454995412423</v>
+      </c>
+      <c r="F34" s="356">
+        <f t="shared" si="8"/>
+        <v>34.62752467951686</v>
+      </c>
+      <c r="G34" s="356">
+        <f t="shared" si="8"/>
+        <v>35.727667415502658</v>
+      </c>
+      <c r="H34" s="347">
+        <f t="shared" si="8"/>
+        <v>36.862762521048339</v>
+      </c>
+      <c r="I34" s="356">
+        <f t="shared" si="8"/>
+        <v>38.03392045945823</v>
+      </c>
+      <c r="J34" s="347">
+        <f t="shared" si="8"/>
+        <v>39.24228697429853</v>
+      </c>
+      <c r="K34" s="356">
+        <f t="shared" si="8"/>
+        <v>40.489044210277974</v>
+      </c>
+      <c r="L34" s="347">
+        <f t="shared" si="8"/>
+        <v>41.77541186973977</v>
+      </c>
+      <c r="M34" s="356">
+        <f t="shared" si="8"/>
+        <v>43.102648405896076</v>
+      </c>
+      <c r="N34" s="347">
+        <f t="shared" si="8"/>
+        <v>44.472052253972642</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="202" t="s">
@@ -16692,102 +17199,102 @@
       <c r="B37" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="C37" s="342">
+      <c r="C37" s="212">
         <f>+'Pobl. Ingresante Total'!O31</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="329" t="s">
+      <c r="B39" s="340" t="s">
         <v>400</v>
       </c>
-      <c r="C39" s="331" t="s">
+      <c r="C39" s="342" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="332"/>
-      <c r="E39" s="333" t="s">
+      <c r="D39" s="343"/>
+      <c r="E39" s="209" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="333" t="s">
+      <c r="F39" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="333" t="s">
+      <c r="G39" s="209" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="333" t="s">
+      <c r="H39" s="209" t="s">
         <v>248</v>
       </c>
-      <c r="I39" s="333" t="s">
+      <c r="I39" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="J39" s="333" t="s">
+      <c r="J39" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="K39" s="333" t="s">
+      <c r="K39" s="209" t="s">
         <v>251</v>
       </c>
-      <c r="L39" s="333" t="s">
+      <c r="L39" s="209" t="s">
         <v>252</v>
       </c>
-      <c r="M39" s="333" t="s">
+      <c r="M39" s="209" t="s">
         <v>253</v>
       </c>
-      <c r="N39" s="333" t="s">
+      <c r="N39" s="209" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="330"/>
-      <c r="C40" s="333">
+      <c r="B40" s="341"/>
+      <c r="C40" s="209">
         <v>2020</v>
       </c>
-      <c r="D40" s="333">
+      <c r="D40" s="209">
         <f>C40+1</f>
         <v>2021</v>
       </c>
-      <c r="E40" s="333">
-        <f t="shared" ref="E40" si="3">D40+1</f>
+      <c r="E40" s="209">
+        <f t="shared" ref="E40" si="9">D40+1</f>
         <v>2022</v>
       </c>
-      <c r="F40" s="333">
-        <f t="shared" ref="F40" si="4">E40+1</f>
+      <c r="F40" s="209">
+        <f t="shared" ref="F40" si="10">E40+1</f>
         <v>2023</v>
       </c>
-      <c r="G40" s="333">
-        <f t="shared" ref="G40" si="5">F40+1</f>
+      <c r="G40" s="209">
+        <f t="shared" ref="G40" si="11">F40+1</f>
         <v>2024</v>
       </c>
-      <c r="H40" s="333">
-        <f t="shared" ref="H40" si="6">G40+1</f>
+      <c r="H40" s="209">
+        <f t="shared" ref="H40" si="12">G40+1</f>
         <v>2025</v>
       </c>
-      <c r="I40" s="333">
-        <f t="shared" ref="I40" si="7">H40+1</f>
+      <c r="I40" s="209">
+        <f t="shared" ref="I40" si="13">H40+1</f>
         <v>2026</v>
       </c>
-      <c r="J40" s="333">
-        <f t="shared" ref="J40" si="8">I40+1</f>
+      <c r="J40" s="209">
+        <f t="shared" ref="J40" si="14">I40+1</f>
         <v>2027</v>
       </c>
-      <c r="K40" s="333">
-        <f t="shared" ref="K40" si="9">J40+1</f>
+      <c r="K40" s="209">
+        <f t="shared" ref="K40" si="15">J40+1</f>
         <v>2028</v>
       </c>
-      <c r="L40" s="333">
-        <f t="shared" ref="L40" si="10">K40+1</f>
+      <c r="L40" s="209">
+        <f t="shared" ref="L40" si="16">K40+1</f>
         <v>2029</v>
       </c>
-      <c r="M40" s="333">
-        <f t="shared" ref="M40" si="11">L40+1</f>
+      <c r="M40" s="209">
+        <f t="shared" ref="M40" si="17">L40+1</f>
         <v>2030</v>
       </c>
-      <c r="N40" s="333">
-        <f t="shared" ref="N40" si="12">M40+1</f>
+      <c r="N40" s="209">
+        <f t="shared" ref="N40" si="18">M40+1</f>
         <v>2031</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="328" t="s">
+      <c r="B41" s="208" t="s">
         <v>403</v>
       </c>
       <c r="C41" s="49">
@@ -16843,7 +17350,7 @@
       <c r="B43" s="199" t="s">
         <v>407</v>
       </c>
-      <c r="C43" s="230" t="s">
+      <c r="C43" s="245" t="s">
         <v>408</v>
       </c>
     </row>
@@ -16851,7 +17358,7 @@
       <c r="B44" s="206" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="230"/>
+      <c r="C44" s="245"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="205" t="s">
@@ -16899,116 +17406,116 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="341" t="s">
+      <c r="B51" s="336" t="s">
         <v>409</v>
       </c>
-      <c r="C51" s="341"/>
-      <c r="D51" s="341"/>
-      <c r="E51" s="341"/>
-      <c r="F51" s="341"/>
-      <c r="G51" s="341"/>
-      <c r="H51" s="341"/>
-      <c r="I51" s="341"/>
-      <c r="J51" s="341"/>
-      <c r="K51" s="341"/>
-      <c r="L51" s="341"/>
-      <c r="M51" s="341"/>
-      <c r="N51" s="341"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="337" t="s">
+      <c r="B52" s="333" t="s">
         <v>400</v>
       </c>
-      <c r="C52" s="338" t="s">
+      <c r="C52" s="335" t="s">
         <v>401</v>
       </c>
-      <c r="D52" s="338"/>
-      <c r="E52" s="339" t="s">
+      <c r="D52" s="335"/>
+      <c r="E52" s="211" t="s">
         <v>245</v>
       </c>
-      <c r="F52" s="339" t="s">
+      <c r="F52" s="211" t="s">
         <v>246</v>
       </c>
-      <c r="G52" s="339" t="s">
+      <c r="G52" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="H52" s="339" t="s">
+      <c r="H52" s="211" t="s">
         <v>248</v>
       </c>
-      <c r="I52" s="339" t="s">
+      <c r="I52" s="211" t="s">
         <v>249</v>
       </c>
-      <c r="J52" s="339" t="s">
+      <c r="J52" s="211" t="s">
         <v>250</v>
       </c>
-      <c r="K52" s="339" t="s">
+      <c r="K52" s="211" t="s">
         <v>251</v>
       </c>
-      <c r="L52" s="339" t="s">
+      <c r="L52" s="211" t="s">
         <v>252</v>
       </c>
-      <c r="M52" s="339" t="s">
+      <c r="M52" s="211" t="s">
         <v>253</v>
       </c>
-      <c r="N52" s="339" t="s">
+      <c r="N52" s="211" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="340"/>
-      <c r="C53" s="339">
+      <c r="B53" s="334"/>
+      <c r="C53" s="211">
         <v>2020</v>
       </c>
-      <c r="D53" s="339">
-        <f t="shared" ref="D53" si="13">C53+1</f>
+      <c r="D53" s="211">
+        <f t="shared" ref="D53" si="19">C53+1</f>
         <v>2021</v>
       </c>
-      <c r="E53" s="339">
-        <f t="shared" ref="E53" si="14">D53+1</f>
+      <c r="E53" s="211">
+        <f t="shared" ref="E53" si="20">D53+1</f>
         <v>2022</v>
       </c>
-      <c r="F53" s="339">
-        <f t="shared" ref="F53" si="15">E53+1</f>
+      <c r="F53" s="211">
+        <f t="shared" ref="F53" si="21">E53+1</f>
         <v>2023</v>
       </c>
-      <c r="G53" s="339">
-        <f t="shared" ref="G53" si="16">F53+1</f>
+      <c r="G53" s="211">
+        <f t="shared" ref="G53" si="22">F53+1</f>
         <v>2024</v>
       </c>
-      <c r="H53" s="339">
-        <f t="shared" ref="H53" si="17">G53+1</f>
+      <c r="H53" s="211">
+        <f t="shared" ref="H53" si="23">G53+1</f>
         <v>2025</v>
       </c>
-      <c r="I53" s="339">
-        <f t="shared" ref="I53" si="18">H53+1</f>
+      <c r="I53" s="211">
+        <f t="shared" ref="I53" si="24">H53+1</f>
         <v>2026</v>
       </c>
-      <c r="J53" s="339">
-        <f t="shared" ref="J53" si="19">I53+1</f>
+      <c r="J53" s="211">
+        <f t="shared" ref="J53" si="25">I53+1</f>
         <v>2027</v>
       </c>
-      <c r="K53" s="339">
-        <f t="shared" ref="K53" si="20">J53+1</f>
+      <c r="K53" s="211">
+        <f t="shared" ref="K53" si="26">J53+1</f>
         <v>2028</v>
       </c>
-      <c r="L53" s="339">
-        <f t="shared" ref="L53" si="21">K53+1</f>
+      <c r="L53" s="211">
+        <f t="shared" ref="L53" si="27">K53+1</f>
         <v>2029</v>
       </c>
-      <c r="M53" s="339">
-        <f t="shared" ref="M53" si="22">L53+1</f>
+      <c r="M53" s="211">
+        <f t="shared" ref="M53" si="28">L53+1</f>
         <v>2030</v>
       </c>
-      <c r="N53" s="339">
-        <f t="shared" ref="N53" si="23">M53+1</f>
+      <c r="N53" s="211">
+        <f t="shared" ref="N53" si="29">M53+1</f>
         <v>2031</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="199" t="s">
         <v>405</v>
       </c>
-      <c r="C54" s="200"/>
+      <c r="C54" s="350"/>
       <c r="D54" s="200"/>
       <c r="E54" s="200"/>
       <c r="F54" s="200"/>
@@ -17022,108 +17529,108 @@
       <c r="N54" s="200"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="205" t="s">
+      <c r="B55" s="353" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="381">
         <f>+C41</f>
         <v>12.444444444444445</v>
       </c>
-      <c r="D55" s="49">
-        <f t="shared" ref="D55:N55" si="24">+D41</f>
+      <c r="D55" s="348">
+        <f t="shared" ref="D55:N55" si="30">+D41</f>
         <v>23.539658794385399</v>
       </c>
-      <c r="E55" s="49">
-        <f t="shared" si="24"/>
+      <c r="E55" s="347">
+        <f t="shared" si="30"/>
         <v>24.287531617231039</v>
       </c>
-      <c r="F55" s="49">
-        <f t="shared" si="24"/>
+      <c r="F55" s="347">
+        <f t="shared" si="30"/>
         <v>25.0591649271779</v>
       </c>
-      <c r="G55" s="49">
-        <f t="shared" si="24"/>
+      <c r="G55" s="347">
+        <f t="shared" si="30"/>
         <v>25.855313612931702</v>
       </c>
-      <c r="H55" s="49">
-        <f t="shared" si="24"/>
+      <c r="H55" s="347">
+        <f t="shared" si="30"/>
         <v>26.676756546585207</v>
       </c>
-      <c r="I55" s="49">
-        <f t="shared" si="24"/>
+      <c r="I55" s="347">
+        <f t="shared" si="30"/>
         <v>27.524297345588597</v>
       </c>
-      <c r="J55" s="49">
-        <f t="shared" si="24"/>
+      <c r="J55" s="347">
+        <f t="shared" si="30"/>
         <v>28.398765158928267</v>
       </c>
-      <c r="K55" s="49">
-        <f t="shared" si="24"/>
+      <c r="K55" s="347">
+        <f t="shared" si="30"/>
         <v>29.301015478283098</v>
       </c>
-      <c r="L55" s="49">
-        <f t="shared" si="24"/>
+      <c r="L55" s="347">
+        <f t="shared" si="30"/>
         <v>30.231930974951808</v>
       </c>
-      <c r="M55" s="49">
-        <f t="shared" si="24"/>
+      <c r="M55" s="347">
+        <f t="shared" si="30"/>
         <v>31.192422363370085</v>
       </c>
-      <c r="N55" s="49">
-        <f t="shared" si="24"/>
+      <c r="N55" s="347">
+        <f t="shared" si="30"/>
         <v>32.183429292062321</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="205" t="s">
+    <row r="56" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="353" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="382">
         <f>C55*$C$45</f>
         <v>11.148148148148149</v>
       </c>
-      <c r="D56" s="49">
-        <f t="shared" ref="D56:N56" si="25">D55*$C$45</f>
+      <c r="D56" s="358">
+        <f t="shared" ref="D56:N56" si="31">D55*$C$45</f>
         <v>21.087611003303589</v>
       </c>
       <c r="E56" s="49">
-        <f t="shared" si="25"/>
+        <f>E55*$C$45</f>
         <v>21.757580407102807</v>
       </c>
       <c r="F56" s="49">
-        <f t="shared" si="25"/>
+        <f>F55*$C$45</f>
         <v>22.448835247263535</v>
       </c>
       <c r="G56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>23.162051778251318</v>
       </c>
       <c r="H56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>23.897927739649248</v>
       </c>
       <c r="I56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>24.657183038756454</v>
       </c>
       <c r="J56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>25.440560454873239</v>
       </c>
       <c r="K56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>26.248826365961943</v>
       </c>
       <c r="L56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>27.08277149839433</v>
       </c>
       <c r="M56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>27.943211700519036</v>
       </c>
       <c r="N56" s="49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>28.830988740805832</v>
       </c>
     </row>
@@ -17131,86 +17638,248 @@
       <c r="B57" s="205" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="200"/>
-      <c r="M57" s="200"/>
-      <c r="N57" s="200"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="355"/>
+      <c r="D57" s="383">
+        <f>C46*'matriculados Ind. Aprob.'!M27</f>
+        <v>13.410256410256409</v>
+      </c>
+      <c r="E57" s="349">
+        <f>D55*$C$46</f>
+        <v>19.729553765165967</v>
+      </c>
+      <c r="F57" s="349">
+        <f>E55*$C$46</f>
+        <v>20.356376659954858</v>
+      </c>
+      <c r="G57" s="349">
+        <f t="shared" ref="F57:N57" si="32">F55*$C$46</f>
+        <v>21.0031141937725</v>
+      </c>
+      <c r="H57" s="349">
+        <f t="shared" si="32"/>
+        <v>21.670399069812948</v>
+      </c>
+      <c r="I57" s="349">
+        <f t="shared" si="32"/>
+        <v>22.358884092730868</v>
+      </c>
+      <c r="J57" s="349">
+        <f t="shared" si="32"/>
+        <v>23.069242807280183</v>
+      </c>
+      <c r="K57" s="349">
+        <f t="shared" si="32"/>
+        <v>23.80217015724276</v>
+      </c>
+      <c r="L57" s="349">
+        <f t="shared" si="32"/>
+        <v>24.558383165291762</v>
+      </c>
+      <c r="M57" s="349">
+        <f t="shared" si="32"/>
+        <v>25.3386216344548</v>
+      </c>
+      <c r="N57" s="349">
+        <f t="shared" si="32"/>
+        <v>26.143648871863064</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="C58" s="200"/>
-      <c r="D58" s="200"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="200"/>
-      <c r="J58" s="200"/>
-      <c r="K58" s="200"/>
-      <c r="L58" s="200"/>
-      <c r="M58" s="200"/>
-      <c r="N58" s="200"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="382">
+        <f>C47*'matriculados Ind. Aprob.'!M27</f>
+        <v>11.747008547008548</v>
+      </c>
+      <c r="E58" s="358">
+        <f>D55*$C$47</f>
+        <v>17.28253581570689</v>
+      </c>
+      <c r="F58" s="358">
+        <f>D55*$C$47</f>
+        <v>17.28253581570689</v>
+      </c>
+      <c r="G58" s="358">
+        <f>E55*$C$47</f>
+        <v>17.831615093334584</v>
+      </c>
+      <c r="H58" s="358">
+        <f t="shared" ref="G58:N58" si="33">F55*$C$47</f>
+        <v>18.398139036278476</v>
+      </c>
+      <c r="I58" s="358">
+        <f t="shared" si="33"/>
+        <v>18.982661874793447</v>
+      </c>
+      <c r="J58" s="358">
+        <f t="shared" si="33"/>
+        <v>19.585755447450165</v>
+      </c>
+      <c r="K58" s="358">
+        <f t="shared" si="33"/>
+        <v>20.208009760564622</v>
+      </c>
+      <c r="L58" s="358">
+        <f t="shared" si="33"/>
+        <v>20.850033565401183</v>
+      </c>
+      <c r="M58" s="358">
+        <f t="shared" si="33"/>
+        <v>21.512454953713831</v>
+      </c>
+      <c r="N58" s="358">
+        <f t="shared" si="33"/>
+        <v>22.195921972208211</v>
+      </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="205" t="s">
         <v>284</v>
       </c>
       <c r="C59" s="200"/>
-      <c r="D59" s="200"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="200"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="200"/>
-      <c r="L59" s="200"/>
-      <c r="M59" s="200"/>
-      <c r="N59" s="200"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D59" s="4"/>
+      <c r="E59" s="383">
+        <f>C48*'matriculados Ind. Aprob.'!M27</f>
+        <v>12.082051282051282</v>
+      </c>
+      <c r="F59" s="349">
+        <f>D55*$C$48</f>
+        <v>17.775460294734614</v>
+      </c>
+      <c r="G59" s="349">
+        <f t="shared" ref="G59:N59" si="34">E55*$C$48</f>
+        <v>18.340200157114207</v>
+      </c>
+      <c r="H59" s="349">
+        <f t="shared" si="34"/>
+        <v>18.922882233471515</v>
+      </c>
+      <c r="I59" s="349">
+        <f t="shared" si="34"/>
+        <v>19.524076561559966</v>
+      </c>
+      <c r="J59" s="349">
+        <f t="shared" si="34"/>
+        <v>20.144371289664981</v>
+      </c>
+      <c r="K59" s="349">
+        <f t="shared" si="34"/>
+        <v>20.784373251989336</v>
+      </c>
+      <c r="L59" s="349">
+        <f t="shared" si="34"/>
+        <v>21.444708562318908</v>
+      </c>
+      <c r="M59" s="349">
+        <f t="shared" si="34"/>
+        <v>22.126023226549673</v>
+      </c>
+      <c r="N59" s="349">
+        <f t="shared" si="34"/>
+        <v>22.828983774675148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="205" t="s">
         <v>285</v>
       </c>
       <c r="C60" s="200"/>
-      <c r="D60" s="200"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="200"/>
-      <c r="L60" s="200"/>
-      <c r="M60" s="200"/>
-      <c r="N60" s="200"/>
+      <c r="D60" s="384"/>
+      <c r="E60" s="382">
+        <f>C49*'matriculados Ind. Aprob.'!M27</f>
+        <v>7.4871794871794863</v>
+      </c>
+      <c r="F60" s="349">
+        <f>D55*$C$49</f>
+        <v>11.015353153782909</v>
+      </c>
+      <c r="G60" s="349">
+        <f t="shared" ref="G60:N60" si="35">E55*$C$49</f>
+        <v>11.365319282422215</v>
+      </c>
+      <c r="H60" s="349">
+        <f t="shared" si="35"/>
+        <v>11.726404100538375</v>
+      </c>
+      <c r="I60" s="349">
+        <f t="shared" si="35"/>
+        <v>12.098960857333424</v>
+      </c>
+      <c r="J60" s="349">
+        <f t="shared" si="35"/>
+        <v>12.483354025004614</v>
+      </c>
+      <c r="K60" s="349">
+        <f t="shared" si="35"/>
+        <v>12.879959655307482</v>
+      </c>
+      <c r="L60" s="349">
+        <f t="shared" si="35"/>
+        <v>13.2891657474472</v>
+      </c>
+      <c r="M60" s="349">
+        <f t="shared" si="35"/>
+        <v>13.711372627658115</v>
+      </c>
+      <c r="N60" s="349">
+        <f t="shared" si="35"/>
+        <v>14.146993340842831</v>
+      </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="201" t="s">
         <v>406</v>
       </c>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
-      <c r="H61" s="199"/>
-      <c r="I61" s="199"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="199"/>
-      <c r="M61" s="199"/>
-      <c r="N61" s="199"/>
+      <c r="C61" s="347">
+        <f>SUM(C55:C60)</f>
+        <v>23.592592592592595</v>
+      </c>
+      <c r="D61" s="347">
+        <f t="shared" ref="D61:N61" si="36">SUM(D55:D60)</f>
+        <v>69.784534754953938</v>
+      </c>
+      <c r="E61" s="347">
+        <f t="shared" si="36"/>
+        <v>102.62643237443747</v>
+      </c>
+      <c r="F61" s="347">
+        <f t="shared" si="36"/>
+        <v>113.93772609862071</v>
+      </c>
+      <c r="G61" s="347">
+        <f t="shared" si="36"/>
+        <v>117.55761411782655</v>
+      </c>
+      <c r="H61" s="347">
+        <f t="shared" si="36"/>
+        <v>121.29250872633577</v>
+      </c>
+      <c r="I61" s="347">
+        <f t="shared" si="36"/>
+        <v>125.14606377076275</v>
+      </c>
+      <c r="J61" s="347">
+        <f t="shared" si="36"/>
+        <v>129.12204918320145</v>
+      </c>
+      <c r="K61" s="347">
+        <f t="shared" si="36"/>
+        <v>133.22435466934922</v>
+      </c>
+      <c r="L61" s="347">
+        <f t="shared" si="36"/>
+        <v>137.45699351380517</v>
+      </c>
+      <c r="M61" s="347">
+        <f t="shared" si="36"/>
+        <v>141.82410650626554</v>
+      </c>
+      <c r="N61" s="347">
+        <f t="shared" si="36"/>
+        <v>146.3299659924574</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
